--- a/Game-data/WBBGame stats.xlsx
+++ b/Game-data/WBBGame stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40364D-6045-514B-AD21-921E87C20AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F316AA-2DDA-3B45-AAE3-5A72EC5A0B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Games" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Week 2 Total" sheetId="6" r:id="rId4"/>
     <sheet name="Week 3 Games" sheetId="7" r:id="rId5"/>
     <sheet name="Week 3 Total" sheetId="8" r:id="rId6"/>
+    <sheet name="Week 4 Games" sheetId="9" r:id="rId7"/>
+    <sheet name="Week 4 Total" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="68">
   <si>
     <t>MP</t>
   </si>
@@ -238,6 +240,12 @@
   <si>
     <t>Raw MP</t>
   </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>#13 Paisley Harding</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -297,6 +305,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3573,8 +3583,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8329,7 +8339,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10426,7 +10436,7 @@
   <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13775,7 +13785,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15862,4 +15872,3031 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9FFFA-2BF2-2245-BC09-DC4F32EA6E84}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AL8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <f>D2*24</f>
+        <v>38</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="E2">
+        <v>1.36</v>
+      </c>
+      <c r="F2">
+        <v>0.37</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>9</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>8</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>2</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C8" si="0">D3*24</f>
+        <v>14</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E3">
+        <v>0.08</v>
+      </c>
+      <c r="F3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.375</v>
+      </c>
+      <c r="E4">
+        <v>0.52</v>
+      </c>
+      <c r="F4">
+        <v>0.36</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>0.63</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>2.25</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>8</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>1.48</v>
+      </c>
+      <c r="F6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6">
+        <v>14</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X6">
+        <v>13</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E7">
+        <v>0.73</v>
+      </c>
+      <c r="F7">
+        <v>0.32</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>1.38</v>
+      </c>
+      <c r="F8">
+        <v>0.42</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABC833F-EB5F-0E47-B0FE-9180198E1BC7}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>IF(ISERROR(H2/I2),"N/A",H2/I2)</f>
+        <v>N/A</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!C:C)</f>
+        <v>38</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!G:G)</f>
+        <v>22</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!I:I)</f>
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!J:J)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J17" si="1">IF(ISERROR(H3/I3),"N/A",H3/I3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!O:O)</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!Q:Q)</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!S:S)</f>
+        <v>15</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!T:T)</f>
+        <v>9</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!U:U)</f>
+        <v>6</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U17" si="2">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!X:X)</f>
+        <v>10</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!Y:Y)</f>
+        <v>8</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!Z:Z)</f>
+        <v>2</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z17" si="3">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AB:AB)</f>
+        <v>5</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AC:AC)</f>
+        <v>1</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AD:AD)</f>
+        <v>4</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AF:AF)</f>
+        <v>4</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AG:AG)</f>
+        <v>3</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AH:AH)</f>
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH17" si="4">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AK:AK)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!C:C)</f>
+        <v>14</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!O:O)</f>
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!Q:Q)</f>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!S:S)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!U:U)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!X:X)</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!Z:Z)</f>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!C:C)</f>
+        <v>33</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!I:I)</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!J:J)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!O:O)</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!Q:Q)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!S:S)</f>
+        <v>5</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!T:T)</f>
+        <v>2</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!U:U)</f>
+        <v>3</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!X:X)</f>
+        <v>3</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!Y:Y)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!Z:Z)</f>
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AB:AB)</f>
+        <v>2</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AC:AC)</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AD:AD)</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AK:AK)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!C:C)</f>
+        <v>38</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!G:G)</f>
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!I:I)</f>
+        <v>8</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!J:J)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!N:N)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!O:O)</f>
+        <v>6</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!Q:Q)</f>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!S:S)</f>
+        <v>10</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!T:T)</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!U:U)</f>
+        <v>7</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!X:X)</f>
+        <v>2</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!Z:Z)</f>
+        <v>2</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AB:AB)</f>
+        <v>8</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AC:AC)</f>
+        <v>3</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AD:AD)</f>
+        <v>5</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AF:AF)</f>
+        <v>2</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AH:AH)</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!C:C)</f>
+        <v>36</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!G:G)</f>
+        <v>33</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!I:I)</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!J:J)</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!O:O)</f>
+        <v>3</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!S:S)</f>
+        <v>20</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!T:T)</f>
+        <v>14</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!U:U)</f>
+        <v>6</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!X:X)</f>
+        <v>13</v>
+      </c>
+      <c r="X10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!Y:Y)</f>
+        <v>10</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!Z:Z)</f>
+        <v>3</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AB:AB)</f>
+        <v>7</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AC:AC)</f>
+        <v>4</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AD:AD)</f>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AF:AF)</f>
+        <v>2</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AG:AG)</f>
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AH:AH)</f>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!C:C)</f>
+        <v>28</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!G:G)</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!J:J)</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!N:N)</f>
+        <v>4</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!O:O)</f>
+        <v>4</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!S:S)</f>
+        <v>5</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!T:T)</f>
+        <v>4</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!U:U)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!X:X)</f>
+        <v>5</v>
+      </c>
+      <c r="X13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!Y:Y)</f>
+        <v>4</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!Z:Z)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="5">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!C:C)</f>
+        <v>12</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!G:G)</f>
+        <v>8</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!I:I)</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!J:J)</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!N:N)</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!O:O)</f>
+        <v>3</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!P:P)</f>
+        <v>2</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!Q:Q)</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!S:S)</f>
+        <v>5</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!T:T)</f>
+        <v>4</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!U:U)</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!X:X)</f>
+        <v>5</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!Y:Y)</f>
+        <v>4</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!Z:Z)</f>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Game-data/WBBGame stats.xlsx
+++ b/Game-data/WBBGame stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F316AA-2DDA-3B45-AAE3-5A72EC5A0B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50DAB4A-9829-9349-BA63-0CA743867804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Games" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Week 3 Total" sheetId="8" r:id="rId6"/>
     <sheet name="Week 4 Games" sheetId="9" r:id="rId7"/>
     <sheet name="Week 4 Total" sheetId="10" r:id="rId8"/>
+    <sheet name="Cumulative Total" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="68">
   <si>
     <t>MP</t>
   </si>
@@ -16812,7 +16813,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -18899,4 +18900,2338 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>IF(ISERROR(H2/I2),"N/A",H2/I2)</f>
+        <v>N/A</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3)</f>
+        <v>250</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3)</f>
+        <v>154</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3)</f>
+        <v>26</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3)</f>
+        <v>18</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J17" si="1">IF(ISERROR(H3/I3),"N/A",H3/I3)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3)</f>
+        <v>17</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3)</f>
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3)</f>
+        <v>40</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3)</f>
+        <v>13</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3)</f>
+        <v>27</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3)</f>
+        <v>111</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3)</f>
+        <v>55</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3)</f>
+        <v>56</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U17" si="2">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.49549549549549549</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3)</f>
+        <v>79</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3)</f>
+        <v>48</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3)</f>
+        <v>31</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z17" si="3">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.60759493670886078</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3)</f>
+        <v>32</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3)</f>
+        <v>7</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3)</f>
+        <v>25</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3)</f>
+        <v>43</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3)</f>
+        <v>37</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3)</f>
+        <v>6</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH17" si="4">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.86046511627906974</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4)</f>
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4)</f>
+        <v>25</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4)</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4)</f>
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4)</f>
+        <v>16</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4)</f>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4)</f>
+        <v>19</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4)</f>
+        <v>8</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4)</f>
+        <v>11</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4)</f>
+        <v>7</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4)</f>
+        <v>6</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4)</f>
+        <v>12</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4)</f>
+        <v>7</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4)</f>
+        <v>5</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4)</f>
+        <v>2</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4)</f>
+        <v>2</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5)</f>
+        <v>40</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5)</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5)</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5)</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5)</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5)</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5)</f>
+        <v>11</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5)</f>
+        <v>2</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5)</f>
+        <v>9</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5)</f>
+        <v>6</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5)</f>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5)</f>
+        <v>4</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5)</f>
+        <v>5</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5)</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5)</f>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6)</f>
+        <v>222</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6)</f>
+        <v>33</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6)</f>
+        <v>33</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6)</f>
+        <v>14</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3571428571428572</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6)</f>
+        <v>7</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6)</f>
+        <v>22</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6)</f>
+        <v>21</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6)</f>
+        <v>34</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6)</f>
+        <v>13</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6)</f>
+        <v>21</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6)</f>
+        <v>25</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6)</f>
+        <v>9</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6)</f>
+        <v>16</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6)</f>
+        <v>9</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6)</f>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6)</f>
+        <v>5</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6)</f>
+        <v>4</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6)</f>
+        <v>3</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6)</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7)</f>
+        <v>250</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7)</f>
+        <v>76</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7)</f>
+        <v>41</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7)</f>
+        <v>20</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7)</f>
+        <v>17</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7)</f>
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7)</f>
+        <v>23</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7)</f>
+        <v>5</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7)</f>
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7)</f>
+        <v>61</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7)</f>
+        <v>26</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7)</f>
+        <v>35</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42622950819672129</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7)</f>
+        <v>16</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7)</f>
+        <v>8</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7)</f>
+        <v>8</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7)</f>
+        <v>45</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7)</f>
+        <v>18</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7)</f>
+        <v>27</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7)</f>
+        <v>8</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7)</f>
+        <v>6</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7)</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8)</f>
+        <v>51</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8)</f>
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8)</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8)</f>
+        <v>6</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8)</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8)</f>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8)</f>
+        <v>9</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8)</f>
+        <v>4</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8)</f>
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8)</f>
+        <v>2</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8)</f>
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8)</f>
+        <v>7</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8)</f>
+        <v>3</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9)</f>
+        <v>198</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9)</f>
+        <v>75</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9)</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9)</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9)</f>
+        <v>7</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9)</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9)</f>
+        <v>75</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9)</f>
+        <v>25</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9)</f>
+        <v>50</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9)</f>
+        <v>61</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9)</f>
+        <v>33</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9)</f>
+        <v>28</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.54098360655737709</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9)</f>
+        <v>61</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9)</f>
+        <v>33</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9)</f>
+        <v>28</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54098360655737709</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9)</f>
+        <v>15</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9)</f>
+        <v>9</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9)</f>
+        <v>6</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10)</f>
+        <v>249</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10)</f>
+        <v>138</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10)</f>
+        <v>18</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10)</f>
+        <v>18</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10)</f>
+        <v>12</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10)</f>
+        <v>26</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10)</f>
+        <v>6</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10)</f>
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10)</f>
+        <v>104</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10)</f>
+        <v>49</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10)</f>
+        <v>55</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.47115384615384615</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10)</f>
+        <v>57</v>
+      </c>
+      <c r="X10" s="4">
+        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10)</f>
+        <v>31</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10)</f>
+        <v>26</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54385964912280704</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10)</f>
+        <v>47</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10)</f>
+        <v>18</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10)</f>
+        <v>29</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38297872340425532</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10)</f>
+        <v>28</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10)</f>
+        <v>22</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10)</f>
+        <v>6</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11)</f>
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11)</f>
+        <v>2</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11)</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11)</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11)</f>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13)</f>
+        <v>113</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13)</f>
+        <v>31</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13)</f>
+        <v>11</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13)</f>
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13)</f>
+        <v>21</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13)</f>
+        <v>23</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13)</f>
+        <v>5</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13)</f>
+        <v>18</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13)</f>
+        <v>20</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13)</f>
+        <v>14</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13)</f>
+        <v>6</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13)</f>
+        <v>20</v>
+      </c>
+      <c r="X13" s="4">
+        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13)</f>
+        <v>14</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13)</f>
+        <v>6</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="5">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13)</f>
+        <v>4</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13)</f>
+        <v>3</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13)</f>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14)</f>
+        <v>2</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15)</f>
+        <v>75</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15)</f>
+        <v>36</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15)</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15)</f>
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15)</f>
+        <v>9</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15)</f>
+        <v>17</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15)</f>
+        <v>7</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15)</f>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15)</f>
+        <v>29</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15)</f>
+        <v>14</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15)</f>
+        <v>15</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15)</f>
+        <v>18</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15)</f>
+        <v>10</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15)</f>
+        <v>8</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15)</f>
+        <v>11</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15)</f>
+        <v>4</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15)</f>
+        <v>7</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15)</f>
+        <v>5</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15)</f>
+        <v>4</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15)</f>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16)</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16)</f>
+        <v>6</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16)</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16)</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16)</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16)</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16)</f>
+        <v>3</v>
+      </c>
+      <c r="X16" s="4">
+        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16)</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16)</f>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16)</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16)</f>
+        <v>2</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16)</f>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16)</f>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI16" s="4">
+        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Game-data/WBBGame stats.xlsx
+++ b/Game-data/WBBGame stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50DAB4A-9829-9349-BA63-0CA743867804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF86B114-7D81-E844-9DD3-BBA705C0F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="10" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Games" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="Week 3 Total" sheetId="8" r:id="rId6"/>
     <sheet name="Week 4 Games" sheetId="9" r:id="rId7"/>
     <sheet name="Week 4 Total" sheetId="10" r:id="rId8"/>
-    <sheet name="Cumulative Total" sheetId="11" r:id="rId9"/>
+    <sheet name="Week 5 Games" sheetId="12" r:id="rId9"/>
+    <sheet name="Week 5 Total" sheetId="13" r:id="rId10"/>
+    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="68">
   <si>
     <t>MP</t>
   </si>
@@ -3579,6 +3581,4482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A91E66A-514D-A243-B96B-8BB3DEA420AF}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AJ17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>IF(ISERROR(H2/I2),"N/A",H2/I2)</f>
+        <v>N/A</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!C:C)</f>
+        <v>44</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!G:G)</f>
+        <v>24</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!I:I)</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!J:J)</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J17" si="1">IF(ISERROR(H3/I3),"N/A",H3/I3)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!M:M)</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!O:O)</f>
+        <v>6</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!P:P)</f>
+        <v>3</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!S:S)</f>
+        <v>21</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!T:T)</f>
+        <v>10</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!U:U)</f>
+        <v>11</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U17" si="2">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!X:X)</f>
+        <v>16</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!Y:Y)</f>
+        <v>10</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!Z:Z)</f>
+        <v>6</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z17" si="3">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.625</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AB:AB)</f>
+        <v>5</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AD:AD)</f>
+        <v>5</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AF:AF)</f>
+        <v>7</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AG:AG)</f>
+        <v>4</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AH:AH)</f>
+        <v>3</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH17" si="4">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AJ:AJ)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AK:AK)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!C:C)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!J:J)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!S:S)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!U:U)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AB:AB)</f>
+        <v>1</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AD:AD)</f>
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!C:C)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!S:S)</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!U:U)</f>
+        <v>2</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!X:X)</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!Z:Z)</f>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AB:AB)</f>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AD:AD)</f>
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!C:C)</f>
+        <v>45</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!G:G)</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!I:I)</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!J:J)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!L:L)</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!O:O)</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!Q:Q)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!S:S)</f>
+        <v>9</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!T:T)</f>
+        <v>4</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!U:U)</f>
+        <v>5</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!X:X)</f>
+        <v>6</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!Y:Y)</f>
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!Z:Z)</f>
+        <v>3</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AB:AB)</f>
+        <v>3</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AC:AC)</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AD:AD)</f>
+        <v>2</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!C:C)</f>
+        <v>29</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!G:G)</f>
+        <v>30</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!I:I)</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!O:O)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!S:S)</f>
+        <v>20</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!T:T)</f>
+        <v>10</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!U:U)</f>
+        <v>10</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!X:X)</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!Z:Z)</f>
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AB:AB)</f>
+        <v>17</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AC:AC)</f>
+        <v>10</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AD:AD)</f>
+        <v>7</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!C:C)</f>
+        <v>43</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!G:G)</f>
+        <v>13</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!I:I)</f>
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!J:J)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!L:L)</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!O:O)</f>
+        <v>21</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!P:P)</f>
+        <v>8</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!Q:Q)</f>
+        <v>13</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!S:S)</f>
+        <v>13</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!T:T)</f>
+        <v>5</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!U:U)</f>
+        <v>8</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!X:X)</f>
+        <v>13</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!Y:Y)</f>
+        <v>5</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!Z:Z)</f>
+        <v>8</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AF:AF)</f>
+        <v>5</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AG:AG)</f>
+        <v>3</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AH:AH)</f>
+        <v>2</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AJ:AJ)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AK:AK)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!C:C)</f>
+        <v>39</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!I:I)</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!J:J)</f>
+        <v>6</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!M:M)</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!S:S)</f>
+        <v>17</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!T:T)</f>
+        <v>3</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!U:U)</f>
+        <v>14</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!X:X)</f>
+        <v>11</v>
+      </c>
+      <c r="X10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!Y:Y)</f>
+        <v>2</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!Z:Z)</f>
+        <v>9</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AB:AB)</f>
+        <v>6</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AC:AC)</f>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AD:AD)</f>
+        <v>5</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AK:AK)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!C:C)</f>
+        <v>16</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!G:G)</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!J:J)</f>
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!L:L)</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!N:N)</f>
+        <v>4</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!O:O)</f>
+        <v>4</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!S:S)</f>
+        <v>5</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!T:T)</f>
+        <v>4</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!U:U)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!X:X)</f>
+        <v>5</v>
+      </c>
+      <c r="X13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!Y:Y)</f>
+        <v>4</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!Z:Z)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="5">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AK:AK)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!C:C)</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AJ:AJ)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AJ17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>IF(ISERROR(H2/I2),"N/A",H2/I2)</f>
+        <v>N/A</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3)</f>
+        <v>294</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3)</f>
+        <v>178</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3)</f>
+        <v>31</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3)</f>
+        <v>24</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J17" si="1">IF(ISERROR(H3/I3),"N/A",H3/I3)</f>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3)</f>
+        <v>17</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3)</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3)</f>
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3)</f>
+        <v>46</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3)</f>
+        <v>16</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3)</f>
+        <v>30</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3)</f>
+        <v>132</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3)</f>
+        <v>65</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3)</f>
+        <v>67</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U17" si="2">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.49242424242424243</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3)</f>
+        <v>95</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3)</f>
+        <v>58</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3)</f>
+        <v>37</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z17" si="3">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.61052631578947369</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3)</f>
+        <v>37</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3)</f>
+        <v>7</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3)</f>
+        <v>30</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3)</f>
+        <v>50</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3)</f>
+        <v>41</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3)</f>
+        <v>9</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH17" si="4">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.82</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4)</f>
+        <v>104</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4)</f>
+        <v>25</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4)</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4)</f>
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4)</f>
+        <v>16</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4)</f>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4)</f>
+        <v>20</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4)</f>
+        <v>8</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4)</f>
+        <v>12</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4)</f>
+        <v>7</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4)</f>
+        <v>6</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4)</f>
+        <v>13</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4)</f>
+        <v>7</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4)</f>
+        <v>6</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4)</f>
+        <v>2</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4)</f>
+        <v>2</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5)</f>
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5)</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5)</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5)</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5)</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5)</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5)</f>
+        <v>13</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5)</f>
+        <v>2</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5)</f>
+        <v>11</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5)</f>
+        <v>7</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5)</f>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5)</f>
+        <v>5</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5)</f>
+        <v>6</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5)</f>
+        <v>6</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5)</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5)</f>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6)</f>
+        <v>267</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6)</f>
+        <v>42</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6)</f>
+        <v>39</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6)</f>
+        <v>15</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6)</f>
+        <v>12</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6)</f>
+        <v>27</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6)</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6)</f>
+        <v>25</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6)</f>
+        <v>43</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6)</f>
+        <v>17</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6)</f>
+        <v>26</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39534883720930231</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6)</f>
+        <v>31</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6)</f>
+        <v>12</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6)</f>
+        <v>19</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6)</f>
+        <v>12</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6)</f>
+        <v>5</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6)</f>
+        <v>7</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6)</f>
+        <v>4</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6)</f>
+        <v>3</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6)</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7)</f>
+        <v>279</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7)</f>
+        <v>106</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7)</f>
+        <v>44</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7)</f>
+        <v>20</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7)</f>
+        <v>17</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7)</f>
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7)</f>
+        <v>27</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7)</f>
+        <v>6</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7)</f>
+        <v>21</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7)</f>
+        <v>81</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7)</f>
+        <v>36</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7)</f>
+        <v>45</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7)</f>
+        <v>19</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7)</f>
+        <v>8</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7)</f>
+        <v>11</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7)</f>
+        <v>62</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7)</f>
+        <v>28</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7)</f>
+        <v>34</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7)</f>
+        <v>8</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7)</f>
+        <v>6</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7)</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8)</f>
+        <v>51</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8)</f>
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8)</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8)</f>
+        <v>6</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8)</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8)</f>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8)</f>
+        <v>9</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8)</f>
+        <v>4</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8)</f>
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8)</f>
+        <v>2</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8)</f>
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8)</f>
+        <v>7</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8)</f>
+        <v>3</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9)</f>
+        <v>241</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9)</f>
+        <v>88</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9)</f>
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9)</f>
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9)</f>
+        <v>11</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9)</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9)</f>
+        <v>96</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9)</f>
+        <v>33</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9)</f>
+        <v>63</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9)</f>
+        <v>74</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9)</f>
+        <v>38</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9)</f>
+        <v>36</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.51351351351351349</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9)</f>
+        <v>74</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9)</f>
+        <v>38</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9)</f>
+        <v>36</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51351351351351349</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9)</f>
+        <v>20</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9)</f>
+        <v>12</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9)</f>
+        <v>8</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10)</f>
+        <v>288</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10)</f>
+        <v>145</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10)</f>
+        <v>23</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10)</f>
+        <v>24</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10)</f>
+        <v>13</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10)</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10)</f>
+        <v>26</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10)</f>
+        <v>6</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10)</f>
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10)</f>
+        <v>121</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10)</f>
+        <v>52</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10)</f>
+        <v>69</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42975206611570249</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10)</f>
+        <v>68</v>
+      </c>
+      <c r="X10" s="4">
+        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10)</f>
+        <v>33</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10)</f>
+        <v>35</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48529411764705882</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10)</f>
+        <v>53</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10)</f>
+        <v>19</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10)</f>
+        <v>34</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35849056603773582</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10)</f>
+        <v>28</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10)</f>
+        <v>22</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10)</f>
+        <v>6</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11)</f>
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11)</f>
+        <v>2</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11)</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11)</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11)</f>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13)</f>
+        <v>129</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13)</f>
+        <v>39</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13)</f>
+        <v>14</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13)</f>
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13)</f>
+        <v>25</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13)</f>
+        <v>27</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13)</f>
+        <v>6</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13)</f>
+        <v>21</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13)</f>
+        <v>25</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13)</f>
+        <v>18</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13)</f>
+        <v>7</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13)</f>
+        <v>25</v>
+      </c>
+      <c r="X13" s="4">
+        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13)</f>
+        <v>18</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13)</f>
+        <v>7</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.72</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="5">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13)</f>
+        <v>4</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13)</f>
+        <v>3</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13)</f>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14)</f>
+        <v>2</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15)</f>
+        <v>77</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15)</f>
+        <v>36</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15)</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15)</f>
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15)</f>
+        <v>9</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15)</f>
+        <v>17</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15)</f>
+        <v>7</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15)</f>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15)</f>
+        <v>29</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15)</f>
+        <v>14</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15)</f>
+        <v>15</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15)</f>
+        <v>18</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15)</f>
+        <v>10</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15)</f>
+        <v>8</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15)</f>
+        <v>11</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15)</f>
+        <v>4</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15)</f>
+        <v>7</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15)</f>
+        <v>5</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15)</f>
+        <v>4</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15)</f>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16)</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16)</f>
+        <v>6</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16)</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16)</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16)</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16)</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16)</f>
+        <v>3</v>
+      </c>
+      <c r="X16" s="4">
+        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16)</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16)</f>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16)</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16)</f>
+        <v>2</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16)</f>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16)</f>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI16" s="4">
+        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD66633-4227-A240-87A2-B58892DBCEC2}">
   <sheetPr codeName="Sheet4"/>
@@ -15881,7 +20359,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16814,7 +21292,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18903,2332 +23381,1159 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AJ17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68033BE-50CB-6C4B-9A05-255603223948}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>58</v>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="str">
-        <f>IF(ISERROR(H2/I2),"N/A",H2/I2)</f>
-        <v>N/A</v>
-      </c>
-      <c r="K2" s="4">
-        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4">
-        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4">
-        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2">
-        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="4">
-        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4">
-        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="4">
-        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2">
-        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="4">
-        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="4">
-        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2)</f>
-        <v>0</v>
+        <f>D2*24</f>
+        <v>44</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="E2">
+        <v>1.02</v>
+      </c>
+      <c r="F2">
+        <v>0.16</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>0.83</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>0.83</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>21</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>11</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="X2">
+        <v>16</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>7</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>5</v>
+      </c>
+      <c r="AL2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C10" si="0">D3*24</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E3">
+        <v>-0.7</v>
+      </c>
+      <c r="F3">
+        <v>-0.5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="E4">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.875</v>
+      </c>
+      <c r="E5">
+        <v>0.79</v>
+      </c>
+      <c r="F5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>0.9</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C3" s="4">
-        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3)</f>
-        <v>250</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3)</f>
-        <v>154</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3)</f>
-        <v>26</v>
-      </c>
-      <c r="I3" s="4">
-        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3)</f>
-        <v>18</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J17" si="1">IF(ISERROR(H3/I3),"N/A",H3/I3)</f>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="K3" s="4">
-        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3)</f>
+      <c r="D6" s="8">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="E6">
+        <v>1.7</v>
+      </c>
+      <c r="F6">
+        <v>0.38</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>1.58</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>17</v>
       </c>
-      <c r="L3" s="4">
-        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3)</f>
-        <v>3</v>
-      </c>
-      <c r="N3" s="4">
-        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3)</f>
-        <v>40</v>
-      </c>
-      <c r="O3" s="4">
-        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3)</f>
+      <c r="AC6">
+        <v>10</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.7916666666666667</v>
+      </c>
+      <c r="E7">
+        <v>1.43</v>
+      </c>
+      <c r="F7">
+        <v>0.95</v>
+      </c>
+      <c r="G7">
         <v>13</v>
       </c>
-      <c r="P3" s="4">
-        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3)</f>
-        <v>27</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3)</f>
-        <v>111</v>
-      </c>
-      <c r="S3" s="4">
-        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3)</f>
-        <v>55</v>
-      </c>
-      <c r="T3" s="4">
-        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3)</f>
-        <v>56</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3:U17" si="2">IF(ISERROR(S3/R3),0,S3/R3)</f>
-        <v>0.49549549549549549</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4">
-        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3)</f>
-        <v>79</v>
-      </c>
-      <c r="X3" s="4">
-        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3)</f>
-        <v>48</v>
-      </c>
-      <c r="Y3" s="4">
-        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3)</f>
-        <v>31</v>
-      </c>
-      <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z17" si="3">IF(ISERROR(X3/W3),0,X3/W3)</f>
-        <v>0.60759493670886078</v>
-      </c>
-      <c r="AA3" s="4">
-        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3)</f>
-        <v>32</v>
-      </c>
-      <c r="AB3" s="4">
-        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3)</f>
+      <c r="H7">
+        <v>0.76</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7">
+        <v>13</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="X7">
+        <v>13</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7">
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.625</v>
+      </c>
+      <c r="E8">
+        <v>-0.03</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="AC3" s="4">
-        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3)</f>
-        <v>25</v>
-      </c>
-      <c r="AD3" s="2">
+      <c r="H8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>0.83</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8">
+        <v>17</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>14</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="X8">
+        <v>11</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>0.21875</v>
-      </c>
-      <c r="AE3" s="4">
-        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3)</f>
-        <v>43</v>
-      </c>
-      <c r="AF3" s="4">
-        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3)</f>
-        <v>37</v>
-      </c>
-      <c r="AG3" s="4">
-        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3)</f>
-        <v>6</v>
-      </c>
-      <c r="AH3" s="2">
-        <f t="shared" ref="AH3:AH17" si="4">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
-        <v>0.86046511627906974</v>
-      </c>
-      <c r="AI3" s="4">
-        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3)</f>
-        <v>3</v>
-      </c>
-      <c r="AJ3" s="4">
-        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3)</f>
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9">
+        <v>1.41</v>
+      </c>
+      <c r="F9">
+        <v>0.69</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0.89</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4)</f>
-        <v>100</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4)</f>
-        <v>25</v>
-      </c>
-      <c r="G4" s="4">
-        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4)</f>
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4)</f>
-        <v>8</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-      <c r="K4" s="4">
-        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4)</f>
-        <v>6</v>
-      </c>
-      <c r="L4" s="4">
-        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4)</f>
-        <v>16</v>
-      </c>
-      <c r="O4" s="4">
-        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4)</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4)</f>
-        <v>15</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4)</f>
-        <v>19</v>
-      </c>
-      <c r="S4" s="4">
-        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4)</f>
-        <v>8</v>
-      </c>
-      <c r="T4" s="4">
-        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4)</f>
-        <v>11</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4">
-        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4)</f>
-        <v>7</v>
-      </c>
-      <c r="X4" s="4">
-        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4)</f>
-        <v>1</v>
-      </c>
-      <c r="Y4" s="4">
-        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4)</f>
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AA4" s="4">
-        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4)</f>
-        <v>12</v>
-      </c>
-      <c r="AB4" s="4">
-        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4)</f>
-        <v>7</v>
-      </c>
-      <c r="AC4" s="4">
-        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4)</f>
-        <v>5</v>
-      </c>
-      <c r="AD4" s="2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="AE4" s="4">
-        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4)</f>
-        <v>2</v>
-      </c>
-      <c r="AF4" s="4">
-        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4)</f>
-        <v>2</v>
-      </c>
-      <c r="AG4" s="4">
-        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AI4" s="4">
-        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
-        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4">
-        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5)</f>
-        <v>40</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5)</f>
-        <v>6</v>
-      </c>
-      <c r="G5" s="4">
-        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5)</f>
-        <v>6</v>
-      </c>
-      <c r="I5" s="4">
-        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5)</f>
-        <v>6</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5)</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5)</f>
-        <v>4</v>
-      </c>
-      <c r="O5" s="4">
-        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5)</f>
-        <v>2</v>
-      </c>
-      <c r="P5" s="4">
-        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5)</f>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5)</f>
-        <v>11</v>
-      </c>
-      <c r="S5" s="4">
-        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5)</f>
-        <v>2</v>
-      </c>
-      <c r="T5" s="4">
-        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5)</f>
-        <v>9</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4">
-        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5)</f>
-        <v>6</v>
-      </c>
-      <c r="X5" s="4">
-        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5)</f>
-        <v>2</v>
-      </c>
-      <c r="Y5" s="4">
-        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5)</f>
-        <v>4</v>
-      </c>
-      <c r="Z5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AA5" s="4">
-        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5)</f>
-        <v>5</v>
-      </c>
-      <c r="AB5" s="4">
-        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
-        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5)</f>
-        <v>5</v>
-      </c>
-      <c r="AD5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4">
-        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5)</f>
-        <v>2</v>
-      </c>
-      <c r="AF5" s="4">
-        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5)</f>
-        <v>2</v>
-      </c>
-      <c r="AG5" s="4">
-        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AI5" s="4">
-        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4">
-        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4">
-        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6)</f>
-        <v>222</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6)</f>
-        <v>33</v>
-      </c>
-      <c r="G6" s="4">
-        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6)</f>
-        <v>33</v>
-      </c>
-      <c r="I6" s="4">
-        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6)</f>
-        <v>14</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>2.3571428571428572</v>
-      </c>
-      <c r="K6" s="4">
-        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6)</f>
-        <v>7</v>
-      </c>
-      <c r="L6" s="4">
-        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6)</f>
-        <v>22</v>
-      </c>
-      <c r="O6" s="4">
-        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6)</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6)</f>
-        <v>21</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6)</f>
-        <v>34</v>
-      </c>
-      <c r="S6" s="4">
-        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6)</f>
-        <v>13</v>
-      </c>
-      <c r="T6" s="4">
-        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6)</f>
-        <v>21</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.38235294117647056</v>
-      </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4">
-        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6)</f>
-        <v>25</v>
-      </c>
-      <c r="X6" s="4">
-        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6)</f>
-        <v>9</v>
-      </c>
-      <c r="Y6" s="4">
-        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6)</f>
-        <v>16</v>
-      </c>
-      <c r="Z6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.36</v>
-      </c>
-      <c r="AA6" s="4">
-        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6)</f>
-        <v>9</v>
-      </c>
-      <c r="AB6" s="4">
-        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6)</f>
-        <v>4</v>
-      </c>
-      <c r="AC6" s="4">
-        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6)</f>
-        <v>5</v>
-      </c>
-      <c r="AD6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="AE6" s="4">
-        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6)</f>
-        <v>4</v>
-      </c>
-      <c r="AF6" s="4">
-        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6)</f>
-        <v>3</v>
-      </c>
-      <c r="AG6" s="4">
-        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6)</f>
-        <v>1</v>
-      </c>
-      <c r="AH6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="AI6" s="4">
-        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4">
-        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4">
-        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7)</f>
-        <v>250</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7)</f>
-        <v>76</v>
-      </c>
-      <c r="G7" s="4">
-        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7)</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="4">
-        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7)</f>
-        <v>20</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K7" s="4">
-        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7)</f>
-        <v>17</v>
-      </c>
-      <c r="L7" s="4">
-        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7)</f>
-        <v>9</v>
-      </c>
-      <c r="N7" s="4">
-        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7)</f>
-        <v>23</v>
-      </c>
-      <c r="O7" s="4">
-        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7)</f>
-        <v>5</v>
-      </c>
-      <c r="P7" s="4">
-        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7)</f>
-        <v>18</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7)</f>
-        <v>61</v>
-      </c>
-      <c r="S7" s="4">
-        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7)</f>
-        <v>26</v>
-      </c>
-      <c r="T7" s="4">
-        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7)</f>
-        <v>35</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.42622950819672129</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4">
-        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7)</f>
-        <v>16</v>
-      </c>
-      <c r="X7" s="4">
-        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7)</f>
-        <v>8</v>
-      </c>
-      <c r="Y7" s="4">
-        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7)</f>
-        <v>8</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="AA7" s="4">
-        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7)</f>
-        <v>45</v>
-      </c>
-      <c r="AB7" s="4">
-        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7)</f>
-        <v>18</v>
-      </c>
-      <c r="AC7" s="4">
-        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7)</f>
-        <v>27</v>
-      </c>
-      <c r="AD7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="AE7" s="4">
-        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7)</f>
-        <v>8</v>
-      </c>
-      <c r="AF7" s="4">
-        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7)</f>
-        <v>6</v>
-      </c>
-      <c r="AG7" s="4">
-        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7)</f>
-        <v>2</v>
-      </c>
-      <c r="AH7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="AI7" s="4">
-        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="4">
-        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4">
-        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8)</f>
-        <v>51</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8)</f>
-        <v>12</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8)</f>
-        <v>4</v>
-      </c>
-      <c r="I8" s="4">
-        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="4">
-        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8)</f>
-        <v>6</v>
-      </c>
-      <c r="O8" s="4">
-        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8)</f>
-        <v>2</v>
-      </c>
-      <c r="P8" s="4">
-        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8)</f>
-        <v>4</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8)</f>
-        <v>9</v>
-      </c>
-      <c r="S8" s="4">
-        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8)</f>
-        <v>4</v>
-      </c>
-      <c r="T8" s="4">
-        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8)</f>
-        <v>5</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4">
-        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8)</f>
-        <v>2</v>
-      </c>
-      <c r="X8" s="4">
-        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
-        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8)</f>
-        <v>2</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="4">
-        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8)</f>
-        <v>7</v>
-      </c>
-      <c r="AB8" s="4">
-        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8)</f>
-        <v>4</v>
-      </c>
-      <c r="AC8" s="4">
-        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8)</f>
-        <v>3</v>
-      </c>
-      <c r="AD8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AE8" s="4">
-        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4">
-        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8)</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="4">
-        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8)</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="4">
-        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="4">
-        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4">
-        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9)</f>
-        <v>198</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9)</f>
-        <v>75</v>
-      </c>
-      <c r="G9" s="4">
-        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9)</f>
-        <v>8</v>
-      </c>
-      <c r="I9" s="4">
-        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9)</f>
-        <v>3</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="K9" s="4">
-        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9)</f>
-        <v>7</v>
-      </c>
-      <c r="L9" s="4">
-        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9)</f>
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
-        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9)</f>
-        <v>75</v>
-      </c>
-      <c r="O9" s="4">
-        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9)</f>
-        <v>25</v>
-      </c>
-      <c r="P9" s="4">
-        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9)</f>
-        <v>50</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9)</f>
-        <v>61</v>
-      </c>
-      <c r="S9" s="4">
-        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9)</f>
-        <v>33</v>
-      </c>
-      <c r="T9" s="4">
-        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9)</f>
-        <v>28</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.54098360655737709</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4">
-        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9)</f>
-        <v>61</v>
-      </c>
-      <c r="X9" s="4">
-        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9)</f>
-        <v>33</v>
-      </c>
-      <c r="Y9" s="4">
-        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9)</f>
-        <v>28</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.54098360655737709</v>
-      </c>
-      <c r="AA9" s="4">
-        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4">
-        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4">
-        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9)</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="4">
-        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9)</f>
-        <v>15</v>
-      </c>
-      <c r="AF9" s="4">
-        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9)</f>
-        <v>9</v>
-      </c>
-      <c r="AG9" s="4">
-        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9)</f>
-        <v>6</v>
-      </c>
-      <c r="AH9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="AI9" s="4">
-        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="4">
-        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="4">
-        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10)</f>
-        <v>249</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10)</f>
-        <v>138</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10)</f>
-        <v>18</v>
-      </c>
-      <c r="I10" s="4">
-        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10)</f>
-        <v>18</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10)</f>
-        <v>12</v>
-      </c>
-      <c r="L10" s="4">
-        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10)</f>
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10)</f>
-        <v>26</v>
-      </c>
-      <c r="O10" s="4">
-        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10)</f>
-        <v>6</v>
-      </c>
-      <c r="P10" s="4">
-        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10)</f>
-        <v>20</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10)</f>
-        <v>104</v>
-      </c>
-      <c r="S10" s="4">
-        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10)</f>
-        <v>49</v>
-      </c>
-      <c r="T10" s="4">
-        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10)</f>
-        <v>55</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47115384615384615</v>
-      </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4">
-        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10)</f>
-        <v>57</v>
-      </c>
-      <c r="X10" s="4">
-        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10)</f>
-        <v>31</v>
-      </c>
-      <c r="Y10" s="4">
-        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10)</f>
-        <v>26</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.54385964912280704</v>
-      </c>
-      <c r="AA10" s="4">
-        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10)</f>
-        <v>47</v>
-      </c>
-      <c r="AB10" s="4">
-        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10)</f>
-        <v>18</v>
-      </c>
-      <c r="AC10" s="4">
-        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10)</f>
-        <v>29</v>
-      </c>
-      <c r="AD10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38297872340425532</v>
-      </c>
-      <c r="AE10" s="4">
-        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10)</f>
-        <v>28</v>
-      </c>
-      <c r="AF10" s="4">
-        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10)</f>
-        <v>22</v>
-      </c>
-      <c r="AG10" s="4">
-        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10)</f>
-        <v>6</v>
-      </c>
-      <c r="AH10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="AI10" s="4">
-        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10)</f>
-        <v>4</v>
-      </c>
-      <c r="AJ10" s="4">
-        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4">
-        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11)</f>
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K11" s="4">
-        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11)</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11)</f>
-        <v>2</v>
-      </c>
-      <c r="S11" s="4">
-        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11)</f>
-        <v>2</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4">
-        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11)</f>
-        <v>1</v>
-      </c>
-      <c r="X11" s="4">
-        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4">
-        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11)</f>
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4">
-        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11)</f>
-        <v>1</v>
-      </c>
-      <c r="AB11" s="4">
-        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="4">
-        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11)</f>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="4">
-        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4">
-        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11)</f>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="4">
-        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11)</f>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="4">
-        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="4">
-        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4">
-        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K12" s="4">
-        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4">
-        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12)</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
-        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12)</f>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="4">
-        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4">
-        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12)</f>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="4">
-        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12)</f>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="4">
-        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="4">
-        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4">
-        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13)</f>
-        <v>113</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13)</f>
-        <v>31</v>
-      </c>
-      <c r="G13" s="4">
-        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13)</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13)</f>
-        <v>11</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="1"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K13" s="4">
-        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13)</f>
-        <v>3</v>
-      </c>
-      <c r="L13" s="4">
-        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13)</f>
-        <v>21</v>
-      </c>
-      <c r="N13" s="4">
-        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13)</f>
-        <v>23</v>
-      </c>
-      <c r="O13" s="4">
-        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13)</f>
-        <v>5</v>
-      </c>
-      <c r="P13" s="4">
-        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13)</f>
-        <v>18</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13)</f>
-        <v>20</v>
-      </c>
-      <c r="S13" s="4">
-        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13)</f>
-        <v>14</v>
-      </c>
-      <c r="T13" s="4">
-        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13)</f>
-        <v>6</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4">
-        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13)</f>
-        <v>20</v>
-      </c>
-      <c r="X13" s="4">
-        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13)</f>
-        <v>14</v>
-      </c>
-      <c r="Y13" s="4">
-        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13)</f>
-        <v>6</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="AA13" s="4">
-        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="4">
-        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4">
-        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13)</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <f t="shared" ref="AD13:AD17" si="5">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="4">
-        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13)</f>
-        <v>4</v>
-      </c>
-      <c r="AF13" s="4">
-        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13)</f>
-        <v>3</v>
-      </c>
-      <c r="AG13" s="4">
-        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13)</f>
-        <v>1</v>
-      </c>
-      <c r="AH13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="AI13" s="4">
-        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13)</f>
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="4">
-        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4">
-        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14)</f>
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K14" s="4">
-        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14)</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14)</f>
-        <v>2</v>
-      </c>
-      <c r="S14" s="4">
-        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14)</f>
-        <v>2</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4">
-        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14)</f>
-        <v>1</v>
-      </c>
-      <c r="X14" s="4">
-        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4">
-        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14)</f>
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4">
-        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14)</f>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="4">
-        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4">
-        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14)</f>
-        <v>1</v>
-      </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="4">
-        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="4">
-        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="4">
-        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14)</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="4">
-        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="4">
-        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4">
-        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15)</f>
-        <v>75</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15)</f>
-        <v>36</v>
-      </c>
-      <c r="G15" s="4">
-        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15)</f>
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
-        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15)</f>
-        <v>10</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="K15" s="4">
-        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15)</f>
-        <v>9</v>
-      </c>
-      <c r="N15" s="4">
-        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15)</f>
-        <v>17</v>
-      </c>
-      <c r="O15" s="4">
-        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15)</f>
-        <v>7</v>
-      </c>
-      <c r="P15" s="4">
-        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15)</f>
-        <v>10</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15)</f>
-        <v>29</v>
-      </c>
-      <c r="S15" s="4">
-        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15)</f>
-        <v>14</v>
-      </c>
-      <c r="T15" s="4">
-        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15)</f>
-        <v>15</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.48275862068965519</v>
-      </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4">
-        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15)</f>
-        <v>18</v>
-      </c>
-      <c r="X15" s="4">
-        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15)</f>
-        <v>10</v>
-      </c>
-      <c r="Y15" s="4">
-        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15)</f>
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AA15" s="4">
-        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15)</f>
-        <v>11</v>
-      </c>
-      <c r="AB15" s="4">
-        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15)</f>
-        <v>4</v>
-      </c>
-      <c r="AC15" s="4">
-        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15)</f>
-        <v>7</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" si="5"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="AE15" s="4">
-        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15)</f>
-        <v>5</v>
-      </c>
-      <c r="AF15" s="4">
-        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15)</f>
-        <v>4</v>
-      </c>
-      <c r="AG15" s="4">
-        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15)</f>
-        <v>1</v>
-      </c>
-      <c r="AH15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="AI15" s="4">
-        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="4">
-        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4">
-        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16)</f>
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G16" s="4">
-        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16)</f>
-        <v>3</v>
-      </c>
-      <c r="I16" s="4">
-        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16)</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K16" s="4">
-        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16)</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="4">
-        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16)</f>
-        <v>6</v>
-      </c>
-      <c r="O16" s="4">
-        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16)</f>
-        <v>2</v>
-      </c>
-      <c r="P16" s="4">
-        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16)</f>
-        <v>4</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16)</f>
-        <v>4</v>
-      </c>
-      <c r="S16" s="4">
-        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16)</f>
-        <v>2</v>
-      </c>
-      <c r="T16" s="4">
-        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16)</f>
-        <v>2</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4">
-        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16)</f>
-        <v>3</v>
-      </c>
-      <c r="X16" s="4">
-        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16)</f>
-        <v>1</v>
-      </c>
-      <c r="Y16" s="4">
-        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16)</f>
-        <v>2</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AA16" s="4">
-        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16)</f>
-        <v>1</v>
-      </c>
-      <c r="AB16" s="4">
-        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16)</f>
-        <v>1</v>
-      </c>
-      <c r="AC16" s="4">
-        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16)</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="4">
-        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16)</f>
-        <v>2</v>
-      </c>
-      <c r="AF16" s="4">
-        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16)</f>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="4">
-        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16)</f>
-        <v>1</v>
-      </c>
-      <c r="AH16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="AI16" s="4">
-        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="4">
-        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4">
-        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K17" s="4">
-        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4">
-        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17)</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17)</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17)</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="4">
-        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17)</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="4">
-        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17)</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="4">
-        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17)</f>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="4">
-        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="4">
-        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17)</f>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="4">
-        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17)</f>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="4">
-        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="4">
-        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17)</f>
-        <v>0</v>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Game-data/WBBGame stats.xlsx
+++ b/Game-data/WBBGame stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Documents/STAT 251/WBB Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF86B114-7D81-E844-9DD3-BBA705C0F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B098593-CB43-A34F-81D4-05BD687A950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="10" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="12" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Games" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <sheet name="Week 4 Total" sheetId="10" r:id="rId8"/>
     <sheet name="Week 5 Games" sheetId="12" r:id="rId9"/>
     <sheet name="Week 5 Total" sheetId="13" r:id="rId10"/>
-    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId11"/>
+    <sheet name="Week 6 Games" sheetId="14" r:id="rId11"/>
+    <sheet name="Week 6 Total" sheetId="15" r:id="rId12"/>
+    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="70">
   <si>
     <t>MP</t>
   </si>
@@ -248,6 +250,12 @@
   </si>
   <si>
     <t>#13 Paisley Harding</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Washington State</t>
   </si>
 </sst>
 </file>
@@ -3586,8 +3594,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AJ17"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3820,11 +3828,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B2,'Week 5 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -3946,12 +3954,12 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AJ:AJ)</f>
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="4">
         <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AK:AK)</f>
         <v>5</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B3,'Week 5 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -4072,12 +4080,12 @@
         <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B4,'Week 5 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -4198,11 +4206,11 @@
         <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B5,'Week 5 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -4324,12 +4332,12 @@
         <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B6,'Week 5 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -4450,12 +4458,12 @@
         <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B7,'Week 5 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -4576,11 +4584,11 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B8,'Week 5 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -4702,12 +4710,12 @@
         <v>0.6</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AJ:AJ)</f>
-        <v>1</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AK:AK)</f>
+        <v>3</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AK:AK)</f>
-        <v>3</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B9,'Week 5 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -4828,12 +4836,12 @@
         <v>0</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ10" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B10,'Week 5 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -4954,11 +4962,11 @@
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B11,'Week 5 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -5080,11 +5088,11 @@
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B12,'Week 5 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -5206,11 +5214,11 @@
         <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AK:AK)</f>
+        <v>3</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B13,'Week 5 Games'!AL:AL)</f>
         <v>3</v>
       </c>
     </row>
@@ -5332,11 +5340,11 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B14,'Week 5 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -5458,12 +5466,12 @@
         <v>0</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B15,'Week 5 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -5584,11 +5592,11 @@
         <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B16,'Week 5 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -5710,11 +5718,11 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AK:AK)</f>
+        <f>SUMIF('Week 5 Games'!$B:$B,'Week 5 Total'!$B17,'Week 5 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +5732,1399 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C33E10-A2A8-B846-A451-8FF19A53AE71}">
+  <dimension ref="A1:AL12"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <f>D2*24</f>
+        <v>31</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="E2">
+        <v>1.21</v>
+      </c>
+      <c r="F2">
+        <v>0.48</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>0.81</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1.5</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>13</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="X2">
+        <v>11</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>2</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C12" si="0">D3*24</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>1.88</v>
+      </c>
+      <c r="F3">
+        <v>0.33</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="E5">
+        <v>0.51</v>
+      </c>
+      <c r="F5">
+        <v>0.53</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="E6">
+        <v>0.91</v>
+      </c>
+      <c r="F6">
+        <v>0.45</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>0.94</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2.5</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6">
+        <v>13</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AB6">
+        <v>9</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E7">
+        <v>0.48</v>
+      </c>
+      <c r="F7">
+        <v>0.31</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="E8">
+        <v>0.66</v>
+      </c>
+      <c r="F8">
+        <v>0.45</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0.47</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="E9">
+        <v>1.53</v>
+      </c>
+      <c r="F9">
+        <v>0.24</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>1.18</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9">
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E10">
+        <v>1.58</v>
+      </c>
+      <c r="F10">
+        <v>0.46</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2610B210-1423-7A4D-BC82-ED2279A01F12}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AJ17"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5849,75 +7244,63 @@
         <v>58</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
-        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="str">
-        <f>IF(ISERROR(H2/I2),"N/A",H2/I2)</f>
-        <v>N/A</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
-        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O2" s="4">
-        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4">
-        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T2" s="4">
-        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U2" s="2">
@@ -5926,15 +7309,15 @@
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4">
-        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X2" s="4">
-        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="2">
@@ -5942,15 +7325,15 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4">
-        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="4">
-        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="4">
-        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="2">
@@ -5958,15 +7341,15 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="4">
-        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="4">
-        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="2">
@@ -5974,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B2,'Week 6 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -5987,137 +7370,125 @@
         <v>29</v>
       </c>
       <c r="C3" s="4">
-        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3)</f>
-        <v>294</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!C:C)</f>
+        <v>31</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3)</f>
-        <v>178</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!G:G)</f>
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3)</f>
-        <v>31</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!I:I)</f>
+        <v>3</v>
       </c>
       <c r="I3" s="4">
-        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3)</f>
-        <v>24</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!J:J)</f>
+        <v>2</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J17" si="1">IF(ISERROR(H3/I3),"N/A",H3/I3)</f>
-        <v>1.2916666666666667</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!K:K)</f>
+        <v>1.5</v>
       </c>
       <c r="K3" s="4">
-        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3)</f>
-        <v>17</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!L:L)</f>
+        <v>1</v>
       </c>
       <c r="L3" s="4">
-        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3)</f>
-        <v>4</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!M:M)</f>
+        <v>1</v>
       </c>
       <c r="M3" s="4">
-        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3)</f>
-        <v>3</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!N:N)</f>
+        <v>2</v>
       </c>
       <c r="N3" s="4">
-        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3)</f>
-        <v>46</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!O:O)</f>
+        <v>6</v>
       </c>
       <c r="O3" s="4">
-        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3)</f>
-        <v>16</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!P:P)</f>
+        <v>1</v>
       </c>
       <c r="P3" s="4">
-        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3)</f>
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!Q:Q)</f>
+        <v>5</v>
+      </c>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4">
-        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3)</f>
-        <v>132</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!S:S)</f>
+        <v>13</v>
       </c>
       <c r="S3" s="4">
-        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3)</f>
-        <v>65</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!T:T)</f>
+        <v>5</v>
       </c>
       <c r="T3" s="4">
-        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3)</f>
-        <v>67</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!U:U)</f>
+        <v>8</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" ref="U3:U17" si="2">IF(ISERROR(S3/R3),0,S3/R3)</f>
-        <v>0.49242424242424243</v>
+        <f t="shared" ref="U3:U17" si="1">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.38461538461538464</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4">
-        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3)</f>
-        <v>95</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!X:X)</f>
+        <v>11</v>
       </c>
       <c r="X3" s="4">
-        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3)</f>
-        <v>58</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!Y:Y)</f>
+        <v>5</v>
       </c>
       <c r="Y3" s="4">
-        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3)</f>
-        <v>37</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!Z:Z)</f>
+        <v>6</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z17" si="3">IF(ISERROR(X3/W3),0,X3/W3)</f>
-        <v>0.61052631578947369</v>
+        <f t="shared" ref="Z3:Z17" si="2">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.45454545454545453</v>
       </c>
       <c r="AA3" s="4">
-        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3)</f>
-        <v>37</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!AB:AB)</f>
+        <v>2</v>
       </c>
       <c r="AB3" s="4">
-        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3)</f>
-        <v>7</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3)</f>
-        <v>30</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!AD:AD)</f>
+        <v>2</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>0.1891891891891892</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4">
-        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3)</f>
-        <v>50</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!AF:AF)</f>
+        <v>3</v>
       </c>
       <c r="AF3" s="4">
-        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3)</f>
-        <v>41</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!AG:AG)</f>
+        <v>3</v>
       </c>
       <c r="AG3" s="4">
-        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3)</f>
-        <v>9</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" ref="AH3:AH17" si="4">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
-        <v>0.82</v>
+        <f t="shared" ref="AH3:AH17" si="3">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>1</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3)</f>
-        <v>5</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ3" s="4">
-        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3)</f>
-        <v>36</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B3,'Week 6 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -6125,137 +7496,125 @@
         <v>30</v>
       </c>
       <c r="C4" s="4">
-        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4)</f>
-        <v>104</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!C:C)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4)</f>
-        <v>25</v>
-      </c>
-      <c r="G4" s="4">
-        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!G:G)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4)</f>
-        <v>5</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4)</f>
-        <v>9</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
         <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="K4" s="4">
-        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4)</f>
-        <v>6</v>
-      </c>
-      <c r="L4" s="4">
-        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4)</f>
-        <v>16</v>
-      </c>
-      <c r="O4" s="4">
-        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4)</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4)</f>
-        <v>15</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4)</f>
-        <v>20</v>
-      </c>
-      <c r="S4" s="4">
-        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4)</f>
-        <v>8</v>
-      </c>
-      <c r="T4" s="4">
-        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4)</f>
-        <v>12</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4">
-        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4)</f>
-        <v>7</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X4" s="4">
-        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y4" s="4">
-        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA4" s="4">
-        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4)</f>
-        <v>13</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB4" s="4">
-        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4)</f>
-        <v>7</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC4" s="4">
-        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4">
-        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!AF:AF)</f>
         <v>2</v>
       </c>
       <c r="AF4" s="4">
-        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!AG:AG)</f>
         <v>2</v>
       </c>
       <c r="AG4" s="4">
-        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4)</f>
-        <v>0</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4)</f>
-        <v>4</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B4,'Week 6 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -6263,137 +7622,125 @@
         <v>31</v>
       </c>
       <c r="C5" s="4">
-        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5)</f>
-        <v>43</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!C:C)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5)</f>
-        <v>6</v>
-      </c>
-      <c r="G5" s="4">
-        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5)</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5)</f>
-        <v>4</v>
-      </c>
-      <c r="O5" s="4">
-        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5)</f>
-        <v>2</v>
-      </c>
-      <c r="P5" s="4">
-        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5)</f>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5)</f>
-        <v>13</v>
-      </c>
-      <c r="S5" s="4">
-        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5)</f>
-        <v>2</v>
-      </c>
-      <c r="T5" s="4">
-        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5)</f>
-        <v>11</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4">
-        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5)</f>
-        <v>7</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X5" s="4">
-        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y5" s="4">
-        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5)</f>
-        <v>5</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA5" s="4">
-        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB5" s="4">
-        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE5" s="4">
-        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF5" s="4">
-        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5)</f>
-        <v>4</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B5,'Week 6 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -6401,136 +7748,124 @@
         <v>32</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6)</f>
-        <v>267</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!C:C)</f>
+        <v>38</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6)</f>
-        <v>42</v>
-      </c>
-      <c r="G6" s="4">
-        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!G:G)</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6)</f>
-        <v>39</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!I:I)</f>
+        <v>6</v>
       </c>
       <c r="I6" s="4">
-        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6)</f>
-        <v>15</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!O:O)</f>
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!Q:Q)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!S:S)</f>
+        <v>5</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!T:T)</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!U:U)</f>
+        <v>4</v>
+      </c>
+      <c r="U6" s="2">
         <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="K6" s="4">
-        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6)</f>
-        <v>12</v>
-      </c>
-      <c r="L6" s="4">
-        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6)</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6)</f>
-        <v>27</v>
-      </c>
-      <c r="O6" s="4">
-        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6)</f>
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
-        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6)</f>
-        <v>25</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6)</f>
-        <v>43</v>
-      </c>
-      <c r="S6" s="4">
-        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6)</f>
-        <v>17</v>
-      </c>
-      <c r="T6" s="4">
-        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6)</f>
-        <v>26</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.39534883720930231</v>
+        <v>0.2</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4">
-        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6)</f>
-        <v>31</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!X:X)</f>
+        <v>5</v>
       </c>
       <c r="X6" s="4">
-        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6)</f>
-        <v>12</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y6" s="4">
-        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6)</f>
-        <v>19</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!Z:Z)</f>
+        <v>4</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.38709677419354838</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="AA6" s="4">
-        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6)</f>
-        <v>12</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6)</f>
-        <v>5</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC6" s="4">
-        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6)</f>
-        <v>7</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="4">
-        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6)</f>
-        <v>4</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF6" s="4">
-        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG6" s="4">
-        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B6,'Week 6 Games'!AL:AL)</f>
         <v>3</v>
       </c>
     </row>
@@ -6539,137 +7874,125 @@
         <v>33</v>
       </c>
       <c r="C7" s="4">
-        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7)</f>
-        <v>279</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!C:C)</f>
+        <v>38</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7)</f>
-        <v>106</v>
-      </c>
-      <c r="G7" s="4">
-        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!G:G)</f>
+        <v>15</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7)</f>
-        <v>44</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!I:I)</f>
+        <v>5</v>
       </c>
       <c r="I7" s="4">
-        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7)</f>
-        <v>20</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!J:J)</f>
+        <v>2</v>
       </c>
       <c r="J7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!K:K)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!N:N)</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!O:O)</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!S:S)</f>
+        <v>13</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!T:T)</f>
+        <v>6</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!U:U)</f>
+        <v>7</v>
+      </c>
+      <c r="U7" s="2">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K7" s="4">
-        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7)</f>
-        <v>17</v>
-      </c>
-      <c r="L7" s="4">
-        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7)</f>
-        <v>9</v>
-      </c>
-      <c r="N7" s="4">
-        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7)</f>
-        <v>27</v>
-      </c>
-      <c r="O7" s="4">
-        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7)</f>
-        <v>6</v>
-      </c>
-      <c r="P7" s="4">
-        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7)</f>
-        <v>21</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7)</f>
-        <v>81</v>
-      </c>
-      <c r="S7" s="4">
-        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7)</f>
-        <v>36</v>
-      </c>
-      <c r="T7" s="4">
-        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7)</f>
-        <v>45</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.44444444444444442</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4">
-        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7)</f>
-        <v>19</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!X:X)</f>
+        <v>4</v>
       </c>
       <c r="X7" s="4">
-        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7)</f>
-        <v>8</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!Y:Y)</f>
+        <v>3</v>
       </c>
       <c r="Y7" s="4">
-        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7)</f>
-        <v>11</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.42105263157894735</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
       <c r="AA7" s="4">
-        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7)</f>
-        <v>62</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!AB:AB)</f>
+        <v>9</v>
       </c>
       <c r="AB7" s="4">
-        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7)</f>
-        <v>28</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!AC:AC)</f>
+        <v>3</v>
       </c>
       <c r="AC7" s="4">
-        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7)</f>
-        <v>34</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!AD:AD)</f>
+        <v>6</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>0.45161290322580644</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE7" s="4">
-        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7)</f>
-        <v>8</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
-        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7)</f>
-        <v>0</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7)</f>
-        <v>5</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B7,'Week 6 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -6677,137 +8000,125 @@
         <v>34</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8)</f>
-        <v>51</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!C:C)</f>
+        <v>13</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8)</f>
-        <v>12</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!G:G)</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8)</f>
-        <v>4</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!O:O)</f>
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!Q:Q)</f>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!S:S)</f>
+        <v>2</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!T:T)</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!U:U)</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="4">
-        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8)</f>
-        <v>6</v>
-      </c>
-      <c r="O8" s="4">
-        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8)</f>
-        <v>2</v>
-      </c>
-      <c r="P8" s="4">
-        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8)</f>
-        <v>4</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8)</f>
-        <v>9</v>
-      </c>
-      <c r="S8" s="4">
-        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8)</f>
-        <v>4</v>
-      </c>
-      <c r="T8" s="4">
-        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8)</f>
-        <v>5</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4">
-        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!X:X)</f>
+        <v>1</v>
       </c>
       <c r="X8" s="4">
-        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8)</f>
-        <v>0</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y8" s="4">
-        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA8" s="4">
-        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8)</f>
-        <v>7</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!AB:AB)</f>
+        <v>1</v>
       </c>
       <c r="AB8" s="4">
-        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8)</f>
-        <v>4</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC8" s="4">
-        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8)</f>
-        <v>3</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!AD:AD)</f>
+        <v>1</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="4">
-        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="4">
-        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="4">
-        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B8,'Week 6 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -6815,108 +8126,96 @@
         <v>35</v>
       </c>
       <c r="C9" s="4">
-        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9)</f>
-        <v>241</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!C:C)</f>
+        <v>29</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9)</f>
-        <v>88</v>
-      </c>
-      <c r="G9" s="4">
-        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
-        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9)</f>
-        <v>12</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9)</f>
-        <v>5</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!J:J)</f>
+        <v>4</v>
       </c>
       <c r="J9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!N:N)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!O:O)</f>
+        <v>13</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!P:P)</f>
+        <v>4</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!Q:Q)</f>
+        <v>9</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!S:S)</f>
+        <v>9</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!T:T)</f>
+        <v>3</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!U:U)</f>
+        <v>6</v>
+      </c>
+      <c r="U9" s="2">
         <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="K9" s="4">
-        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9)</f>
-        <v>11</v>
-      </c>
-      <c r="L9" s="4">
-        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9)</f>
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
-        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9)</f>
-        <v>96</v>
-      </c>
-      <c r="O9" s="4">
-        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9)</f>
-        <v>33</v>
-      </c>
-      <c r="P9" s="4">
-        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9)</f>
-        <v>63</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9)</f>
-        <v>74</v>
-      </c>
-      <c r="S9" s="4">
-        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9)</f>
-        <v>38</v>
-      </c>
-      <c r="T9" s="4">
-        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9)</f>
-        <v>36</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.51351351351351349</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4">
-        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9)</f>
-        <v>74</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!X:X)</f>
+        <v>9</v>
       </c>
       <c r="X9" s="4">
-        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9)</f>
-        <v>38</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!Y:Y)</f>
+        <v>3</v>
       </c>
       <c r="Y9" s="4">
-        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9)</f>
-        <v>36</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!Z:Z)</f>
+        <v>6</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.51351351351351349</v>
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA9" s="4">
-        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="2">
@@ -6924,28 +8223,28 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4">
-        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9)</f>
-        <v>20</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!AF:AF)</f>
+        <v>4</v>
       </c>
       <c r="AF9" s="4">
-        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9)</f>
-        <v>12</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!AG:AG)</f>
+        <v>1</v>
       </c>
       <c r="AG9" s="4">
-        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9)</f>
-        <v>8</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!AH:AH)</f>
+        <v>3</v>
       </c>
       <c r="AH9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!AK:AK)</f>
+        <v>5</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9)</f>
-        <v>13</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B9,'Week 6 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -6953,137 +8252,125 @@
         <v>67</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10)</f>
-        <v>288</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!C:C)</f>
+        <v>29</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10)</f>
-        <v>145</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!G:G)</f>
+        <v>20</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10)</f>
-        <v>23</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!I:I)</f>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10)</f>
-        <v>24</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!J:J)</f>
+        <v>2</v>
       </c>
       <c r="J10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!K:K)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!O:O)</f>
+        <v>5</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!P:P)</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!S:S)</f>
+        <v>14</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!T:T)</f>
+        <v>7</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!U:U)</f>
+        <v>7</v>
+      </c>
+      <c r="U10" s="2">
         <f t="shared" si="1"/>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="K10" s="4">
-        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10)</f>
-        <v>13</v>
-      </c>
-      <c r="L10" s="4">
-        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10)</f>
-        <v>4</v>
-      </c>
-      <c r="M10" s="4">
-        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10)</f>
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10)</f>
-        <v>26</v>
-      </c>
-      <c r="O10" s="4">
-        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10)</f>
-        <v>6</v>
-      </c>
-      <c r="P10" s="4">
-        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10)</f>
-        <v>20</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10)</f>
-        <v>121</v>
-      </c>
-      <c r="S10" s="4">
-        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10)</f>
-        <v>52</v>
-      </c>
-      <c r="T10" s="4">
-        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10)</f>
-        <v>69</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.42975206611570249</v>
+        <v>0.5</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4">
-        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10)</f>
-        <v>68</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!X:X)</f>
+        <v>9</v>
       </c>
       <c r="X10" s="4">
-        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10)</f>
-        <v>33</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!Y:Y)</f>
+        <v>5</v>
       </c>
       <c r="Y10" s="4">
-        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10)</f>
-        <v>35</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!Z:Z)</f>
+        <v>4</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.48529411764705882</v>
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AA10" s="4">
-        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10)</f>
-        <v>53</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!AB:AB)</f>
+        <v>5</v>
       </c>
       <c r="AB10" s="4">
-        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10)</f>
-        <v>19</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!AC:AC)</f>
+        <v>2</v>
       </c>
       <c r="AC10" s="4">
-        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10)</f>
-        <v>34</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!AD:AD)</f>
+        <v>3</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="0"/>
-        <v>0.35849056603773582</v>
+        <v>0.4</v>
       </c>
       <c r="AE10" s="4">
-        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10)</f>
-        <v>28</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!AF:AF)</f>
+        <v>4</v>
       </c>
       <c r="AF10" s="4">
-        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10)</f>
-        <v>22</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!AG:AG)</f>
+        <v>4</v>
       </c>
       <c r="AG10" s="4">
-        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.7857142857142857</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!AK:AK)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B10,'Week 6 Games'!AL:AL)</f>
         <v>4</v>
-      </c>
-      <c r="AJ10" s="4">
-        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10)</f>
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -7091,136 +8378,124 @@
         <v>37</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11)</f>
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="str">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K11" s="4">
-        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11)</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11)</f>
-        <v>2</v>
-      </c>
-      <c r="S11" s="4">
-        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11)</f>
-        <v>2</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4">
-        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X11" s="4">
-        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="4">
-        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB11" s="4">
-        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE11" s="4">
-        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="4">
-        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="4">
-        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B11,'Week 6 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -7229,108 +8504,96 @@
         <v>59</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4">
-        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="str">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K12" s="4">
-        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4">
-        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
-        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="4">
-        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC12" s="4">
-        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="2">
@@ -7338,27 +8601,27 @@
         <v>0</v>
       </c>
       <c r="AE12" s="4">
-        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="4">
-        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="4">
-        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B12,'Week 6 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -7367,137 +8630,125 @@
         <v>39</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13)</f>
-        <v>129</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!C:C)</f>
+        <v>13</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13)</f>
-        <v>39</v>
-      </c>
-      <c r="G13" s="4">
-        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!G:G)</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13)</f>
-        <v>14</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!J:J)</f>
+        <v>3</v>
       </c>
       <c r="J13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!L:L)</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!N:N)</f>
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!O:O)</f>
+        <v>3</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!Q:Q)</f>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!S:S)</f>
+        <v>6</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!T:T)</f>
+        <v>5</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!U:U)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
         <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="K13" s="4">
-        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13)</f>
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
-        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13)</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13)</f>
-        <v>25</v>
-      </c>
-      <c r="N13" s="4">
-        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13)</f>
-        <v>27</v>
-      </c>
-      <c r="O13" s="4">
-        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13)</f>
-        <v>6</v>
-      </c>
-      <c r="P13" s="4">
-        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13)</f>
-        <v>21</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13)</f>
-        <v>25</v>
-      </c>
-      <c r="S13" s="4">
-        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13)</f>
-        <v>18</v>
-      </c>
-      <c r="T13" s="4">
-        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13)</f>
-        <v>7</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
-        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13)</f>
-        <v>25</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!X:X)</f>
+        <v>6</v>
       </c>
       <c r="X13" s="4">
-        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13)</f>
-        <v>18</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!Y:Y)</f>
+        <v>5</v>
       </c>
       <c r="Y13" s="4">
-        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13)</f>
-        <v>7</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="4">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
         <f t="shared" si="3"/>
-        <v>0.72</v>
-      </c>
-      <c r="AA13" s="4">
-        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="4">
-        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4">
-        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13)</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <f t="shared" ref="AD13:AD17" si="5">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="4">
-        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13)</f>
-        <v>4</v>
-      </c>
-      <c r="AF13" s="4">
-        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13)</f>
-        <v>3</v>
-      </c>
-      <c r="AG13" s="4">
-        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13)</f>
-        <v>1</v>
-      </c>
-      <c r="AH13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13)</f>
-        <v>9</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B13,'Week 6 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -7505,136 +8756,124 @@
         <v>40</v>
       </c>
       <c r="C14" s="4">
-        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14)</f>
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="str">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K14" s="4">
-        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14)</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14)</f>
-        <v>2</v>
-      </c>
-      <c r="S14" s="4">
-        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14)</f>
-        <v>2</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4">
-        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X14" s="4">
-        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
-        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="4">
-        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14)</f>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="4">
-        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4">
-        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14)</f>
-        <v>1</v>
-      </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="4">
-        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="4">
-        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="4">
-        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14)</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AI14" s="4">
-        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B14,'Week 6 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -7643,137 +8882,125 @@
         <v>41</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15)</f>
-        <v>77</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!C:C)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15)</f>
-        <v>36</v>
-      </c>
-      <c r="G15" s="4">
-        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15)</f>
-        <v>3</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15)</f>
-        <v>10</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!O:O)</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!Q:Q)</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="K15" s="4">
-        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15)</f>
-        <v>9</v>
-      </c>
-      <c r="N15" s="4">
-        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15)</f>
-        <v>17</v>
-      </c>
-      <c r="O15" s="4">
-        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15)</f>
-        <v>7</v>
-      </c>
-      <c r="P15" s="4">
-        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15)</f>
-        <v>10</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15)</f>
-        <v>29</v>
-      </c>
-      <c r="S15" s="4">
-        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15)</f>
-        <v>14</v>
-      </c>
-      <c r="T15" s="4">
-        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15)</f>
-        <v>15</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.48275862068965519</v>
+        <v>0</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4">
-        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15)</f>
-        <v>18</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X15" s="4">
-        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15)</f>
-        <v>10</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y15" s="4">
-        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15)</f>
-        <v>8</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
         <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AA15" s="4">
-        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15)</f>
-        <v>11</v>
-      </c>
-      <c r="AB15" s="4">
-        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15)</f>
-        <v>4</v>
-      </c>
-      <c r="AC15" s="4">
-        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15)</f>
-        <v>7</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" si="5"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="AE15" s="4">
-        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15)</f>
-        <v>5</v>
-      </c>
-      <c r="AF15" s="4">
-        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15)</f>
-        <v>4</v>
-      </c>
-      <c r="AG15" s="4">
-        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15)</f>
-        <v>1</v>
-      </c>
-      <c r="AH15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15)</f>
-        <v>6</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B15,'Week 6 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -7781,137 +9008,125 @@
         <v>42</v>
       </c>
       <c r="C16" s="4">
-        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16)</f>
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G16" s="4">
-        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16)</f>
-        <v>3</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K16" s="4">
-        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16)</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="4">
-        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16)</f>
-        <v>6</v>
-      </c>
-      <c r="O16" s="4">
-        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16)</f>
-        <v>2</v>
-      </c>
-      <c r="P16" s="4">
-        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16)</f>
-        <v>4</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16)</f>
-        <v>4</v>
-      </c>
-      <c r="S16" s="4">
-        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16)</f>
-        <v>2</v>
-      </c>
-      <c r="T16" s="4">
-        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16)</f>
-        <v>2</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4">
-        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16)</f>
-        <v>3</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X16" s="4">
-        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y16" s="4">
-        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AA16" s="4">
-        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16)</f>
-        <v>1</v>
-      </c>
-      <c r="AB16" s="4">
-        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16)</f>
-        <v>1</v>
-      </c>
-      <c r="AC16" s="4">
-        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16)</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="4">
-        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16)</f>
-        <v>2</v>
-      </c>
-      <c r="AF16" s="4">
-        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16)</f>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="4">
-        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16)</f>
-        <v>1</v>
-      </c>
-      <c r="AH16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B16,'Week 6 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
@@ -7919,31 +9134,2353 @@
         <v>60</v>
       </c>
       <c r="C17" s="4">
-        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17)</f>
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!X:X)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!Z:Z)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>SUMIF('Week 6 Games'!$B:$B,'Week 6 Total'!$B17,'Week 6 Games'!AL:AL)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>IF(ISERROR(H2/I2),"N/A",H2/I2)</f>
+        <v>N/A</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3)</f>
+        <v>325</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3)</f>
+        <v>191</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3)</f>
+        <v>34</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3)</f>
+        <v>26</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J17" si="1">IF(ISERROR(H3/I3),"N/A",H3/I3)</f>
+        <v>1.3076923076923077</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3)</f>
+        <v>18</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3)</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3)</f>
+        <v>5</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3)</f>
+        <v>52</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3)</f>
+        <v>17</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3)</f>
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3)</f>
+        <v>145</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3)</f>
+        <v>70</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3)</f>
+        <v>75</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U17" si="2">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3)</f>
+        <v>106</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3)</f>
+        <v>63</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3)</f>
+        <v>43</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z17" si="3">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.59433962264150941</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3)</f>
+        <v>39</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3)</f>
+        <v>7</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3)</f>
+        <v>32</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3)</f>
+        <v>53</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3)</f>
+        <v>44</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3)</f>
+        <v>9</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH17" si="4">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.83018867924528306</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3)</f>
+        <v>38</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4)</f>
+        <v>110</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4)</f>
+        <v>27</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4)</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4)</f>
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4)</f>
+        <v>16</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4)</f>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4)</f>
+        <v>20</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4)</f>
+        <v>8</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4)</f>
+        <v>12</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4)</f>
+        <v>7</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4)</f>
+        <v>6</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4)</f>
+        <v>13</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4)</f>
+        <v>7</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4)</f>
+        <v>6</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4)</f>
+        <v>4</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5)</f>
+        <v>44</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5)</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5)</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5)</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5)</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5)</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5)</f>
+        <v>13</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5)</f>
+        <v>2</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5)</f>
+        <v>11</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5)</f>
+        <v>7</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5)</f>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5)</f>
+        <v>5</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5)</f>
+        <v>6</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5)</f>
+        <v>6</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5)</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5)</f>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6)</f>
+        <v>305</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6)</f>
+        <v>44</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6)</f>
+        <v>45</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6)</f>
+        <v>15</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6)</f>
+        <v>13</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6)</f>
+        <v>32</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6)</f>
+        <v>29</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6)</f>
+        <v>48</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6)</f>
+        <v>18</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6)</f>
+        <v>30</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6)</f>
+        <v>36</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6)</f>
+        <v>13</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6)</f>
+        <v>23</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6)</f>
+        <v>12</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6)</f>
+        <v>5</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6)</f>
+        <v>7</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6)</f>
+        <v>4</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6)</f>
+        <v>3</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6)</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7)</f>
+        <v>317</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7)</f>
+        <v>121</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7)</f>
+        <v>49</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7)</f>
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2272727272727271</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7)</f>
+        <v>18</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7)</f>
+        <v>11</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7)</f>
+        <v>31</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7)</f>
+        <v>7</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7)</f>
+        <v>24</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7)</f>
+        <v>94</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7)</f>
+        <v>42</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7)</f>
+        <v>52</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44680851063829785</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7)</f>
+        <v>23</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7)</f>
+        <v>11</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7)</f>
+        <v>12</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7)</f>
+        <v>71</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7)</f>
+        <v>31</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7)</f>
+        <v>40</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43661971830985913</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7)</f>
+        <v>8</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7)</f>
+        <v>6</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7)</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8)</f>
+        <v>64</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8)</f>
+        <v>14</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8)</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8)</f>
+        <v>8</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8)</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8)</f>
+        <v>11</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8)</f>
+        <v>5</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8)</f>
+        <v>6</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8)</f>
+        <v>3</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8)</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8)</f>
+        <v>2</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8)</f>
+        <v>8</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8)</f>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8)</f>
+        <v>4</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9)</f>
+        <v>270</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9)</f>
+        <v>95</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9)</f>
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9)</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9)</f>
+        <v>12</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9)</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9)</f>
+        <v>109</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9)</f>
+        <v>37</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9)</f>
+        <v>72</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9,'Week 6 Total'!Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9,'Week 6 Total'!R9)</f>
+        <v>83</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9,'Week 6 Total'!S9)</f>
+        <v>41</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9,'Week 6 Total'!T9)</f>
+        <v>42</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49397590361445781</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9,'Week 6 Total'!W9)</f>
+        <v>83</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9,'Week 6 Total'!X9)</f>
+        <v>41</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9,'Week 6 Total'!Y9)</f>
+        <v>42</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49397590361445781</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9,'Week 6 Total'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9,'Week 6 Total'!AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9,'Week 6 Total'!AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9,'Week 6 Total'!AE9)</f>
+        <v>24</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9,'Week 6 Total'!AF9)</f>
+        <v>13</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9,'Week 6 Total'!AG9)</f>
+        <v>11</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9,'Week 6 Total'!AI9)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9,'Week 6 Total'!AJ9)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10,'Week 6 Total'!C10)</f>
+        <v>317</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10,'Week 6 Total'!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10,'Week 6 Total'!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10,'Week 6 Total'!F10)</f>
+        <v>165</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10,'Week 6 Total'!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10,'Week 6 Total'!H10)</f>
+        <v>25</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10,'Week 6 Total'!I10)</f>
+        <v>26</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10,'Week 6 Total'!K10)</f>
+        <v>13</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10,'Week 6 Total'!L10)</f>
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10,'Week 6 Total'!M10)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10,'Week 6 Total'!N10)</f>
+        <v>31</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10,'Week 6 Total'!O10)</f>
+        <v>8</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10,'Week 6 Total'!P10)</f>
+        <v>23</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10,'Week 6 Total'!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10,'Week 6 Total'!R10)</f>
+        <v>135</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10,'Week 6 Total'!S10)</f>
+        <v>59</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10,'Week 6 Total'!T10)</f>
+        <v>76</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.43703703703703706</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10,'Week 6 Total'!W10)</f>
+        <v>77</v>
+      </c>
+      <c r="X10" s="4">
+        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10,'Week 6 Total'!X10)</f>
+        <v>38</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10,'Week 6 Total'!Y10)</f>
+        <v>39</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10,'Week 6 Total'!AA10)</f>
+        <v>58</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10,'Week 6 Total'!AB10)</f>
+        <v>21</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10,'Week 6 Total'!AC10)</f>
+        <v>37</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36206896551724138</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10,'Week 6 Total'!AE10)</f>
+        <v>32</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10,'Week 6 Total'!AF10)</f>
+        <v>26</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10,'Week 6 Total'!AG10)</f>
+        <v>6</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.8125</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10,'Week 6 Total'!AI10)</f>
+        <v>19</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10,'Week 6 Total'!AJ10)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11,'Week 6 Total'!C11)</f>
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11,'Week 6 Total'!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11,'Week 6 Total'!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11,'Week 6 Total'!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11,'Week 6 Total'!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11,'Week 6 Total'!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11,'Week 6 Total'!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11,'Week 6 Total'!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11,'Week 6 Total'!L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11,'Week 6 Total'!M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11,'Week 6 Total'!N11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11,'Week 6 Total'!O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11,'Week 6 Total'!P11)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11,'Week 6 Total'!Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11,'Week 6 Total'!R11)</f>
+        <v>2</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11,'Week 6 Total'!S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11,'Week 6 Total'!T11)</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11,'Week 6 Total'!W11)</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11,'Week 6 Total'!X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11,'Week 6 Total'!Y11)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11,'Week 6 Total'!AA11)</f>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11,'Week 6 Total'!AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11,'Week 6 Total'!AC11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11,'Week 6 Total'!AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11,'Week 6 Total'!AF11)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11,'Week 6 Total'!AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11,'Week 6 Total'!AI11)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11,'Week 6 Total'!AJ11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12,'Week 6 Total'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12,'Week 6 Total'!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12,'Week 6 Total'!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12,'Week 6 Total'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12,'Week 6 Total'!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12,'Week 6 Total'!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12,'Week 6 Total'!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12,'Week 6 Total'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12,'Week 6 Total'!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12,'Week 6 Total'!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12,'Week 6 Total'!N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12,'Week 6 Total'!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12,'Week 6 Total'!P12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12,'Week 6 Total'!Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12,'Week 6 Total'!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12,'Week 6 Total'!S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12,'Week 6 Total'!T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12,'Week 6 Total'!W12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12,'Week 6 Total'!X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12,'Week 6 Total'!Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12,'Week 6 Total'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12,'Week 6 Total'!AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12,'Week 6 Total'!AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12,'Week 6 Total'!AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12,'Week 6 Total'!AF12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12,'Week 6 Total'!AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12,'Week 6 Total'!AI12)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12,'Week 6 Total'!AJ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13,'Week 6 Total'!C13)</f>
+        <v>142</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13,'Week 6 Total'!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13,'Week 6 Total'!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13,'Week 6 Total'!F13)</f>
+        <v>49</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13,'Week 6 Total'!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13,'Week 6 Total'!H13)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13,'Week 6 Total'!I13)</f>
+        <v>17</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13,'Week 6 Total'!K13)</f>
+        <v>7</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13,'Week 6 Total'!L13)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13,'Week 6 Total'!M13)</f>
+        <v>27</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13,'Week 6 Total'!N13)</f>
+        <v>30</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13,'Week 6 Total'!O13)</f>
+        <v>7</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13,'Week 6 Total'!P13)</f>
+        <v>23</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13,'Week 6 Total'!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13,'Week 6 Total'!R13)</f>
+        <v>31</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13,'Week 6 Total'!S13)</f>
+        <v>23</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13,'Week 6 Total'!T13)</f>
+        <v>8</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13,'Week 6 Total'!W13)</f>
+        <v>31</v>
+      </c>
+      <c r="X13" s="4">
+        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13,'Week 6 Total'!X13)</f>
+        <v>23</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13,'Week 6 Total'!Y13)</f>
+        <v>8</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13,'Week 6 Total'!AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13,'Week 6 Total'!AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13,'Week 6 Total'!AC13)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="5">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13,'Week 6 Total'!AE13)</f>
+        <v>4</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13,'Week 6 Total'!AF13)</f>
+        <v>3</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13,'Week 6 Total'!AG13)</f>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13,'Week 6 Total'!AI13)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13,'Week 6 Total'!AJ13)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14,'Week 6 Total'!C14)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14,'Week 6 Total'!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14,'Week 6 Total'!E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14,'Week 6 Total'!F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14,'Week 6 Total'!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14,'Week 6 Total'!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14,'Week 6 Total'!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14,'Week 6 Total'!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14,'Week 6 Total'!L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14,'Week 6 Total'!M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14,'Week 6 Total'!N14)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14,'Week 6 Total'!O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14,'Week 6 Total'!P14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14,'Week 6 Total'!Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14,'Week 6 Total'!R14)</f>
+        <v>2</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14,'Week 6 Total'!S14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14,'Week 6 Total'!T14)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14,'Week 6 Total'!W14)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14,'Week 6 Total'!X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14,'Week 6 Total'!Y14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14,'Week 6 Total'!AA14)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14,'Week 6 Total'!AB14)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14,'Week 6 Total'!AC14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14,'Week 6 Total'!AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14,'Week 6 Total'!AF14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14,'Week 6 Total'!AG14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14,'Week 6 Total'!AI14)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14,'Week 6 Total'!AJ14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15,'Week 6 Total'!C15)</f>
+        <v>78</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15,'Week 6 Total'!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15,'Week 6 Total'!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15,'Week 6 Total'!F15)</f>
+        <v>36</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15,'Week 6 Total'!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15,'Week 6 Total'!H15)</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15,'Week 6 Total'!I15)</f>
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15,'Week 6 Total'!K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15,'Week 6 Total'!L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15,'Week 6 Total'!M15)</f>
+        <v>9</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15,'Week 6 Total'!N15)</f>
+        <v>18</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15,'Week 6 Total'!O15)</f>
+        <v>7</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15,'Week 6 Total'!P15)</f>
+        <v>11</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15,'Week 6 Total'!Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15,'Week 6 Total'!R15)</f>
+        <v>29</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15,'Week 6 Total'!S15)</f>
+        <v>14</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15,'Week 6 Total'!T15)</f>
+        <v>15</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15,'Week 6 Total'!W15)</f>
+        <v>18</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15,'Week 6 Total'!X15)</f>
+        <v>10</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15,'Week 6 Total'!Y15)</f>
+        <v>8</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15,'Week 6 Total'!AA15)</f>
+        <v>11</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15,'Week 6 Total'!AB15)</f>
+        <v>4</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15,'Week 6 Total'!AC15)</f>
+        <v>7</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15,'Week 6 Total'!AE15)</f>
+        <v>5</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15,'Week 6 Total'!AF15)</f>
+        <v>4</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15,'Week 6 Total'!AG15)</f>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15,'Week 6 Total'!AI15)</f>
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15,'Week 6 Total'!AJ15)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16,'Week 6 Total'!C16)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16,'Week 6 Total'!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16,'Week 6 Total'!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16,'Week 6 Total'!F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16,'Week 6 Total'!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16,'Week 6 Total'!H16)</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16,'Week 6 Total'!I16)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16,'Week 6 Total'!K16)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16,'Week 6 Total'!L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16,'Week 6 Total'!M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16,'Week 6 Total'!N16)</f>
+        <v>6</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16,'Week 6 Total'!O16)</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16,'Week 6 Total'!P16)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16,'Week 6 Total'!Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16,'Week 6 Total'!R16)</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16,'Week 6 Total'!S16)</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16,'Week 6 Total'!T16)</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16,'Week 6 Total'!W16)</f>
+        <v>3</v>
+      </c>
+      <c r="X16" s="4">
+        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16,'Week 6 Total'!X16)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16,'Week 6 Total'!Y16)</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16,'Week 6 Total'!AA16)</f>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16,'Week 6 Total'!AB16)</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16,'Week 6 Total'!AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16,'Week 6 Total'!AE16)</f>
+        <v>2</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16,'Week 6 Total'!AF16)</f>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16,'Week 6 Total'!AG16)</f>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI16" s="4">
+        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16,'Week 6 Total'!AI16)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16,'Week 6 Total'!AJ16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17,'Week 6 Total'!C17)</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17)</f>
+        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17,'Week 6 Total'!D17)</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17)</f>
+        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17,'Week 6 Total'!E17)</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17)</f>
+        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17,'Week 6 Total'!F17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17)</f>
+        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17,'Week 6 Total'!G17)</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17)</f>
+        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17,'Week 6 Total'!H17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17)</f>
+        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17,'Week 6 Total'!I17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="4" t="str">
@@ -7951,43 +11488,43 @@
         <v>N/A</v>
       </c>
       <c r="K17" s="4">
-        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17)</f>
+        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17,'Week 6 Total'!K17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17)</f>
+        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17,'Week 6 Total'!L17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17)</f>
+        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17,'Week 6 Total'!M17)</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17)</f>
+        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17,'Week 6 Total'!N17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17)</f>
+        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17,'Week 6 Total'!O17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17)</f>
+        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17,'Week 6 Total'!P17)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17)</f>
+        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17,'Week 6 Total'!Q17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17)</f>
+        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17,'Week 6 Total'!R17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
-        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17)</f>
+        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17,'Week 6 Total'!S17)</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
-        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17)</f>
+        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17,'Week 6 Total'!T17)</f>
         <v>0</v>
       </c>
       <c r="U17" s="2">
@@ -7996,15 +11533,15 @@
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4">
-        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17)</f>
+        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17,'Week 6 Total'!W17)</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17)</f>
+        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17,'Week 6 Total'!X17)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
-        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17)</f>
+        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17,'Week 6 Total'!Y17)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="2">
@@ -8012,15 +11549,15 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4">
-        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17)</f>
+        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17,'Week 6 Total'!AA17)</f>
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17)</f>
+        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17,'Week 6 Total'!AB17)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="4">
-        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17)</f>
+        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17,'Week 6 Total'!AC17)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="2">
@@ -8028,15 +11565,15 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4">
-        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17)</f>
+        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17,'Week 6 Total'!AE17)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="4">
-        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17)</f>
+        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17,'Week 6 Total'!AF17)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="4">
-        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17)</f>
+        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17,'Week 6 Total'!AG17)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="2">
@@ -8044,11 +11581,11 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17)</f>
+        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17,'Week 6 Total'!AI17)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17)</f>
+        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17,'Week 6 Total'!AJ17)</f>
         <v>0</v>
       </c>
     </row>
@@ -8062,8 +11599,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8296,11 +11833,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B2,'Week 1 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B2,'Week 1 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B2,'Week 1 Games'!AK:AK)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B2,'Week 1 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -8419,12 +11956,12 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B3,'Week 1 Games'!AJ:AJ)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="4">
         <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B3,'Week 1 Games'!AK:AK)</f>
         <v>6</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B3,'Week 1 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -8542,12 +12079,12 @@
         <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B4,'Week 1 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B4,'Week 1 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B4,'Week 1 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B4,'Week 1 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -8665,12 +12202,12 @@
         <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B5,'Week 1 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B5,'Week 1 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B5,'Week 1 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B5,'Week 1 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -8788,12 +12325,12 @@
         <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B6,'Week 1 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B6,'Week 1 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B6,'Week 1 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B6,'Week 1 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -8911,12 +12448,12 @@
         <v>1</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B7,'Week 1 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B7,'Week 1 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B7,'Week 1 Games'!AK:AK)</f>
-        <v>2</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B7,'Week 1 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -9034,12 +12571,12 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B8,'Week 1 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B8,'Week 1 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B8,'Week 1 Games'!AK:AK)</f>
-        <v>2</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B8,'Week 1 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -9157,12 +12694,12 @@
         <v>0.75</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B9,'Week 1 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B9,'Week 1 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B9,'Week 1 Games'!AK:AK)</f>
-        <v>2</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B9,'Week 1 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -9280,12 +12817,12 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B10,'Week 1 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B10,'Week 1 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ10" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B10,'Week 1 Games'!AK:AK)</f>
-        <v>2</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B10,'Week 1 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -9403,12 +12940,12 @@
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B11,'Week 1 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B11,'Week 1 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B11,'Week 1 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B11,'Week 1 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -9526,11 +13063,11 @@
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B12,'Week 1 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B12,'Week 1 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B12,'Week 1 Games'!AK:AK)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B12,'Week 1 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -9649,12 +13186,12 @@
         <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B13,'Week 1 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B13,'Week 1 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B13,'Week 1 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B13,'Week 1 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -9772,11 +13309,11 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B14,'Week 1 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B14,'Week 1 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B14,'Week 1 Games'!AK:AK)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B14,'Week 1 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -9895,12 +13432,12 @@
         <v>0</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B15,'Week 1 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B15,'Week 1 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B15,'Week 1 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B15,'Week 1 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -10018,11 +13555,11 @@
         <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B16,'Week 1 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B16,'Week 1 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B16,'Week 1 Games'!AK:AK)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B16,'Week 1 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -10141,11 +13678,11 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B17,'Week 1 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B17,'Week 1 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B17,'Week 1 Games'!AK:AK)</f>
+        <f>SUMIF('Week 1 Games'!$B:$B,'Week 1 Total'!$B17,'Week 1 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -12817,8 +16354,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13048,11 +16585,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B2,'Week 2 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B2,'Week 2 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B2,'Week 2 Games'!AK:AK)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B2,'Week 2 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -13171,12 +16708,12 @@
         <v>0.75</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B3,'Week 2 Games'!AJ:AJ)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="4">
         <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B3,'Week 2 Games'!AK:AK)</f>
         <v>7</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B3,'Week 2 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -13294,11 +16831,11 @@
         <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B4,'Week 2 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B4,'Week 2 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B4,'Week 2 Games'!AK:AK)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B4,'Week 2 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -13417,12 +16954,12 @@
         <v>1</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B5,'Week 2 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B5,'Week 2 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B5,'Week 2 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B5,'Week 2 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -13540,12 +17077,12 @@
         <v>0.75</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B6,'Week 2 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B6,'Week 2 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B6,'Week 2 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B6,'Week 2 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -13663,11 +17200,11 @@
         <v>1</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B7,'Week 2 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B7,'Week 2 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B7,'Week 2 Games'!AK:AK)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B7,'Week 2 Games'!AL:AL)</f>
         <v>1</v>
       </c>
     </row>
@@ -13786,12 +17323,12 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B8,'Week 2 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B8,'Week 2 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B8,'Week 2 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B8,'Week 2 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -13909,12 +17446,12 @@
         <v>0.5</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B9,'Week 2 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B9,'Week 2 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B9,'Week 2 Games'!AK:AK)</f>
-        <v>2</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B9,'Week 2 Games'!AL:AL)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -14032,12 +17569,12 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B10,'Week 2 Games'!AJ:AJ)</f>
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="4">
         <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B10,'Week 2 Games'!AK:AK)</f>
         <v>7</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B10,'Week 2 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -14155,11 +17692,11 @@
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B11,'Week 2 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B11,'Week 2 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B11,'Week 2 Games'!AK:AK)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B11,'Week 2 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -14278,11 +17815,11 @@
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B12,'Week 2 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B12,'Week 2 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B12,'Week 2 Games'!AK:AK)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B12,'Week 2 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -14401,12 +17938,12 @@
         <v>1</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B13,'Week 2 Games'!AJ:AJ)</f>
-        <v>1</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B13,'Week 2 Games'!AK:AK)</f>
+        <v>3</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B13,'Week 2 Games'!AK:AK)</f>
-        <v>3</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B13,'Week 2 Games'!AL:AL)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -14524,11 +18061,11 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B14,'Week 2 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B14,'Week 2 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B14,'Week 2 Games'!AK:AK)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B14,'Week 2 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -14647,12 +18184,12 @@
         <v>1</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B15,'Week 2 Games'!AJ:AJ)</f>
-        <v>1</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B15,'Week 2 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B15,'Week 2 Games'!AK:AK)</f>
-        <v>2</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B15,'Week 2 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -14770,12 +18307,12 @@
         <v>0.5</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B16,'Week 2 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B16,'Week 2 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B16,'Week 2 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B16,'Week 2 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
@@ -14893,11 +18430,11 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B17,'Week 2 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B17,'Week 2 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B17,'Week 2 Games'!AK:AK)</f>
+        <f>SUMIF('Week 2 Games'!$B:$B,'Week 2 Total'!$B17,'Week 2 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -18263,8 +21800,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18494,11 +22031,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B2,'Week 3 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B2,'Week 3 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B2,'Week 3 Games'!AK:AK)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B2,'Week 3 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -18617,12 +22154,12 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B3,'Week 3 Games'!AJ:AJ)</f>
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="4">
         <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B3,'Week 3 Games'!AK:AK)</f>
         <v>16</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B3,'Week 3 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -18740,12 +22277,12 @@
         <v>1</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B4,'Week 3 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B4,'Week 3 Games'!AK:AK)</f>
+        <v>3</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B4,'Week 3 Games'!AK:AK)</f>
-        <v>3</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B4,'Week 3 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -18863,11 +22400,11 @@
         <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B5,'Week 3 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B5,'Week 3 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B5,'Week 3 Games'!AK:AK)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B5,'Week 3 Games'!AL:AL)</f>
         <v>2</v>
       </c>
     </row>
@@ -18986,12 +22523,12 @@
         <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B6,'Week 3 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B6,'Week 3 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B6,'Week 3 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B6,'Week 3 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -19109,12 +22646,12 @@
         <v>1</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B7,'Week 3 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B7,'Week 3 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B7,'Week 3 Games'!AK:AK)</f>
-        <v>2</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B7,'Week 3 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -19232,11 +22769,11 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B8,'Week 3 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B8,'Week 3 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B8,'Week 3 Games'!AK:AK)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B8,'Week 3 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -19355,12 +22892,12 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B9,'Week 3 Games'!AJ:AJ)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="4">
         <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B9,'Week 3 Games'!AK:AK)</f>
         <v>6</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B9,'Week 3 Games'!AL:AL)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -19478,12 +23015,12 @@
         <v>0.875</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B10,'Week 3 Games'!AJ:AJ)</f>
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="4">
         <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B10,'Week 3 Games'!AK:AK)</f>
         <v>7</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B10,'Week 3 Games'!AL:AL)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -19601,11 +23138,11 @@
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B11,'Week 3 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B11,'Week 3 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B11,'Week 3 Games'!AK:AK)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B11,'Week 3 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -19724,11 +23261,11 @@
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B12,'Week 3 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B12,'Week 3 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B12,'Week 3 Games'!AK:AK)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B12,'Week 3 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -19847,12 +23384,12 @@
         <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B13,'Week 3 Games'!AJ:AJ)</f>
-        <v>1</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B13,'Week 3 Games'!AK:AK)</f>
+        <v>3</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B13,'Week 3 Games'!AK:AK)</f>
-        <v>3</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B13,'Week 3 Games'!AL:AL)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -19970,11 +23507,11 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B14,'Week 3 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B14,'Week 3 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B14,'Week 3 Games'!AK:AK)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B14,'Week 3 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -20093,12 +23630,12 @@
         <v>0.5</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B15,'Week 3 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B15,'Week 3 Games'!AK:AK)</f>
+        <v>3</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B15,'Week 3 Games'!AK:AK)</f>
-        <v>3</v>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B15,'Week 3 Games'!AL:AL)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -20216,11 +23753,11 @@
         <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B16,'Week 3 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B16,'Week 3 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B16,'Week 3 Games'!AK:AK)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B16,'Week 3 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -20339,11 +23876,11 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B17,'Week 3 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B17,'Week 3 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B17,'Week 3 Games'!AK:AK)</f>
+        <f>SUMIF('Week 3 Games'!$B:$B,'Week 3 Total'!$B17,'Week 3 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -21291,8 +24828,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21522,11 +25059,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B2,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -21645,12 +25182,12 @@
         <v>0.75</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ3" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AK:AK)</f>
-        <v>2</v>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B3,'Week 4 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -21768,11 +25305,11 @@
         <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B4,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -21891,11 +25428,11 @@
         <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B5,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -22014,12 +25551,12 @@
         <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AJ:AJ)</f>
-        <v>0</v>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AK:AK)</f>
-        <v>1</v>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B6,'Week 4 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -22137,12 +25674,12 @@
         <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B7,'Week 4 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -22260,11 +25797,11 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B8,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -22383,11 +25920,11 @@
         <v>0</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B9,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -22506,12 +26043,12 @@
         <v>0.5</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B10,'Week 4 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -22629,11 +26166,11 @@
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B11,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -22752,11 +26289,11 @@
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B12,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -22875,12 +26412,12 @@
         <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B13,'Week 4 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -22998,11 +26535,11 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B14,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -23121,12 +26658,12 @@
         <v>0</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AK:AK)</f>
-        <v>0</v>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B15,'Week 4 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -23244,11 +26781,11 @@
         <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B16,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -23367,11 +26904,11 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AJ:AJ)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AK:AK)</f>
+        <f>SUMIF('Week 4 Games'!$B:$B,'Week 4 Total'!$B17,'Week 4 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -23386,7 +26923,7 @@
   <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23509,7 +27046,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>

--- a/Game-data/WBBGame stats.xlsx
+++ b/Game-data/WBBGame stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Documents/STAT 251/WBB Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Documents/WBB Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B098593-CB43-A34F-81D4-05BD687A950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8430FA-51A6-2F47-B81C-71476DB8F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="12" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="14" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Games" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <sheet name="Week 5 Total" sheetId="13" r:id="rId10"/>
     <sheet name="Week 6 Games" sheetId="14" r:id="rId11"/>
     <sheet name="Week 6 Total" sheetId="15" r:id="rId12"/>
-    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId13"/>
+    <sheet name="Week 7 Games" sheetId="16" r:id="rId13"/>
+    <sheet name="Week 7 Total" sheetId="17" r:id="rId14"/>
+    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="71">
   <si>
     <t>MP</t>
   </si>
@@ -256,6 +258,9 @@
   </si>
   <si>
     <t>Washington State</t>
+  </si>
+  <si>
+    <t>Montana State</t>
   </si>
 </sst>
 </file>
@@ -5735,8 +5740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C33E10-A2A8-B846-A451-8FF19A53AE71}">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7123,8 +7128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2610B210-1423-7A4D-BC82-ED2279A01F12}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9261,12 +9266,1627 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CAC7CF-B076-304E-8AA0-8FA322B80ED6}">
+  <dimension ref="A1:AL14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <f>D2*24</f>
+        <v>26</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="E2">
+        <v>2.15</v>
+      </c>
+      <c r="F2">
+        <v>0.96</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>1.17</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>9</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="X2">
+        <v>15</v>
+      </c>
+      <c r="Y2">
+        <v>8</v>
+      </c>
+      <c r="Z2">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>2</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C14" si="0">D3*24</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.39</v>
+      </c>
+      <c r="F3">
+        <v>0.33</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0.33</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E4">
+        <v>2.15</v>
+      </c>
+      <c r="F4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1.29</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>-0.09</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>1.17</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0.67</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.167</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6">
+        <v>1.32</v>
+      </c>
+      <c r="F6">
+        <v>0.48</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1.43</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7">
+        <v>0.79</v>
+      </c>
+      <c r="F7">
+        <v>0.12</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2.16</v>
+      </c>
+      <c r="F8">
+        <v>1.25</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>1.25</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="X8">
+        <v>11</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9">
+        <v>0.52</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E11">
+        <v>1.71</v>
+      </c>
+      <c r="F11">
+        <v>1.23</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E12">
+        <v>0.34</v>
+      </c>
+      <c r="F12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.33</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13">
+        <v>1.43</v>
+      </c>
+      <c r="F13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>0.89</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7862CC5D-F562-AE46-9EDA-81D7AB4CE298}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AJ27" sqref="AJ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9386,75 +11006,63 @@
         <v>58</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
-        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="str">
-        <f>IF(ISERROR(H2/I2),"N/A",H2/I2)</f>
-        <v>N/A</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
-        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O2" s="4">
-        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4">
-        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T2" s="4">
-        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U2" s="2">
@@ -9463,15 +11071,15 @@
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4">
-        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X2" s="4">
-        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="2">
@@ -9479,15 +11087,15 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4">
-        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="4">
-        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="4">
-        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="2">
@@ -9495,15 +11103,15 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="4">
-        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="4">
-        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="2">
@@ -9511,11 +11119,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B2,'Week 7 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -9524,137 +11132,125 @@
         <v>29</v>
       </c>
       <c r="C3" s="4">
-        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3)</f>
-        <v>325</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!C:C)</f>
+        <v>26</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3)</f>
-        <v>191</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!G:G)</f>
+        <v>21</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3)</f>
-        <v>34</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!I:I)</f>
+        <v>5</v>
       </c>
       <c r="I3" s="4">
-        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3)</f>
-        <v>26</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J17" si="1">IF(ISERROR(H3/I3),"N/A",H3/I3)</f>
-        <v>1.3076923076923077</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3)</f>
-        <v>18</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!L:L)</f>
+        <v>4</v>
       </c>
       <c r="L3" s="4">
-        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!O:O)</f>
         <v>5</v>
       </c>
-      <c r="M3" s="4">
-        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3)</f>
-        <v>5</v>
-      </c>
-      <c r="N3" s="4">
-        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3)</f>
-        <v>52</v>
-      </c>
       <c r="O3" s="4">
-        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!P:P)</f>
+        <v>2</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!S:S)</f>
         <v>17</v>
       </c>
-      <c r="P3" s="4">
-        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3)</f>
-        <v>35</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3)</f>
-        <v>145</v>
-      </c>
       <c r="S3" s="4">
-        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3)</f>
-        <v>70</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!T:T)</f>
+        <v>9</v>
       </c>
       <c r="T3" s="4">
-        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3)</f>
-        <v>75</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!U:U)</f>
+        <v>8</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" ref="U3:U17" si="2">IF(ISERROR(S3/R3),0,S3/R3)</f>
-        <v>0.48275862068965519</v>
+        <f t="shared" ref="U3:U17" si="1">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.52941176470588236</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4">
-        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3)</f>
-        <v>106</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!X:X)</f>
+        <v>15</v>
       </c>
       <c r="X3" s="4">
-        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3)</f>
-        <v>63</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!Y:Y)</f>
+        <v>8</v>
       </c>
       <c r="Y3" s="4">
-        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3)</f>
-        <v>43</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!Z:Z)</f>
+        <v>7</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z17" si="3">IF(ISERROR(X3/W3),0,X3/W3)</f>
-        <v>0.59433962264150941</v>
+        <f t="shared" ref="Z3:Z17" si="2">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AA3" s="4">
-        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3)</f>
-        <v>39</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!AB:AB)</f>
+        <v>2</v>
       </c>
       <c r="AB3" s="4">
-        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3)</f>
-        <v>7</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC3" s="4">
-        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3)</f>
-        <v>32</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!AD:AD)</f>
+        <v>1</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>0.17948717948717949</v>
+        <v>0.5</v>
       </c>
       <c r="AE3" s="4">
-        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3)</f>
-        <v>53</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!AF:AF)</f>
+        <v>3</v>
       </c>
       <c r="AF3" s="4">
-        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3)</f>
-        <v>44</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!AG:AG)</f>
+        <v>2</v>
       </c>
       <c r="AG3" s="4">
-        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3)</f>
-        <v>9</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!AH:AH)</f>
+        <v>1</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" ref="AH3:AH17" si="4">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
-        <v>0.83018867924528306</v>
+        <f t="shared" ref="AH3:AH17" si="3">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3)</f>
-        <v>38</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ3" s="4">
-        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3)</f>
-        <v>22</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B3,'Week 7 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -9662,137 +11258,125 @@
         <v>30</v>
       </c>
       <c r="C4" s="4">
-        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4)</f>
-        <v>110</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!C:C)</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4)</f>
-        <v>27</v>
-      </c>
-      <c r="G4" s="4">
-        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!G:G)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!I:I)</f>
+        <v>2</v>
       </c>
       <c r="I4" s="4">
-        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4)</f>
-        <v>9</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!J:J)</f>
+        <v>2</v>
       </c>
       <c r="J4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!K:K)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!M:M)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!O:O)</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!Q:Q)</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!S:S)</f>
+        <v>4</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!T:T)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!U:U)</f>
+        <v>3</v>
+      </c>
+      <c r="U4" s="2">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K4" s="4">
-        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4)</f>
-        <v>6</v>
-      </c>
-      <c r="L4" s="4">
-        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4)</f>
-        <v>16</v>
-      </c>
-      <c r="O4" s="4">
-        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4)</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4)</f>
-        <v>15</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4)</f>
-        <v>20</v>
-      </c>
-      <c r="S4" s="4">
-        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4)</f>
-        <v>8</v>
-      </c>
-      <c r="T4" s="4">
-        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4)</f>
-        <v>12</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4">
-        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4)</f>
-        <v>7</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!X:X)</f>
+        <v>1</v>
       </c>
       <c r="X4" s="4">
-        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!Y:Y)</f>
         <v>1</v>
       </c>
       <c r="Y4" s="4">
-        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA4" s="4">
-        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4)</f>
-        <v>13</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB4" s="4">
-        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4)</f>
-        <v>7</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC4" s="4">
-        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!AD:AD)</f>
+        <v>3</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4">
-        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4)</f>
-        <v>4</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF4" s="4">
-        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4)</f>
-        <v>4</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG4" s="4">
-        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4)</f>
-        <v>5</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4)</f>
-        <v>12</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B4,'Week 7 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -9800,137 +11384,125 @@
         <v>31</v>
       </c>
       <c r="C5" s="4">
-        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5)</f>
-        <v>44</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!C:C)</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5)</f>
-        <v>6</v>
-      </c>
-      <c r="G5" s="4">
-        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!G:G)</f>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
-        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!J:J)</f>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!K:K)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!S:S)</f>
+        <v>5</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!T:T)</f>
+        <v>4</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!U:U)</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5)</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5)</f>
-        <v>4</v>
-      </c>
-      <c r="O5" s="4">
-        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5)</f>
-        <v>2</v>
-      </c>
-      <c r="P5" s="4">
-        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5)</f>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5)</f>
-        <v>13</v>
-      </c>
-      <c r="S5" s="4">
-        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5)</f>
-        <v>2</v>
-      </c>
-      <c r="T5" s="4">
-        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5)</f>
-        <v>11</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
+        <v>0.8</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4">
-        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5)</f>
-        <v>7</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!X:X)</f>
+        <v>4</v>
       </c>
       <c r="X5" s="4">
-        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!Y:Y)</f>
+        <v>3</v>
       </c>
       <c r="Y5" s="4">
-        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5)</f>
-        <v>5</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
       <c r="AA5" s="4">
-        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!AB:AB)</f>
+        <v>1</v>
       </c>
       <c r="AB5" s="4">
-        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5)</f>
-        <v>0</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC5" s="4">
-        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="4">
-        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF5" s="4">
-        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5)</f>
-        <v>4</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5)</f>
-        <v>5</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B5,'Week 7 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -9938,137 +11510,125 @@
         <v>32</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6)</f>
-        <v>305</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!C:C)</f>
+        <v>22</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6)</f>
-        <v>44</v>
-      </c>
-      <c r="G6" s="4">
-        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6)</f>
-        <v>45</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!I:I)</f>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
-        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6)</f>
-        <v>15</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!J:J)</f>
+        <v>3</v>
       </c>
       <c r="J6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!K:K)</f>
+        <v>0.67</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!M:M)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!S:S)</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!T:T)</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K6" s="4">
-        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6)</f>
-        <v>13</v>
-      </c>
-      <c r="L6" s="4">
-        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6)</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6)</f>
-        <v>32</v>
-      </c>
-      <c r="O6" s="4">
-        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6)</f>
-        <v>3</v>
-      </c>
-      <c r="P6" s="4">
-        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6)</f>
-        <v>29</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6)</f>
-        <v>48</v>
-      </c>
-      <c r="S6" s="4">
-        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6)</f>
-        <v>18</v>
-      </c>
-      <c r="T6" s="4">
-        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6)</f>
-        <v>30</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4">
-        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6)</f>
-        <v>36</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!X:X)</f>
+        <v>2</v>
       </c>
       <c r="X6" s="4">
-        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6)</f>
-        <v>13</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!Y:Y)</f>
+        <v>2</v>
       </c>
       <c r="Y6" s="4">
-        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6)</f>
-        <v>23</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3611111111111111</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA6" s="4">
-        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6)</f>
-        <v>12</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!AB:AB)</f>
+        <v>1</v>
       </c>
       <c r="AB6" s="4">
-        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6)</f>
-        <v>5</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC6" s="4">
-        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6)</f>
-        <v>7</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="4">
-        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6)</f>
-        <v>4</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF6" s="4">
-        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG6" s="4">
-        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6)</f>
-        <v>17</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B6,'Week 7 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -10076,137 +11636,125 @@
         <v>33</v>
       </c>
       <c r="C7" s="4">
-        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7)</f>
-        <v>317</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!C:C)</f>
+        <v>23</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7)</f>
-        <v>121</v>
-      </c>
-      <c r="G7" s="4">
-        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!G:G)</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7)</f>
-        <v>49</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!I:I)</f>
+        <v>4</v>
       </c>
       <c r="I7" s="4">
-        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7)</f>
-        <v>22</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!O:O)</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!Q:Q)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!S:S)</f>
+        <v>6</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!T:T)</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!U:U)</f>
+        <v>3</v>
+      </c>
+      <c r="U7" s="2">
         <f t="shared" si="1"/>
-        <v>2.2272727272727271</v>
-      </c>
-      <c r="K7" s="4">
-        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7)</f>
-        <v>18</v>
-      </c>
-      <c r="L7" s="4">
-        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7)</f>
-        <v>11</v>
-      </c>
-      <c r="N7" s="4">
-        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7)</f>
-        <v>31</v>
-      </c>
-      <c r="O7" s="4">
-        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7)</f>
-        <v>7</v>
-      </c>
-      <c r="P7" s="4">
-        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7)</f>
-        <v>24</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7)</f>
-        <v>94</v>
-      </c>
-      <c r="S7" s="4">
-        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7)</f>
-        <v>42</v>
-      </c>
-      <c r="T7" s="4">
-        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7)</f>
-        <v>52</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.44680851063829785</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4">
-        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7)</f>
-        <v>23</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!X:X)</f>
+        <v>1</v>
       </c>
       <c r="X7" s="4">
-        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7)</f>
-        <v>11</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y7" s="4">
-        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7)</f>
-        <v>12</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.47826086956521741</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA7" s="4">
-        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7)</f>
-        <v>71</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!AB:AB)</f>
+        <v>5</v>
       </c>
       <c r="AB7" s="4">
-        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7)</f>
-        <v>31</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!AC:AC)</f>
+        <v>2</v>
       </c>
       <c r="AC7" s="4">
-        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7)</f>
-        <v>40</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!AD:AD)</f>
+        <v>3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>0.43661971830985913</v>
+        <v>0.4</v>
       </c>
       <c r="AE7" s="4">
-        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7)</f>
-        <v>8</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF7" s="4">
-        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!AG:AG)</f>
+        <v>2</v>
       </c>
       <c r="AG7" s="4">
-        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7)</f>
-        <v>2</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7)</f>
-        <v>7</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7)</f>
-        <v>19</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B7,'Week 7 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -10214,137 +11762,125 @@
         <v>34</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8)</f>
-        <v>64</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!C:C)</f>
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8)</f>
-        <v>14</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!I:I)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!S:S)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="4">
-        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="S8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!T:T)</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!U:U)</f>
+        <v>3</v>
+      </c>
+      <c r="U8" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="4">
-        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8)</f>
-        <v>8</v>
-      </c>
-      <c r="O8" s="4">
-        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8)</f>
-        <v>2</v>
-      </c>
-      <c r="P8" s="4">
-        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8)</f>
-        <v>6</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8)</f>
-        <v>11</v>
-      </c>
-      <c r="S8" s="4">
-        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8)</f>
-        <v>5</v>
-      </c>
-      <c r="T8" s="4">
-        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8)</f>
-        <v>6</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.45454545454545453</v>
+        <v>0.25</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4">
-        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8)</f>
-        <v>3</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!X:X)</f>
+        <v>1</v>
       </c>
       <c r="X8" s="4">
-        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y8" s="4">
-        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA8" s="4">
-        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8)</f>
-        <v>8</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB8" s="4">
-        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8)</f>
-        <v>4</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC8" s="4">
-        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8)</f>
-        <v>4</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!AD:AD)</f>
+        <v>2</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE8" s="4">
-        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8)</f>
-        <v>0</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF8" s="4">
-        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8)</f>
-        <v>0</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!AG:AG)</f>
+        <v>2</v>
       </c>
       <c r="AG8" s="4">
-        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8)</f>
-        <v>8</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B8,'Week 7 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -10352,108 +11888,96 @@
         <v>35</v>
       </c>
       <c r="C9" s="4">
-        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9)</f>
-        <v>270</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!C:C)</f>
+        <v>24</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9)</f>
-        <v>95</v>
-      </c>
-      <c r="G9" s="4">
-        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!G:G)</f>
+        <v>15</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
-        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!I:I)</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!O:O)</f>
+        <v>18</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!P:P)</f>
+        <v>6</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!Q:Q)</f>
         <v>12</v>
       </c>
-      <c r="I9" s="4">
-        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9)</f>
-        <v>9</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!S:S)</f>
+        <v>11</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!T:T)</f>
+        <v>7</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!U:U)</f>
+        <v>4</v>
+      </c>
+      <c r="U9" s="2">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K9" s="4">
-        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9)</f>
-        <v>12</v>
-      </c>
-      <c r="L9" s="4">
-        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9)</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9)</f>
-        <v>3</v>
-      </c>
-      <c r="N9" s="4">
-        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9)</f>
-        <v>109</v>
-      </c>
-      <c r="O9" s="4">
-        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9)</f>
-        <v>37</v>
-      </c>
-      <c r="P9" s="4">
-        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9)</f>
-        <v>72</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9,'Week 6 Total'!Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9,'Week 6 Total'!R9)</f>
-        <v>83</v>
-      </c>
-      <c r="S9" s="4">
-        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9,'Week 6 Total'!S9)</f>
-        <v>41</v>
-      </c>
-      <c r="T9" s="4">
-        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9,'Week 6 Total'!T9)</f>
-        <v>42</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.49397590361445781</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4">
-        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9,'Week 6 Total'!W9)</f>
-        <v>83</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!X:X)</f>
+        <v>11</v>
       </c>
       <c r="X9" s="4">
-        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9,'Week 6 Total'!X9)</f>
-        <v>41</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!Y:Y)</f>
+        <v>7</v>
       </c>
       <c r="Y9" s="4">
-        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9,'Week 6 Total'!Y9)</f>
-        <v>42</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!Z:Z)</f>
+        <v>4</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49397590361445781</v>
+        <f t="shared" si="2"/>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AA9" s="4">
-        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9,'Week 6 Total'!AA9)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9,'Week 6 Total'!AB9)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9,'Week 6 Total'!AC9)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="2">
@@ -10461,28 +11985,28 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4">
-        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9,'Week 6 Total'!AE9)</f>
-        <v>24</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF9" s="4">
-        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9,'Week 6 Total'!AF9)</f>
-        <v>13</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!AG:AG)</f>
+        <v>1</v>
       </c>
       <c r="AG9" s="4">
-        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9,'Week 6 Total'!AG9)</f>
-        <v>11</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!AH:AH)</f>
+        <v>1</v>
       </c>
       <c r="AH9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.54166666666666663</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9,'Week 6 Total'!AI9)</f>
-        <v>18</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9,'Week 6 Total'!AJ9)</f>
-        <v>24</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B9,'Week 7 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -10490,137 +12014,125 @@
         <v>67</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10,'Week 6 Total'!C10)</f>
-        <v>317</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10,'Week 6 Total'!D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10,'Week 6 Total'!E10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!C:C)</f>
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10,'Week 6 Total'!F10)</f>
-        <v>165</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10,'Week 6 Total'!G10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10,'Week 6 Total'!H10)</f>
-        <v>25</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!I:I)</f>
+        <v>3</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10,'Week 6 Total'!I10)</f>
-        <v>26</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!J:J)</f>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!K:K)</f>
+        <v>3</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!L:L)</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!O:O)</f>
+        <v>3</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!P:P)</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!Q:Q)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!S:S)</f>
+        <v>11</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!T:T)</f>
+        <v>2</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!U:U)</f>
+        <v>9</v>
+      </c>
+      <c r="U10" s="2">
         <f t="shared" si="1"/>
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="K10" s="4">
-        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10,'Week 6 Total'!K10)</f>
-        <v>13</v>
-      </c>
-      <c r="L10" s="4">
-        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10,'Week 6 Total'!L10)</f>
-        <v>5</v>
-      </c>
-      <c r="M10" s="4">
-        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10,'Week 6 Total'!M10)</f>
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10,'Week 6 Total'!N10)</f>
-        <v>31</v>
-      </c>
-      <c r="O10" s="4">
-        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10,'Week 6 Total'!O10)</f>
-        <v>8</v>
-      </c>
-      <c r="P10" s="4">
-        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10,'Week 6 Total'!P10)</f>
-        <v>23</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10,'Week 6 Total'!Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10,'Week 6 Total'!R10)</f>
-        <v>135</v>
-      </c>
-      <c r="S10" s="4">
-        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10,'Week 6 Total'!S10)</f>
-        <v>59</v>
-      </c>
-      <c r="T10" s="4">
-        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10,'Week 6 Total'!T10)</f>
-        <v>76</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.43703703703703706</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4">
-        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10,'Week 6 Total'!W10)</f>
-        <v>77</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!X:X)</f>
+        <v>4</v>
       </c>
       <c r="X10" s="4">
-        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10,'Week 6 Total'!X10)</f>
-        <v>38</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y10" s="4">
-        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10,'Week 6 Total'!Y10)</f>
-        <v>39</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!Z:Z)</f>
+        <v>3</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.4935064935064935</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="AA10" s="4">
-        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10,'Week 6 Total'!AA10)</f>
-        <v>58</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!AB:AB)</f>
+        <v>7</v>
       </c>
       <c r="AB10" s="4">
-        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10,'Week 6 Total'!AB10)</f>
-        <v>21</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC10" s="4">
-        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10,'Week 6 Total'!AC10)</f>
-        <v>37</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!AD:AD)</f>
+        <v>6</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="0"/>
-        <v>0.36206896551724138</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AE10" s="4">
-        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10,'Week 6 Total'!AE10)</f>
-        <v>32</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF10" s="4">
-        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10,'Week 6 Total'!AF10)</f>
-        <v>26</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!AG:AG)</f>
+        <v>2</v>
       </c>
       <c r="AG10" s="4">
-        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10,'Week 6 Total'!AG10)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.8125</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10,'Week 6 Total'!AI10)</f>
-        <v>19</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ10" s="4">
-        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10,'Week 6 Total'!AJ10)</f>
-        <v>29</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B10,'Week 7 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -10628,137 +12140,125 @@
         <v>37</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11,'Week 6 Total'!C11)</f>
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11,'Week 6 Total'!D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11,'Week 6 Total'!E11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!C:C)</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11,'Week 6 Total'!F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11,'Week 6 Total'!G11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11,'Week 6 Total'!H11)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11,'Week 6 Total'!I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="str">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K11" s="4">
-        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11,'Week 6 Total'!K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11,'Week 6 Total'!L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11,'Week 6 Total'!M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11,'Week 6 Total'!N11)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11,'Week 6 Total'!O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11,'Week 6 Total'!P11)</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11,'Week 6 Total'!Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11,'Week 6 Total'!R11)</f>
-        <v>2</v>
-      </c>
-      <c r="S11" s="4">
-        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11,'Week 6 Total'!S11)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11,'Week 6 Total'!T11)</f>
-        <v>2</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4">
-        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11,'Week 6 Total'!W11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X11" s="4">
-        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11,'Week 6 Total'!X11)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11,'Week 6 Total'!Y11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="4">
-        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11,'Week 6 Total'!AA11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB11" s="4">
-        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11,'Week 6 Total'!AB11)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11,'Week 6 Total'!AC11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE11" s="4">
-        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11,'Week 6 Total'!AE11)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="4">
-        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11,'Week 6 Total'!AF11)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="4">
-        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11,'Week 6 Total'!AG11)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11,'Week 6 Total'!AI11)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11,'Week 6 Total'!AJ11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B11,'Week 7 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -10766,108 +12266,96 @@
         <v>59</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12,'Week 6 Total'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12,'Week 6 Total'!D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12,'Week 6 Total'!E12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12,'Week 6 Total'!F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12,'Week 6 Total'!G12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4">
-        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12,'Week 6 Total'!H12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12,'Week 6 Total'!I12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="str">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K12" s="4">
-        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12,'Week 6 Total'!K12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12,'Week 6 Total'!L12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12,'Week 6 Total'!M12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12,'Week 6 Total'!N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12,'Week 6 Total'!O12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12,'Week 6 Total'!P12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12,'Week 6 Total'!Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12,'Week 6 Total'!R12)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12,'Week 6 Total'!S12)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12,'Week 6 Total'!T12)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4">
-        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12,'Week 6 Total'!W12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12,'Week 6 Total'!X12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
-        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12,'Week 6 Total'!Y12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="4">
-        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12,'Week 6 Total'!AA12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12,'Week 6 Total'!AB12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC12" s="4">
-        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12,'Week 6 Total'!AC12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="2">
@@ -10875,27 +12363,27 @@
         <v>0</v>
       </c>
       <c r="AE12" s="4">
-        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12,'Week 6 Total'!AE12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="4">
-        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12,'Week 6 Total'!AF12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="4">
-        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12,'Week 6 Total'!AG12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12,'Week 6 Total'!AI12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12,'Week 6 Total'!AJ12)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B12,'Week 7 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -10904,137 +12392,125 @@
         <v>39</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13,'Week 6 Total'!C13)</f>
-        <v>142</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13,'Week 6 Total'!D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13,'Week 6 Total'!E13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!C:C)</f>
+        <v>13</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13,'Week 6 Total'!F13)</f>
-        <v>49</v>
-      </c>
-      <c r="G13" s="4">
-        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13,'Week 6 Total'!G13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!G:G)</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13,'Week 6 Total'!H13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!I:I)</f>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13,'Week 6 Total'!I13)</f>
-        <v>17</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!N:N)</f>
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!O:O)</f>
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!P:P)</f>
+        <v>3</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!Q:Q)</f>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!S:S)</f>
+        <v>2</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!T:T)</f>
+        <v>2</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
         <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="K13" s="4">
-        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13,'Week 6 Total'!K13)</f>
-        <v>7</v>
-      </c>
-      <c r="L13" s="4">
-        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13,'Week 6 Total'!L13)</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="4">
-        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13,'Week 6 Total'!M13)</f>
-        <v>27</v>
-      </c>
-      <c r="N13" s="4">
-        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13,'Week 6 Total'!N13)</f>
-        <v>30</v>
-      </c>
-      <c r="O13" s="4">
-        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13,'Week 6 Total'!O13)</f>
-        <v>7</v>
-      </c>
-      <c r="P13" s="4">
-        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13,'Week 6 Total'!P13)</f>
-        <v>23</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13,'Week 6 Total'!Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13,'Week 6 Total'!R13)</f>
-        <v>31</v>
-      </c>
-      <c r="S13" s="4">
-        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13,'Week 6 Total'!S13)</f>
-        <v>23</v>
-      </c>
-      <c r="T13" s="4">
-        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13,'Week 6 Total'!T13)</f>
-        <v>8</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.74193548387096775</v>
+        <v>1</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
-        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13,'Week 6 Total'!W13)</f>
-        <v>31</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!X:X)</f>
+        <v>2</v>
       </c>
       <c r="X13" s="4">
-        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13,'Week 6 Total'!X13)</f>
-        <v>23</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!Y:Y)</f>
+        <v>2</v>
       </c>
       <c r="Y13" s="4">
-        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13,'Week 6 Total'!Y13)</f>
-        <v>8</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="4">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
         <f t="shared" si="3"/>
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="AA13" s="4">
-        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13,'Week 6 Total'!AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="4">
-        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13,'Week 6 Total'!AB13)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4">
-        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13,'Week 6 Total'!AC13)</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <f t="shared" ref="AD13:AD17" si="5">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="4">
-        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13,'Week 6 Total'!AE13)</f>
-        <v>4</v>
-      </c>
-      <c r="AF13" s="4">
-        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13,'Week 6 Total'!AF13)</f>
-        <v>3</v>
-      </c>
-      <c r="AG13" s="4">
-        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13,'Week 6 Total'!AG13)</f>
-        <v>1</v>
-      </c>
-      <c r="AH13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13,'Week 6 Total'!AI13)</f>
-        <v>10</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13,'Week 6 Total'!AJ13)</f>
-        <v>26</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B13,'Week 7 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -11042,136 +12518,124 @@
         <v>40</v>
       </c>
       <c r="C14" s="4">
-        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14,'Week 6 Total'!C14)</f>
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14,'Week 6 Total'!D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14,'Week 6 Total'!E14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14,'Week 6 Total'!F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14,'Week 6 Total'!G14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14,'Week 6 Total'!H14)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14,'Week 6 Total'!I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="str">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K14" s="4">
-        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14,'Week 6 Total'!K14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14,'Week 6 Total'!L14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14,'Week 6 Total'!M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14,'Week 6 Total'!N14)</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14,'Week 6 Total'!O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14,'Week 6 Total'!P14)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14,'Week 6 Total'!Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14,'Week 6 Total'!R14)</f>
-        <v>2</v>
-      </c>
-      <c r="S14" s="4">
-        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14,'Week 6 Total'!S14)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14,'Week 6 Total'!T14)</f>
-        <v>2</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4">
-        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14,'Week 6 Total'!W14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X14" s="4">
-        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14,'Week 6 Total'!X14)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
-        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14,'Week 6 Total'!Y14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="4">
-        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14,'Week 6 Total'!AA14)</f>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="4">
-        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14,'Week 6 Total'!AB14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4">
-        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14,'Week 6 Total'!AC14)</f>
-        <v>1</v>
-      </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="4">
-        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14,'Week 6 Total'!AE14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="4">
-        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14,'Week 6 Total'!AF14)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="4">
-        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14,'Week 6 Total'!AG14)</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AI14" s="4">
-        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14,'Week 6 Total'!AI14)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14,'Week 6 Total'!AJ14)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B14,'Week 7 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -11180,137 +12644,125 @@
         <v>41</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15,'Week 6 Total'!C15)</f>
-        <v>78</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15,'Week 6 Total'!D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15,'Week 6 Total'!E15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!C:C)</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15,'Week 6 Total'!F15)</f>
-        <v>36</v>
-      </c>
-      <c r="G15" s="4">
-        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15,'Week 6 Total'!G15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!G:G)</f>
+        <v>8</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15,'Week 6 Total'!H15)</f>
-        <v>4</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15,'Week 6 Total'!I15)</f>
-        <v>10</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!J:J)</f>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!K:K)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!N:N)</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!O:O)</f>
+        <v>3</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!Q:Q)</f>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!S:S)</f>
+        <v>6</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!T:T)</f>
+        <v>3</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!U:U)</f>
+        <v>3</v>
+      </c>
+      <c r="U15" s="2">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="K15" s="4">
-        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15,'Week 6 Total'!K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15,'Week 6 Total'!L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15,'Week 6 Total'!M15)</f>
-        <v>9</v>
-      </c>
-      <c r="N15" s="4">
-        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15,'Week 6 Total'!N15)</f>
-        <v>18</v>
-      </c>
-      <c r="O15" s="4">
-        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15,'Week 6 Total'!O15)</f>
-        <v>7</v>
-      </c>
-      <c r="P15" s="4">
-        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15,'Week 6 Total'!P15)</f>
-        <v>11</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15,'Week 6 Total'!Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15,'Week 6 Total'!R15)</f>
-        <v>29</v>
-      </c>
-      <c r="S15" s="4">
-        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15,'Week 6 Total'!S15)</f>
-        <v>14</v>
-      </c>
-      <c r="T15" s="4">
-        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15,'Week 6 Total'!T15)</f>
-        <v>15</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.48275862068965519</v>
+        <v>0.5</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4">
-        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15,'Week 6 Total'!W15)</f>
-        <v>18</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!X:X)</f>
+        <v>5</v>
       </c>
       <c r="X15" s="4">
-        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15,'Week 6 Total'!X15)</f>
-        <v>10</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!Y:Y)</f>
+        <v>2</v>
       </c>
       <c r="Y15" s="4">
-        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15,'Week 6 Total'!Y15)</f>
-        <v>8</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!Z:Z)</f>
+        <v>3</v>
       </c>
       <c r="Z15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!AB:AB)</f>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!AC:AC)</f>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!AF:AF)</f>
+        <v>2</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!AG:AG)</f>
+        <v>1</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!AH:AH)</f>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
         <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AA15" s="4">
-        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15,'Week 6 Total'!AA15)</f>
-        <v>11</v>
-      </c>
-      <c r="AB15" s="4">
-        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15,'Week 6 Total'!AB15)</f>
-        <v>4</v>
-      </c>
-      <c r="AC15" s="4">
-        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15,'Week 6 Total'!AC15)</f>
-        <v>7</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" si="5"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="AE15" s="4">
-        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15,'Week 6 Total'!AE15)</f>
-        <v>5</v>
-      </c>
-      <c r="AF15" s="4">
-        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15,'Week 6 Total'!AF15)</f>
-        <v>4</v>
-      </c>
-      <c r="AG15" s="4">
-        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15,'Week 6 Total'!AG15)</f>
-        <v>1</v>
-      </c>
-      <c r="AH15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15,'Week 6 Total'!AI15)</f>
-        <v>6</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15,'Week 6 Total'!AJ15)</f>
-        <v>17</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B15,'Week 7 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -11318,136 +12770,124 @@
         <v>42</v>
       </c>
       <c r="C16" s="4">
-        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16,'Week 6 Total'!C16)</f>
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16,'Week 6 Total'!D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16,'Week 6 Total'!E16)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!C:C)</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16,'Week 6 Total'!F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G16" s="4">
-        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16,'Week 6 Total'!G16)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16,'Week 6 Total'!H16)</f>
-        <v>3</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16,'Week 6 Total'!I16)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!J:J)</f>
         <v>1</v>
       </c>
       <c r="J16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!O:O)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K16" s="4">
-        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16,'Week 6 Total'!K16)</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="4">
-        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16,'Week 6 Total'!L16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16,'Week 6 Total'!M16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16,'Week 6 Total'!N16)</f>
-        <v>6</v>
-      </c>
-      <c r="O16" s="4">
-        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16,'Week 6 Total'!O16)</f>
-        <v>2</v>
-      </c>
-      <c r="P16" s="4">
-        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16,'Week 6 Total'!P16)</f>
-        <v>4</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16,'Week 6 Total'!Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16,'Week 6 Total'!R16)</f>
-        <v>4</v>
-      </c>
-      <c r="S16" s="4">
-        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16,'Week 6 Total'!S16)</f>
-        <v>2</v>
-      </c>
-      <c r="T16" s="4">
-        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16,'Week 6 Total'!T16)</f>
-        <v>2</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4">
-        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16,'Week 6 Total'!W16)</f>
-        <v>3</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X16" s="4">
-        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16,'Week 6 Total'!X16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y16" s="4">
-        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16,'Week 6 Total'!Y16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AA16" s="4">
-        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16,'Week 6 Total'!AA16)</f>
-        <v>1</v>
-      </c>
-      <c r="AB16" s="4">
-        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16,'Week 6 Total'!AB16)</f>
-        <v>1</v>
-      </c>
-      <c r="AC16" s="4">
-        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16,'Week 6 Total'!AC16)</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="4">
-        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16,'Week 6 Total'!AE16)</f>
-        <v>2</v>
-      </c>
-      <c r="AF16" s="4">
-        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16,'Week 6 Total'!AF16)</f>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="4">
-        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16,'Week 6 Total'!AG16)</f>
-        <v>1</v>
-      </c>
-      <c r="AH16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16,'Week 6 Total'!AI16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16,'Week 6 Total'!AJ16)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B16,'Week 7 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -11456,136 +12896,2458 @@
         <v>60</v>
       </c>
       <c r="C17" s="4">
-        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17,'Week 6 Total'!C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17,'Week 6 Total'!D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17,'Week 6 Total'!E17)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17,'Week 6 Total'!F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17,'Week 6 Total'!G17)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17,'Week 6 Total'!H17)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17,'Week 6 Total'!I17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="str">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!O:O)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!Q:Q)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!S:S)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!T:T)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!U:U)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="K17" s="4">
-        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17,'Week 6 Total'!K17)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17,'Week 6 Total'!L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17,'Week 6 Total'!M17)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17,'Week 6 Total'!N17)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17,'Week 6 Total'!O17)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17,'Week 6 Total'!P17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17,'Week 6 Total'!Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17,'Week 6 Total'!R17)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17,'Week 6 Total'!S17)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17,'Week 6 Total'!T17)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4">
-        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17,'Week 6 Total'!W17)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17,'Week 6 Total'!X17)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
-        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17,'Week 6 Total'!Y17)</f>
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!AF:AF)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!AG:AG)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!AH:AH)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AI17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!AK:AK)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>SUMIF('Week 7 Games'!$B:$B,'Week 7 Total'!$B17,'Week 7 Games'!AL:AL)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2,'Week 7 Total'!C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2,'Week 7 Total'!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2,'Week 7 Total'!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2,'Week 7 Total'!F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2,'Week 7 Total'!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2,'Week 7 Total'!H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2,'Week 7 Total'!I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM('Week 1 Total'!J2,'Week 2 Total'!J2,'Week 3 Total'!J2,'Week 4 Total'!J2,'Week 5 Total'!J2,'Week 6 Total'!J2,'Week 7 Total'!J2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2,'Week 7 Total'!K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2,'Week 7 Total'!L2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2,'Week 7 Total'!M2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2,'Week 7 Total'!N2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2,'Week 7 Total'!O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2,'Week 7 Total'!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2,'Week 7 Total'!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2,'Week 7 Total'!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2,'Week 7 Total'!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2,'Week 7 Total'!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2,'Week 7 Total'!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2,'Week 7 Total'!X2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2,'Week 7 Total'!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2,'Week 7 Total'!AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2,'Week 7 Total'!AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2,'Week 7 Total'!AC2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2,'Week 7 Total'!AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2,'Week 7 Total'!AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2,'Week 7 Total'!AG2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2,'Week 7 Total'!AI2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2,'Week 7 Total'!AJ2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3,'Week 7 Total'!C3)</f>
+        <v>351</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3,'Week 7 Total'!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3,'Week 7 Total'!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3,'Week 7 Total'!F3)</f>
+        <v>212</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3,'Week 7 Total'!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3,'Week 7 Total'!H3)</f>
+        <v>39</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3,'Week 7 Total'!I3)</f>
+        <v>26</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SUM('Week 1 Total'!J3,'Week 2 Total'!J3,'Week 3 Total'!J3,'Week 4 Total'!J3,'Week 5 Total'!J3,'Week 6 Total'!J3,'Week 7 Total'!J3)</f>
+        <v>11.000000000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3,'Week 7 Total'!K3)</f>
+        <v>22</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3,'Week 7 Total'!L3)</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3,'Week 7 Total'!M3)</f>
+        <v>5</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3,'Week 7 Total'!N3)</f>
+        <v>57</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3,'Week 7 Total'!O3)</f>
+        <v>19</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3,'Week 7 Total'!P3)</f>
+        <v>38</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3,'Week 7 Total'!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3,'Week 7 Total'!R3)</f>
+        <v>162</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3,'Week 7 Total'!S3)</f>
+        <v>79</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3,'Week 7 Total'!T3)</f>
+        <v>83</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U17" si="1">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.48765432098765432</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3,'Week 7 Total'!W3)</f>
+        <v>121</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3,'Week 7 Total'!X3)</f>
+        <v>71</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3,'Week 7 Total'!Y3)</f>
+        <v>50</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z17" si="2">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.58677685950413228</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3,'Week 7 Total'!AA3)</f>
+        <v>41</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3,'Week 7 Total'!AB3)</f>
+        <v>8</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3,'Week 7 Total'!AC3)</f>
+        <v>33</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3,'Week 7 Total'!AE3)</f>
+        <v>56</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3,'Week 7 Total'!AF3)</f>
+        <v>46</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3,'Week 7 Total'!AG3)</f>
+        <v>10</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH17" si="3">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3,'Week 7 Total'!AI3)</f>
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3,'Week 7 Total'!AJ3)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4,'Week 7 Total'!C4)</f>
+        <v>122</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4,'Week 7 Total'!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4,'Week 7 Total'!E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4,'Week 7 Total'!F4)</f>
+        <v>29</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4,'Week 7 Total'!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4,'Week 7 Total'!H4)</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4,'Week 7 Total'!I4)</f>
+        <v>11</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUM('Week 1 Total'!J4,'Week 2 Total'!J4,'Week 3 Total'!J4,'Week 4 Total'!J4,'Week 5 Total'!J4,'Week 6 Total'!J4,'Week 7 Total'!J4)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4,'Week 7 Total'!K4)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4,'Week 7 Total'!L4)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4,'Week 7 Total'!M4)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4,'Week 7 Total'!N4)</f>
+        <v>20</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4,'Week 7 Total'!O4)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4,'Week 7 Total'!P4)</f>
+        <v>19</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4,'Week 7 Total'!Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4,'Week 7 Total'!R4)</f>
+        <v>24</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4,'Week 7 Total'!S4)</f>
+        <v>9</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4,'Week 7 Total'!T4)</f>
+        <v>15</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4,'Week 7 Total'!W4)</f>
+        <v>8</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4,'Week 7 Total'!X4)</f>
+        <v>2</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4,'Week 7 Total'!Y4)</f>
+        <v>6</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4,'Week 7 Total'!AA4)</f>
+        <v>16</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4,'Week 7 Total'!AB4)</f>
+        <v>7</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4,'Week 7 Total'!AC4)</f>
+        <v>9</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4,'Week 7 Total'!AE4)</f>
+        <v>4</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4,'Week 7 Total'!AF4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4,'Week 7 Total'!AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4,'Week 7 Total'!AI4)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4,'Week 7 Total'!AJ4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5,'Week 7 Total'!C5)</f>
+        <v>51</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5,'Week 7 Total'!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5,'Week 7 Total'!E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5,'Week 7 Total'!F5)</f>
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5,'Week 7 Total'!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5,'Week 7 Total'!H5)</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5,'Week 7 Total'!I5)</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUM('Week 1 Total'!J5,'Week 2 Total'!J5,'Week 3 Total'!J5,'Week 4 Total'!J5,'Week 5 Total'!J5,'Week 6 Total'!J5,'Week 7 Total'!J5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5,'Week 7 Total'!K5)</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5,'Week 7 Total'!L5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5,'Week 7 Total'!M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5,'Week 7 Total'!N5)</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5,'Week 7 Total'!O5)</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5,'Week 7 Total'!P5)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5,'Week 7 Total'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5,'Week 7 Total'!R5)</f>
+        <v>18</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5,'Week 7 Total'!S5)</f>
+        <v>6</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5,'Week 7 Total'!T5)</f>
+        <v>12</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5,'Week 7 Total'!W5)</f>
+        <v>11</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5,'Week 7 Total'!X5)</f>
+        <v>5</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5,'Week 7 Total'!Y5)</f>
+        <v>6</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5,'Week 7 Total'!AA5)</f>
+        <v>7</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5,'Week 7 Total'!AB5)</f>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5,'Week 7 Total'!AC5)</f>
+        <v>6</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5,'Week 7 Total'!AE5)</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5,'Week 7 Total'!AF5)</f>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5,'Week 7 Total'!AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5,'Week 7 Total'!AI5)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5,'Week 7 Total'!AJ5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6,'Week 7 Total'!C6)</f>
+        <v>327</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6,'Week 7 Total'!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6,'Week 7 Total'!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6,'Week 7 Total'!F6)</f>
+        <v>51</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6,'Week 7 Total'!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6,'Week 7 Total'!H6)</f>
+        <v>47</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6,'Week 7 Total'!I6)</f>
+        <v>18</v>
+      </c>
+      <c r="J6" s="4">
+        <f>SUM('Week 1 Total'!J6,'Week 2 Total'!J6,'Week 3 Total'!J6,'Week 4 Total'!J6,'Week 5 Total'!J6,'Week 6 Total'!J6,'Week 7 Total'!J6)</f>
+        <v>17.670000000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6,'Week 7 Total'!K6)</f>
+        <v>13</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6,'Week 7 Total'!L6)</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6,'Week 7 Total'!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6,'Week 7 Total'!N6)</f>
+        <v>32</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6,'Week 7 Total'!O6)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6,'Week 7 Total'!P6)</f>
+        <v>29</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6,'Week 7 Total'!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6,'Week 7 Total'!R6)</f>
+        <v>51</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6,'Week 7 Total'!S6)</f>
+        <v>21</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6,'Week 7 Total'!T6)</f>
+        <v>30</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6,'Week 7 Total'!W6)</f>
+        <v>38</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6,'Week 7 Total'!X6)</f>
+        <v>15</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6,'Week 7 Total'!Y6)</f>
+        <v>23</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6,'Week 7 Total'!AA6)</f>
+        <v>13</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6,'Week 7 Total'!AB6)</f>
+        <v>6</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6,'Week 7 Total'!AC6)</f>
+        <v>7</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6,'Week 7 Total'!AE6)</f>
+        <v>4</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6,'Week 7 Total'!AF6)</f>
+        <v>3</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6,'Week 7 Total'!AG6)</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6,'Week 7 Total'!AI6)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6,'Week 7 Total'!AJ6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7,'Week 7 Total'!C7)</f>
+        <v>340</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7,'Week 7 Total'!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7,'Week 7 Total'!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7,'Week 7 Total'!F7)</f>
+        <v>131</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7,'Week 7 Total'!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7,'Week 7 Total'!H7)</f>
+        <v>53</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7,'Week 7 Total'!I7)</f>
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM('Week 1 Total'!J7,'Week 2 Total'!J7,'Week 3 Total'!J7,'Week 4 Total'!J7,'Week 5 Total'!J7,'Week 6 Total'!J7,'Week 7 Total'!J7)</f>
+        <v>19.666666666666664</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7,'Week 7 Total'!K7)</f>
+        <v>19</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7,'Week 7 Total'!L7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7,'Week 7 Total'!M7)</f>
+        <v>11</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7,'Week 7 Total'!N7)</f>
+        <v>32</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7,'Week 7 Total'!O7)</f>
+        <v>7</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7,'Week 7 Total'!P7)</f>
+        <v>25</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7,'Week 7 Total'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7,'Week 7 Total'!R7)</f>
+        <v>100</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7,'Week 7 Total'!S7)</f>
+        <v>45</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7,'Week 7 Total'!T7)</f>
+        <v>55</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7,'Week 7 Total'!W7)</f>
+        <v>24</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7,'Week 7 Total'!X7)</f>
+        <v>12</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7,'Week 7 Total'!Y7)</f>
+        <v>12</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7,'Week 7 Total'!AA7)</f>
+        <v>76</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7,'Week 7 Total'!AB7)</f>
+        <v>33</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7,'Week 7 Total'!AC7)</f>
+        <v>43</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43421052631578949</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7,'Week 7 Total'!AE7)</f>
+        <v>10</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7,'Week 7 Total'!AF7)</f>
+        <v>8</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7,'Week 7 Total'!AG7)</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7,'Week 7 Total'!AI7)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7,'Week 7 Total'!AJ7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8,'Week 7 Total'!C8)</f>
+        <v>81</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8,'Week 7 Total'!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8,'Week 7 Total'!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8,'Week 7 Total'!F8)</f>
+        <v>19</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8,'Week 7 Total'!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8,'Week 7 Total'!H8)</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8,'Week 7 Total'!I8)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM('Week 1 Total'!J8,'Week 2 Total'!J8,'Week 3 Total'!J8,'Week 4 Total'!J8,'Week 5 Total'!J8,'Week 6 Total'!J8,'Week 7 Total'!J8)</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8,'Week 7 Total'!K8)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8,'Week 7 Total'!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8,'Week 7 Total'!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8,'Week 7 Total'!N8)</f>
+        <v>8</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8,'Week 7 Total'!O8)</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8,'Week 7 Total'!P8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8,'Week 7 Total'!Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8,'Week 7 Total'!R8)</f>
+        <v>15</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8,'Week 7 Total'!S8)</f>
+        <v>6</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8,'Week 7 Total'!T8)</f>
+        <v>9</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8,'Week 7 Total'!W8)</f>
+        <v>4</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8,'Week 7 Total'!X8)</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8,'Week 7 Total'!Y8)</f>
+        <v>3</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8,'Week 7 Total'!AA8)</f>
+        <v>11</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8,'Week 7 Total'!AB8)</f>
+        <v>5</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8,'Week 7 Total'!AC8)</f>
+        <v>6</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8,'Week 7 Total'!AE8)</f>
+        <v>2</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8,'Week 7 Total'!AF8)</f>
+        <v>2</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8,'Week 7 Total'!AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8,'Week 7 Total'!AI8)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8,'Week 7 Total'!AJ8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9,'Week 7 Total'!C9)</f>
+        <v>294</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9,'Week 7 Total'!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9,'Week 7 Total'!E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9,'Week 7 Total'!F9)</f>
+        <v>110</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9,'Week 7 Total'!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9,'Week 7 Total'!H9)</f>
+        <v>14</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9,'Week 7 Total'!I9)</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f>SUM('Week 1 Total'!J9,'Week 2 Total'!J9,'Week 3 Total'!J9,'Week 4 Total'!J9,'Week 5 Total'!J9,'Week 6 Total'!J9,'Week 7 Total'!J9)</f>
+        <v>7</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9,'Week 7 Total'!K9)</f>
+        <v>13</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9,'Week 7 Total'!L9)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9,'Week 7 Total'!M9)</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9,'Week 7 Total'!N9)</f>
+        <v>127</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9,'Week 7 Total'!O9)</f>
+        <v>43</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9,'Week 7 Total'!P9)</f>
+        <v>84</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9,'Week 6 Total'!Q9,'Week 7 Total'!Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9,'Week 6 Total'!R9,'Week 7 Total'!R9)</f>
+        <v>94</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9,'Week 6 Total'!S9,'Week 7 Total'!S9)</f>
+        <v>48</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9,'Week 6 Total'!T9,'Week 7 Total'!T9)</f>
+        <v>46</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9,'Week 6 Total'!W9,'Week 7 Total'!W9)</f>
+        <v>94</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9,'Week 6 Total'!X9,'Week 7 Total'!X9)</f>
+        <v>48</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9,'Week 6 Total'!Y9,'Week 7 Total'!Y9)</f>
+        <v>46</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9,'Week 6 Total'!AA9,'Week 7 Total'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9,'Week 6 Total'!AB9,'Week 7 Total'!AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9,'Week 6 Total'!AC9,'Week 7 Total'!AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9,'Week 6 Total'!AE9,'Week 7 Total'!AE9)</f>
+        <v>26</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9,'Week 6 Total'!AF9,'Week 7 Total'!AF9)</f>
+        <v>14</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9,'Week 6 Total'!AG9,'Week 7 Total'!AG9)</f>
+        <v>12</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9,'Week 6 Total'!AI9,'Week 7 Total'!AI9)</f>
+        <v>19</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9,'Week 6 Total'!AJ9,'Week 7 Total'!AJ9)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10,'Week 6 Total'!C10,'Week 7 Total'!C10)</f>
+        <v>342</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10,'Week 6 Total'!D10,'Week 7 Total'!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10,'Week 6 Total'!E10,'Week 7 Total'!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10,'Week 6 Total'!F10,'Week 7 Total'!F10)</f>
+        <v>172</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10,'Week 6 Total'!G10,'Week 7 Total'!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10,'Week 6 Total'!H10,'Week 7 Total'!H10)</f>
+        <v>28</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10,'Week 6 Total'!I10,'Week 7 Total'!I10)</f>
+        <v>27</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM('Week 1 Total'!J10,'Week 2 Total'!J10,'Week 3 Total'!J10,'Week 4 Total'!J10,'Week 5 Total'!J10,'Week 6 Total'!J10,'Week 7 Total'!J10)</f>
+        <v>10.483333333333334</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10,'Week 6 Total'!K10,'Week 7 Total'!K10)</f>
+        <v>15</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10,'Week 6 Total'!L10,'Week 7 Total'!L10)</f>
+        <v>6</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10,'Week 6 Total'!M10,'Week 7 Total'!M10)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10,'Week 6 Total'!N10,'Week 7 Total'!N10)</f>
+        <v>34</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10,'Week 6 Total'!O10,'Week 7 Total'!O10)</f>
+        <v>10</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10,'Week 6 Total'!P10,'Week 7 Total'!P10)</f>
+        <v>24</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10,'Week 6 Total'!Q10,'Week 7 Total'!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10,'Week 6 Total'!R10,'Week 7 Total'!R10)</f>
+        <v>146</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10,'Week 6 Total'!S10,'Week 7 Total'!S10)</f>
+        <v>61</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10,'Week 6 Total'!T10,'Week 7 Total'!T10)</f>
+        <v>85</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4178082191780822</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10,'Week 6 Total'!W10,'Week 7 Total'!W10)</f>
+        <v>81</v>
+      </c>
+      <c r="X10" s="4">
+        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10,'Week 6 Total'!X10,'Week 7 Total'!X10)</f>
+        <v>39</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10,'Week 6 Total'!Y10,'Week 7 Total'!Y10)</f>
+        <v>42</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10,'Week 6 Total'!AA10,'Week 7 Total'!AA10)</f>
+        <v>65</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10,'Week 6 Total'!AB10,'Week 7 Total'!AB10)</f>
+        <v>22</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10,'Week 6 Total'!AC10,'Week 7 Total'!AC10)</f>
+        <v>43</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33846153846153848</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10,'Week 6 Total'!AE10,'Week 7 Total'!AE10)</f>
+        <v>34</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10,'Week 6 Total'!AF10,'Week 7 Total'!AF10)</f>
+        <v>28</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10,'Week 6 Total'!AG10,'Week 7 Total'!AG10)</f>
+        <v>6</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10,'Week 6 Total'!AI10,'Week 7 Total'!AI10)</f>
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10,'Week 6 Total'!AJ10,'Week 7 Total'!AJ10)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11,'Week 6 Total'!C11,'Week 7 Total'!C11)</f>
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11,'Week 6 Total'!D11,'Week 7 Total'!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11,'Week 6 Total'!E11,'Week 7 Total'!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11,'Week 6 Total'!F11,'Week 7 Total'!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11,'Week 6 Total'!G11,'Week 7 Total'!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11,'Week 6 Total'!H11,'Week 7 Total'!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11,'Week 6 Total'!I11,'Week 7 Total'!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM('Week 1 Total'!J11,'Week 2 Total'!J11,'Week 3 Total'!J11,'Week 4 Total'!J11,'Week 5 Total'!J11,'Week 6 Total'!J11,'Week 7 Total'!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11,'Week 6 Total'!K11,'Week 7 Total'!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11,'Week 6 Total'!L11,'Week 7 Total'!L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11,'Week 6 Total'!M11,'Week 7 Total'!M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11,'Week 6 Total'!N11,'Week 7 Total'!N11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11,'Week 6 Total'!O11,'Week 7 Total'!O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11,'Week 6 Total'!P11,'Week 7 Total'!P11)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11,'Week 6 Total'!Q11,'Week 7 Total'!Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11,'Week 6 Total'!R11,'Week 7 Total'!R11)</f>
+        <v>2</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11,'Week 6 Total'!S11,'Week 7 Total'!S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11,'Week 6 Total'!T11,'Week 7 Total'!T11)</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11,'Week 6 Total'!W11,'Week 7 Total'!W11)</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11,'Week 6 Total'!X11,'Week 7 Total'!X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11,'Week 6 Total'!Y11,'Week 7 Total'!Y11)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11,'Week 6 Total'!AA11,'Week 7 Total'!AA11)</f>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11,'Week 6 Total'!AB11,'Week 7 Total'!AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11,'Week 6 Total'!AC11,'Week 7 Total'!AC11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11,'Week 6 Total'!AE11,'Week 7 Total'!AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11,'Week 6 Total'!AF11,'Week 7 Total'!AF11)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11,'Week 6 Total'!AG11,'Week 7 Total'!AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11,'Week 6 Total'!AI11,'Week 7 Total'!AI11)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11,'Week 6 Total'!AJ11,'Week 7 Total'!AJ11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12,'Week 6 Total'!C12,'Week 7 Total'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12,'Week 6 Total'!D12,'Week 7 Total'!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12,'Week 6 Total'!E12,'Week 7 Total'!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12,'Week 6 Total'!F12,'Week 7 Total'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12,'Week 6 Total'!G12,'Week 7 Total'!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12,'Week 6 Total'!H12,'Week 7 Total'!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12,'Week 6 Total'!I12,'Week 7 Total'!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>SUM('Week 1 Total'!J12,'Week 2 Total'!J12,'Week 3 Total'!J12,'Week 4 Total'!J12,'Week 5 Total'!J12,'Week 6 Total'!J12,'Week 7 Total'!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12,'Week 6 Total'!K12,'Week 7 Total'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12,'Week 6 Total'!L12,'Week 7 Total'!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12,'Week 6 Total'!M12,'Week 7 Total'!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12,'Week 6 Total'!N12,'Week 7 Total'!N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12,'Week 6 Total'!O12,'Week 7 Total'!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12,'Week 6 Total'!P12,'Week 7 Total'!P12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12,'Week 6 Total'!Q12,'Week 7 Total'!Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12,'Week 6 Total'!R12,'Week 7 Total'!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12,'Week 6 Total'!S12,'Week 7 Total'!S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12,'Week 6 Total'!T12,'Week 7 Total'!T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12,'Week 6 Total'!W12,'Week 7 Total'!W12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12,'Week 6 Total'!X12,'Week 7 Total'!X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12,'Week 6 Total'!Y12,'Week 7 Total'!Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12,'Week 6 Total'!AA12,'Week 7 Total'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12,'Week 6 Total'!AB12,'Week 7 Total'!AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12,'Week 6 Total'!AC12,'Week 7 Total'!AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12,'Week 6 Total'!AE12,'Week 7 Total'!AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12,'Week 6 Total'!AF12,'Week 7 Total'!AF12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12,'Week 6 Total'!AG12,'Week 7 Total'!AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12,'Week 6 Total'!AI12,'Week 7 Total'!AI12)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12,'Week 6 Total'!AJ12,'Week 7 Total'!AJ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13,'Week 6 Total'!C13,'Week 7 Total'!C13)</f>
+        <v>155</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13,'Week 6 Total'!D13,'Week 7 Total'!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13,'Week 6 Total'!E13,'Week 7 Total'!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13,'Week 6 Total'!F13,'Week 7 Total'!F13)</f>
+        <v>53</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13,'Week 6 Total'!G13,'Week 7 Total'!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13,'Week 6 Total'!H13,'Week 7 Total'!H13)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13,'Week 6 Total'!I13,'Week 7 Total'!I13)</f>
+        <v>17</v>
+      </c>
+      <c r="J13" s="4">
+        <f>SUM('Week 1 Total'!J13,'Week 2 Total'!J13,'Week 3 Total'!J13,'Week 4 Total'!J13,'Week 5 Total'!J13,'Week 6 Total'!J13,'Week 7 Total'!J13)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13,'Week 6 Total'!K13,'Week 7 Total'!K13)</f>
+        <v>7</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13,'Week 6 Total'!L13,'Week 7 Total'!L13)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13,'Week 6 Total'!M13,'Week 7 Total'!M13)</f>
+        <v>29</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13,'Week 6 Total'!N13,'Week 7 Total'!N13)</f>
+        <v>35</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13,'Week 6 Total'!O13,'Week 7 Total'!O13)</f>
+        <v>10</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13,'Week 6 Total'!P13,'Week 7 Total'!P13)</f>
+        <v>25</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13,'Week 6 Total'!Q13,'Week 7 Total'!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13,'Week 6 Total'!R13,'Week 7 Total'!R13)</f>
+        <v>33</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13,'Week 6 Total'!S13,'Week 7 Total'!S13)</f>
+        <v>25</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13,'Week 6 Total'!T13,'Week 7 Total'!T13)</f>
+        <v>8</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13,'Week 6 Total'!W13,'Week 7 Total'!W13)</f>
+        <v>33</v>
+      </c>
+      <c r="X13" s="4">
+        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13,'Week 6 Total'!X13,'Week 7 Total'!X13)</f>
+        <v>25</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13,'Week 6 Total'!Y13,'Week 7 Total'!Y13)</f>
+        <v>8</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13,'Week 6 Total'!AA13,'Week 7 Total'!AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13,'Week 6 Total'!AB13,'Week 7 Total'!AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13,'Week 6 Total'!AC13,'Week 7 Total'!AC13)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="4">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13,'Week 6 Total'!AE13,'Week 7 Total'!AE13)</f>
+        <v>4</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13,'Week 6 Total'!AF13,'Week 7 Total'!AF13)</f>
+        <v>3</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13,'Week 6 Total'!AG13,'Week 7 Total'!AG13)</f>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13,'Week 6 Total'!AI13,'Week 7 Total'!AI13)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13,'Week 6 Total'!AJ13,'Week 7 Total'!AJ13)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14,'Week 6 Total'!C14,'Week 7 Total'!C14)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14,'Week 6 Total'!D14,'Week 7 Total'!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14,'Week 6 Total'!E14,'Week 7 Total'!E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14,'Week 6 Total'!F14,'Week 7 Total'!F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14,'Week 6 Total'!G14,'Week 7 Total'!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14,'Week 6 Total'!H14,'Week 7 Total'!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14,'Week 6 Total'!I14,'Week 7 Total'!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>SUM('Week 1 Total'!J14,'Week 2 Total'!J14,'Week 3 Total'!J14,'Week 4 Total'!J14,'Week 5 Total'!J14,'Week 6 Total'!J14,'Week 7 Total'!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14,'Week 6 Total'!K14,'Week 7 Total'!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14,'Week 6 Total'!L14,'Week 7 Total'!L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14,'Week 6 Total'!M14,'Week 7 Total'!M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14,'Week 6 Total'!N14,'Week 7 Total'!N14)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14,'Week 6 Total'!O14,'Week 7 Total'!O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14,'Week 6 Total'!P14,'Week 7 Total'!P14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14,'Week 6 Total'!Q14,'Week 7 Total'!Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14,'Week 6 Total'!R14,'Week 7 Total'!R14)</f>
+        <v>2</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14,'Week 6 Total'!S14,'Week 7 Total'!S14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14,'Week 6 Total'!T14,'Week 7 Total'!T14)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14,'Week 6 Total'!W14,'Week 7 Total'!W14)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14,'Week 6 Total'!X14,'Week 7 Total'!X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14,'Week 6 Total'!Y14,'Week 7 Total'!Y14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14,'Week 6 Total'!AA14,'Week 7 Total'!AA14)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14,'Week 6 Total'!AB14,'Week 7 Total'!AB14)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14,'Week 6 Total'!AC14,'Week 7 Total'!AC14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14,'Week 6 Total'!AE14,'Week 7 Total'!AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14,'Week 6 Total'!AF14,'Week 7 Total'!AF14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14,'Week 6 Total'!AG14,'Week 7 Total'!AG14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14,'Week 6 Total'!AI14,'Week 7 Total'!AI14)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14,'Week 6 Total'!AJ14,'Week 7 Total'!AJ14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15,'Week 6 Total'!C15,'Week 7 Total'!C15)</f>
+        <v>92</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15,'Week 6 Total'!D15,'Week 7 Total'!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15,'Week 6 Total'!E15,'Week 7 Total'!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15,'Week 6 Total'!F15,'Week 7 Total'!F15)</f>
+        <v>44</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15,'Week 6 Total'!G15,'Week 7 Total'!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15,'Week 6 Total'!H15,'Week 7 Total'!H15)</f>
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15,'Week 6 Total'!I15,'Week 7 Total'!I15)</f>
+        <v>11</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUM('Week 1 Total'!J15,'Week 2 Total'!J15,'Week 3 Total'!J15,'Week 4 Total'!J15,'Week 5 Total'!J15,'Week 6 Total'!J15,'Week 7 Total'!J15)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15,'Week 6 Total'!K15,'Week 7 Total'!K15)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15,'Week 6 Total'!L15,'Week 7 Total'!L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15,'Week 6 Total'!M15,'Week 7 Total'!M15)</f>
+        <v>10</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15,'Week 6 Total'!N15,'Week 7 Total'!N15)</f>
+        <v>21</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15,'Week 6 Total'!O15,'Week 7 Total'!O15)</f>
+        <v>8</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15,'Week 6 Total'!P15,'Week 7 Total'!P15)</f>
+        <v>13</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15,'Week 6 Total'!Q15,'Week 7 Total'!Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15,'Week 6 Total'!R15,'Week 7 Total'!R15)</f>
+        <v>35</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15,'Week 6 Total'!S15,'Week 7 Total'!S15)</f>
+        <v>17</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15,'Week 6 Total'!T15,'Week 7 Total'!T15)</f>
+        <v>18</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15,'Week 6 Total'!W15,'Week 7 Total'!W15)</f>
+        <v>23</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15,'Week 6 Total'!X15,'Week 7 Total'!X15)</f>
+        <v>12</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15,'Week 6 Total'!Y15,'Week 7 Total'!Y15)</f>
+        <v>11</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15,'Week 6 Total'!AA15,'Week 7 Total'!AA15)</f>
+        <v>12</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15,'Week 6 Total'!AB15,'Week 7 Total'!AB15)</f>
+        <v>5</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15,'Week 6 Total'!AC15,'Week 7 Total'!AC15)</f>
+        <v>7</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15,'Week 6 Total'!AE15,'Week 7 Total'!AE15)</f>
+        <v>7</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15,'Week 6 Total'!AF15,'Week 7 Total'!AF15)</f>
+        <v>5</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15,'Week 6 Total'!AG15,'Week 7 Total'!AG15)</f>
+        <v>2</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15,'Week 6 Total'!AI15,'Week 7 Total'!AI15)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15,'Week 6 Total'!AJ15,'Week 7 Total'!AJ15)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16,'Week 6 Total'!C16,'Week 7 Total'!C16)</f>
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16,'Week 6 Total'!D16,'Week 7 Total'!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16,'Week 6 Total'!E16,'Week 7 Total'!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16,'Week 6 Total'!F16,'Week 7 Total'!F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16,'Week 6 Total'!G16,'Week 7 Total'!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16,'Week 6 Total'!H16,'Week 7 Total'!H16)</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16,'Week 6 Total'!I16,'Week 7 Total'!I16)</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <f>SUM('Week 1 Total'!J16,'Week 2 Total'!J16,'Week 3 Total'!J16,'Week 4 Total'!J16,'Week 5 Total'!J16,'Week 6 Total'!J16,'Week 7 Total'!J16)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16,'Week 6 Total'!K16,'Week 7 Total'!K16)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16,'Week 6 Total'!L16,'Week 7 Total'!L16)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16,'Week 6 Total'!M16,'Week 7 Total'!M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16,'Week 6 Total'!N16,'Week 7 Total'!N16)</f>
+        <v>7</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16,'Week 6 Total'!O16,'Week 7 Total'!O16)</f>
+        <v>3</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16,'Week 6 Total'!P16,'Week 7 Total'!P16)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16,'Week 6 Total'!Q16,'Week 7 Total'!Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16,'Week 6 Total'!R16,'Week 7 Total'!R16)</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16,'Week 6 Total'!S16,'Week 7 Total'!S16)</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16,'Week 6 Total'!T16,'Week 7 Total'!T16)</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16,'Week 6 Total'!W16,'Week 7 Total'!W16)</f>
+        <v>3</v>
+      </c>
+      <c r="X16" s="4">
+        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16,'Week 6 Total'!X16,'Week 7 Total'!X16)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16,'Week 6 Total'!Y16,'Week 7 Total'!Y16)</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16,'Week 6 Total'!AA16,'Week 7 Total'!AA16)</f>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16,'Week 6 Total'!AB16,'Week 7 Total'!AB16)</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16,'Week 6 Total'!AC16,'Week 7 Total'!AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16,'Week 6 Total'!AE16,'Week 7 Total'!AE16)</f>
+        <v>2</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16,'Week 6 Total'!AF16,'Week 7 Total'!AF16)</f>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16,'Week 6 Total'!AG16,'Week 7 Total'!AG16)</f>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI16" s="4">
+        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16,'Week 6 Total'!AI16,'Week 7 Total'!AI16)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16,'Week 6 Total'!AJ16,'Week 7 Total'!AJ16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17,'Week 6 Total'!C17,'Week 7 Total'!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17,'Week 6 Total'!D17,'Week 7 Total'!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17,'Week 6 Total'!E17,'Week 7 Total'!E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17,'Week 6 Total'!F17,'Week 7 Total'!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17,'Week 6 Total'!G17,'Week 7 Total'!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17,'Week 6 Total'!H17,'Week 7 Total'!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17,'Week 6 Total'!I17,'Week 7 Total'!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f>SUM('Week 1 Total'!J17,'Week 2 Total'!J17,'Week 3 Total'!J17,'Week 4 Total'!J17,'Week 5 Total'!J17,'Week 6 Total'!J17,'Week 7 Total'!J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17,'Week 6 Total'!K17,'Week 7 Total'!K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17,'Week 6 Total'!L17,'Week 7 Total'!L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17,'Week 6 Total'!M17,'Week 7 Total'!M17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17,'Week 6 Total'!N17,'Week 7 Total'!N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17,'Week 6 Total'!O17,'Week 7 Total'!O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17,'Week 6 Total'!P17,'Week 7 Total'!P17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17,'Week 6 Total'!Q17,'Week 7 Total'!Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17,'Week 6 Total'!R17,'Week 7 Total'!R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17,'Week 6 Total'!S17,'Week 7 Total'!S17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17,'Week 6 Total'!T17,'Week 7 Total'!T17)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17,'Week 6 Total'!W17,'Week 7 Total'!W17)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17,'Week 6 Total'!X17,'Week 7 Total'!X17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17,'Week 6 Total'!Y17,'Week 7 Total'!Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AA17" s="4">
-        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17,'Week 6 Total'!AA17)</f>
+        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17,'Week 6 Total'!AA17,'Week 7 Total'!AA17)</f>
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17,'Week 6 Total'!AB17)</f>
+        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17,'Week 6 Total'!AB17,'Week 7 Total'!AB17)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="4">
-        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17,'Week 6 Total'!AC17)</f>
+        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17,'Week 6 Total'!AC17,'Week 7 Total'!AC17)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE17" s="4">
-        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17,'Week 6 Total'!AE17)</f>
+        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17,'Week 6 Total'!AE17,'Week 7 Total'!AE17)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="4">
-        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17,'Week 6 Total'!AF17)</f>
+        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17,'Week 6 Total'!AF17,'Week 7 Total'!AF17)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="4">
-        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17,'Week 6 Total'!AG17)</f>
+        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17,'Week 6 Total'!AG17,'Week 7 Total'!AG17)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17,'Week 6 Total'!AI17)</f>
+        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17,'Week 6 Total'!AI17,'Week 7 Total'!AI17)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17,'Week 6 Total'!AJ17)</f>
+        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17,'Week 6 Total'!AJ17,'Week 7 Total'!AJ17)</f>
         <v>0</v>
       </c>
     </row>

--- a/Game-data/WBBGame stats.xlsx
+++ b/Game-data/WBBGame stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Documents/WBB Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8430FA-51A6-2F47-B81C-71476DB8F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84EBF19-3015-1A4F-A20C-4F24ED9CF141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="14" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="7" activeTab="16" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Games" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <sheet name="Week 6 Total" sheetId="15" r:id="rId12"/>
     <sheet name="Week 7 Games" sheetId="16" r:id="rId13"/>
     <sheet name="Week 7 Total" sheetId="17" r:id="rId14"/>
-    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId15"/>
+    <sheet name="Week 8 Games" sheetId="18" r:id="rId15"/>
+    <sheet name="Week 8 Total" sheetId="19" r:id="rId16"/>
+    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="73">
   <si>
     <t>MP</t>
   </si>
@@ -261,6 +263,12 @@
   </si>
   <si>
     <t>Montana State</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Pacific</t>
   </si>
 </sst>
 </file>
@@ -3599,8 +3607,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3716,6 +3724,9 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
@@ -5740,8 +5751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C33E10-A2A8-B846-A451-8FF19A53AE71}">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7128,8 +7139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2610B210-1423-7A4D-BC82-ED2279A01F12}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9270,7 +9281,7 @@
   <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="S24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10885,8 +10896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7862CC5D-F562-AE46-9EDA-81D7AB4CE298}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AJ27" sqref="AJ27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13023,12 +13034,2888 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70FD99A-3C56-7748-B54A-D2057C2C4906}">
+  <dimension ref="A1:AL26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15:AL26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <f>D2*24</f>
+        <v>26</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="E2">
+        <v>0.85</v>
+      </c>
+      <c r="F2">
+        <v>0.12</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0.64</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0.6</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C13" si="0">D3*24</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.98</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="E4">
+        <v>0.38</v>
+      </c>
+      <c r="F4">
+        <v>0.22</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0.67</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="E5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>5</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.125</v>
+      </c>
+      <c r="E6">
+        <v>0.66</v>
+      </c>
+      <c r="F6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0.45</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.312</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AB6">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E7">
+        <v>0.32</v>
+      </c>
+      <c r="F7">
+        <v>0.37</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="E8">
+        <v>1.78</v>
+      </c>
+      <c r="F8">
+        <v>0.92</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>1.6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E9">
+        <v>1.74</v>
+      </c>
+      <c r="F9">
+        <v>0.76</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9">
+        <v>17</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="X9">
+        <v>14</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>1.75</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E11">
+        <v>0.24</v>
+      </c>
+      <c r="F11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E13">
+        <v>-0.36</v>
+      </c>
+      <c r="F13">
+        <v>-0.2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4">
+        <f>D15*24</f>
+        <v>28</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E15">
+        <v>2.5</v>
+      </c>
+      <c r="F15">
+        <v>1.04</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3.5</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15">
+        <v>18</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="X15">
+        <v>13</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AF15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>5</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>4</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:C26" si="1">D16*24</f>
+        <v>17</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E16">
+        <v>1.36</v>
+      </c>
+      <c r="F16">
+        <v>0.65</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1.25</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB16">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E17">
+        <v>0.42</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="E18">
+        <v>0.92</v>
+      </c>
+      <c r="F18">
+        <v>0.67</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1.33</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1.125</v>
+      </c>
+      <c r="E19">
+        <v>1.08</v>
+      </c>
+      <c r="F19">
+        <v>0.41</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2.5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>9</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
+      <c r="AD19">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E20">
+        <v>0.38</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2.02</v>
+      </c>
+      <c r="F21">
+        <v>1.25</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21">
+        <v>12</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="X21">
+        <v>12</v>
+      </c>
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E22">
+        <v>1.58</v>
+      </c>
+      <c r="F22">
+        <v>0.32</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>1.08</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>67</v>
+      </c>
+      <c r="S22">
+        <v>9</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AB22">
+        <v>4</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AF22">
+        <v>3</v>
+      </c>
+      <c r="AG22">
+        <v>3</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>3</v>
+      </c>
+      <c r="AL22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E23">
+        <v>0.51</v>
+      </c>
+      <c r="F23">
+        <v>0.31</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E24">
+        <v>0.59</v>
+      </c>
+      <c r="F24">
+        <v>0.71</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E25">
+        <v>1.32</v>
+      </c>
+      <c r="F25">
+        <v>0.4</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E26">
+        <v>-0.46</v>
+      </c>
+      <c r="F26">
+        <v>0.4</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CDCE8-99DC-D043-9DEA-EB2B0D0CC2A2}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13148,75 +16035,66 @@
         <v>58</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2,'Week 7 Total'!C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2,'Week 7 Total'!D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2,'Week 7 Total'!E2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2,'Week 7 Total'!F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2,'Week 7 Total'!G2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
-        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2,'Week 7 Total'!H2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2,'Week 7 Total'!I2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>SUM('Week 1 Total'!J2,'Week 2 Total'!J2,'Week 3 Total'!J2,'Week 4 Total'!J2,'Week 5 Total'!J2,'Week 6 Total'!J2,'Week 7 Total'!J2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K2" s="4">
-        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2,'Week 7 Total'!K2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2,'Week 7 Total'!L2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2,'Week 7 Total'!M2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2,'Week 7 Total'!N2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O2" s="4">
-        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2,'Week 7 Total'!O2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2,'Week 7 Total'!P2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!Q:Q)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="4">
-        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2,'Week 7 Total'!Q2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R2" s="4">
-        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2,'Week 7 Total'!R2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2,'Week 7 Total'!S2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T2" s="4">
-        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2,'Week 7 Total'!T2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U2" s="2">
@@ -13225,15 +16103,15 @@
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4">
-        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2,'Week 7 Total'!W2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X2" s="4">
-        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2,'Week 7 Total'!X2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2,'Week 7 Total'!Y2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="2">
@@ -13241,15 +16119,15 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4">
-        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2,'Week 7 Total'!AA2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="4">
-        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2,'Week 7 Total'!AB2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="4">
-        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2,'Week 7 Total'!AC2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="2">
@@ -13257,15 +16135,15 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2,'Week 7 Total'!AE2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="4">
-        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2,'Week 7 Total'!AF2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="4">
-        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2,'Week 7 Total'!AG2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="2">
@@ -13273,11 +16151,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2,'Week 7 Total'!AI2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2,'Week 7 Total'!AJ2)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B2,'Week 8 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -13286,137 +16164,128 @@
         <v>29</v>
       </c>
       <c r="C3" s="4">
-        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3,'Week 7 Total'!C3)</f>
-        <v>351</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3,'Week 7 Total'!D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3,'Week 7 Total'!E3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!C:C)</f>
+        <v>54</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3,'Week 7 Total'!F3)</f>
-        <v>212</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3,'Week 7 Total'!G3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!G:G)</f>
+        <v>31</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3,'Week 7 Total'!H3)</f>
-        <v>39</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!I:I)</f>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
-        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3,'Week 7 Total'!I3)</f>
-        <v>26</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!J:J)</f>
+        <v>7</v>
       </c>
       <c r="J3" s="4">
-        <f>SUM('Week 1 Total'!J3,'Week 2 Total'!J3,'Week 3 Total'!J3,'Week 4 Total'!J3,'Week 5 Total'!J3,'Week 6 Total'!J3,'Week 7 Total'!J3)</f>
-        <v>11.000000000000002</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!K:K)</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K3" s="4">
-        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3,'Week 7 Total'!K3)</f>
-        <v>22</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!L:L)</f>
+        <v>5</v>
       </c>
       <c r="L3" s="4">
-        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3,'Week 7 Total'!L3)</f>
-        <v>5</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!M:M)</f>
+        <v>4</v>
       </c>
       <c r="M3" s="4">
-        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3,'Week 7 Total'!M3)</f>
-        <v>5</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!N:N)</f>
+        <v>1</v>
       </c>
       <c r="N3" s="4">
-        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3,'Week 7 Total'!N3)</f>
-        <v>57</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!O:O)</f>
+        <v>12</v>
       </c>
       <c r="O3" s="4">
-        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3,'Week 7 Total'!O3)</f>
-        <v>19</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!P:P)</f>
+        <v>2</v>
       </c>
       <c r="P3" s="4">
-        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3,'Week 7 Total'!P3)</f>
-        <v>38</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!Q:Q)</f>
+        <v>10</v>
       </c>
       <c r="Q3" s="4">
-        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3,'Week 7 Total'!Q3)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R3" s="4">
-        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3,'Week 7 Total'!R3)</f>
-        <v>162</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!S:S)</f>
+        <v>25</v>
       </c>
       <c r="S3" s="4">
-        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3,'Week 7 Total'!S3)</f>
-        <v>79</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!T:T)</f>
+        <v>11</v>
       </c>
       <c r="T3" s="4">
-        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3,'Week 7 Total'!T3)</f>
-        <v>83</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!U:U)</f>
+        <v>14</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U17" si="1">IF(ISERROR(S3/R3),0,S3/R3)</f>
-        <v>0.48765432098765432</v>
+        <v>0.44</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4">
-        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3,'Week 7 Total'!W3)</f>
-        <v>121</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!X:X)</f>
+        <v>17</v>
       </c>
       <c r="X3" s="4">
-        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3,'Week 7 Total'!X3)</f>
-        <v>71</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!Y:Y)</f>
+        <v>10</v>
       </c>
       <c r="Y3" s="4">
-        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3,'Week 7 Total'!Y3)</f>
-        <v>50</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!Z:Z)</f>
+        <v>7</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" ref="Z3:Z17" si="2">IF(ISERROR(X3/W3),0,X3/W3)</f>
-        <v>0.58677685950413228</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="AA3" s="4">
-        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3,'Week 7 Total'!AA3)</f>
-        <v>41</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!AB:AB)</f>
+        <v>8</v>
       </c>
       <c r="AB3" s="4">
-        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3,'Week 7 Total'!AB3)</f>
-        <v>8</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC3" s="4">
-        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3,'Week 7 Total'!AC3)</f>
-        <v>33</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!AD:AD)</f>
+        <v>7</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>0.1951219512195122</v>
+        <v>0.125</v>
       </c>
       <c r="AE3" s="4">
-        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3,'Week 7 Total'!AE3)</f>
-        <v>56</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!AF:AF)</f>
+        <v>9</v>
       </c>
       <c r="AF3" s="4">
-        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3,'Week 7 Total'!AF3)</f>
-        <v>46</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!AG:AG)</f>
+        <v>8</v>
       </c>
       <c r="AG3" s="4">
-        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3,'Week 7 Total'!AG3)</f>
-        <v>10</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!AH:AH)</f>
+        <v>1</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" ref="AH3:AH17" si="3">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
-        <v>0.8214285714285714</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3,'Week 7 Total'!AI3)</f>
-        <v>40</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!AK:AK)</f>
+        <v>7</v>
       </c>
       <c r="AJ3" s="4">
-        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3,'Week 7 Total'!AJ3)</f>
-        <v>23</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B3,'Week 8 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -13424,137 +16293,128 @@
         <v>30</v>
       </c>
       <c r="C4" s="4">
-        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4,'Week 7 Total'!C4)</f>
-        <v>122</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4,'Week 7 Total'!D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4,'Week 7 Total'!E4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!C:C)</f>
+        <v>29</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4,'Week 7 Total'!F4)</f>
-        <v>29</v>
-      </c>
-      <c r="G4" s="4">
-        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4,'Week 7 Total'!G4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!G:G)</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4,'Week 7 Total'!H4)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!I:I)</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!L:L)</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!O:O)</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!Q:Q)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!S:S)</f>
+        <v>13</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!T:T)</f>
+        <v>5</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!U:U)</f>
         <v>8</v>
-      </c>
-      <c r="I4" s="4">
-        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4,'Week 7 Total'!I4)</f>
-        <v>11</v>
-      </c>
-      <c r="J4" s="4">
-        <f>SUM('Week 1 Total'!J4,'Week 2 Total'!J4,'Week 3 Total'!J4,'Week 4 Total'!J4,'Week 5 Total'!J4,'Week 6 Total'!J4,'Week 7 Total'!J4)</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="K4" s="4">
-        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4,'Week 7 Total'!K4)</f>
-        <v>6</v>
-      </c>
-      <c r="L4" s="4">
-        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4,'Week 7 Total'!L4)</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="4">
-        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4,'Week 7 Total'!M4)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4,'Week 7 Total'!N4)</f>
-        <v>20</v>
-      </c>
-      <c r="O4" s="4">
-        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4,'Week 7 Total'!O4)</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4,'Week 7 Total'!P4)</f>
-        <v>19</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4,'Week 7 Total'!Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4,'Week 7 Total'!R4)</f>
-        <v>24</v>
-      </c>
-      <c r="S4" s="4">
-        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4,'Week 7 Total'!S4)</f>
-        <v>9</v>
-      </c>
-      <c r="T4" s="4">
-        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4,'Week 7 Total'!T4)</f>
-        <v>15</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4">
-        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4,'Week 7 Total'!W4)</f>
-        <v>8</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!X:X)</f>
+        <v>7</v>
       </c>
       <c r="X4" s="4">
-        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4,'Week 7 Total'!X4)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!Y:Y)</f>
+        <v>3</v>
       </c>
       <c r="Y4" s="4">
-        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4,'Week 7 Total'!Y4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!Z:Z)</f>
+        <v>4</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AA4" s="4">
-        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4,'Week 7 Total'!AA4)</f>
-        <v>16</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!AB:AB)</f>
+        <v>6</v>
       </c>
       <c r="AB4" s="4">
-        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4,'Week 7 Total'!AB4)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!AC:AC)</f>
+        <v>2</v>
       </c>
       <c r="AC4" s="4">
-        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4,'Week 7 Total'!AC4)</f>
-        <v>9</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!AD:AD)</f>
+        <v>4</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE4" s="4">
-        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4,'Week 7 Total'!AE4)</f>
-        <v>4</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF4" s="4">
-        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4,'Week 7 Total'!AF4)</f>
-        <v>4</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG4" s="4">
-        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4,'Week 7 Total'!AG4)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4,'Week 7 Total'!AI4)</f>
-        <v>5</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4,'Week 7 Total'!AJ4)</f>
-        <v>12</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B4,'Week 8 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -13562,76 +16422,67 @@
         <v>31</v>
       </c>
       <c r="C5" s="4">
-        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5,'Week 7 Total'!C5)</f>
-        <v>51</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5,'Week 7 Total'!D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5,'Week 7 Total'!E5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!C:C)</f>
+        <v>16</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5,'Week 7 Total'!F5)</f>
-        <v>15</v>
-      </c>
-      <c r="G5" s="4">
-        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5,'Week 7 Total'!G5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5,'Week 7 Total'!H5)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5,'Week 7 Total'!I5)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!J:J)</f>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
-        <f>SUM('Week 1 Total'!J5,'Week 2 Total'!J5,'Week 3 Total'!J5,'Week 4 Total'!J5,'Week 5 Total'!J5,'Week 6 Total'!J5,'Week 7 Total'!J5)</f>
-        <v>5.5</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5,'Week 7 Total'!K5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5,'Week 7 Total'!L5)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5,'Week 7 Total'!M5)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5,'Week 7 Total'!N5)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!O:O)</f>
         <v>4</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5,'Week 7 Total'!O5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5,'Week 7 Total'!P5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!Q:Q)</f>
+        <v>4</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5,'Week 7 Total'!Q5)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5,'Week 7 Total'!R5)</f>
-        <v>18</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!S:S)</f>
+        <v>6</v>
       </c>
       <c r="S5" s="4">
-        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5,'Week 7 Total'!S5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!T:T)</f>
+        <v>2</v>
       </c>
       <c r="T5" s="4">
-        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5,'Week 7 Total'!T5)</f>
-        <v>12</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!U:U)</f>
+        <v>4</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="1"/>
@@ -13639,60 +16490,60 @@
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4">
-        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5,'Week 7 Total'!W5)</f>
-        <v>11</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!X:X)</f>
+        <v>3</v>
       </c>
       <c r="X5" s="4">
-        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5,'Week 7 Total'!X5)</f>
-        <v>5</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y5" s="4">
-        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5,'Week 7 Total'!Y5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!Z:Z)</f>
+        <v>2</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="2"/>
-        <v>0.45454545454545453</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA5" s="4">
-        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5,'Week 7 Total'!AA5)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB5" s="4">
-        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5,'Week 7 Total'!AB5)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!AC:AC)</f>
         <v>1</v>
       </c>
       <c r="AC5" s="4">
-        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5,'Week 7 Total'!AC5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!AD:AD)</f>
+        <v>2</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE5" s="4">
-        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5,'Week 7 Total'!AE5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF5" s="4">
-        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5,'Week 7 Total'!AF5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5,'Week 7 Total'!AG5)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5,'Week 7 Total'!AI5)</f>
-        <v>4</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5,'Week 7 Total'!AJ5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B5,'Week 8 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -13700,137 +16551,128 @@
         <v>32</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6,'Week 7 Total'!C6)</f>
-        <v>327</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6,'Week 7 Total'!D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6,'Week 7 Total'!E6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!C:C)</f>
+        <v>42</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6,'Week 7 Total'!F6)</f>
-        <v>51</v>
-      </c>
-      <c r="G6" s="4">
-        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6,'Week 7 Total'!G6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!G:G)</f>
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6,'Week 7 Total'!H6)</f>
-        <v>47</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!I:I)</f>
+        <v>9</v>
       </c>
       <c r="I6" s="4">
-        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6,'Week 7 Total'!I6)</f>
-        <v>18</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!J:J)</f>
+        <v>3</v>
       </c>
       <c r="J6" s="4">
-        <f>SUM('Week 1 Total'!J6,'Week 2 Total'!J6,'Week 3 Total'!J6,'Week 4 Total'!J6,'Week 5 Total'!J6,'Week 6 Total'!J6,'Week 7 Total'!J6)</f>
-        <v>17.670000000000002</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!K:K)</f>
+        <v>1</v>
       </c>
       <c r="K6" s="4">
-        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6,'Week 7 Total'!K6)</f>
-        <v>13</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6,'Week 7 Total'!L6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!M:M)</f>
+        <v>2</v>
       </c>
       <c r="M6" s="4">
-        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6,'Week 7 Total'!M6)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6,'Week 7 Total'!N6)</f>
-        <v>32</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!O:O)</f>
+        <v>2</v>
       </c>
       <c r="O6" s="4">
-        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6,'Week 7 Total'!O6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P6" s="4">
-        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6,'Week 7 Total'!P6)</f>
-        <v>29</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!Q:Q)</f>
+        <v>2</v>
       </c>
       <c r="Q6" s="4">
-        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6,'Week 7 Total'!Q6)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R6" s="4">
-        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6,'Week 7 Total'!R6)</f>
-        <v>51</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!S:S)</f>
+        <v>9</v>
       </c>
       <c r="S6" s="4">
-        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6,'Week 7 Total'!S6)</f>
-        <v>21</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!T:T)</f>
+        <v>5</v>
       </c>
       <c r="T6" s="4">
-        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6,'Week 7 Total'!T6)</f>
-        <v>30</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!U:U)</f>
+        <v>4</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="1"/>
-        <v>0.41176470588235292</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4">
-        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6,'Week 7 Total'!W6)</f>
-        <v>38</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!X:X)</f>
+        <v>3</v>
       </c>
       <c r="X6" s="4">
-        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6,'Week 7 Total'!X6)</f>
-        <v>15</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!Y:Y)</f>
+        <v>2</v>
       </c>
       <c r="Y6" s="4">
-        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6,'Week 7 Total'!Y6)</f>
-        <v>23</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="2"/>
-        <v>0.39473684210526316</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA6" s="4">
-        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6,'Week 7 Total'!AA6)</f>
-        <v>13</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!AB:AB)</f>
+        <v>6</v>
       </c>
       <c r="AB6" s="4">
-        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6,'Week 7 Total'!AB6)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!AC:AC)</f>
+        <v>3</v>
       </c>
       <c r="AC6" s="4">
-        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6,'Week 7 Total'!AC6)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!AD:AD)</f>
+        <v>3</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="AE6" s="4">
-        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6,'Week 7 Total'!AE6)</f>
-        <v>4</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF6" s="4">
-        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6,'Week 7 Total'!AF6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG6" s="4">
-        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6,'Week 7 Total'!AG6)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6,'Week 7 Total'!AI6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6,'Week 7 Total'!AJ6)</f>
-        <v>18</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B6,'Week 8 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -13838,137 +16680,128 @@
         <v>33</v>
       </c>
       <c r="C7" s="4">
-        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7,'Week 7 Total'!C7)</f>
-        <v>340</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7,'Week 7 Total'!D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7,'Week 7 Total'!E7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!C:C)</f>
+        <v>54</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7,'Week 7 Total'!F7)</f>
-        <v>131</v>
-      </c>
-      <c r="G7" s="4">
-        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7,'Week 7 Total'!G7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!G:G)</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7,'Week 7 Total'!H7)</f>
-        <v>53</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!I:I)</f>
+        <v>11</v>
       </c>
       <c r="I7" s="4">
-        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7,'Week 7 Total'!I7)</f>
-        <v>22</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!J:J)</f>
+        <v>4</v>
       </c>
       <c r="J7" s="4">
-        <f>SUM('Week 1 Total'!J7,'Week 2 Total'!J7,'Week 3 Total'!J7,'Week 4 Total'!J7,'Week 5 Total'!J7,'Week 6 Total'!J7,'Week 7 Total'!J7)</f>
-        <v>19.666666666666664</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!K:K)</f>
+        <v>5.5</v>
       </c>
       <c r="K7" s="4">
-        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7,'Week 7 Total'!K7)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!N:N)</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!O:O)</f>
+        <v>7</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!Q:Q)</f>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!S:S)</f>
         <v>19</v>
       </c>
-      <c r="L7" s="4">
-        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7,'Week 7 Total'!L7)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7,'Week 7 Total'!M7)</f>
-        <v>11</v>
-      </c>
-      <c r="N7" s="4">
-        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7,'Week 7 Total'!N7)</f>
-        <v>32</v>
-      </c>
-      <c r="O7" s="4">
-        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7,'Week 7 Total'!O7)</f>
+      <c r="S7" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!T:T)</f>
         <v>7</v>
       </c>
-      <c r="P7" s="4">
-        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7,'Week 7 Total'!P7)</f>
-        <v>25</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7,'Week 7 Total'!Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7,'Week 7 Total'!R7)</f>
-        <v>100</v>
-      </c>
-      <c r="S7" s="4">
-        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7,'Week 7 Total'!S7)</f>
-        <v>45</v>
-      </c>
       <c r="T7" s="4">
-        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7,'Week 7 Total'!T7)</f>
-        <v>55</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!U:U)</f>
+        <v>12</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4">
-        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7,'Week 7 Total'!W7)</f>
-        <v>24</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!X:X)</f>
+        <v>4</v>
       </c>
       <c r="X7" s="4">
-        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7,'Week 7 Total'!X7)</f>
-        <v>12</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y7" s="4">
-        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7,'Week 7 Total'!Y7)</f>
-        <v>12</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!Z:Z)</f>
+        <v>3</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA7" s="4">
-        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7,'Week 7 Total'!AA7)</f>
-        <v>76</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!AB:AB)</f>
+        <v>15</v>
       </c>
       <c r="AB7" s="4">
-        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7,'Week 7 Total'!AB7)</f>
-        <v>33</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!AC:AC)</f>
+        <v>6</v>
       </c>
       <c r="AC7" s="4">
-        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7,'Week 7 Total'!AC7)</f>
-        <v>43</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!AD:AD)</f>
+        <v>9</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>0.43421052631578949</v>
+        <v>0.4</v>
       </c>
       <c r="AE7" s="4">
-        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7,'Week 7 Total'!AE7)</f>
-        <v>10</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
-        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7,'Week 7 Total'!AF7)</f>
-        <v>8</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7,'Week 7 Total'!AG7)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7,'Week 7 Total'!AI7)</f>
-        <v>8</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7,'Week 7 Total'!AJ7)</f>
-        <v>21</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B7,'Week 8 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -13976,76 +16809,67 @@
         <v>34</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8,'Week 7 Total'!C8)</f>
-        <v>81</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8,'Week 7 Total'!D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8,'Week 7 Total'!E8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!C:C)</f>
+        <v>35</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8,'Week 7 Total'!F8)</f>
-        <v>19</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8,'Week 7 Total'!G8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8,'Week 7 Total'!H8)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!I:I)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!J:J)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!O:O)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="4">
-        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8,'Week 7 Total'!I8)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <f>SUM('Week 1 Total'!J8,'Week 2 Total'!J8,'Week 3 Total'!J8,'Week 4 Total'!J8,'Week 5 Total'!J8,'Week 6 Total'!J8,'Week 7 Total'!J8)</f>
-        <v>3</v>
-      </c>
-      <c r="K8" s="4">
-        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8,'Week 7 Total'!K8)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8,'Week 7 Total'!L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8,'Week 7 Total'!M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8,'Week 7 Total'!N8)</f>
-        <v>8</v>
-      </c>
       <c r="O8" s="4">
-        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8,'Week 7 Total'!O8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P8" s="4">
-        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8,'Week 7 Total'!P8)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!Q:Q)</f>
+        <v>5</v>
       </c>
       <c r="Q8" s="4">
-        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8,'Week 7 Total'!Q8)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R8" s="4">
-        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8,'Week 7 Total'!R8)</f>
-        <v>15</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!S:S)</f>
+        <v>5</v>
       </c>
       <c r="S8" s="4">
-        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8,'Week 7 Total'!S8)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!T:T)</f>
+        <v>2</v>
       </c>
       <c r="T8" s="4">
-        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8,'Week 7 Total'!T8)</f>
-        <v>9</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!U:U)</f>
+        <v>3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="1"/>
@@ -14053,60 +16877,60 @@
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4">
-        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8,'Week 7 Total'!W8)</f>
-        <v>4</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!X:X)</f>
+        <v>2</v>
       </c>
       <c r="X8" s="4">
-        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8,'Week 7 Total'!X8)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!Y:Y)</f>
         <v>1</v>
       </c>
       <c r="Y8" s="4">
-        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8,'Week 7 Total'!Y8)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA8" s="4">
-        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8,'Week 7 Total'!AA8)</f>
-        <v>11</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB8" s="4">
-        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8,'Week 7 Total'!AB8)</f>
-        <v>5</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC8" s="4">
-        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8,'Week 7 Total'!AC8)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!AD:AD)</f>
+        <v>2</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE8" s="4">
-        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8,'Week 7 Total'!AE8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF8" s="4">
-        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8,'Week 7 Total'!AF8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG8" s="4">
-        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8,'Week 7 Total'!AG8)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8,'Week 7 Total'!AI8)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8,'Week 7 Total'!AJ8)</f>
-        <v>8</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B8,'Week 8 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -14114,108 +16938,99 @@
         <v>35</v>
       </c>
       <c r="C9" s="4">
-        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9,'Week 7 Total'!C9)</f>
-        <v>294</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9,'Week 7 Total'!D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9,'Week 7 Total'!E9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!C:C)</f>
+        <v>50</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9,'Week 7 Total'!F9)</f>
-        <v>110</v>
-      </c>
-      <c r="G9" s="4">
-        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9,'Week 7 Total'!G9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!G:G)</f>
+        <v>28</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
-        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9,'Week 7 Total'!H9)</f>
-        <v>14</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!I:I)</f>
+        <v>2</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9,'Week 7 Total'!I9)</f>
-        <v>9</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM('Week 1 Total'!J9,'Week 2 Total'!J9,'Week 3 Total'!J9,'Week 4 Total'!J9,'Week 5 Total'!J9,'Week 6 Total'!J9,'Week 7 Total'!J9)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9,'Week 7 Total'!K9)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!L:L)</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!O:O)</f>
+        <v>27</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!P:P)</f>
+        <v>15</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!Q:Q)</f>
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!S:S)</f>
+        <v>21</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!T:T)</f>
         <v>13</v>
       </c>
-      <c r="L9" s="4">
-        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9,'Week 7 Total'!L9)</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9,'Week 7 Total'!M9)</f>
-        <v>3</v>
-      </c>
-      <c r="N9" s="4">
-        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9,'Week 7 Total'!N9)</f>
-        <v>127</v>
-      </c>
-      <c r="O9" s="4">
-        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9,'Week 7 Total'!O9)</f>
-        <v>43</v>
-      </c>
-      <c r="P9" s="4">
-        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9,'Week 7 Total'!P9)</f>
-        <v>84</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9,'Week 6 Total'!Q9,'Week 7 Total'!Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9,'Week 6 Total'!R9,'Week 7 Total'!R9)</f>
-        <v>94</v>
-      </c>
-      <c r="S9" s="4">
-        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9,'Week 6 Total'!S9,'Week 7 Total'!S9)</f>
-        <v>48</v>
-      </c>
       <c r="T9" s="4">
-        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9,'Week 6 Total'!T9,'Week 7 Total'!T9)</f>
-        <v>46</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!U:U)</f>
+        <v>8</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="1"/>
-        <v>0.51063829787234039</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4">
-        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9,'Week 6 Total'!W9,'Week 7 Total'!W9)</f>
-        <v>94</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!X:X)</f>
+        <v>21</v>
       </c>
       <c r="X9" s="4">
-        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9,'Week 6 Total'!X9,'Week 7 Total'!X9)</f>
-        <v>48</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!Y:Y)</f>
+        <v>13</v>
       </c>
       <c r="Y9" s="4">
-        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9,'Week 6 Total'!Y9,'Week 7 Total'!Y9)</f>
-        <v>46</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!Z:Z)</f>
+        <v>8</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>0.51063829787234039</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="AA9" s="4">
-        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9,'Week 6 Total'!AA9,'Week 7 Total'!AA9)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9,'Week 6 Total'!AB9,'Week 7 Total'!AB9)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9,'Week 6 Total'!AC9,'Week 7 Total'!AC9)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="2">
@@ -14223,28 +17038,28 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4">
-        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9,'Week 6 Total'!AE9,'Week 7 Total'!AE9)</f>
-        <v>26</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!AF:AF)</f>
+        <v>4</v>
       </c>
       <c r="AF9" s="4">
-        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9,'Week 6 Total'!AF9,'Week 7 Total'!AF9)</f>
-        <v>14</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!AG:AG)</f>
+        <v>2</v>
       </c>
       <c r="AG9" s="4">
-        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9,'Week 6 Total'!AG9,'Week 7 Total'!AG9)</f>
-        <v>12</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!AH:AH)</f>
+        <v>2</v>
       </c>
       <c r="AH9" s="2">
         <f t="shared" si="3"/>
-        <v>0.53846153846153844</v>
+        <v>0.5</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9,'Week 6 Total'!AI9,'Week 7 Total'!AI9)</f>
-        <v>19</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9,'Week 6 Total'!AJ9,'Week 7 Total'!AJ9)</f>
-        <v>25</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B9,'Week 8 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -14252,137 +17067,128 @@
         <v>67</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10,'Week 6 Total'!C10,'Week 7 Total'!C10)</f>
-        <v>342</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10,'Week 6 Total'!D10,'Week 7 Total'!D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10,'Week 6 Total'!E10,'Week 7 Total'!E10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!C:C)</f>
+        <v>47</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10,'Week 6 Total'!F10,'Week 7 Total'!F10)</f>
-        <v>172</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10,'Week 6 Total'!G10,'Week 7 Total'!G10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!G:G)</f>
+        <v>33</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10,'Week 6 Total'!H10,'Week 7 Total'!H10)</f>
-        <v>28</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!I:I)</f>
+        <v>5</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10,'Week 6 Total'!I10,'Week 7 Total'!I10)</f>
-        <v>27</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!J:J)</f>
+        <v>2</v>
       </c>
       <c r="J10" s="4">
-        <f>SUM('Week 1 Total'!J10,'Week 2 Total'!J10,'Week 3 Total'!J10,'Week 4 Total'!J10,'Week 5 Total'!J10,'Week 6 Total'!J10,'Week 7 Total'!J10)</f>
-        <v>10.483333333333334</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!K:K)</f>
+        <v>5</v>
       </c>
       <c r="K10" s="4">
-        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10,'Week 6 Total'!K10,'Week 7 Total'!K10)</f>
-        <v>15</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!L:L)</f>
+        <v>6</v>
       </c>
       <c r="L10" s="4">
-        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10,'Week 6 Total'!L10,'Week 7 Total'!L10)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
-        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10,'Week 6 Total'!M10,'Week 7 Total'!M10)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!N:N)</f>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
-        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10,'Week 6 Total'!N10,'Week 7 Total'!N10)</f>
-        <v>34</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!O:O)</f>
+        <v>5</v>
       </c>
       <c r="O10" s="4">
-        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10,'Week 6 Total'!O10,'Week 7 Total'!O10)</f>
-        <v>10</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!P:P)</f>
+        <v>3</v>
       </c>
       <c r="P10" s="4">
-        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10,'Week 6 Total'!P10,'Week 7 Total'!P10)</f>
-        <v>24</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!Q:Q)</f>
+        <v>2</v>
       </c>
       <c r="Q10" s="4">
-        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10,'Week 6 Total'!Q10,'Week 7 Total'!Q10)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R10" s="4">
-        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10,'Week 6 Total'!R10,'Week 7 Total'!R10)</f>
-        <v>146</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!S:S)</f>
+        <v>26</v>
       </c>
       <c r="S10" s="4">
-        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10,'Week 6 Total'!S10,'Week 7 Total'!S10)</f>
-        <v>61</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!T:T)</f>
+        <v>13</v>
       </c>
       <c r="T10" s="4">
-        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10,'Week 6 Total'!T10,'Week 7 Total'!T10)</f>
-        <v>85</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!U:U)</f>
+        <v>13</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="1"/>
-        <v>0.4178082191780822</v>
+        <v>0.5</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4">
-        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10,'Week 6 Total'!W10,'Week 7 Total'!W10)</f>
-        <v>81</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!X:X)</f>
+        <v>19</v>
       </c>
       <c r="X10" s="4">
-        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10,'Week 6 Total'!X10,'Week 7 Total'!X10)</f>
-        <v>39</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!Y:Y)</f>
+        <v>10</v>
       </c>
       <c r="Y10" s="4">
-        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10,'Week 6 Total'!Y10,'Week 7 Total'!Y10)</f>
-        <v>42</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!Z:Z)</f>
+        <v>9</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="2"/>
-        <v>0.48148148148148145</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="AA10" s="4">
-        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10,'Week 6 Total'!AA10,'Week 7 Total'!AA10)</f>
-        <v>65</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!AB:AB)</f>
+        <v>7</v>
       </c>
       <c r="AB10" s="4">
-        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10,'Week 6 Total'!AB10,'Week 7 Total'!AB10)</f>
-        <v>22</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!AC:AC)</f>
+        <v>3</v>
       </c>
       <c r="AC10" s="4">
-        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10,'Week 6 Total'!AC10,'Week 7 Total'!AC10)</f>
-        <v>43</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!AD:AD)</f>
+        <v>4</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="0"/>
-        <v>0.33846153846153848</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AE10" s="4">
-        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10,'Week 6 Total'!AE10,'Week 7 Total'!AE10)</f>
-        <v>34</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!AF:AF)</f>
+        <v>4</v>
       </c>
       <c r="AF10" s="4">
-        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10,'Week 6 Total'!AF10,'Week 7 Total'!AF10)</f>
-        <v>28</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!AG:AG)</f>
+        <v>4</v>
       </c>
       <c r="AG10" s="4">
-        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10,'Week 6 Total'!AG10,'Week 7 Total'!AG10)</f>
-        <v>6</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH10" s="2">
         <f t="shared" si="3"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10,'Week 6 Total'!AI10,'Week 7 Total'!AI10)</f>
-        <v>20</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!AK:AK)</f>
+        <v>4</v>
       </c>
       <c r="AJ10" s="4">
-        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10,'Week 6 Total'!AJ10,'Week 7 Total'!AJ10)</f>
-        <v>29</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B10,'Week 8 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -14390,136 +17196,127 @@
         <v>37</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11,'Week 6 Total'!C11,'Week 7 Total'!C11)</f>
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11,'Week 6 Total'!D11,'Week 7 Total'!D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11,'Week 6 Total'!E11,'Week 7 Total'!E11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!C:C)</f>
+        <v>13</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11,'Week 6 Total'!F11,'Week 7 Total'!F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11,'Week 6 Total'!G11,'Week 7 Total'!G11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11,'Week 6 Total'!H11,'Week 7 Total'!H11)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11,'Week 6 Total'!I11,'Week 7 Total'!I11)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>SUM('Week 1 Total'!J11,'Week 2 Total'!J11,'Week 3 Total'!J11,'Week 4 Total'!J11,'Week 5 Total'!J11,'Week 6 Total'!J11,'Week 7 Total'!J11)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11,'Week 6 Total'!K11,'Week 7 Total'!K11)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11,'Week 6 Total'!L11,'Week 7 Total'!L11)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11,'Week 6 Total'!M11,'Week 7 Total'!M11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!N:N)</f>
+        <v>3</v>
       </c>
       <c r="N11" s="4">
-        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11,'Week 6 Total'!N11,'Week 7 Total'!N11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!O:O)</f>
+        <v>6</v>
       </c>
       <c r="O11" s="4">
-        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11,'Week 6 Total'!O11,'Week 7 Total'!O11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!P:P)</f>
+        <v>1</v>
       </c>
       <c r="P11" s="4">
-        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11,'Week 6 Total'!P11,'Week 7 Total'!P11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!Q:Q)</f>
+        <v>5</v>
       </c>
       <c r="Q11" s="4">
-        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11,'Week 6 Total'!Q11,'Week 7 Total'!Q11)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11,'Week 6 Total'!R11,'Week 7 Total'!R11)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!S:S)</f>
+        <v>3</v>
       </c>
       <c r="S11" s="4">
-        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11,'Week 6 Total'!S11,'Week 7 Total'!S11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!T:T)</f>
+        <v>3</v>
       </c>
       <c r="T11" s="4">
-        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11,'Week 6 Total'!T11,'Week 7 Total'!T11)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!U:U)</f>
+        <v>0</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4">
-        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11,'Week 6 Total'!W11,'Week 7 Total'!W11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!X:X)</f>
+        <v>3</v>
       </c>
       <c r="X11" s="4">
-        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11,'Week 6 Total'!X11,'Week 7 Total'!X11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!Y:Y)</f>
+        <v>3</v>
       </c>
       <c r="Y11" s="4">
-        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11,'Week 6 Total'!Y11,'Week 7 Total'!Y11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="4">
-        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11,'Week 6 Total'!AA11,'Week 7 Total'!AA11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB11" s="4">
-        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11,'Week 6 Total'!AB11,'Week 7 Total'!AB11)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11,'Week 6 Total'!AC11,'Week 7 Total'!AC11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE11" s="4">
-        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11,'Week 6 Total'!AE11,'Week 7 Total'!AE11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF11" s="4">
-        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11,'Week 6 Total'!AF11,'Week 7 Total'!AF11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!AG:AG)</f>
+        <v>1</v>
       </c>
       <c r="AG11" s="4">
-        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11,'Week 6 Total'!AG11,'Week 7 Total'!AG11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!AH:AH)</f>
+        <v>1</v>
       </c>
       <c r="AH11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11,'Week 6 Total'!AI11,'Week 7 Total'!AI11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11,'Week 6 Total'!AJ11,'Week 7 Total'!AJ11)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B11,'Week 8 Games'!AL:AL)</f>
         <v>1</v>
       </c>
     </row>
@@ -14528,75 +17325,66 @@
         <v>59</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12,'Week 6 Total'!C12,'Week 7 Total'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12,'Week 6 Total'!D12,'Week 7 Total'!D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12,'Week 6 Total'!E12,'Week 7 Total'!E12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12,'Week 6 Total'!F12,'Week 7 Total'!F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12,'Week 6 Total'!G12,'Week 7 Total'!G12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4">
-        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12,'Week 6 Total'!H12,'Week 7 Total'!H12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12,'Week 6 Total'!I12,'Week 7 Total'!I12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>SUM('Week 1 Total'!J12,'Week 2 Total'!J12,'Week 3 Total'!J12,'Week 4 Total'!J12,'Week 5 Total'!J12,'Week 6 Total'!J12,'Week 7 Total'!J12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12,'Week 6 Total'!K12,'Week 7 Total'!K12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12,'Week 6 Total'!L12,'Week 7 Total'!L12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12,'Week 6 Total'!M12,'Week 7 Total'!M12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12,'Week 6 Total'!N12,'Week 7 Total'!N12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12,'Week 6 Total'!O12,'Week 7 Total'!O12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12,'Week 6 Total'!P12,'Week 7 Total'!P12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!Q:Q)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12,'Week 6 Total'!Q12,'Week 7 Total'!Q12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12,'Week 6 Total'!R12,'Week 7 Total'!R12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12,'Week 6 Total'!S12,'Week 7 Total'!S12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
-        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12,'Week 6 Total'!T12,'Week 7 Total'!T12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U12" s="2">
@@ -14605,15 +17393,15 @@
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4">
-        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12,'Week 6 Total'!W12,'Week 7 Total'!W12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12,'Week 6 Total'!X12,'Week 7 Total'!X12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
-        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12,'Week 6 Total'!Y12,'Week 7 Total'!Y12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="2">
@@ -14621,15 +17409,15 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4">
-        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12,'Week 6 Total'!AA12,'Week 7 Total'!AA12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12,'Week 6 Total'!AB12,'Week 7 Total'!AB12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC12" s="4">
-        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12,'Week 6 Total'!AC12,'Week 7 Total'!AC12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="2">
@@ -14637,15 +17425,15 @@
         <v>0</v>
       </c>
       <c r="AE12" s="4">
-        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12,'Week 6 Total'!AE12,'Week 7 Total'!AE12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="4">
-        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12,'Week 6 Total'!AF12,'Week 7 Total'!AF12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="4">
-        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12,'Week 6 Total'!AG12,'Week 7 Total'!AG12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH12" s="2">
@@ -14653,11 +17441,11 @@
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12,'Week 6 Total'!AI12,'Week 7 Total'!AI12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12,'Week 6 Total'!AJ12,'Week 7 Total'!AJ12)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B12,'Week 8 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -14666,137 +17454,128 @@
         <v>39</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13,'Week 6 Total'!C13,'Week 7 Total'!C13)</f>
-        <v>155</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13,'Week 6 Total'!D13,'Week 7 Total'!D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13,'Week 6 Total'!E13,'Week 7 Total'!E13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!C:C)</f>
+        <v>23</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13,'Week 6 Total'!F13,'Week 7 Total'!F13)</f>
-        <v>53</v>
-      </c>
-      <c r="G13" s="4">
-        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13,'Week 6 Total'!G13,'Week 7 Total'!G13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!G:G)</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13,'Week 6 Total'!H13,'Week 7 Total'!H13)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13,'Week 6 Total'!I13,'Week 7 Total'!I13)</f>
-        <v>17</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>SUM('Week 1 Total'!J13,'Week 2 Total'!J13,'Week 3 Total'!J13,'Week 4 Total'!J13,'Week 5 Total'!J13,'Week 6 Total'!J13,'Week 7 Total'!J13)</f>
-        <v>0.25</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13,'Week 6 Total'!K13,'Week 7 Total'!K13)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13,'Week 6 Total'!L13,'Week 7 Total'!L13)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
-        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13,'Week 6 Total'!M13,'Week 7 Total'!M13)</f>
-        <v>29</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!N:N)</f>
+        <v>1</v>
       </c>
       <c r="N13" s="4">
-        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13,'Week 6 Total'!N13,'Week 7 Total'!N13)</f>
-        <v>35</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!O:O)</f>
+        <v>4</v>
       </c>
       <c r="O13" s="4">
-        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13,'Week 6 Total'!O13,'Week 7 Total'!O13)</f>
-        <v>10</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!P:P)</f>
+        <v>1</v>
       </c>
       <c r="P13" s="4">
-        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13,'Week 6 Total'!P13,'Week 7 Total'!P13)</f>
-        <v>25</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!Q:Q)</f>
+        <v>3</v>
       </c>
       <c r="Q13" s="4">
-        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13,'Week 6 Total'!Q13,'Week 7 Total'!Q13)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13,'Week 6 Total'!R13,'Week 7 Total'!R13)</f>
-        <v>33</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!S:S)</f>
+        <v>4</v>
       </c>
       <c r="S13" s="4">
-        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13,'Week 6 Total'!S13,'Week 7 Total'!S13)</f>
-        <v>25</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!T:T)</f>
+        <v>1</v>
       </c>
       <c r="T13" s="4">
-        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13,'Week 6 Total'!T13,'Week 7 Total'!T13)</f>
-        <v>8</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!U:U)</f>
+        <v>3</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" si="1"/>
-        <v>0.75757575757575757</v>
+        <v>0.25</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
-        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13,'Week 6 Total'!W13,'Week 7 Total'!W13)</f>
-        <v>33</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!X:X)</f>
+        <v>3</v>
       </c>
       <c r="X13" s="4">
-        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13,'Week 6 Total'!X13,'Week 7 Total'!X13)</f>
-        <v>25</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y13" s="4">
-        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13,'Week 6 Total'!Y13,'Week 7 Total'!Y13)</f>
-        <v>8</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!Z:Z)</f>
+        <v>2</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="2"/>
-        <v>0.75757575757575757</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA13" s="4">
-        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13,'Week 6 Total'!AA13,'Week 7 Total'!AA13)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!AB:AB)</f>
+        <v>1</v>
       </c>
       <c r="AB13" s="4">
-        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13,'Week 6 Total'!AB13,'Week 7 Total'!AB13)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13,'Week 6 Total'!AC13,'Week 7 Total'!AC13)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!AD:AD)</f>
+        <v>1</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" ref="AD13:AD17" si="4">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="4">
-        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13,'Week 6 Total'!AE13,'Week 7 Total'!AE13)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!AF:AF)</f>
         <v>4</v>
       </c>
       <c r="AF13" s="4">
-        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13,'Week 6 Total'!AF13,'Week 7 Total'!AF13)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!AG:AG)</f>
+        <v>1</v>
       </c>
       <c r="AG13" s="4">
-        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13,'Week 6 Total'!AG13,'Week 7 Total'!AG13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!AH:AH)</f>
+        <v>3</v>
       </c>
       <c r="AH13" s="2">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13,'Week 6 Total'!AI13,'Week 7 Total'!AI13)</f>
-        <v>10</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13,'Week 6 Total'!AJ13,'Week 7 Total'!AJ13)</f>
-        <v>29</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B13,'Week 8 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -14804,76 +17583,67 @@
         <v>40</v>
       </c>
       <c r="C14" s="4">
-        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14,'Week 6 Total'!C14,'Week 7 Total'!C14)</f>
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14,'Week 6 Total'!D14,'Week 7 Total'!D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14,'Week 6 Total'!E14,'Week 7 Total'!E14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14,'Week 6 Total'!F14,'Week 7 Total'!F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14,'Week 6 Total'!G14,'Week 7 Total'!G14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14,'Week 6 Total'!H14,'Week 7 Total'!H14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14,'Week 6 Total'!I14,'Week 7 Total'!I14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f>SUM('Week 1 Total'!J14,'Week 2 Total'!J14,'Week 3 Total'!J14,'Week 4 Total'!J14,'Week 5 Total'!J14,'Week 6 Total'!J14,'Week 7 Total'!J14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14,'Week 6 Total'!K14,'Week 7 Total'!K14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14,'Week 6 Total'!L14,'Week 7 Total'!L14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14,'Week 6 Total'!M14,'Week 7 Total'!M14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14,'Week 6 Total'!N14,'Week 7 Total'!N14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!O:O)</f>
+        <v>0</v>
       </c>
       <c r="O14" s="4">
-        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14,'Week 6 Total'!O14,'Week 7 Total'!O14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14,'Week 6 Total'!P14,'Week 7 Total'!P14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!Q:Q)</f>
+        <v>0</v>
       </c>
       <c r="Q14" s="4">
-        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14,'Week 6 Total'!Q14,'Week 7 Total'!Q14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14,'Week 6 Total'!R14,'Week 7 Total'!R14)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!S:S)</f>
+        <v>0</v>
       </c>
       <c r="S14" s="4">
-        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14,'Week 6 Total'!S14,'Week 7 Total'!S14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T14" s="4">
-        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14,'Week 6 Total'!T14,'Week 7 Total'!T14)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!U:U)</f>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="1"/>
@@ -14881,47 +17651,47 @@
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4">
-        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14,'Week 6 Total'!W14,'Week 7 Total'!W14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X14" s="4">
-        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14,'Week 6 Total'!X14,'Week 7 Total'!X14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
-        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14,'Week 6 Total'!Y14,'Week 7 Total'!Y14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14" s="4">
-        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14,'Week 6 Total'!AA14,'Week 7 Total'!AA14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB14" s="4">
-        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14,'Week 6 Total'!AB14,'Week 7 Total'!AB14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="4">
-        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14,'Week 6 Total'!AC14,'Week 7 Total'!AC14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE14" s="4">
-        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14,'Week 6 Total'!AE14,'Week 7 Total'!AE14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="4">
-        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14,'Week 6 Total'!AF14,'Week 7 Total'!AF14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="4">
-        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14,'Week 6 Total'!AG14,'Week 7 Total'!AG14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="2">
@@ -14929,11 +17699,11 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14,'Week 6 Total'!AI14,'Week 7 Total'!AI14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14,'Week 6 Total'!AJ14,'Week 7 Total'!AJ14)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B14,'Week 8 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -14942,137 +17712,128 @@
         <v>41</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15,'Week 6 Total'!C15,'Week 7 Total'!C15)</f>
-        <v>92</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15,'Week 6 Total'!D15,'Week 7 Total'!D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15,'Week 6 Total'!E15,'Week 7 Total'!E15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!C:C)</f>
+        <v>15</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15,'Week 6 Total'!F15,'Week 7 Total'!F15)</f>
-        <v>44</v>
-      </c>
-      <c r="G15" s="4">
-        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15,'Week 6 Total'!G15,'Week 7 Total'!G15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15,'Week 6 Total'!H15,'Week 7 Total'!H15)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!J:J)</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!L:L)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!O:O)</f>
         <v>5</v>
       </c>
-      <c r="I15" s="4">
-        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15,'Week 6 Total'!I15,'Week 7 Total'!I15)</f>
-        <v>11</v>
-      </c>
-      <c r="J15" s="4">
-        <f>SUM('Week 1 Total'!J15,'Week 2 Total'!J15,'Week 3 Total'!J15,'Week 4 Total'!J15,'Week 5 Total'!J15,'Week 6 Total'!J15,'Week 7 Total'!J15)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K15" s="4">
-        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15,'Week 6 Total'!K15,'Week 7 Total'!K15)</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15,'Week 6 Total'!L15,'Week 7 Total'!L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15,'Week 6 Total'!M15,'Week 7 Total'!M15)</f>
-        <v>10</v>
-      </c>
-      <c r="N15" s="4">
-        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15,'Week 6 Total'!N15,'Week 7 Total'!N15)</f>
-        <v>21</v>
-      </c>
       <c r="O15" s="4">
-        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15,'Week 6 Total'!O15,'Week 7 Total'!O15)</f>
-        <v>8</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!P:P)</f>
+        <v>4</v>
       </c>
       <c r="P15" s="4">
-        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15,'Week 6 Total'!P15,'Week 7 Total'!P15)</f>
-        <v>13</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!Q:Q)</f>
+        <v>1</v>
       </c>
       <c r="Q15" s="4">
-        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15,'Week 6 Total'!Q15,'Week 7 Total'!Q15)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15,'Week 6 Total'!R15,'Week 7 Total'!R15)</f>
-        <v>35</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!S:S)</f>
+        <v>6</v>
       </c>
       <c r="S15" s="4">
-        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15,'Week 6 Total'!S15,'Week 7 Total'!S15)</f>
-        <v>17</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!T:T)</f>
+        <v>3</v>
       </c>
       <c r="T15" s="4">
-        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15,'Week 6 Total'!T15,'Week 7 Total'!T15)</f>
-        <v>18</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!U:U)</f>
+        <v>3</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="1"/>
-        <v>0.48571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4">
-        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15,'Week 6 Total'!W15,'Week 7 Total'!W15)</f>
-        <v>23</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!X:X)</f>
+        <v>3</v>
       </c>
       <c r="X15" s="4">
-        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15,'Week 6 Total'!X15,'Week 7 Total'!X15)</f>
-        <v>12</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!Y:Y)</f>
+        <v>2</v>
       </c>
       <c r="Y15" s="4">
-        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15,'Week 6 Total'!Y15,'Week 7 Total'!Y15)</f>
-        <v>11</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="2"/>
-        <v>0.52173913043478259</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA15" s="4">
-        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15,'Week 6 Total'!AA15,'Week 7 Total'!AA15)</f>
-        <v>12</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB15" s="4">
-        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15,'Week 6 Total'!AB15,'Week 7 Total'!AB15)</f>
-        <v>5</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC15" s="4">
-        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15,'Week 6 Total'!AC15,'Week 7 Total'!AC15)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!AD:AD)</f>
+        <v>2</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="4"/>
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE15" s="4">
-        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15,'Week 6 Total'!AE15,'Week 7 Total'!AE15)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF15" s="4">
-        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15,'Week 6 Total'!AF15,'Week 7 Total'!AF15)</f>
-        <v>5</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG15" s="4">
-        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15,'Week 6 Total'!AG15,'Week 7 Total'!AG15)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH15" s="2">
         <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15,'Week 6 Total'!AI15,'Week 7 Total'!AI15)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15,'Week 6 Total'!AJ15,'Week 7 Total'!AJ15)</f>
-        <v>19</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B15,'Week 8 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -15080,137 +17841,128 @@
         <v>42</v>
       </c>
       <c r="C16" s="4">
-        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16,'Week 6 Total'!C16,'Week 7 Total'!C16)</f>
-        <v>21</v>
-      </c>
-      <c r="D16" s="4">
-        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16,'Week 6 Total'!D16,'Week 7 Total'!D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16,'Week 6 Total'!E16,'Week 7 Total'!E16)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!C:C)</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16,'Week 6 Total'!F16,'Week 7 Total'!F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G16" s="4">
-        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16,'Week 6 Total'!G16,'Week 7 Total'!G16)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16,'Week 6 Total'!H16,'Week 7 Total'!H16)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16,'Week 6 Total'!I16,'Week 7 Total'!I16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>SUM('Week 1 Total'!J16,'Week 2 Total'!J16,'Week 3 Total'!J16,'Week 4 Total'!J16,'Week 5 Total'!J16,'Week 6 Total'!J16,'Week 7 Total'!J16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
-        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16,'Week 6 Total'!K16,'Week 7 Total'!K16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16,'Week 6 Total'!L16,'Week 7 Total'!L16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
-        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16,'Week 6 Total'!M16,'Week 7 Total'!M16)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16,'Week 6 Total'!N16,'Week 7 Total'!N16)</f>
-        <v>7</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!O:O)</f>
+        <v>1</v>
       </c>
       <c r="O16" s="4">
-        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16,'Week 6 Total'!O16,'Week 7 Total'!O16)</f>
-        <v>3</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!P:P)</f>
+        <v>1</v>
       </c>
       <c r="P16" s="4">
-        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16,'Week 6 Total'!P16,'Week 7 Total'!P16)</f>
-        <v>4</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!Q:Q)</f>
+        <v>0</v>
       </c>
       <c r="Q16" s="4">
-        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16,'Week 6 Total'!Q16,'Week 7 Total'!Q16)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R16" s="4">
-        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16,'Week 6 Total'!R16,'Week 7 Total'!R16)</f>
-        <v>4</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!S:S)</f>
+        <v>5</v>
       </c>
       <c r="S16" s="4">
-        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16,'Week 6 Total'!S16,'Week 7 Total'!S16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!T:T)</f>
+        <v>0</v>
       </c>
       <c r="T16" s="4">
-        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16,'Week 6 Total'!T16,'Week 7 Total'!T16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!U:U)</f>
+        <v>5</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4">
-        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16,'Week 6 Total'!W16,'Week 7 Total'!W16)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!X:X)</f>
         <v>3</v>
       </c>
       <c r="X16" s="4">
-        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16,'Week 6 Total'!X16,'Week 7 Total'!X16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y16" s="4">
-        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16,'Week 6 Total'!Y16,'Week 7 Total'!Y16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!Z:Z)</f>
+        <v>3</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="4">
-        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16,'Week 6 Total'!AA16,'Week 7 Total'!AA16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!AB:AB)</f>
+        <v>2</v>
       </c>
       <c r="AB16" s="4">
-        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16,'Week 6 Total'!AB16,'Week 7 Total'!AB16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC16" s="4">
-        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16,'Week 6 Total'!AC16,'Week 7 Total'!AC16)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!AD:AD)</f>
+        <v>2</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="4">
-        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16,'Week 6 Total'!AE16,'Week 7 Total'!AE16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF16" s="4">
-        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16,'Week 6 Total'!AF16,'Week 7 Total'!AF16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG16" s="4">
-        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16,'Week 6 Total'!AG16,'Week 7 Total'!AG16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH16" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16,'Week 6 Total'!AI16,'Week 7 Total'!AI16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16,'Week 6 Total'!AJ16,'Week 7 Total'!AJ16)</f>
-        <v>0</v>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B16,'Week 8 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
@@ -15218,75 +17970,66 @@
         <v>60</v>
       </c>
       <c r="C17" s="4">
-        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17,'Week 6 Total'!C17,'Week 7 Total'!C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17,'Week 6 Total'!D17,'Week 7 Total'!D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17,'Week 6 Total'!E17,'Week 7 Total'!E17)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17,'Week 6 Total'!F17,'Week 7 Total'!F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17,'Week 6 Total'!G17,'Week 7 Total'!G17)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17,'Week 6 Total'!H17,'Week 7 Total'!H17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17,'Week 6 Total'!I17,'Week 7 Total'!I17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>SUM('Week 1 Total'!J17,'Week 2 Total'!J17,'Week 3 Total'!J17,'Week 4 Total'!J17,'Week 5 Total'!J17,'Week 6 Total'!J17,'Week 7 Total'!J17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17,'Week 6 Total'!K17,'Week 7 Total'!K17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17,'Week 6 Total'!L17,'Week 7 Total'!L17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17,'Week 6 Total'!M17,'Week 7 Total'!M17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17,'Week 6 Total'!N17,'Week 7 Total'!N17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17,'Week 6 Total'!O17,'Week 7 Total'!O17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17,'Week 6 Total'!P17,'Week 7 Total'!P17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!Q:Q)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17,'Week 6 Total'!Q17,'Week 7 Total'!Q17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17,'Week 6 Total'!R17,'Week 7 Total'!R17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
-        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17,'Week 6 Total'!S17,'Week 7 Total'!S17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
-        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17,'Week 6 Total'!T17,'Week 7 Total'!T17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U17" s="2">
@@ -15295,15 +18038,15 @@
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4">
-        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17,'Week 6 Total'!W17,'Week 7 Total'!W17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17,'Week 6 Total'!X17,'Week 7 Total'!X17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
-        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17,'Week 6 Total'!Y17,'Week 7 Total'!Y17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="2">
@@ -15311,15 +18054,15 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4">
-        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17,'Week 6 Total'!AA17,'Week 7 Total'!AA17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17,'Week 6 Total'!AB17,'Week 7 Total'!AB17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="4">
-        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17,'Week 6 Total'!AC17,'Week 7 Total'!AC17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="2">
@@ -15327,15 +18070,15 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4">
-        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17,'Week 6 Total'!AE17,'Week 7 Total'!AE17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="4">
-        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17,'Week 6 Total'!AF17,'Week 7 Total'!AF17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="4">
-        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17,'Week 6 Total'!AG17,'Week 7 Total'!AG17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="2">
@@ -15343,11 +18086,2345 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17,'Week 6 Total'!AI17,'Week 7 Total'!AI17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17,'Week 6 Total'!AJ17,'Week 7 Total'!AJ17)</f>
+        <f>SUMIF('Week 8 Games'!$B:$B,'Week 8 Total'!$B17,'Week 8 Games'!AL:AL)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2,'Week 7 Total'!C2,'Week 8 Total'!C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2,'Week 7 Total'!D2,'Week 8 Total'!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2,'Week 7 Total'!E2,'Week 8 Total'!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2,'Week 7 Total'!F2,'Week 8 Total'!F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2,'Week 7 Total'!G2,'Week 8 Total'!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2,'Week 7 Total'!H2,'Week 8 Total'!H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2,'Week 7 Total'!I2,'Week 8 Total'!I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM('Week 1 Total'!J2,'Week 2 Total'!J2,'Week 3 Total'!J2,'Week 4 Total'!J2,'Week 5 Total'!J2,'Week 6 Total'!J2,'Week 7 Total'!J2,'Week 8 Total'!J2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2,'Week 7 Total'!K2,'Week 8 Total'!K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2,'Week 7 Total'!L2,'Week 8 Total'!L2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2,'Week 7 Total'!M2,'Week 8 Total'!M2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2,'Week 7 Total'!N2,'Week 8 Total'!N2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2,'Week 7 Total'!O2,'Week 8 Total'!O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2,'Week 7 Total'!P2,'Week 8 Total'!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2,'Week 7 Total'!Q2,'Week 8 Total'!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2,'Week 7 Total'!R2,'Week 8 Total'!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2,'Week 7 Total'!S2,'Week 8 Total'!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2,'Week 7 Total'!T2,'Week 8 Total'!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2,'Week 7 Total'!W2,'Week 8 Total'!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2,'Week 7 Total'!X2,'Week 8 Total'!X2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2,'Week 7 Total'!Y2,'Week 8 Total'!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2,'Week 7 Total'!AA2,'Week 8 Total'!AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2,'Week 7 Total'!AB2,'Week 8 Total'!AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2,'Week 7 Total'!AC2,'Week 8 Total'!AC2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2,'Week 7 Total'!AE2,'Week 8 Total'!AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2,'Week 7 Total'!AF2,'Week 8 Total'!AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2,'Week 7 Total'!AG2,'Week 8 Total'!AG2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2,'Week 7 Total'!AI2,'Week 8 Total'!AI2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2,'Week 7 Total'!AJ2,'Week 8 Total'!AJ2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3,'Week 7 Total'!C3,'Week 8 Total'!C3)</f>
+        <v>405</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3,'Week 7 Total'!D3,'Week 8 Total'!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3,'Week 7 Total'!E3,'Week 8 Total'!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3,'Week 7 Total'!F3,'Week 8 Total'!F3)</f>
+        <v>243</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3,'Week 7 Total'!G3,'Week 8 Total'!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3,'Week 7 Total'!H3,'Week 8 Total'!H3)</f>
+        <v>49</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3,'Week 7 Total'!I3,'Week 8 Total'!I3)</f>
+        <v>33</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SUM('Week 1 Total'!J3,'Week 2 Total'!J3,'Week 3 Total'!J3,'Week 4 Total'!J3,'Week 5 Total'!J3,'Week 6 Total'!J3,'Week 7 Total'!J3,'Week 8 Total'!J3)</f>
+        <v>15.100000000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3,'Week 7 Total'!K3,'Week 8 Total'!K3)</f>
+        <v>27</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3,'Week 7 Total'!L3,'Week 8 Total'!L3)</f>
+        <v>9</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3,'Week 7 Total'!M3,'Week 8 Total'!M3)</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3,'Week 7 Total'!N3,'Week 8 Total'!N3)</f>
+        <v>69</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3,'Week 7 Total'!O3,'Week 8 Total'!O3)</f>
+        <v>21</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3,'Week 7 Total'!P3,'Week 8 Total'!P3)</f>
+        <v>48</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3,'Week 7 Total'!Q3,'Week 8 Total'!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3,'Week 7 Total'!R3,'Week 8 Total'!R3)</f>
+        <v>187</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3,'Week 7 Total'!S3,'Week 8 Total'!S3)</f>
+        <v>90</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3,'Week 7 Total'!T3,'Week 8 Total'!T3)</f>
+        <v>97</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U17" si="1">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.48128342245989303</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3,'Week 7 Total'!W3,'Week 8 Total'!W3)</f>
+        <v>138</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3,'Week 7 Total'!X3,'Week 8 Total'!X3)</f>
+        <v>81</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3,'Week 7 Total'!Y3,'Week 8 Total'!Y3)</f>
+        <v>57</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z17" si="2">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.58695652173913049</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3,'Week 7 Total'!AA3,'Week 8 Total'!AA3)</f>
+        <v>49</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3,'Week 7 Total'!AB3,'Week 8 Total'!AB3)</f>
+        <v>9</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3,'Week 7 Total'!AC3,'Week 8 Total'!AC3)</f>
+        <v>40</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18367346938775511</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3,'Week 7 Total'!AE3,'Week 8 Total'!AE3)</f>
+        <v>65</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3,'Week 7 Total'!AF3,'Week 8 Total'!AF3)</f>
+        <v>54</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3,'Week 7 Total'!AG3,'Week 8 Total'!AG3)</f>
+        <v>11</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH17" si="3">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.83076923076923082</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3,'Week 7 Total'!AI3,'Week 8 Total'!AI3)</f>
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3,'Week 7 Total'!AJ3,'Week 8 Total'!AJ3)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4,'Week 7 Total'!C4,'Week 8 Total'!C4)</f>
+        <v>151</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4,'Week 7 Total'!D4,'Week 8 Total'!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4,'Week 7 Total'!E4,'Week 8 Total'!E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4,'Week 7 Total'!F4,'Week 8 Total'!F4)</f>
+        <v>41</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4,'Week 7 Total'!G4,'Week 8 Total'!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4,'Week 7 Total'!H4,'Week 8 Total'!H4)</f>
+        <v>13</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4,'Week 7 Total'!I4,'Week 8 Total'!I4)</f>
+        <v>11</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUM('Week 1 Total'!J4,'Week 2 Total'!J4,'Week 3 Total'!J4,'Week 4 Total'!J4,'Week 5 Total'!J4,'Week 6 Total'!J4,'Week 7 Total'!J4,'Week 8 Total'!J4)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4,'Week 7 Total'!K4,'Week 8 Total'!K4)</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4,'Week 7 Total'!L4,'Week 8 Total'!L4)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4,'Week 7 Total'!M4,'Week 8 Total'!M4)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4,'Week 7 Total'!N4,'Week 8 Total'!N4)</f>
+        <v>24</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4,'Week 7 Total'!O4,'Week 8 Total'!O4)</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4,'Week 7 Total'!P4,'Week 8 Total'!P4)</f>
+        <v>22</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4,'Week 7 Total'!Q4,'Week 8 Total'!Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4,'Week 7 Total'!R4,'Week 8 Total'!R4)</f>
+        <v>37</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4,'Week 7 Total'!S4,'Week 8 Total'!S4)</f>
+        <v>14</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4,'Week 7 Total'!T4,'Week 8 Total'!T4)</f>
+        <v>23</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4,'Week 7 Total'!W4,'Week 8 Total'!W4)</f>
+        <v>15</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4,'Week 7 Total'!X4,'Week 8 Total'!X4)</f>
+        <v>5</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4,'Week 7 Total'!Y4,'Week 8 Total'!Y4)</f>
+        <v>10</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4,'Week 7 Total'!AA4,'Week 8 Total'!AA4)</f>
+        <v>22</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4,'Week 7 Total'!AB4,'Week 8 Total'!AB4)</f>
+        <v>9</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4,'Week 7 Total'!AC4,'Week 8 Total'!AC4)</f>
+        <v>13</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4,'Week 7 Total'!AE4,'Week 8 Total'!AE4)</f>
+        <v>4</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4,'Week 7 Total'!AF4,'Week 8 Total'!AF4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4,'Week 7 Total'!AG4,'Week 8 Total'!AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4,'Week 7 Total'!AI4,'Week 8 Total'!AI4)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4,'Week 7 Total'!AJ4,'Week 8 Total'!AJ4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5,'Week 7 Total'!C5,'Week 8 Total'!C5)</f>
+        <v>67</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5,'Week 7 Total'!D5,'Week 8 Total'!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5,'Week 7 Total'!E5,'Week 8 Total'!E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5,'Week 7 Total'!F5,'Week 8 Total'!F5)</f>
+        <v>20</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5,'Week 7 Total'!G5,'Week 8 Total'!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5,'Week 7 Total'!H5,'Week 8 Total'!H5)</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5,'Week 7 Total'!I5,'Week 8 Total'!I5)</f>
+        <v>8</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUM('Week 1 Total'!J5,'Week 2 Total'!J5,'Week 3 Total'!J5,'Week 4 Total'!J5,'Week 5 Total'!J5,'Week 6 Total'!J5,'Week 7 Total'!J5,'Week 8 Total'!J5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5,'Week 7 Total'!K5,'Week 8 Total'!K5)</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5,'Week 7 Total'!L5,'Week 8 Total'!L5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5,'Week 7 Total'!M5,'Week 8 Total'!M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5,'Week 7 Total'!N5,'Week 8 Total'!N5)</f>
+        <v>8</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5,'Week 7 Total'!O5,'Week 8 Total'!O5)</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5,'Week 7 Total'!P5,'Week 8 Total'!P5)</f>
+        <v>6</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5,'Week 7 Total'!Q5,'Week 8 Total'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5,'Week 7 Total'!R5,'Week 8 Total'!R5)</f>
+        <v>24</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5,'Week 7 Total'!S5,'Week 8 Total'!S5)</f>
+        <v>8</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5,'Week 7 Total'!T5,'Week 8 Total'!T5)</f>
+        <v>16</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5,'Week 7 Total'!W5,'Week 8 Total'!W5)</f>
+        <v>14</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5,'Week 7 Total'!X5,'Week 8 Total'!X5)</f>
+        <v>6</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5,'Week 7 Total'!Y5,'Week 8 Total'!Y5)</f>
+        <v>8</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5,'Week 7 Total'!AA5,'Week 8 Total'!AA5)</f>
+        <v>10</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5,'Week 7 Total'!AB5,'Week 8 Total'!AB5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5,'Week 7 Total'!AC5,'Week 8 Total'!AC5)</f>
+        <v>8</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5,'Week 7 Total'!AE5,'Week 8 Total'!AE5)</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5,'Week 7 Total'!AF5,'Week 8 Total'!AF5)</f>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5,'Week 7 Total'!AG5,'Week 8 Total'!AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5,'Week 7 Total'!AI5,'Week 8 Total'!AI5)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5,'Week 7 Total'!AJ5,'Week 8 Total'!AJ5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6,'Week 7 Total'!C6,'Week 8 Total'!C6)</f>
+        <v>369</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6,'Week 7 Total'!D6,'Week 8 Total'!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6,'Week 7 Total'!E6,'Week 8 Total'!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6,'Week 7 Total'!F6,'Week 8 Total'!F6)</f>
+        <v>64</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6,'Week 7 Total'!G6,'Week 8 Total'!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6,'Week 7 Total'!H6,'Week 8 Total'!H6)</f>
+        <v>56</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6,'Week 7 Total'!I6,'Week 8 Total'!I6)</f>
+        <v>21</v>
+      </c>
+      <c r="J6" s="4">
+        <f>SUM('Week 1 Total'!J6,'Week 2 Total'!J6,'Week 3 Total'!J6,'Week 4 Total'!J6,'Week 5 Total'!J6,'Week 6 Total'!J6,'Week 7 Total'!J6,'Week 8 Total'!J6)</f>
+        <v>18.670000000000002</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6,'Week 7 Total'!K6,'Week 8 Total'!K6)</f>
+        <v>13</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6,'Week 7 Total'!L6,'Week 8 Total'!L6)</f>
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6,'Week 7 Total'!M6,'Week 8 Total'!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6,'Week 7 Total'!N6,'Week 8 Total'!N6)</f>
+        <v>34</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6,'Week 7 Total'!O6,'Week 8 Total'!O6)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6,'Week 7 Total'!P6,'Week 8 Total'!P6)</f>
+        <v>31</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6,'Week 7 Total'!Q6,'Week 8 Total'!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6,'Week 7 Total'!R6,'Week 8 Total'!R6)</f>
+        <v>60</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6,'Week 7 Total'!S6,'Week 8 Total'!S6)</f>
+        <v>26</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6,'Week 7 Total'!T6,'Week 8 Total'!T6)</f>
+        <v>34</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6,'Week 7 Total'!W6,'Week 8 Total'!W6)</f>
+        <v>41</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6,'Week 7 Total'!X6,'Week 8 Total'!X6)</f>
+        <v>17</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6,'Week 7 Total'!Y6,'Week 8 Total'!Y6)</f>
+        <v>24</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41463414634146339</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6,'Week 7 Total'!AA6,'Week 8 Total'!AA6)</f>
+        <v>19</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6,'Week 7 Total'!AB6,'Week 8 Total'!AB6)</f>
+        <v>9</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6,'Week 7 Total'!AC6,'Week 8 Total'!AC6)</f>
+        <v>10</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6,'Week 7 Total'!AE6,'Week 8 Total'!AE6)</f>
+        <v>4</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6,'Week 7 Total'!AF6,'Week 8 Total'!AF6)</f>
+        <v>3</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6,'Week 7 Total'!AG6,'Week 8 Total'!AG6)</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6,'Week 7 Total'!AI6,'Week 8 Total'!AI6)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6,'Week 7 Total'!AJ6,'Week 8 Total'!AJ6)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7,'Week 7 Total'!C7,'Week 8 Total'!C7)</f>
+        <v>394</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7,'Week 7 Total'!D7,'Week 8 Total'!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7,'Week 7 Total'!E7,'Week 8 Total'!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7,'Week 7 Total'!F7,'Week 8 Total'!F7)</f>
+        <v>151</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7,'Week 7 Total'!G7,'Week 8 Total'!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7,'Week 7 Total'!H7,'Week 8 Total'!H7)</f>
+        <v>64</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7,'Week 7 Total'!I7,'Week 8 Total'!I7)</f>
+        <v>26</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM('Week 1 Total'!J7,'Week 2 Total'!J7,'Week 3 Total'!J7,'Week 4 Total'!J7,'Week 5 Total'!J7,'Week 6 Total'!J7,'Week 7 Total'!J7,'Week 8 Total'!J7)</f>
+        <v>25.166666666666664</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7,'Week 7 Total'!K7,'Week 8 Total'!K7)</f>
+        <v>19</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7,'Week 7 Total'!L7,'Week 8 Total'!L7)</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7,'Week 7 Total'!M7,'Week 8 Total'!M7)</f>
+        <v>13</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7,'Week 7 Total'!N7,'Week 8 Total'!N7)</f>
+        <v>39</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7,'Week 7 Total'!O7,'Week 8 Total'!O7)</f>
+        <v>8</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7,'Week 7 Total'!P7,'Week 8 Total'!P7)</f>
+        <v>31</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7,'Week 7 Total'!Q7,'Week 8 Total'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7,'Week 7 Total'!R7,'Week 8 Total'!R7)</f>
+        <v>119</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7,'Week 7 Total'!S7,'Week 8 Total'!S7)</f>
+        <v>52</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7,'Week 7 Total'!T7,'Week 8 Total'!T7)</f>
+        <v>67</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43697478991596639</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7,'Week 7 Total'!W7,'Week 8 Total'!W7)</f>
+        <v>28</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7,'Week 7 Total'!X7,'Week 8 Total'!X7)</f>
+        <v>13</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7,'Week 7 Total'!Y7,'Week 8 Total'!Y7)</f>
+        <v>15</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7,'Week 7 Total'!AA7,'Week 8 Total'!AA7)</f>
+        <v>91</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7,'Week 7 Total'!AB7,'Week 8 Total'!AB7)</f>
+        <v>39</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7,'Week 7 Total'!AC7,'Week 8 Total'!AC7)</f>
+        <v>52</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7,'Week 7 Total'!AE7,'Week 8 Total'!AE7)</f>
+        <v>10</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7,'Week 7 Total'!AF7,'Week 8 Total'!AF7)</f>
+        <v>8</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7,'Week 7 Total'!AG7,'Week 8 Total'!AG7)</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7,'Week 7 Total'!AI7,'Week 8 Total'!AI7)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7,'Week 7 Total'!AJ7,'Week 8 Total'!AJ7)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8,'Week 7 Total'!C8,'Week 8 Total'!C8)</f>
+        <v>116</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8,'Week 7 Total'!D8,'Week 8 Total'!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8,'Week 7 Total'!E8,'Week 8 Total'!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8,'Week 7 Total'!F8,'Week 8 Total'!F8)</f>
+        <v>24</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8,'Week 7 Total'!G8,'Week 8 Total'!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8,'Week 7 Total'!H8,'Week 8 Total'!H8)</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8,'Week 7 Total'!I8,'Week 8 Total'!I8)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM('Week 1 Total'!J8,'Week 2 Total'!J8,'Week 3 Total'!J8,'Week 4 Total'!J8,'Week 5 Total'!J8,'Week 6 Total'!J8,'Week 7 Total'!J8,'Week 8 Total'!J8)</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8,'Week 7 Total'!K8,'Week 8 Total'!K8)</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8,'Week 7 Total'!L8,'Week 8 Total'!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8,'Week 7 Total'!M8,'Week 8 Total'!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8,'Week 7 Total'!N8,'Week 8 Total'!N8)</f>
+        <v>13</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8,'Week 7 Total'!O8,'Week 8 Total'!O8)</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8,'Week 7 Total'!P8,'Week 8 Total'!P8)</f>
+        <v>11</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8,'Week 7 Total'!Q8,'Week 8 Total'!Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8,'Week 7 Total'!R8,'Week 8 Total'!R8)</f>
+        <v>20</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8,'Week 7 Total'!S8,'Week 8 Total'!S8)</f>
+        <v>8</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8,'Week 7 Total'!T8,'Week 8 Total'!T8)</f>
+        <v>12</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8,'Week 7 Total'!W8,'Week 8 Total'!W8)</f>
+        <v>6</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8,'Week 7 Total'!X8,'Week 8 Total'!X8)</f>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8,'Week 7 Total'!Y8,'Week 8 Total'!Y8)</f>
+        <v>4</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8,'Week 7 Total'!AA8,'Week 8 Total'!AA8)</f>
+        <v>14</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8,'Week 7 Total'!AB8,'Week 8 Total'!AB8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8,'Week 7 Total'!AC8,'Week 8 Total'!AC8)</f>
+        <v>8</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8,'Week 7 Total'!AE8,'Week 8 Total'!AE8)</f>
+        <v>2</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8,'Week 7 Total'!AF8,'Week 8 Total'!AF8)</f>
+        <v>2</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8,'Week 7 Total'!AG8,'Week 8 Total'!AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8,'Week 7 Total'!AI8,'Week 8 Total'!AI8)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8,'Week 7 Total'!AJ8,'Week 8 Total'!AJ8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9,'Week 7 Total'!C9,'Week 8 Total'!C9)</f>
+        <v>344</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9,'Week 7 Total'!D9,'Week 8 Total'!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9,'Week 7 Total'!E9,'Week 8 Total'!E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9,'Week 7 Total'!F9,'Week 8 Total'!F9)</f>
+        <v>138</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9,'Week 7 Total'!G9,'Week 8 Total'!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9,'Week 7 Total'!H9,'Week 8 Total'!H9)</f>
+        <v>16</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9,'Week 7 Total'!I9,'Week 8 Total'!I9)</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <f>SUM('Week 1 Total'!J9,'Week 2 Total'!J9,'Week 3 Total'!J9,'Week 4 Total'!J9,'Week 5 Total'!J9,'Week 6 Total'!J9,'Week 7 Total'!J9,'Week 8 Total'!J9)</f>
+        <v>7</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9,'Week 7 Total'!K9,'Week 8 Total'!K9)</f>
+        <v>17</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9,'Week 7 Total'!L9,'Week 8 Total'!L9)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9,'Week 7 Total'!M9,'Week 8 Total'!M9)</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9,'Week 7 Total'!N9,'Week 8 Total'!N9)</f>
+        <v>154</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9,'Week 7 Total'!O9,'Week 8 Total'!O9)</f>
+        <v>58</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9,'Week 7 Total'!P9,'Week 8 Total'!P9)</f>
+        <v>96</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9,'Week 6 Total'!Q9,'Week 7 Total'!Q9,'Week 8 Total'!Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9,'Week 6 Total'!R9,'Week 7 Total'!R9,'Week 8 Total'!R9)</f>
+        <v>115</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9,'Week 6 Total'!S9,'Week 7 Total'!S9,'Week 8 Total'!S9)</f>
+        <v>61</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9,'Week 6 Total'!T9,'Week 7 Total'!T9,'Week 8 Total'!T9)</f>
+        <v>54</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9,'Week 6 Total'!W9,'Week 7 Total'!W9,'Week 8 Total'!W9)</f>
+        <v>115</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9,'Week 6 Total'!X9,'Week 7 Total'!X9,'Week 8 Total'!X9)</f>
+        <v>61</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9,'Week 6 Total'!Y9,'Week 7 Total'!Y9,'Week 8 Total'!Y9)</f>
+        <v>54</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5304347826086957</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9,'Week 6 Total'!AA9,'Week 7 Total'!AA9,'Week 8 Total'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9,'Week 6 Total'!AB9,'Week 7 Total'!AB9,'Week 8 Total'!AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9,'Week 6 Total'!AC9,'Week 7 Total'!AC9,'Week 8 Total'!AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9,'Week 6 Total'!AE9,'Week 7 Total'!AE9,'Week 8 Total'!AE9)</f>
+        <v>30</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9,'Week 6 Total'!AF9,'Week 7 Total'!AF9,'Week 8 Total'!AF9)</f>
+        <v>16</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9,'Week 6 Total'!AG9,'Week 7 Total'!AG9,'Week 8 Total'!AG9)</f>
+        <v>14</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9,'Week 6 Total'!AI9,'Week 7 Total'!AI9,'Week 8 Total'!AI9)</f>
+        <v>21</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9,'Week 6 Total'!AJ9,'Week 7 Total'!AJ9,'Week 8 Total'!AJ9)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10,'Week 6 Total'!C10,'Week 7 Total'!C10,'Week 8 Total'!C10)</f>
+        <v>389</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10,'Week 6 Total'!D10,'Week 7 Total'!D10,'Week 8 Total'!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10,'Week 6 Total'!E10,'Week 7 Total'!E10,'Week 8 Total'!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10,'Week 6 Total'!F10,'Week 7 Total'!F10,'Week 8 Total'!F10)</f>
+        <v>205</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10,'Week 6 Total'!G10,'Week 7 Total'!G10,'Week 8 Total'!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10,'Week 6 Total'!H10,'Week 7 Total'!H10,'Week 8 Total'!H10)</f>
+        <v>33</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10,'Week 6 Total'!I10,'Week 7 Total'!I10,'Week 8 Total'!I10)</f>
+        <v>29</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM('Week 1 Total'!J10,'Week 2 Total'!J10,'Week 3 Total'!J10,'Week 4 Total'!J10,'Week 5 Total'!J10,'Week 6 Total'!J10,'Week 7 Total'!J10,'Week 8 Total'!J10)</f>
+        <v>15.483333333333334</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10,'Week 6 Total'!K10,'Week 7 Total'!K10,'Week 8 Total'!K10)</f>
+        <v>21</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10,'Week 6 Total'!L10,'Week 7 Total'!L10,'Week 8 Total'!L10)</f>
+        <v>6</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10,'Week 6 Total'!M10,'Week 7 Total'!M10,'Week 8 Total'!M10)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10,'Week 6 Total'!N10,'Week 7 Total'!N10,'Week 8 Total'!N10)</f>
+        <v>39</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10,'Week 6 Total'!O10,'Week 7 Total'!O10,'Week 8 Total'!O10)</f>
+        <v>13</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10,'Week 6 Total'!P10,'Week 7 Total'!P10,'Week 8 Total'!P10)</f>
+        <v>26</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10,'Week 6 Total'!Q10,'Week 7 Total'!Q10,'Week 8 Total'!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10,'Week 6 Total'!R10,'Week 7 Total'!R10,'Week 8 Total'!R10)</f>
+        <v>172</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10,'Week 6 Total'!S10,'Week 7 Total'!S10,'Week 8 Total'!S10)</f>
+        <v>74</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10,'Week 6 Total'!T10,'Week 7 Total'!T10,'Week 8 Total'!T10)</f>
+        <v>98</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43023255813953487</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10,'Week 6 Total'!W10,'Week 7 Total'!W10,'Week 8 Total'!W10)</f>
+        <v>100</v>
+      </c>
+      <c r="X10" s="4">
+        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10,'Week 6 Total'!X10,'Week 7 Total'!X10,'Week 8 Total'!X10)</f>
+        <v>49</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10,'Week 6 Total'!Y10,'Week 7 Total'!Y10,'Week 8 Total'!Y10)</f>
+        <v>51</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10,'Week 6 Total'!AA10,'Week 7 Total'!AA10,'Week 8 Total'!AA10)</f>
+        <v>72</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10,'Week 6 Total'!AB10,'Week 7 Total'!AB10,'Week 8 Total'!AB10)</f>
+        <v>25</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10,'Week 6 Total'!AC10,'Week 7 Total'!AC10,'Week 8 Total'!AC10)</f>
+        <v>47</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10,'Week 6 Total'!AE10,'Week 7 Total'!AE10,'Week 8 Total'!AE10)</f>
+        <v>38</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10,'Week 6 Total'!AF10,'Week 7 Total'!AF10,'Week 8 Total'!AF10)</f>
+        <v>32</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10,'Week 6 Total'!AG10,'Week 7 Total'!AG10,'Week 8 Total'!AG10)</f>
+        <v>6</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10,'Week 6 Total'!AI10,'Week 7 Total'!AI10,'Week 8 Total'!AI10)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10,'Week 6 Total'!AJ10,'Week 7 Total'!AJ10,'Week 8 Total'!AJ10)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11,'Week 6 Total'!C11,'Week 7 Total'!C11,'Week 8 Total'!C11)</f>
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11,'Week 6 Total'!D11,'Week 7 Total'!D11,'Week 8 Total'!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11,'Week 6 Total'!E11,'Week 7 Total'!E11,'Week 8 Total'!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11,'Week 6 Total'!F11,'Week 7 Total'!F11,'Week 8 Total'!F11)</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11,'Week 6 Total'!G11,'Week 7 Total'!G11,'Week 8 Total'!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11,'Week 6 Total'!H11,'Week 7 Total'!H11,'Week 8 Total'!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11,'Week 6 Total'!I11,'Week 7 Total'!I11,'Week 8 Total'!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM('Week 1 Total'!J11,'Week 2 Total'!J11,'Week 3 Total'!J11,'Week 4 Total'!J11,'Week 5 Total'!J11,'Week 6 Total'!J11,'Week 7 Total'!J11,'Week 8 Total'!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11,'Week 6 Total'!K11,'Week 7 Total'!K11,'Week 8 Total'!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11,'Week 6 Total'!L11,'Week 7 Total'!L11,'Week 8 Total'!L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11,'Week 6 Total'!M11,'Week 7 Total'!M11,'Week 8 Total'!M11)</f>
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11,'Week 6 Total'!N11,'Week 7 Total'!N11,'Week 8 Total'!N11)</f>
+        <v>7</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11,'Week 6 Total'!O11,'Week 7 Total'!O11,'Week 8 Total'!O11)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11,'Week 6 Total'!P11,'Week 7 Total'!P11,'Week 8 Total'!P11)</f>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11,'Week 6 Total'!Q11,'Week 7 Total'!Q11,'Week 8 Total'!Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11,'Week 6 Total'!R11,'Week 7 Total'!R11,'Week 8 Total'!R11)</f>
+        <v>5</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11,'Week 6 Total'!S11,'Week 7 Total'!S11,'Week 8 Total'!S11)</f>
+        <v>3</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11,'Week 6 Total'!T11,'Week 7 Total'!T11,'Week 8 Total'!T11)</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11,'Week 6 Total'!W11,'Week 7 Total'!W11,'Week 8 Total'!W11)</f>
+        <v>4</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11,'Week 6 Total'!X11,'Week 7 Total'!X11,'Week 8 Total'!X11)</f>
+        <v>3</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11,'Week 6 Total'!Y11,'Week 7 Total'!Y11,'Week 8 Total'!Y11)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11,'Week 6 Total'!AA11,'Week 7 Total'!AA11,'Week 8 Total'!AA11)</f>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11,'Week 6 Total'!AB11,'Week 7 Total'!AB11,'Week 8 Total'!AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11,'Week 6 Total'!AC11,'Week 7 Total'!AC11,'Week 8 Total'!AC11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11,'Week 6 Total'!AE11,'Week 7 Total'!AE11,'Week 8 Total'!AE11)</f>
+        <v>2</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11,'Week 6 Total'!AF11,'Week 7 Total'!AF11,'Week 8 Total'!AF11)</f>
+        <v>1</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11,'Week 6 Total'!AG11,'Week 7 Total'!AG11,'Week 8 Total'!AG11)</f>
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11,'Week 6 Total'!AI11,'Week 7 Total'!AI11,'Week 8 Total'!AI11)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11,'Week 6 Total'!AJ11,'Week 7 Total'!AJ11,'Week 8 Total'!AJ11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12,'Week 6 Total'!C12,'Week 7 Total'!C12,'Week 8 Total'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12,'Week 6 Total'!D12,'Week 7 Total'!D12,'Week 8 Total'!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12,'Week 6 Total'!E12,'Week 7 Total'!E12,'Week 8 Total'!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12,'Week 6 Total'!F12,'Week 7 Total'!F12,'Week 8 Total'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12,'Week 6 Total'!G12,'Week 7 Total'!G12,'Week 8 Total'!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12,'Week 6 Total'!H12,'Week 7 Total'!H12,'Week 8 Total'!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12,'Week 6 Total'!I12,'Week 7 Total'!I12,'Week 8 Total'!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>SUM('Week 1 Total'!J12,'Week 2 Total'!J12,'Week 3 Total'!J12,'Week 4 Total'!J12,'Week 5 Total'!J12,'Week 6 Total'!J12,'Week 7 Total'!J12,'Week 8 Total'!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12,'Week 6 Total'!K12,'Week 7 Total'!K12,'Week 8 Total'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12,'Week 6 Total'!L12,'Week 7 Total'!L12,'Week 8 Total'!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12,'Week 6 Total'!M12,'Week 7 Total'!M12,'Week 8 Total'!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12,'Week 6 Total'!N12,'Week 7 Total'!N12,'Week 8 Total'!N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12,'Week 6 Total'!O12,'Week 7 Total'!O12,'Week 8 Total'!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12,'Week 6 Total'!P12,'Week 7 Total'!P12,'Week 8 Total'!P12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12,'Week 6 Total'!Q12,'Week 7 Total'!Q12,'Week 8 Total'!Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12,'Week 6 Total'!R12,'Week 7 Total'!R12,'Week 8 Total'!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12,'Week 6 Total'!S12,'Week 7 Total'!S12,'Week 8 Total'!S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12,'Week 6 Total'!T12,'Week 7 Total'!T12,'Week 8 Total'!T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12,'Week 6 Total'!W12,'Week 7 Total'!W12,'Week 8 Total'!W12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12,'Week 6 Total'!X12,'Week 7 Total'!X12,'Week 8 Total'!X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12,'Week 6 Total'!Y12,'Week 7 Total'!Y12,'Week 8 Total'!Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12,'Week 6 Total'!AA12,'Week 7 Total'!AA12,'Week 8 Total'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12,'Week 6 Total'!AB12,'Week 7 Total'!AB12,'Week 8 Total'!AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12,'Week 6 Total'!AC12,'Week 7 Total'!AC12,'Week 8 Total'!AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12,'Week 6 Total'!AE12,'Week 7 Total'!AE12,'Week 8 Total'!AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12,'Week 6 Total'!AF12,'Week 7 Total'!AF12,'Week 8 Total'!AF12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12,'Week 6 Total'!AG12,'Week 7 Total'!AG12,'Week 8 Total'!AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12,'Week 6 Total'!AI12,'Week 7 Total'!AI12,'Week 8 Total'!AI12)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12,'Week 6 Total'!AJ12,'Week 7 Total'!AJ12,'Week 8 Total'!AJ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13,'Week 6 Total'!C13,'Week 7 Total'!C13,'Week 8 Total'!C13)</f>
+        <v>178</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13,'Week 6 Total'!D13,'Week 7 Total'!D13,'Week 8 Total'!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13,'Week 6 Total'!E13,'Week 7 Total'!E13,'Week 8 Total'!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13,'Week 6 Total'!F13,'Week 7 Total'!F13,'Week 8 Total'!F13)</f>
+        <v>56</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13,'Week 6 Total'!G13,'Week 7 Total'!G13,'Week 8 Total'!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13,'Week 6 Total'!H13,'Week 7 Total'!H13,'Week 8 Total'!H13)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13,'Week 6 Total'!I13,'Week 7 Total'!I13,'Week 8 Total'!I13)</f>
+        <v>17</v>
+      </c>
+      <c r="J13" s="4">
+        <f>SUM('Week 1 Total'!J13,'Week 2 Total'!J13,'Week 3 Total'!J13,'Week 4 Total'!J13,'Week 5 Total'!J13,'Week 6 Total'!J13,'Week 7 Total'!J13,'Week 8 Total'!J13)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13,'Week 6 Total'!K13,'Week 7 Total'!K13,'Week 8 Total'!K13)</f>
+        <v>7</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13,'Week 6 Total'!L13,'Week 7 Total'!L13,'Week 8 Total'!L13)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13,'Week 6 Total'!M13,'Week 7 Total'!M13,'Week 8 Total'!M13)</f>
+        <v>30</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13,'Week 6 Total'!N13,'Week 7 Total'!N13,'Week 8 Total'!N13)</f>
+        <v>39</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13,'Week 6 Total'!O13,'Week 7 Total'!O13,'Week 8 Total'!O13)</f>
+        <v>11</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13,'Week 6 Total'!P13,'Week 7 Total'!P13,'Week 8 Total'!P13)</f>
+        <v>28</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13,'Week 6 Total'!Q13,'Week 7 Total'!Q13,'Week 8 Total'!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13,'Week 6 Total'!R13,'Week 7 Total'!R13,'Week 8 Total'!R13)</f>
+        <v>37</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13,'Week 6 Total'!S13,'Week 7 Total'!S13,'Week 8 Total'!S13)</f>
+        <v>26</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13,'Week 6 Total'!T13,'Week 7 Total'!T13,'Week 8 Total'!T13)</f>
+        <v>11</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70270270270270274</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13,'Week 6 Total'!W13,'Week 7 Total'!W13,'Week 8 Total'!W13)</f>
+        <v>36</v>
+      </c>
+      <c r="X13" s="4">
+        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13,'Week 6 Total'!X13,'Week 7 Total'!X13,'Week 8 Total'!X13)</f>
+        <v>26</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13,'Week 6 Total'!Y13,'Week 7 Total'!Y13,'Week 8 Total'!Y13)</f>
+        <v>10</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13,'Week 6 Total'!AA13,'Week 7 Total'!AA13,'Week 8 Total'!AA13)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13,'Week 6 Total'!AB13,'Week 7 Total'!AB13,'Week 8 Total'!AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13,'Week 6 Total'!AC13,'Week 7 Total'!AC13,'Week 8 Total'!AC13)</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="4">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13,'Week 6 Total'!AE13,'Week 7 Total'!AE13,'Week 8 Total'!AE13)</f>
+        <v>8</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13,'Week 6 Total'!AF13,'Week 7 Total'!AF13,'Week 8 Total'!AF13)</f>
+        <v>4</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13,'Week 6 Total'!AG13,'Week 7 Total'!AG13,'Week 8 Total'!AG13)</f>
+        <v>4</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13,'Week 6 Total'!AI13,'Week 7 Total'!AI13,'Week 8 Total'!AI13)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13,'Week 6 Total'!AJ13,'Week 7 Total'!AJ13,'Week 8 Total'!AJ13)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14,'Week 6 Total'!C14,'Week 7 Total'!C14,'Week 8 Total'!C14)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14,'Week 6 Total'!D14,'Week 7 Total'!D14,'Week 8 Total'!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14,'Week 6 Total'!E14,'Week 7 Total'!E14,'Week 8 Total'!E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14,'Week 6 Total'!F14,'Week 7 Total'!F14,'Week 8 Total'!F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14,'Week 6 Total'!G14,'Week 7 Total'!G14,'Week 8 Total'!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14,'Week 6 Total'!H14,'Week 7 Total'!H14,'Week 8 Total'!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14,'Week 6 Total'!I14,'Week 7 Total'!I14,'Week 8 Total'!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>SUM('Week 1 Total'!J14,'Week 2 Total'!J14,'Week 3 Total'!J14,'Week 4 Total'!J14,'Week 5 Total'!J14,'Week 6 Total'!J14,'Week 7 Total'!J14,'Week 8 Total'!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14,'Week 6 Total'!K14,'Week 7 Total'!K14,'Week 8 Total'!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14,'Week 6 Total'!L14,'Week 7 Total'!L14,'Week 8 Total'!L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14,'Week 6 Total'!M14,'Week 7 Total'!M14,'Week 8 Total'!M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14,'Week 6 Total'!N14,'Week 7 Total'!N14,'Week 8 Total'!N14)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14,'Week 6 Total'!O14,'Week 7 Total'!O14,'Week 8 Total'!O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14,'Week 6 Total'!P14,'Week 7 Total'!P14,'Week 8 Total'!P14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14,'Week 6 Total'!Q14,'Week 7 Total'!Q14,'Week 8 Total'!Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14,'Week 6 Total'!R14,'Week 7 Total'!R14,'Week 8 Total'!R14)</f>
+        <v>2</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14,'Week 6 Total'!S14,'Week 7 Total'!S14,'Week 8 Total'!S14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14,'Week 6 Total'!T14,'Week 7 Total'!T14,'Week 8 Total'!T14)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14,'Week 6 Total'!W14,'Week 7 Total'!W14,'Week 8 Total'!W14)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14,'Week 6 Total'!X14,'Week 7 Total'!X14,'Week 8 Total'!X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14,'Week 6 Total'!Y14,'Week 7 Total'!Y14,'Week 8 Total'!Y14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14,'Week 6 Total'!AA14,'Week 7 Total'!AA14,'Week 8 Total'!AA14)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14,'Week 6 Total'!AB14,'Week 7 Total'!AB14,'Week 8 Total'!AB14)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14,'Week 6 Total'!AC14,'Week 7 Total'!AC14,'Week 8 Total'!AC14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14,'Week 6 Total'!AE14,'Week 7 Total'!AE14,'Week 8 Total'!AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14,'Week 6 Total'!AF14,'Week 7 Total'!AF14,'Week 8 Total'!AF14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14,'Week 6 Total'!AG14,'Week 7 Total'!AG14,'Week 8 Total'!AG14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14,'Week 6 Total'!AI14,'Week 7 Total'!AI14,'Week 8 Total'!AI14)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14,'Week 6 Total'!AJ14,'Week 7 Total'!AJ14,'Week 8 Total'!AJ14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15,'Week 6 Total'!C15,'Week 7 Total'!C15,'Week 8 Total'!C15)</f>
+        <v>107</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15,'Week 6 Total'!D15,'Week 7 Total'!D15,'Week 8 Total'!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15,'Week 6 Total'!E15,'Week 7 Total'!E15,'Week 8 Total'!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15,'Week 6 Total'!F15,'Week 7 Total'!F15,'Week 8 Total'!F15)</f>
+        <v>51</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15,'Week 6 Total'!G15,'Week 7 Total'!G15,'Week 8 Total'!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15,'Week 6 Total'!H15,'Week 7 Total'!H15,'Week 8 Total'!H15)</f>
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15,'Week 6 Total'!I15,'Week 7 Total'!I15,'Week 8 Total'!I15)</f>
+        <v>14</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUM('Week 1 Total'!J15,'Week 2 Total'!J15,'Week 3 Total'!J15,'Week 4 Total'!J15,'Week 5 Total'!J15,'Week 6 Total'!J15,'Week 7 Total'!J15,'Week 8 Total'!J15)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15,'Week 6 Total'!K15,'Week 7 Total'!K15,'Week 8 Total'!K15)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15,'Week 6 Total'!L15,'Week 7 Total'!L15,'Week 8 Total'!L15)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15,'Week 6 Total'!M15,'Week 7 Total'!M15,'Week 8 Total'!M15)</f>
+        <v>10</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15,'Week 6 Total'!N15,'Week 7 Total'!N15,'Week 8 Total'!N15)</f>
+        <v>26</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15,'Week 6 Total'!O15,'Week 7 Total'!O15,'Week 8 Total'!O15)</f>
+        <v>12</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15,'Week 6 Total'!P15,'Week 7 Total'!P15,'Week 8 Total'!P15)</f>
+        <v>14</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15,'Week 6 Total'!Q15,'Week 7 Total'!Q15,'Week 8 Total'!Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15,'Week 6 Total'!R15,'Week 7 Total'!R15,'Week 8 Total'!R15)</f>
+        <v>41</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15,'Week 6 Total'!S15,'Week 7 Total'!S15,'Week 8 Total'!S15)</f>
+        <v>20</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15,'Week 6 Total'!T15,'Week 7 Total'!T15,'Week 8 Total'!T15)</f>
+        <v>21</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15,'Week 6 Total'!W15,'Week 7 Total'!W15,'Week 8 Total'!W15)</f>
+        <v>26</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15,'Week 6 Total'!X15,'Week 7 Total'!X15,'Week 8 Total'!X15)</f>
+        <v>14</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15,'Week 6 Total'!Y15,'Week 7 Total'!Y15,'Week 8 Total'!Y15)</f>
+        <v>12</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15,'Week 6 Total'!AA15,'Week 7 Total'!AA15,'Week 8 Total'!AA15)</f>
+        <v>15</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15,'Week 6 Total'!AB15,'Week 7 Total'!AB15,'Week 8 Total'!AB15)</f>
+        <v>6</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15,'Week 6 Total'!AC15,'Week 7 Total'!AC15,'Week 8 Total'!AC15)</f>
+        <v>9</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15,'Week 6 Total'!AE15,'Week 7 Total'!AE15,'Week 8 Total'!AE15)</f>
+        <v>7</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15,'Week 6 Total'!AF15,'Week 7 Total'!AF15,'Week 8 Total'!AF15)</f>
+        <v>5</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15,'Week 6 Total'!AG15,'Week 7 Total'!AG15,'Week 8 Total'!AG15)</f>
+        <v>2</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15,'Week 6 Total'!AI15,'Week 7 Total'!AI15,'Week 8 Total'!AI15)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15,'Week 6 Total'!AJ15,'Week 7 Total'!AJ15,'Week 8 Total'!AJ15)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16,'Week 6 Total'!C16,'Week 7 Total'!C16,'Week 8 Total'!C16)</f>
+        <v>26</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16,'Week 6 Total'!D16,'Week 7 Total'!D16,'Week 8 Total'!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16,'Week 6 Total'!E16,'Week 7 Total'!E16,'Week 8 Total'!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16,'Week 6 Total'!F16,'Week 7 Total'!F16,'Week 8 Total'!F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16,'Week 6 Total'!G16,'Week 7 Total'!G16,'Week 8 Total'!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16,'Week 6 Total'!H16,'Week 7 Total'!H16,'Week 8 Total'!H16)</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16,'Week 6 Total'!I16,'Week 7 Total'!I16,'Week 8 Total'!I16)</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <f>SUM('Week 1 Total'!J16,'Week 2 Total'!J16,'Week 3 Total'!J16,'Week 4 Total'!J16,'Week 5 Total'!J16,'Week 6 Total'!J16,'Week 7 Total'!J16,'Week 8 Total'!J16)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16,'Week 6 Total'!K16,'Week 7 Total'!K16,'Week 8 Total'!K16)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16,'Week 6 Total'!L16,'Week 7 Total'!L16,'Week 8 Total'!L16)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16,'Week 6 Total'!M16,'Week 7 Total'!M16,'Week 8 Total'!M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16,'Week 6 Total'!N16,'Week 7 Total'!N16,'Week 8 Total'!N16)</f>
+        <v>8</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16,'Week 6 Total'!O16,'Week 7 Total'!O16,'Week 8 Total'!O16)</f>
+        <v>4</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16,'Week 6 Total'!P16,'Week 7 Total'!P16,'Week 8 Total'!P16)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16,'Week 6 Total'!Q16,'Week 7 Total'!Q16,'Week 8 Total'!Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16,'Week 6 Total'!R16,'Week 7 Total'!R16,'Week 8 Total'!R16)</f>
+        <v>9</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16,'Week 6 Total'!S16,'Week 7 Total'!S16,'Week 8 Total'!S16)</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16,'Week 6 Total'!T16,'Week 7 Total'!T16,'Week 8 Total'!T16)</f>
+        <v>7</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16,'Week 6 Total'!W16,'Week 7 Total'!W16,'Week 8 Total'!W16)</f>
+        <v>6</v>
+      </c>
+      <c r="X16" s="4">
+        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16,'Week 6 Total'!X16,'Week 7 Total'!X16,'Week 8 Total'!X16)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16,'Week 6 Total'!Y16,'Week 7 Total'!Y16,'Week 8 Total'!Y16)</f>
+        <v>5</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16,'Week 6 Total'!AA16,'Week 7 Total'!AA16,'Week 8 Total'!AA16)</f>
+        <v>3</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16,'Week 6 Total'!AB16,'Week 7 Total'!AB16,'Week 8 Total'!AB16)</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16,'Week 6 Total'!AC16,'Week 7 Total'!AC16,'Week 8 Total'!AC16)</f>
+        <v>2</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16,'Week 6 Total'!AE16,'Week 7 Total'!AE16,'Week 8 Total'!AE16)</f>
+        <v>2</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16,'Week 6 Total'!AF16,'Week 7 Total'!AF16,'Week 8 Total'!AF16)</f>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16,'Week 6 Total'!AG16,'Week 7 Total'!AG16,'Week 8 Total'!AG16)</f>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI16" s="4">
+        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16,'Week 6 Total'!AI16,'Week 7 Total'!AI16,'Week 8 Total'!AI16)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16,'Week 6 Total'!AJ16,'Week 7 Total'!AJ16,'Week 8 Total'!AJ16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17,'Week 6 Total'!C17,'Week 7 Total'!C17,'Week 8 Total'!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17,'Week 6 Total'!D17,'Week 7 Total'!D17,'Week 8 Total'!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17,'Week 6 Total'!E17,'Week 7 Total'!E17,'Week 8 Total'!E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17,'Week 6 Total'!F17,'Week 7 Total'!F17,'Week 8 Total'!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17,'Week 6 Total'!G17,'Week 7 Total'!G17,'Week 8 Total'!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17,'Week 6 Total'!H17,'Week 7 Total'!H17,'Week 8 Total'!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17,'Week 6 Total'!I17,'Week 7 Total'!I17,'Week 8 Total'!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f>SUM('Week 1 Total'!J17,'Week 2 Total'!J17,'Week 3 Total'!J17,'Week 4 Total'!J17,'Week 5 Total'!J17,'Week 6 Total'!J17,'Week 7 Total'!J17,'Week 8 Total'!J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17,'Week 6 Total'!K17,'Week 7 Total'!K17,'Week 8 Total'!K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17,'Week 6 Total'!L17,'Week 7 Total'!L17,'Week 8 Total'!L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17,'Week 6 Total'!M17,'Week 7 Total'!M17,'Week 8 Total'!M17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17,'Week 6 Total'!N17,'Week 7 Total'!N17,'Week 8 Total'!N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17,'Week 6 Total'!O17,'Week 7 Total'!O17,'Week 8 Total'!O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17,'Week 6 Total'!P17,'Week 7 Total'!P17,'Week 8 Total'!P17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17,'Week 6 Total'!Q17,'Week 7 Total'!Q17,'Week 8 Total'!Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17,'Week 6 Total'!R17,'Week 7 Total'!R17,'Week 8 Total'!R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17,'Week 6 Total'!S17,'Week 7 Total'!S17,'Week 8 Total'!S17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17,'Week 6 Total'!T17,'Week 7 Total'!T17,'Week 8 Total'!T17)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17,'Week 6 Total'!W17,'Week 7 Total'!W17,'Week 8 Total'!W17)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17,'Week 6 Total'!X17,'Week 7 Total'!X17,'Week 8 Total'!X17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17,'Week 6 Total'!Y17,'Week 7 Total'!Y17,'Week 8 Total'!Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17,'Week 6 Total'!AA17,'Week 7 Total'!AA17,'Week 8 Total'!AA17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17,'Week 6 Total'!AB17,'Week 7 Total'!AB17,'Week 8 Total'!AB17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17,'Week 6 Total'!AC17,'Week 7 Total'!AC17,'Week 8 Total'!AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17,'Week 6 Total'!AE17,'Week 7 Total'!AE17,'Week 8 Total'!AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17,'Week 6 Total'!AF17,'Week 7 Total'!AF17,'Week 8 Total'!AF17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17,'Week 6 Total'!AG17,'Week 7 Total'!AG17,'Week 8 Total'!AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17,'Week 6 Total'!AI17,'Week 7 Total'!AI17,'Week 8 Total'!AI17)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17,'Week 6 Total'!AJ17,'Week 7 Total'!AJ17,'Week 8 Total'!AJ17)</f>
         <v>0</v>
       </c>
     </row>

--- a/Game-data/WBBGame stats.xlsx
+++ b/Game-data/WBBGame stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Documents/WBB Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84EBF19-3015-1A4F-A20C-4F24ED9CF141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D27E0-0B8B-CF41-B1D6-FF985FFCF67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="7" activeTab="16" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="18" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Games" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <sheet name="Week 7 Total" sheetId="17" r:id="rId14"/>
     <sheet name="Week 8 Games" sheetId="18" r:id="rId15"/>
     <sheet name="Week 8 Total" sheetId="19" r:id="rId16"/>
-    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId17"/>
+    <sheet name="Week 9 Games" sheetId="20" r:id="rId17"/>
+    <sheet name="Week 9 Total" sheetId="21" r:id="rId18"/>
+    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="74">
   <si>
     <t>MP</t>
   </si>
@@ -270,6 +272,9 @@
   <si>
     <t>Pacific</t>
   </si>
+  <si>
+    <t>St. Mary's</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +283,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,6 +300,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -331,6 +343,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13038,7 +13051,7 @@
   <dimension ref="A1:AL26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:AL26"/>
+      <selection activeCell="R15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15914,8 +15927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CDCE8-99DC-D043-9DEA-EB2B0D0CC2A2}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18100,12 +18113,2895 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD14B10-2360-8249-B56E-57ADDC134599}">
+  <dimension ref="A1:AL27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <f>D2*24</f>
+        <v>26</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="E2">
+        <v>1.35</v>
+      </c>
+      <c r="F2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>0.76</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="X2">
+        <v>11</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C13" si="0">D3*24</f>
+        <v>14</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E3">
+        <v>0.35</v>
+      </c>
+      <c r="F3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>-0.17</v>
+      </c>
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.125</v>
+      </c>
+      <c r="E5">
+        <v>0.66</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="E6">
+        <v>1.41</v>
+      </c>
+      <c r="F6">
+        <v>0.85</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1.38</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E7">
+        <v>2.02</v>
+      </c>
+      <c r="F7">
+        <v>0.65</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>1.07</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7">
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.125</v>
+      </c>
+      <c r="E8">
+        <v>1.59</v>
+      </c>
+      <c r="F8">
+        <v>0.7</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>0.9</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8">
+        <v>19</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>11</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="X8">
+        <v>13</v>
+      </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E9">
+        <v>-0.32</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="E10">
+        <v>1.89</v>
+      </c>
+      <c r="F10">
+        <v>1.33</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>1.5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>1.3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>0.67</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AE15" s="3"/>
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4">
+        <f>D16*24</f>
+        <v>25</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E16">
+        <v>2.29</v>
+      </c>
+      <c r="F16">
+        <v>0.72</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>1.46</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>1.25</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>6</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF16">
+        <v>5</v>
+      </c>
+      <c r="AG16">
+        <v>4</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:C27" si="1">D17*24</f>
+        <v>12</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F17">
+        <v>-0.08</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>1.67</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="E18">
+        <v>0.61</v>
+      </c>
+      <c r="F18">
+        <v>0.67</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E19">
+        <v>0.83</v>
+      </c>
+      <c r="F19">
+        <v>0.61</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0.75</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E20">
+        <v>0.41</v>
+      </c>
+      <c r="F20">
+        <v>0.32</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0.43</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>1.67</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E21">
+        <v>1.74</v>
+      </c>
+      <c r="F21">
+        <v>0.86</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>1.56</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21">
+        <v>8</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E22">
+        <v>1.18</v>
+      </c>
+      <c r="F22">
+        <v>0.13</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>0.93</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>67</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>7</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="X22">
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+      <c r="Z22">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB22">
+        <v>4</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AF22">
+        <v>4</v>
+      </c>
+      <c r="AG22">
+        <v>3</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>3</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>1.52</v>
+      </c>
+      <c r="F24">
+        <v>0.83</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E25">
+        <v>-0.34</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E26">
+        <v>0.41</v>
+      </c>
+      <c r="F26">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>0.86</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="E27">
+        <v>1.24</v>
+      </c>
+      <c r="F27">
+        <v>0.22</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>1.25</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF27">
+        <v>2</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36045CA4-7B27-114E-993F-850E1CD35EC4}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18225,75 +21121,66 @@
         <v>58</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2,'Week 7 Total'!C2,'Week 8 Total'!C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2,'Week 7 Total'!D2,'Week 8 Total'!D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2,'Week 7 Total'!E2,'Week 8 Total'!E2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2,'Week 7 Total'!F2,'Week 8 Total'!F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2,'Week 7 Total'!G2,'Week 8 Total'!G2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
-        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2,'Week 7 Total'!H2,'Week 8 Total'!H2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2,'Week 7 Total'!I2,'Week 8 Total'!I2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>SUM('Week 1 Total'!J2,'Week 2 Total'!J2,'Week 3 Total'!J2,'Week 4 Total'!J2,'Week 5 Total'!J2,'Week 6 Total'!J2,'Week 7 Total'!J2,'Week 8 Total'!J2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K2" s="4">
-        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2,'Week 7 Total'!K2,'Week 8 Total'!K2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2,'Week 7 Total'!L2,'Week 8 Total'!L2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2,'Week 7 Total'!M2,'Week 8 Total'!M2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2,'Week 7 Total'!N2,'Week 8 Total'!N2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O2" s="4">
-        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2,'Week 7 Total'!O2,'Week 8 Total'!O2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2,'Week 7 Total'!P2,'Week 8 Total'!P2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!Q:Q)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="4">
-        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2,'Week 7 Total'!Q2,'Week 8 Total'!Q2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R2" s="4">
-        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2,'Week 7 Total'!R2,'Week 8 Total'!R2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2,'Week 7 Total'!S2,'Week 8 Total'!S2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T2" s="4">
-        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2,'Week 7 Total'!T2,'Week 8 Total'!T2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U2" s="2">
@@ -18302,15 +21189,15 @@
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4">
-        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2,'Week 7 Total'!W2,'Week 8 Total'!W2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X2" s="4">
-        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2,'Week 7 Total'!X2,'Week 8 Total'!X2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2,'Week 7 Total'!Y2,'Week 8 Total'!Y2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="2">
@@ -18318,15 +21205,15 @@
         <v>0</v>
       </c>
       <c r="AA2" s="4">
-        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2,'Week 7 Total'!AA2,'Week 8 Total'!AA2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="4">
-        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2,'Week 7 Total'!AB2,'Week 8 Total'!AB2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="4">
-        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2,'Week 7 Total'!AC2,'Week 8 Total'!AC2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="2">
@@ -18334,15 +21221,15 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2,'Week 7 Total'!AE2,'Week 8 Total'!AE2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="4">
-        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2,'Week 7 Total'!AF2,'Week 8 Total'!AF2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="4">
-        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2,'Week 7 Total'!AG2,'Week 8 Total'!AG2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="2">
@@ -18350,11 +21237,11 @@
         <v>0</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2,'Week 7 Total'!AI2,'Week 8 Total'!AI2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2,'Week 7 Total'!AJ2,'Week 8 Total'!AJ2)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B2,'Week 9 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -18363,137 +21250,128 @@
         <v>29</v>
       </c>
       <c r="C3" s="4">
-        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3,'Week 7 Total'!C3,'Week 8 Total'!C3)</f>
-        <v>405</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3,'Week 7 Total'!D3,'Week 8 Total'!D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3,'Week 7 Total'!E3,'Week 8 Total'!E3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!C:C)</f>
+        <v>51</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3,'Week 7 Total'!F3,'Week 8 Total'!F3)</f>
-        <v>243</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3,'Week 7 Total'!G3,'Week 8 Total'!G3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!G:G)</f>
+        <v>32</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3,'Week 7 Total'!H3,'Week 8 Total'!H3)</f>
-        <v>49</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!I:I)</f>
+        <v>7</v>
       </c>
       <c r="I3" s="4">
-        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3,'Week 7 Total'!I3,'Week 8 Total'!I3)</f>
-        <v>33</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!J:J)</f>
+        <v>6</v>
       </c>
       <c r="J3" s="4">
-        <f>SUM('Week 1 Total'!J3,'Week 2 Total'!J3,'Week 3 Total'!J3,'Week 4 Total'!J3,'Week 5 Total'!J3,'Week 6 Total'!J3,'Week 7 Total'!J3,'Week 8 Total'!J3)</f>
-        <v>15.100000000000001</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!K:K)</f>
+        <v>2.25</v>
       </c>
       <c r="K3" s="4">
-        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3,'Week 7 Total'!K3,'Week 8 Total'!K3)</f>
-        <v>27</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!L:L)</f>
+        <v>5</v>
       </c>
       <c r="L3" s="4">
-        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3,'Week 7 Total'!L3,'Week 8 Total'!L3)</f>
-        <v>9</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!M:M)</f>
+        <v>3</v>
       </c>
       <c r="M3" s="4">
-        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3,'Week 7 Total'!M3,'Week 8 Total'!M3)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!N:N)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!O:O)</f>
+        <v>13</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!P:P)</f>
         <v>6</v>
       </c>
-      <c r="N3" s="4">
-        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3,'Week 7 Total'!N3,'Week 8 Total'!N3)</f>
-        <v>69</v>
-      </c>
-      <c r="O3" s="4">
-        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3,'Week 7 Total'!O3,'Week 8 Total'!O3)</f>
-        <v>21</v>
-      </c>
       <c r="P3" s="4">
-        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3,'Week 7 Total'!P3,'Week 8 Total'!P3)</f>
-        <v>48</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!Q:Q)</f>
+        <v>7</v>
       </c>
       <c r="Q3" s="4">
-        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3,'Week 7 Total'!Q3,'Week 8 Total'!Q3)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R3" s="4">
-        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3,'Week 7 Total'!R3,'Week 8 Total'!R3)</f>
-        <v>187</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!S:S)</f>
+        <v>23</v>
       </c>
       <c r="S3" s="4">
-        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3,'Week 7 Total'!S3,'Week 8 Total'!S3)</f>
-        <v>90</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!T:T)</f>
+        <v>12</v>
       </c>
       <c r="T3" s="4">
-        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3,'Week 7 Total'!T3,'Week 8 Total'!T3)</f>
-        <v>97</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!U:U)</f>
+        <v>11</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U17" si="1">IF(ISERROR(S3/R3),0,S3/R3)</f>
-        <v>0.48128342245989303</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4">
-        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3,'Week 7 Total'!W3,'Week 8 Total'!W3)</f>
-        <v>138</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!X:X)</f>
+        <v>18</v>
       </c>
       <c r="X3" s="4">
-        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3,'Week 7 Total'!X3,'Week 8 Total'!X3)</f>
-        <v>81</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!Y:Y)</f>
+        <v>11</v>
       </c>
       <c r="Y3" s="4">
-        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3,'Week 7 Total'!Y3,'Week 8 Total'!Y3)</f>
-        <v>57</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!Z:Z)</f>
+        <v>7</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" ref="Z3:Z17" si="2">IF(ISERROR(X3/W3),0,X3/W3)</f>
-        <v>0.58695652173913049</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="AA3" s="4">
-        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3,'Week 7 Total'!AA3,'Week 8 Total'!AA3)</f>
-        <v>49</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!AB:AB)</f>
+        <v>5</v>
       </c>
       <c r="AB3" s="4">
-        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3,'Week 7 Total'!AB3,'Week 8 Total'!AB3)</f>
-        <v>9</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC3" s="4">
-        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3,'Week 7 Total'!AC3,'Week 8 Total'!AC3)</f>
-        <v>40</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!AD:AD)</f>
+        <v>4</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>0.18367346938775511</v>
+        <v>0.2</v>
       </c>
       <c r="AE3" s="4">
-        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3,'Week 7 Total'!AE3,'Week 8 Total'!AE3)</f>
-        <v>65</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!AF:AF)</f>
+        <v>10</v>
       </c>
       <c r="AF3" s="4">
-        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3,'Week 7 Total'!AF3,'Week 8 Total'!AF3)</f>
-        <v>54</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!AG:AG)</f>
+        <v>7</v>
       </c>
       <c r="AG3" s="4">
-        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3,'Week 7 Total'!AG3,'Week 8 Total'!AG3)</f>
-        <v>11</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!AH:AH)</f>
+        <v>3</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" ref="AH3:AH17" si="3">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
-        <v>0.83076923076923082</v>
+        <v>0.7</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3,'Week 7 Total'!AI3,'Week 8 Total'!AI3)</f>
-        <v>47</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!AK:AK)</f>
+        <v>5</v>
       </c>
       <c r="AJ3" s="4">
-        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3,'Week 7 Total'!AJ3,'Week 8 Total'!AJ3)</f>
-        <v>27</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B3,'Week 9 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -18501,137 +21379,128 @@
         <v>30</v>
       </c>
       <c r="C4" s="4">
-        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4,'Week 7 Total'!C4,'Week 8 Total'!C4)</f>
-        <v>151</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4,'Week 7 Total'!D4,'Week 8 Total'!D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4,'Week 7 Total'!E4,'Week 8 Total'!E4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!C:C)</f>
+        <v>26</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4,'Week 7 Total'!F4,'Week 8 Total'!F4)</f>
-        <v>41</v>
-      </c>
-      <c r="G4" s="4">
-        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4,'Week 7 Total'!G4,'Week 8 Total'!G4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!G:G)</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4,'Week 7 Total'!H4,'Week 8 Total'!H4)</f>
-        <v>13</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4,'Week 7 Total'!I4,'Week 8 Total'!I4)</f>
-        <v>11</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!J:J)</f>
+        <v>2</v>
       </c>
       <c r="J4" s="4">
-        <f>SUM('Week 1 Total'!J4,'Week 2 Total'!J4,'Week 3 Total'!J4,'Week 4 Total'!J4,'Week 5 Total'!J4,'Week 6 Total'!J4,'Week 7 Total'!J4,'Week 8 Total'!J4)</f>
-        <v>3.1666666666666665</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4,'Week 7 Total'!K4,'Week 8 Total'!K4)</f>
-        <v>10</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!L:L)</f>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
-        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4,'Week 7 Total'!L4,'Week 8 Total'!L4)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!M:M)</f>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
-        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4,'Week 7 Total'!M4,'Week 8 Total'!M4)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!N:N)</f>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4,'Week 7 Total'!N4,'Week 8 Total'!N4)</f>
-        <v>24</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!O:O)</f>
+        <v>3</v>
       </c>
       <c r="O4" s="4">
-        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4,'Week 7 Total'!O4,'Week 8 Total'!O4)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P4" s="4">
-        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4,'Week 7 Total'!P4,'Week 8 Total'!P4)</f>
-        <v>22</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!Q:Q)</f>
+        <v>3</v>
       </c>
       <c r="Q4" s="4">
-        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4,'Week 7 Total'!Q4,'Week 8 Total'!Q4)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R4" s="4">
-        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4,'Week 7 Total'!R4,'Week 8 Total'!R4)</f>
-        <v>37</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!S:S)</f>
+        <v>5</v>
       </c>
       <c r="S4" s="4">
-        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4,'Week 7 Total'!S4,'Week 8 Total'!S4)</f>
-        <v>14</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!T:T)</f>
+        <v>3</v>
       </c>
       <c r="T4" s="4">
-        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4,'Week 7 Total'!T4,'Week 8 Total'!T4)</f>
-        <v>23</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!U:U)</f>
+        <v>2</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="1"/>
-        <v>0.3783783783783784</v>
+        <v>0.6</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4">
-        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4,'Week 7 Total'!W4,'Week 8 Total'!W4)</f>
-        <v>15</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!X:X)</f>
+        <v>2</v>
       </c>
       <c r="X4" s="4">
-        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4,'Week 7 Total'!X4,'Week 8 Total'!X4)</f>
-        <v>5</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y4" s="4">
-        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4,'Week 7 Total'!Y4,'Week 8 Total'!Y4)</f>
-        <v>10</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AA4" s="4">
-        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4,'Week 7 Total'!AA4,'Week 8 Total'!AA4)</f>
-        <v>22</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB4" s="4">
-        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4,'Week 7 Total'!AB4,'Week 8 Total'!AB4)</f>
-        <v>9</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!AC:AC)</f>
+        <v>2</v>
       </c>
       <c r="AC4" s="4">
-        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4,'Week 7 Total'!AC4,'Week 8 Total'!AC4)</f>
-        <v>13</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!AD:AD)</f>
+        <v>1</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="0"/>
-        <v>0.40909090909090912</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE4" s="4">
-        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4,'Week 7 Total'!AE4,'Week 8 Total'!AE4)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF4" s="4">
-        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4,'Week 7 Total'!AF4,'Week 8 Total'!AF4)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG4" s="4">
-        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4,'Week 7 Total'!AG4,'Week 8 Total'!AG4)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4,'Week 7 Total'!AI4,'Week 8 Total'!AI4)</f>
-        <v>5</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4,'Week 7 Total'!AJ4,'Week 8 Total'!AJ4)</f>
-        <v>16</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B4,'Week 9 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -18639,137 +21508,128 @@
         <v>31</v>
       </c>
       <c r="C5" s="4">
-        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5,'Week 7 Total'!C5,'Week 8 Total'!C5)</f>
-        <v>67</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5,'Week 7 Total'!D5,'Week 8 Total'!D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5,'Week 7 Total'!E5,'Week 8 Total'!E5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!C:C)</f>
+        <v>27</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5,'Week 7 Total'!F5,'Week 8 Total'!F5)</f>
-        <v>20</v>
-      </c>
-      <c r="G5" s="4">
-        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5,'Week 7 Total'!G5,'Week 8 Total'!G5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5,'Week 7 Total'!H5,'Week 8 Total'!H5)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!I:I)</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!J:J)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!K:K)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!O:O)</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!P:P)</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!Q:Q)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!S:S)</f>
         <v>7</v>
       </c>
-      <c r="I5" s="4">
-        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5,'Week 7 Total'!I5,'Week 8 Total'!I5)</f>
-        <v>8</v>
-      </c>
-      <c r="J5" s="4">
-        <f>SUM('Week 1 Total'!J5,'Week 2 Total'!J5,'Week 3 Total'!J5,'Week 4 Total'!J5,'Week 5 Total'!J5,'Week 6 Total'!J5,'Week 7 Total'!J5,'Week 8 Total'!J5)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K5" s="4">
-        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5,'Week 7 Total'!K5,'Week 8 Total'!K5)</f>
-        <v>2</v>
-      </c>
-      <c r="L5" s="4">
-        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5,'Week 7 Total'!L5,'Week 8 Total'!L5)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5,'Week 7 Total'!M5,'Week 8 Total'!M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5,'Week 7 Total'!N5,'Week 8 Total'!N5)</f>
-        <v>8</v>
-      </c>
-      <c r="O5" s="4">
-        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5,'Week 7 Total'!O5,'Week 8 Total'!O5)</f>
-        <v>2</v>
-      </c>
-      <c r="P5" s="4">
-        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5,'Week 7 Total'!P5,'Week 8 Total'!P5)</f>
-        <v>6</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5,'Week 7 Total'!Q5,'Week 8 Total'!Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5,'Week 7 Total'!R5,'Week 8 Total'!R5)</f>
-        <v>24</v>
-      </c>
       <c r="S5" s="4">
-        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5,'Week 7 Total'!S5,'Week 8 Total'!S5)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!T:T)</f>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
-        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5,'Week 7 Total'!T5,'Week 8 Total'!T5)</f>
-        <v>16</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!U:U)</f>
+        <v>7</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4">
-        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5,'Week 7 Total'!W5,'Week 8 Total'!W5)</f>
-        <v>14</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!X:X)</f>
+        <v>2</v>
       </c>
       <c r="X5" s="4">
-        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5,'Week 7 Total'!X5,'Week 8 Total'!X5)</f>
-        <v>6</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y5" s="4">
-        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5,'Week 7 Total'!Y5,'Week 8 Total'!Y5)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!Z:Z)</f>
+        <v>2</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="4">
-        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5,'Week 7 Total'!AA5,'Week 8 Total'!AA5)</f>
-        <v>10</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!AB:AB)</f>
+        <v>5</v>
       </c>
       <c r="AB5" s="4">
-        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5,'Week 7 Total'!AB5,'Week 8 Total'!AB5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5,'Week 7 Total'!AC5,'Week 8 Total'!AC5)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!AD:AD)</f>
+        <v>5</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="4">
-        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5,'Week 7 Total'!AE5,'Week 8 Total'!AE5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF5" s="4">
-        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5,'Week 7 Total'!AF5,'Week 8 Total'!AF5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5,'Week 7 Total'!AG5,'Week 8 Total'!AG5)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5,'Week 7 Total'!AI5,'Week 8 Total'!AI5)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5,'Week 7 Total'!AJ5,'Week 8 Total'!AJ5)</f>
-        <v>7</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B5,'Week 9 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -18777,137 +21637,128 @@
         <v>32</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6,'Week 7 Total'!C6,'Week 8 Total'!C6)</f>
-        <v>369</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6,'Week 7 Total'!D6,'Week 8 Total'!D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6,'Week 7 Total'!E6,'Week 8 Total'!E6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!C:C)</f>
+        <v>50</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6,'Week 7 Total'!F6,'Week 8 Total'!F6)</f>
-        <v>64</v>
-      </c>
-      <c r="G6" s="4">
-        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6,'Week 7 Total'!G6,'Week 8 Total'!G6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6,'Week 7 Total'!H6,'Week 8 Total'!H6)</f>
-        <v>56</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!I:I)</f>
+        <v>8</v>
       </c>
       <c r="I6" s="4">
-        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6,'Week 7 Total'!I6,'Week 8 Total'!I6)</f>
-        <v>21</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!J:J)</f>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
-        <f>SUM('Week 1 Total'!J6,'Week 2 Total'!J6,'Week 3 Total'!J6,'Week 4 Total'!J6,'Week 5 Total'!J6,'Week 6 Total'!J6,'Week 7 Total'!J6,'Week 8 Total'!J6)</f>
-        <v>18.670000000000002</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!K:K)</f>
+        <v>5</v>
       </c>
       <c r="K6" s="4">
-        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6,'Week 7 Total'!K6,'Week 8 Total'!K6)</f>
-        <v>13</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!L:L)</f>
+        <v>5</v>
       </c>
       <c r="L6" s="4">
-        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6,'Week 7 Total'!L6,'Week 8 Total'!L6)</f>
-        <v>5</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!M:M)</f>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
-        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6,'Week 7 Total'!M6,'Week 8 Total'!M6)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6,'Week 7 Total'!N6,'Week 8 Total'!N6)</f>
-        <v>34</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!O:O)</f>
+        <v>8</v>
       </c>
       <c r="O6" s="4">
-        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6,'Week 7 Total'!O6,'Week 8 Total'!O6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!P:P)</f>
+        <v>1</v>
       </c>
       <c r="P6" s="4">
-        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6,'Week 7 Total'!P6,'Week 8 Total'!P6)</f>
-        <v>31</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!Q:Q)</f>
+        <v>7</v>
       </c>
       <c r="Q6" s="4">
-        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6,'Week 7 Total'!Q6,'Week 8 Total'!Q6)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R6" s="4">
-        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6,'Week 7 Total'!R6,'Week 8 Total'!R6)</f>
-        <v>60</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!S:S)</f>
+        <v>10</v>
       </c>
       <c r="S6" s="4">
-        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6,'Week 7 Total'!S6,'Week 8 Total'!S6)</f>
-        <v>26</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!T:T)</f>
+        <v>2</v>
       </c>
       <c r="T6" s="4">
-        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6,'Week 7 Total'!T6,'Week 8 Total'!T6)</f>
-        <v>34</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!U:U)</f>
+        <v>8</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="1"/>
-        <v>0.43333333333333335</v>
+        <v>0.2</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4">
-        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6,'Week 7 Total'!W6,'Week 8 Total'!W6)</f>
-        <v>41</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!X:X)</f>
+        <v>7</v>
       </c>
       <c r="X6" s="4">
-        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6,'Week 7 Total'!X6,'Week 8 Total'!X6)</f>
-        <v>17</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!Y:Y)</f>
+        <v>2</v>
       </c>
       <c r="Y6" s="4">
-        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6,'Week 7 Total'!Y6,'Week 8 Total'!Y6)</f>
-        <v>24</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!Z:Z)</f>
+        <v>5</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="2"/>
-        <v>0.41463414634146339</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AA6" s="4">
-        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6,'Week 7 Total'!AA6,'Week 8 Total'!AA6)</f>
-        <v>19</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB6" s="4">
-        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6,'Week 7 Total'!AB6,'Week 8 Total'!AB6)</f>
-        <v>9</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC6" s="4">
-        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6,'Week 7 Total'!AC6,'Week 8 Total'!AC6)</f>
-        <v>10</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!AD:AD)</f>
+        <v>3</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="0"/>
-        <v>0.47368421052631576</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="4">
-        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6,'Week 7 Total'!AE6,'Week 8 Total'!AE6)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!AF:AF)</f>
+        <v>1</v>
       </c>
       <c r="AF6" s="4">
-        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6,'Week 7 Total'!AF6,'Week 8 Total'!AF6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!AG:AG)</f>
+        <v>1</v>
       </c>
       <c r="AG6" s="4">
-        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6,'Week 7 Total'!AG6,'Week 8 Total'!AG6)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6,'Week 7 Total'!AI6,'Week 8 Total'!AI6)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6,'Week 7 Total'!AJ6,'Week 8 Total'!AJ6)</f>
-        <v>23</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B6,'Week 9 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -18915,137 +21766,128 @@
         <v>33</v>
       </c>
       <c r="C7" s="4">
-        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7,'Week 7 Total'!C7,'Week 8 Total'!C7)</f>
-        <v>394</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7,'Week 7 Total'!D7,'Week 8 Total'!D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7,'Week 7 Total'!E7,'Week 8 Total'!E7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!C:C)</f>
+        <v>51</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7,'Week 7 Total'!F7,'Week 8 Total'!F7)</f>
-        <v>151</v>
-      </c>
-      <c r="G7" s="4">
-        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7,'Week 7 Total'!G7,'Week 8 Total'!G7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!G:G)</f>
+        <v>14</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7,'Week 7 Total'!H7,'Week 8 Total'!H7)</f>
-        <v>64</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!I:I)</f>
+        <v>12</v>
       </c>
       <c r="I7" s="4">
-        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7,'Week 7 Total'!I7,'Week 8 Total'!I7)</f>
-        <v>26</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!J:J)</f>
+        <v>4</v>
       </c>
       <c r="J7" s="4">
-        <f>SUM('Week 1 Total'!J7,'Week 2 Total'!J7,'Week 3 Total'!J7,'Week 4 Total'!J7,'Week 5 Total'!J7,'Week 6 Total'!J7,'Week 7 Total'!J7,'Week 8 Total'!J7)</f>
-        <v>25.166666666666664</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!K:K)</f>
+        <v>8.67</v>
       </c>
       <c r="K7" s="4">
-        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7,'Week 7 Total'!K7,'Week 8 Total'!K7)</f>
-        <v>19</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!L:L)</f>
+        <v>4</v>
       </c>
       <c r="L7" s="4">
-        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7,'Week 7 Total'!L7,'Week 8 Total'!L7)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!M:M)</f>
+        <v>1</v>
       </c>
       <c r="M7" s="4">
-        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7,'Week 7 Total'!M7,'Week 8 Total'!M7)</f>
-        <v>13</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!N:N)</f>
+        <v>1</v>
       </c>
       <c r="N7" s="4">
-        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7,'Week 7 Total'!N7,'Week 8 Total'!N7)</f>
-        <v>39</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!O:O)</f>
+        <v>4</v>
       </c>
       <c r="O7" s="4">
-        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7,'Week 7 Total'!O7,'Week 8 Total'!O7)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
-        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7,'Week 7 Total'!P7,'Week 8 Total'!P7)</f>
-        <v>31</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!Q:Q)</f>
+        <v>4</v>
       </c>
       <c r="Q7" s="4">
-        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7,'Week 7 Total'!Q7,'Week 8 Total'!Q7)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R7" s="4">
-        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7,'Week 7 Total'!R7,'Week 8 Total'!R7)</f>
-        <v>119</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!S:S)</f>
+        <v>11</v>
       </c>
       <c r="S7" s="4">
-        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7,'Week 7 Total'!S7,'Week 8 Total'!S7)</f>
-        <v>52</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!T:T)</f>
+        <v>5</v>
       </c>
       <c r="T7" s="4">
-        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7,'Week 7 Total'!T7,'Week 8 Total'!T7)</f>
-        <v>67</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!U:U)</f>
+        <v>6</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="1"/>
-        <v>0.43697478991596639</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4">
-        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7,'Week 7 Total'!W7,'Week 8 Total'!W7)</f>
-        <v>28</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!X:X)</f>
+        <v>1</v>
       </c>
       <c r="X7" s="4">
-        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7,'Week 7 Total'!X7,'Week 8 Total'!X7)</f>
-        <v>13</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y7" s="4">
-        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7,'Week 7 Total'!Y7,'Week 8 Total'!Y7)</f>
-        <v>15</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="2"/>
-        <v>0.4642857142857143</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="4">
-        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7,'Week 7 Total'!AA7,'Week 8 Total'!AA7)</f>
-        <v>91</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!AB:AB)</f>
+        <v>10</v>
       </c>
       <c r="AB7" s="4">
-        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7,'Week 7 Total'!AB7,'Week 8 Total'!AB7)</f>
-        <v>39</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!AC:AC)</f>
+        <v>4</v>
       </c>
       <c r="AC7" s="4">
-        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7,'Week 7 Total'!AC7,'Week 8 Total'!AC7)</f>
-        <v>52</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!AD:AD)</f>
+        <v>6</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.4</v>
       </c>
       <c r="AE7" s="4">
-        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7,'Week 7 Total'!AE7,'Week 8 Total'!AE7)</f>
-        <v>10</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
-        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7,'Week 7 Total'!AF7,'Week 8 Total'!AF7)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7,'Week 7 Total'!AG7,'Week 8 Total'!AG7)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7,'Week 7 Total'!AI7,'Week 8 Total'!AI7)</f>
-        <v>9</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7,'Week 7 Total'!AJ7,'Week 8 Total'!AJ7)</f>
-        <v>23</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B7,'Week 9 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -19053,137 +21895,128 @@
         <v>34</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8,'Week 7 Total'!C8,'Week 8 Total'!C8)</f>
-        <v>116</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8,'Week 7 Total'!D8,'Week 8 Total'!D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8,'Week 7 Total'!E8,'Week 8 Total'!E8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8,'Week 7 Total'!F8,'Week 8 Total'!F8)</f>
-        <v>24</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8,'Week 7 Total'!G8,'Week 8 Total'!G8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8,'Week 7 Total'!H8,'Week 8 Total'!H8)</f>
-        <v>6</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8,'Week 7 Total'!I8,'Week 8 Total'!I8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>SUM('Week 1 Total'!J8,'Week 2 Total'!J8,'Week 3 Total'!J8,'Week 4 Total'!J8,'Week 5 Total'!J8,'Week 6 Total'!J8,'Week 7 Total'!J8,'Week 8 Total'!J8)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8,'Week 7 Total'!K8,'Week 8 Total'!K8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8,'Week 7 Total'!L8,'Week 8 Total'!L8)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8,'Week 7 Total'!M8,'Week 8 Total'!M8)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8,'Week 7 Total'!N8,'Week 8 Total'!N8)</f>
-        <v>13</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!O:O)</f>
+        <v>0</v>
       </c>
       <c r="O8" s="4">
-        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8,'Week 7 Total'!O8,'Week 8 Total'!O8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P8" s="4">
-        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8,'Week 7 Total'!P8,'Week 8 Total'!P8)</f>
-        <v>11</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!Q:Q)</f>
+        <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8,'Week 7 Total'!Q8,'Week 8 Total'!Q8)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R8" s="4">
-        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8,'Week 7 Total'!R8,'Week 8 Total'!R8)</f>
-        <v>20</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!S:S)</f>
+        <v>0</v>
       </c>
       <c r="S8" s="4">
-        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8,'Week 7 Total'!S8,'Week 8 Total'!S8)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!T:T)</f>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
-        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8,'Week 7 Total'!T8,'Week 8 Total'!T8)</f>
-        <v>12</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!U:U)</f>
+        <v>0</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4">
-        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8,'Week 7 Total'!W8,'Week 8 Total'!W8)</f>
-        <v>6</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X8" s="4">
-        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8,'Week 7 Total'!X8,'Week 8 Total'!X8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y8" s="4">
-        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8,'Week 7 Total'!Y8,'Week 8 Total'!Y8)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="4">
-        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8,'Week 7 Total'!AA8,'Week 8 Total'!AA8)</f>
-        <v>14</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8,'Week 7 Total'!AB8,'Week 8 Total'!AB8)</f>
-        <v>6</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC8" s="4">
-        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8,'Week 7 Total'!AC8,'Week 8 Total'!AC8)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="4">
-        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8,'Week 7 Total'!AE8,'Week 8 Total'!AE8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF8" s="4">
-        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8,'Week 7 Total'!AF8,'Week 8 Total'!AF8)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG8" s="4">
-        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8,'Week 7 Total'!AG8,'Week 8 Total'!AG8)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8,'Week 7 Total'!AI8,'Week 8 Total'!AI8)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8,'Week 7 Total'!AJ8,'Week 8 Total'!AJ8)</f>
-        <v>10</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B8,'Week 9 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -19191,108 +22024,99 @@
         <v>35</v>
       </c>
       <c r="C9" s="4">
-        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9,'Week 7 Total'!C9,'Week 8 Total'!C9)</f>
-        <v>344</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9,'Week 7 Total'!D9,'Week 8 Total'!D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9,'Week 7 Total'!E9,'Week 8 Total'!E9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!C:C)</f>
+        <v>42</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9,'Week 7 Total'!F9,'Week 8 Total'!F9)</f>
-        <v>138</v>
-      </c>
-      <c r="G9" s="4">
-        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9,'Week 7 Total'!G9,'Week 8 Total'!G9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!G:G)</f>
+        <v>29</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
-        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9,'Week 7 Total'!H9,'Week 8 Total'!H9)</f>
-        <v>16</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9,'Week 7 Total'!I9,'Week 8 Total'!I9)</f>
-        <v>9</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!J:J)</f>
+        <v>3</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM('Week 1 Total'!J9,'Week 2 Total'!J9,'Week 3 Total'!J9,'Week 4 Total'!J9,'Week 5 Total'!J9,'Week 6 Total'!J9,'Week 7 Total'!J9,'Week 8 Total'!J9)</f>
-        <v>7</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!K:K)</f>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9,'Week 7 Total'!K9,'Week 8 Total'!K9)</f>
-        <v>17</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!L:L)</f>
+        <v>2</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9,'Week 7 Total'!L9,'Week 8 Total'!L9)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!M:M)</f>
         <v>1</v>
       </c>
       <c r="M9" s="4">
-        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9,'Week 7 Total'!M9,'Week 8 Total'!M9)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!N:N)</f>
+        <v>1</v>
       </c>
       <c r="N9" s="4">
-        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9,'Week 7 Total'!N9,'Week 8 Total'!N9)</f>
-        <v>154</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!O:O)</f>
+        <v>19</v>
       </c>
       <c r="O9" s="4">
-        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9,'Week 7 Total'!O9,'Week 8 Total'!O9)</f>
-        <v>58</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!P:P)</f>
+        <v>11</v>
       </c>
       <c r="P9" s="4">
-        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9,'Week 7 Total'!P9,'Week 8 Total'!P9)</f>
-        <v>96</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!Q:Q)</f>
+        <v>8</v>
       </c>
       <c r="Q9" s="4">
-        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9,'Week 6 Total'!Q9,'Week 7 Total'!Q9,'Week 8 Total'!Q9)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R9" s="4">
-        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9,'Week 6 Total'!R9,'Week 7 Total'!R9,'Week 8 Total'!R9)</f>
-        <v>115</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!S:S)</f>
+        <v>18</v>
       </c>
       <c r="S9" s="4">
-        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9,'Week 6 Total'!S9,'Week 7 Total'!S9,'Week 8 Total'!S9)</f>
-        <v>61</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!T:T)</f>
+        <v>13</v>
       </c>
       <c r="T9" s="4">
-        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9,'Week 6 Total'!T9,'Week 7 Total'!T9,'Week 8 Total'!T9)</f>
-        <v>54</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!U:U)</f>
+        <v>5</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="1"/>
-        <v>0.5304347826086957</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4">
-        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9,'Week 6 Total'!W9,'Week 7 Total'!W9,'Week 8 Total'!W9)</f>
-        <v>115</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!X:X)</f>
+        <v>18</v>
       </c>
       <c r="X9" s="4">
-        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9,'Week 6 Total'!X9,'Week 7 Total'!X9,'Week 8 Total'!X9)</f>
-        <v>61</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!Y:Y)</f>
+        <v>13</v>
       </c>
       <c r="Y9" s="4">
-        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9,'Week 6 Total'!Y9,'Week 7 Total'!Y9,'Week 8 Total'!Y9)</f>
-        <v>54</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!Z:Z)</f>
+        <v>5</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>0.5304347826086957</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="AA9" s="4">
-        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9,'Week 6 Total'!AA9,'Week 7 Total'!AA9,'Week 8 Total'!AA9)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9,'Week 6 Total'!AB9,'Week 7 Total'!AB9,'Week 8 Total'!AB9)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9,'Week 6 Total'!AC9,'Week 7 Total'!AC9,'Week 8 Total'!AC9)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="2">
@@ -19300,28 +22124,28 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4">
-        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9,'Week 6 Total'!AE9,'Week 7 Total'!AE9,'Week 8 Total'!AE9)</f>
-        <v>30</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!AF:AF)</f>
+        <v>7</v>
       </c>
       <c r="AF9" s="4">
-        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9,'Week 6 Total'!AF9,'Week 7 Total'!AF9,'Week 8 Total'!AF9)</f>
-        <v>16</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!AG:AG)</f>
+        <v>3</v>
       </c>
       <c r="AG9" s="4">
-        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9,'Week 6 Total'!AG9,'Week 7 Total'!AG9,'Week 8 Total'!AG9)</f>
-        <v>14</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!AH:AH)</f>
+        <v>4</v>
       </c>
       <c r="AH9" s="2">
         <f t="shared" si="3"/>
-        <v>0.53333333333333333</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9,'Week 6 Total'!AI9,'Week 7 Total'!AI9,'Week 8 Total'!AI9)</f>
-        <v>21</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!AK:AK)</f>
+        <v>4</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9,'Week 6 Total'!AJ9,'Week 7 Total'!AJ9,'Week 8 Total'!AJ9)</f>
-        <v>27</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B9,'Week 9 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -19329,137 +22153,128 @@
         <v>67</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10,'Week 6 Total'!C10,'Week 7 Total'!C10,'Week 8 Total'!C10)</f>
-        <v>389</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10,'Week 6 Total'!D10,'Week 7 Total'!D10,'Week 8 Total'!D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10,'Week 6 Total'!E10,'Week 7 Total'!E10,'Week 8 Total'!E10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!C:C)</f>
+        <v>50</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10,'Week 6 Total'!F10,'Week 7 Total'!F10,'Week 8 Total'!F10)</f>
-        <v>205</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10,'Week 6 Total'!G10,'Week 7 Total'!G10,'Week 8 Total'!G10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!G:G)</f>
+        <v>32</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10,'Week 6 Total'!H10,'Week 7 Total'!H10,'Week 8 Total'!H10)</f>
-        <v>33</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!I:I)</f>
+        <v>5</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10,'Week 6 Total'!I10,'Week 7 Total'!I10,'Week 8 Total'!I10)</f>
-        <v>29</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!J:J)</f>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
-        <f>SUM('Week 1 Total'!J10,'Week 2 Total'!J10,'Week 3 Total'!J10,'Week 4 Total'!J10,'Week 5 Total'!J10,'Week 6 Total'!J10,'Week 7 Total'!J10,'Week 8 Total'!J10)</f>
-        <v>15.483333333333334</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!K:K)</f>
+        <v>2</v>
       </c>
       <c r="K10" s="4">
-        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10,'Week 6 Total'!K10,'Week 7 Total'!K10,'Week 8 Total'!K10)</f>
-        <v>21</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!L:L)</f>
+        <v>3</v>
       </c>
       <c r="L10" s="4">
-        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10,'Week 6 Total'!L10,'Week 7 Total'!L10,'Week 8 Total'!L10)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!O:O)</f>
         <v>6</v>
       </c>
-      <c r="M10" s="4">
-        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10,'Week 6 Total'!M10,'Week 7 Total'!M10,'Week 8 Total'!M10)</f>
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10,'Week 6 Total'!N10,'Week 7 Total'!N10,'Week 8 Total'!N10)</f>
-        <v>39</v>
-      </c>
       <c r="O10" s="4">
-        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10,'Week 6 Total'!O10,'Week 7 Total'!O10,'Week 8 Total'!O10)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!P:P)</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!Q:Q)</f>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!S:S)</f>
+        <v>31</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!T:T)</f>
         <v>13</v>
       </c>
-      <c r="P10" s="4">
-        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10,'Week 6 Total'!P10,'Week 7 Total'!P10,'Week 8 Total'!P10)</f>
-        <v>26</v>
-      </c>
-      <c r="Q10" s="4">
-        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10,'Week 6 Total'!Q10,'Week 7 Total'!Q10,'Week 8 Total'!Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10,'Week 6 Total'!R10,'Week 7 Total'!R10,'Week 8 Total'!R10)</f>
-        <v>172</v>
-      </c>
-      <c r="S10" s="4">
-        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10,'Week 6 Total'!S10,'Week 7 Total'!S10,'Week 8 Total'!S10)</f>
-        <v>74</v>
-      </c>
       <c r="T10" s="4">
-        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10,'Week 6 Total'!T10,'Week 7 Total'!T10,'Week 8 Total'!T10)</f>
-        <v>98</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!U:U)</f>
+        <v>18</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="1"/>
-        <v>0.43023255813953487</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4">
-        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10,'Week 6 Total'!W10,'Week 7 Total'!W10,'Week 8 Total'!W10)</f>
-        <v>100</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!X:X)</f>
+        <v>21</v>
       </c>
       <c r="X10" s="4">
-        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10,'Week 6 Total'!X10,'Week 7 Total'!X10,'Week 8 Total'!X10)</f>
-        <v>49</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!Y:Y)</f>
+        <v>12</v>
       </c>
       <c r="Y10" s="4">
-        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10,'Week 6 Total'!Y10,'Week 7 Total'!Y10,'Week 8 Total'!Y10)</f>
-        <v>51</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!Z:Z)</f>
+        <v>9</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="2"/>
-        <v>0.49</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA10" s="4">
-        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10,'Week 6 Total'!AA10,'Week 7 Total'!AA10,'Week 8 Total'!AA10)</f>
-        <v>72</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!AB:AB)</f>
+        <v>10</v>
       </c>
       <c r="AB10" s="4">
-        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10,'Week 6 Total'!AB10,'Week 7 Total'!AB10,'Week 8 Total'!AB10)</f>
-        <v>25</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC10" s="4">
-        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10,'Week 6 Total'!AC10,'Week 7 Total'!AC10,'Week 8 Total'!AC10)</f>
-        <v>47</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!AD:AD)</f>
+        <v>9</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="0"/>
-        <v>0.34722222222222221</v>
+        <v>0.1</v>
       </c>
       <c r="AE10" s="4">
-        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10,'Week 6 Total'!AE10,'Week 7 Total'!AE10,'Week 8 Total'!AE10)</f>
-        <v>38</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!AF:AF)</f>
+        <v>7</v>
       </c>
       <c r="AF10" s="4">
-        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10,'Week 6 Total'!AF10,'Week 7 Total'!AF10,'Week 8 Total'!AF10)</f>
-        <v>32</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!AG:AG)</f>
+        <v>5</v>
       </c>
       <c r="AG10" s="4">
-        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10,'Week 6 Total'!AG10,'Week 7 Total'!AG10,'Week 8 Total'!AG10)</f>
-        <v>6</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!AH:AH)</f>
+        <v>2</v>
       </c>
       <c r="AH10" s="2">
         <f t="shared" si="3"/>
-        <v>0.84210526315789469</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10,'Week 6 Total'!AI10,'Week 7 Total'!AI10,'Week 8 Total'!AI10)</f>
-        <v>24</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!AK:AK)</f>
+        <v>5</v>
       </c>
       <c r="AJ10" s="4">
-        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10,'Week 6 Total'!AJ10,'Week 7 Total'!AJ10,'Week 8 Total'!AJ10)</f>
-        <v>34</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B10,'Week 9 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -19467,137 +22282,128 @@
         <v>37</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11,'Week 6 Total'!C11,'Week 7 Total'!C11,'Week 8 Total'!C11)</f>
-        <v>28</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11,'Week 6 Total'!D11,'Week 7 Total'!D11,'Week 8 Total'!D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11,'Week 6 Total'!E11,'Week 7 Total'!E11,'Week 8 Total'!E11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!C:C)</f>
+        <v>9</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11,'Week 6 Total'!F11,'Week 7 Total'!F11,'Week 8 Total'!F11)</f>
-        <v>7</v>
-      </c>
-      <c r="G11" s="4">
-        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11,'Week 6 Total'!G11,'Week 7 Total'!G11,'Week 8 Total'!G11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11,'Week 6 Total'!H11,'Week 7 Total'!H11,'Week 8 Total'!H11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11,'Week 6 Total'!I11,'Week 7 Total'!I11,'Week 8 Total'!I11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!J:J)</f>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
-        <f>SUM('Week 1 Total'!J11,'Week 2 Total'!J11,'Week 3 Total'!J11,'Week 4 Total'!J11,'Week 5 Total'!J11,'Week 6 Total'!J11,'Week 7 Total'!J11,'Week 8 Total'!J11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!K:K)</f>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
-        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11,'Week 6 Total'!K11,'Week 7 Total'!K11,'Week 8 Total'!K11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!L:L)</f>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11,'Week 6 Total'!L11,'Week 7 Total'!L11,'Week 8 Total'!L11)</f>
-        <v>0</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!M:M)</f>
+        <v>1</v>
       </c>
       <c r="M11" s="4">
-        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11,'Week 6 Total'!M11,'Week 7 Total'!M11,'Week 8 Total'!M11)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!N:N)</f>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11,'Week 6 Total'!N11,'Week 7 Total'!N11,'Week 8 Total'!N11)</f>
-        <v>7</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!O:O)</f>
+        <v>0</v>
       </c>
       <c r="O11" s="4">
-        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11,'Week 6 Total'!O11,'Week 7 Total'!O11,'Week 8 Total'!O11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P11" s="4">
-        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11,'Week 6 Total'!P11,'Week 7 Total'!P11,'Week 8 Total'!P11)</f>
-        <v>6</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!Q:Q)</f>
+        <v>0</v>
       </c>
       <c r="Q11" s="4">
-        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11,'Week 6 Total'!Q11,'Week 7 Total'!Q11,'Week 8 Total'!Q11)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11,'Week 6 Total'!R11,'Week 7 Total'!R11,'Week 8 Total'!R11)</f>
-        <v>5</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!S:S)</f>
+        <v>2</v>
       </c>
       <c r="S11" s="4">
-        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11,'Week 6 Total'!S11,'Week 7 Total'!S11,'Week 8 Total'!S11)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!T:T)</f>
+        <v>0</v>
       </c>
       <c r="T11" s="4">
-        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11,'Week 6 Total'!T11,'Week 7 Total'!T11,'Week 8 Total'!T11)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!U:U)</f>
         <v>2</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4">
-        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11,'Week 6 Total'!W11,'Week 7 Total'!W11,'Week 8 Total'!W11)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X11" s="4">
-        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11,'Week 6 Total'!X11,'Week 7 Total'!X11,'Week 8 Total'!X11)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11,'Week 6 Total'!Y11,'Week 7 Total'!Y11,'Week 8 Total'!Y11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="4">
-        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11,'Week 6 Total'!AA11,'Week 7 Total'!AA11,'Week 8 Total'!AA11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!AB:AB)</f>
+        <v>2</v>
       </c>
       <c r="AB11" s="4">
-        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11,'Week 6 Total'!AB11,'Week 7 Total'!AB11,'Week 8 Total'!AB11)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11,'Week 6 Total'!AC11,'Week 7 Total'!AC11,'Week 8 Total'!AC11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!AD:AD)</f>
+        <v>2</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE11" s="4">
-        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11,'Week 6 Total'!AE11,'Week 7 Total'!AE11,'Week 8 Total'!AE11)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF11" s="4">
-        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11,'Week 6 Total'!AF11,'Week 7 Total'!AF11,'Week 8 Total'!AF11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG11" s="4">
-        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11,'Week 6 Total'!AG11,'Week 7 Total'!AG11,'Week 8 Total'!AG11)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH11" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11,'Week 6 Total'!AI11,'Week 7 Total'!AI11,'Week 8 Total'!AI11)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!AK:AK)</f>
         <v>1</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11,'Week 6 Total'!AJ11,'Week 7 Total'!AJ11,'Week 8 Total'!AJ11)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B11,'Week 9 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
@@ -19605,75 +22411,66 @@
         <v>59</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12,'Week 6 Total'!C12,'Week 7 Total'!C12,'Week 8 Total'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12,'Week 6 Total'!D12,'Week 7 Total'!D12,'Week 8 Total'!D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12,'Week 6 Total'!E12,'Week 7 Total'!E12,'Week 8 Total'!E12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12,'Week 6 Total'!F12,'Week 7 Total'!F12,'Week 8 Total'!F12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12,'Week 6 Total'!G12,'Week 7 Total'!G12,'Week 8 Total'!G12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4">
-        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12,'Week 6 Total'!H12,'Week 7 Total'!H12,'Week 8 Total'!H12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12,'Week 6 Total'!I12,'Week 7 Total'!I12,'Week 8 Total'!I12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f>SUM('Week 1 Total'!J12,'Week 2 Total'!J12,'Week 3 Total'!J12,'Week 4 Total'!J12,'Week 5 Total'!J12,'Week 6 Total'!J12,'Week 7 Total'!J12,'Week 8 Total'!J12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12,'Week 6 Total'!K12,'Week 7 Total'!K12,'Week 8 Total'!K12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12,'Week 6 Total'!L12,'Week 7 Total'!L12,'Week 8 Total'!L12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12,'Week 6 Total'!M12,'Week 7 Total'!M12,'Week 8 Total'!M12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12,'Week 6 Total'!N12,'Week 7 Total'!N12,'Week 8 Total'!N12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12,'Week 6 Total'!O12,'Week 7 Total'!O12,'Week 8 Total'!O12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12,'Week 6 Total'!P12,'Week 7 Total'!P12,'Week 8 Total'!P12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!Q:Q)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12,'Week 6 Total'!Q12,'Week 7 Total'!Q12,'Week 8 Total'!Q12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12,'Week 6 Total'!R12,'Week 7 Total'!R12,'Week 8 Total'!R12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12,'Week 6 Total'!S12,'Week 7 Total'!S12,'Week 8 Total'!S12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
-        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12,'Week 6 Total'!T12,'Week 7 Total'!T12,'Week 8 Total'!T12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U12" s="2">
@@ -19682,15 +22479,15 @@
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4">
-        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12,'Week 6 Total'!W12,'Week 7 Total'!W12,'Week 8 Total'!W12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12,'Week 6 Total'!X12,'Week 7 Total'!X12,'Week 8 Total'!X12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
-        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12,'Week 6 Total'!Y12,'Week 7 Total'!Y12,'Week 8 Total'!Y12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="2">
@@ -19698,15 +22495,15 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4">
-        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12,'Week 6 Total'!AA12,'Week 7 Total'!AA12,'Week 8 Total'!AA12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12,'Week 6 Total'!AB12,'Week 7 Total'!AB12,'Week 8 Total'!AB12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC12" s="4">
-        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12,'Week 6 Total'!AC12,'Week 7 Total'!AC12,'Week 8 Total'!AC12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="2">
@@ -19714,15 +22511,15 @@
         <v>0</v>
       </c>
       <c r="AE12" s="4">
-        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12,'Week 6 Total'!AE12,'Week 7 Total'!AE12,'Week 8 Total'!AE12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="4">
-        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12,'Week 6 Total'!AF12,'Week 7 Total'!AF12,'Week 8 Total'!AF12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="4">
-        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12,'Week 6 Total'!AG12,'Week 7 Total'!AG12,'Week 8 Total'!AG12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH12" s="2">
@@ -19730,11 +22527,11 @@
         <v>0</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12,'Week 6 Total'!AI12,'Week 7 Total'!AI12,'Week 8 Total'!AI12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12,'Week 6 Total'!AJ12,'Week 7 Total'!AJ12,'Week 8 Total'!AJ12)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B12,'Week 9 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -19743,137 +22540,128 @@
         <v>39</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13,'Week 6 Total'!C13,'Week 7 Total'!C13,'Week 8 Total'!C13)</f>
-        <v>178</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13,'Week 6 Total'!D13,'Week 7 Total'!D13,'Week 8 Total'!D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13,'Week 6 Total'!E13,'Week 7 Total'!E13,'Week 8 Total'!E13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!C:C)</f>
+        <v>33</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13,'Week 6 Total'!F13,'Week 7 Total'!F13,'Week 8 Total'!F13)</f>
-        <v>56</v>
-      </c>
-      <c r="G13" s="4">
-        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13,'Week 6 Total'!G13,'Week 7 Total'!G13,'Week 8 Total'!G13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!G:G)</f>
+        <v>14</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13,'Week 6 Total'!H13,'Week 7 Total'!H13,'Week 8 Total'!H13)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
-        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13,'Week 6 Total'!I13,'Week 7 Total'!I13,'Week 8 Total'!I13)</f>
-        <v>17</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>SUM('Week 1 Total'!J13,'Week 2 Total'!J13,'Week 3 Total'!J13,'Week 4 Total'!J13,'Week 5 Total'!J13,'Week 6 Total'!J13,'Week 7 Total'!J13,'Week 8 Total'!J13)</f>
-        <v>0.25</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13,'Week 6 Total'!K13,'Week 7 Total'!K13,'Week 8 Total'!K13)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!N:N)</f>
+        <v>8</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!O:O)</f>
+        <v>12</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!P:P)</f>
+        <v>3</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!Q:Q)</f>
+        <v>9</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!S:S)</f>
+        <v>8</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!T:T)</f>
         <v>7</v>
       </c>
-      <c r="L13" s="4">
-        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13,'Week 6 Total'!L13,'Week 7 Total'!L13,'Week 8 Total'!L13)</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="4">
-        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13,'Week 6 Total'!M13,'Week 7 Total'!M13,'Week 8 Total'!M13)</f>
-        <v>30</v>
-      </c>
-      <c r="N13" s="4">
-        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13,'Week 6 Total'!N13,'Week 7 Total'!N13,'Week 8 Total'!N13)</f>
-        <v>39</v>
-      </c>
-      <c r="O13" s="4">
-        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13,'Week 6 Total'!O13,'Week 7 Total'!O13,'Week 8 Total'!O13)</f>
-        <v>11</v>
-      </c>
-      <c r="P13" s="4">
-        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13,'Week 6 Total'!P13,'Week 7 Total'!P13,'Week 8 Total'!P13)</f>
-        <v>28</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13,'Week 6 Total'!Q13,'Week 7 Total'!Q13,'Week 8 Total'!Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13,'Week 6 Total'!R13,'Week 7 Total'!R13,'Week 8 Total'!R13)</f>
-        <v>37</v>
-      </c>
-      <c r="S13" s="4">
-        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13,'Week 6 Total'!S13,'Week 7 Total'!S13,'Week 8 Total'!S13)</f>
-        <v>26</v>
-      </c>
       <c r="T13" s="4">
-        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13,'Week 6 Total'!T13,'Week 7 Total'!T13,'Week 8 Total'!T13)</f>
-        <v>11</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!U:U)</f>
+        <v>1</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" si="1"/>
-        <v>0.70270270270270274</v>
+        <v>0.875</v>
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
-        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13,'Week 6 Total'!W13,'Week 7 Total'!W13,'Week 8 Total'!W13)</f>
-        <v>36</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!X:X)</f>
+        <v>8</v>
       </c>
       <c r="X13" s="4">
-        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13,'Week 6 Total'!X13,'Week 7 Total'!X13,'Week 8 Total'!X13)</f>
-        <v>26</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!Y:Y)</f>
+        <v>7</v>
       </c>
       <c r="Y13" s="4">
-        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13,'Week 6 Total'!Y13,'Week 7 Total'!Y13,'Week 8 Total'!Y13)</f>
-        <v>10</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="2"/>
-        <v>0.72222222222222221</v>
+        <v>0.875</v>
       </c>
       <c r="AA13" s="4">
-        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13,'Week 6 Total'!AA13,'Week 7 Total'!AA13,'Week 8 Total'!AA13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB13" s="4">
-        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13,'Week 6 Total'!AB13,'Week 7 Total'!AB13,'Week 8 Total'!AB13)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13,'Week 6 Total'!AC13,'Week 7 Total'!AC13,'Week 8 Total'!AC13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" ref="AD13:AD17" si="4">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="4">
-        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13,'Week 6 Total'!AE13,'Week 7 Total'!AE13,'Week 8 Total'!AE13)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF13" s="4">
-        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13,'Week 6 Total'!AF13,'Week 7 Total'!AF13,'Week 8 Total'!AF13)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG13" s="4">
-        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13,'Week 6 Total'!AG13,'Week 7 Total'!AG13,'Week 8 Total'!AG13)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH13" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13,'Week 6 Total'!AI13,'Week 7 Total'!AI13,'Week 8 Total'!AI13)</f>
-        <v>12</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13,'Week 6 Total'!AJ13,'Week 7 Total'!AJ13,'Week 8 Total'!AJ13)</f>
-        <v>32</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B13,'Week 9 Games'!AL:AL)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -19881,76 +22669,67 @@
         <v>40</v>
       </c>
       <c r="C14" s="4">
-        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14,'Week 6 Total'!C14,'Week 7 Total'!C14,'Week 8 Total'!C14)</f>
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14,'Week 6 Total'!D14,'Week 7 Total'!D14,'Week 8 Total'!D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14,'Week 6 Total'!E14,'Week 7 Total'!E14,'Week 8 Total'!E14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14,'Week 6 Total'!F14,'Week 7 Total'!F14,'Week 8 Total'!F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14,'Week 6 Total'!G14,'Week 7 Total'!G14,'Week 8 Total'!G14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14,'Week 6 Total'!H14,'Week 7 Total'!H14,'Week 8 Total'!H14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14,'Week 6 Total'!I14,'Week 7 Total'!I14,'Week 8 Total'!I14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f>SUM('Week 1 Total'!J14,'Week 2 Total'!J14,'Week 3 Total'!J14,'Week 4 Total'!J14,'Week 5 Total'!J14,'Week 6 Total'!J14,'Week 7 Total'!J14,'Week 8 Total'!J14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14,'Week 6 Total'!K14,'Week 7 Total'!K14,'Week 8 Total'!K14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14,'Week 6 Total'!L14,'Week 7 Total'!L14,'Week 8 Total'!L14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14,'Week 6 Total'!M14,'Week 7 Total'!M14,'Week 8 Total'!M14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14,'Week 6 Total'!N14,'Week 7 Total'!N14,'Week 8 Total'!N14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!O:O)</f>
+        <v>0</v>
       </c>
       <c r="O14" s="4">
-        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14,'Week 6 Total'!O14,'Week 7 Total'!O14,'Week 8 Total'!O14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14,'Week 6 Total'!P14,'Week 7 Total'!P14,'Week 8 Total'!P14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!Q:Q)</f>
+        <v>0</v>
       </c>
       <c r="Q14" s="4">
-        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14,'Week 6 Total'!Q14,'Week 7 Total'!Q14,'Week 8 Total'!Q14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14,'Week 6 Total'!R14,'Week 7 Total'!R14,'Week 8 Total'!R14)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!S:S)</f>
+        <v>0</v>
       </c>
       <c r="S14" s="4">
-        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14,'Week 6 Total'!S14,'Week 7 Total'!S14,'Week 8 Total'!S14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T14" s="4">
-        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14,'Week 6 Total'!T14,'Week 7 Total'!T14,'Week 8 Total'!T14)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!U:U)</f>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="1"/>
@@ -19958,47 +22737,47 @@
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4">
-        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14,'Week 6 Total'!W14,'Week 7 Total'!W14,'Week 8 Total'!W14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X14" s="4">
-        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14,'Week 6 Total'!X14,'Week 7 Total'!X14,'Week 8 Total'!X14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
-        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14,'Week 6 Total'!Y14,'Week 7 Total'!Y14,'Week 8 Total'!Y14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14" s="4">
-        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14,'Week 6 Total'!AA14,'Week 7 Total'!AA14,'Week 8 Total'!AA14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB14" s="4">
-        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14,'Week 6 Total'!AB14,'Week 7 Total'!AB14,'Week 8 Total'!AB14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="4">
-        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14,'Week 6 Total'!AC14,'Week 7 Total'!AC14,'Week 8 Total'!AC14)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE14" s="4">
-        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14,'Week 6 Total'!AE14,'Week 7 Total'!AE14,'Week 8 Total'!AE14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="4">
-        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14,'Week 6 Total'!AF14,'Week 7 Total'!AF14,'Week 8 Total'!AF14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="4">
-        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14,'Week 6 Total'!AG14,'Week 7 Total'!AG14,'Week 8 Total'!AG14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="2">
@@ -20006,11 +22785,11 @@
         <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14,'Week 6 Total'!AI14,'Week 7 Total'!AI14,'Week 8 Total'!AI14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14,'Week 6 Total'!AJ14,'Week 7 Total'!AJ14,'Week 8 Total'!AJ14)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B14,'Week 9 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -20019,137 +22798,128 @@
         <v>41</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15,'Week 6 Total'!C15,'Week 7 Total'!C15,'Week 8 Total'!C15)</f>
-        <v>107</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15,'Week 6 Total'!D15,'Week 7 Total'!D15,'Week 8 Total'!D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15,'Week 6 Total'!E15,'Week 7 Total'!E15,'Week 8 Total'!E15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!C:C)</f>
+        <v>26</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15,'Week 6 Total'!F15,'Week 7 Total'!F15,'Week 8 Total'!F15)</f>
-        <v>51</v>
-      </c>
-      <c r="G15" s="4">
-        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15,'Week 6 Total'!G15,'Week 7 Total'!G15,'Week 8 Total'!G15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!G:G)</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15,'Week 6 Total'!H15,'Week 7 Total'!H15,'Week 8 Total'!H15)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!I:I)</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!J:J)</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!K:K)</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!L:L)</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!M:M)</f>
+        <v>2</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!O:O)</f>
+        <v>6</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!P:P)</f>
+        <v>2</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!Q:Q)</f>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!S:S)</f>
+        <v>10</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!T:T)</f>
         <v>5</v>
       </c>
-      <c r="I15" s="4">
-        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15,'Week 6 Total'!I15,'Week 7 Total'!I15,'Week 8 Total'!I15)</f>
-        <v>14</v>
-      </c>
-      <c r="J15" s="4">
-        <f>SUM('Week 1 Total'!J15,'Week 2 Total'!J15,'Week 3 Total'!J15,'Week 4 Total'!J15,'Week 5 Total'!J15,'Week 6 Total'!J15,'Week 7 Total'!J15,'Week 8 Total'!J15)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K15" s="4">
-        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15,'Week 6 Total'!K15,'Week 7 Total'!K15,'Week 8 Total'!K15)</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15,'Week 6 Total'!L15,'Week 7 Total'!L15,'Week 8 Total'!L15)</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15,'Week 6 Total'!M15,'Week 7 Total'!M15,'Week 8 Total'!M15)</f>
-        <v>10</v>
-      </c>
-      <c r="N15" s="4">
-        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15,'Week 6 Total'!N15,'Week 7 Total'!N15,'Week 8 Total'!N15)</f>
-        <v>26</v>
-      </c>
-      <c r="O15" s="4">
-        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15,'Week 6 Total'!O15,'Week 7 Total'!O15,'Week 8 Total'!O15)</f>
-        <v>12</v>
-      </c>
-      <c r="P15" s="4">
-        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15,'Week 6 Total'!P15,'Week 7 Total'!P15,'Week 8 Total'!P15)</f>
-        <v>14</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15,'Week 6 Total'!Q15,'Week 7 Total'!Q15,'Week 8 Total'!Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15,'Week 6 Total'!R15,'Week 7 Total'!R15,'Week 8 Total'!R15)</f>
-        <v>41</v>
-      </c>
-      <c r="S15" s="4">
-        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15,'Week 6 Total'!S15,'Week 7 Total'!S15,'Week 8 Total'!S15)</f>
-        <v>20</v>
-      </c>
       <c r="T15" s="4">
-        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15,'Week 6 Total'!T15,'Week 7 Total'!T15,'Week 8 Total'!T15)</f>
-        <v>21</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!U:U)</f>
+        <v>5</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="1"/>
-        <v>0.48780487804878048</v>
+        <v>0.5</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4">
-        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15,'Week 6 Total'!W15,'Week 7 Total'!W15,'Week 8 Total'!W15)</f>
-        <v>26</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!X:X)</f>
+        <v>7</v>
       </c>
       <c r="X15" s="4">
-        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15,'Week 6 Total'!X15,'Week 7 Total'!X15,'Week 8 Total'!X15)</f>
-        <v>14</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!Y:Y)</f>
+        <v>5</v>
       </c>
       <c r="Y15" s="4">
-        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15,'Week 6 Total'!Y15,'Week 7 Total'!Y15,'Week 8 Total'!Y15)</f>
-        <v>12</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!Z:Z)</f>
+        <v>2</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="2"/>
-        <v>0.53846153846153844</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA15" s="4">
-        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15,'Week 6 Total'!AA15,'Week 7 Total'!AA15,'Week 8 Total'!AA15)</f>
-        <v>15</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB15" s="4">
-        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15,'Week 6 Total'!AB15,'Week 7 Total'!AB15,'Week 8 Total'!AB15)</f>
-        <v>6</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC15" s="4">
-        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15,'Week 6 Total'!AC15,'Week 7 Total'!AC15,'Week 8 Total'!AC15)</f>
-        <v>9</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!AD:AD)</f>
+        <v>3</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="4">
-        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15,'Week 6 Total'!AE15,'Week 7 Total'!AE15,'Week 8 Total'!AE15)</f>
-        <v>7</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF15" s="4">
-        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15,'Week 6 Total'!AF15,'Week 7 Total'!AF15,'Week 8 Total'!AF15)</f>
-        <v>5</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG15" s="4">
-        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15,'Week 6 Total'!AG15,'Week 7 Total'!AG15,'Week 8 Total'!AG15)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH15" s="2">
         <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15,'Week 6 Total'!AI15,'Week 7 Total'!AI15,'Week 8 Total'!AI15)</f>
-        <v>7</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ15" s="4">
-        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15,'Week 6 Total'!AJ15,'Week 7 Total'!AJ15,'Week 8 Total'!AJ15)</f>
-        <v>23</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B15,'Week 9 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -20157,124 +22927,115 @@
         <v>42</v>
       </c>
       <c r="C16" s="4">
-        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16,'Week 6 Total'!C16,'Week 7 Total'!C16,'Week 8 Total'!C16)</f>
-        <v>26</v>
-      </c>
-      <c r="D16" s="4">
-        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16,'Week 6 Total'!D16,'Week 7 Total'!D16,'Week 8 Total'!D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16,'Week 6 Total'!E16,'Week 7 Total'!E16,'Week 8 Total'!E16)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!C:C)</f>
+        <v>16</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16,'Week 6 Total'!F16,'Week 7 Total'!F16,'Week 8 Total'!F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G16" s="4">
-        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16,'Week 6 Total'!G16,'Week 7 Total'!G16,'Week 8 Total'!G16)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16,'Week 6 Total'!H16,'Week 7 Total'!H16,'Week 8 Total'!H16)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16,'Week 6 Total'!I16,'Week 7 Total'!I16,'Week 8 Total'!I16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>SUM('Week 1 Total'!J16,'Week 2 Total'!J16,'Week 3 Total'!J16,'Week 4 Total'!J16,'Week 5 Total'!J16,'Week 6 Total'!J16,'Week 7 Total'!J16,'Week 8 Total'!J16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
-        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16,'Week 6 Total'!K16,'Week 7 Total'!K16,'Week 8 Total'!K16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!L:L)</f>
+        <v>2</v>
       </c>
       <c r="L16" s="4">
-        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16,'Week 6 Total'!L16,'Week 7 Total'!L16,'Week 8 Total'!L16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
-        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16,'Week 6 Total'!M16,'Week 7 Total'!M16,'Week 8 Total'!M16)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16,'Week 6 Total'!N16,'Week 7 Total'!N16,'Week 8 Total'!N16)</f>
-        <v>8</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!O:O)</f>
+        <v>0</v>
       </c>
       <c r="O16" s="4">
-        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16,'Week 6 Total'!O16,'Week 7 Total'!O16,'Week 8 Total'!O16)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P16" s="4">
-        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16,'Week 6 Total'!P16,'Week 7 Total'!P16,'Week 8 Total'!P16)</f>
-        <v>4</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!Q:Q)</f>
+        <v>0</v>
       </c>
       <c r="Q16" s="4">
-        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16,'Week 6 Total'!Q16,'Week 7 Total'!Q16,'Week 8 Total'!Q16)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R16" s="4">
-        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16,'Week 6 Total'!R16,'Week 7 Total'!R16,'Week 8 Total'!R16)</f>
-        <v>9</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!S:S)</f>
+        <v>5</v>
       </c>
       <c r="S16" s="4">
-        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16,'Week 6 Total'!S16,'Week 7 Total'!S16,'Week 8 Total'!S16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!T:T)</f>
+        <v>3</v>
       </c>
       <c r="T16" s="4">
-        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16,'Week 6 Total'!T16,'Week 7 Total'!T16,'Week 8 Total'!T16)</f>
-        <v>7</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!U:U)</f>
+        <v>2</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.6</v>
       </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4">
-        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16,'Week 6 Total'!W16,'Week 7 Total'!W16,'Week 8 Total'!W16)</f>
-        <v>6</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!X:X)</f>
+        <v>5</v>
       </c>
       <c r="X16" s="4">
-        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16,'Week 6 Total'!X16,'Week 7 Total'!X16,'Week 8 Total'!X16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!Y:Y)</f>
+        <v>3</v>
       </c>
       <c r="Y16" s="4">
-        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16,'Week 6 Total'!Y16,'Week 7 Total'!Y16,'Week 8 Total'!Y16)</f>
-        <v>5</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!Z:Z)</f>
+        <v>2</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="AA16" s="4">
-        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16,'Week 6 Total'!AA16,'Week 7 Total'!AA16,'Week 8 Total'!AA16)</f>
-        <v>3</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16,'Week 6 Total'!AB16,'Week 7 Total'!AB16,'Week 8 Total'!AB16)</f>
-        <v>1</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC16" s="4">
-        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16,'Week 6 Total'!AC16,'Week 7 Total'!AC16,'Week 8 Total'!AC16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="4">
-        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16,'Week 6 Total'!AE16,'Week 7 Total'!AE16,'Week 8 Total'!AE16)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!AF:AF)</f>
         <v>2</v>
       </c>
       <c r="AF16" s="4">
-        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16,'Week 6 Total'!AF16,'Week 7 Total'!AF16,'Week 8 Total'!AF16)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!AG:AG)</f>
         <v>1</v>
       </c>
       <c r="AG16" s="4">
-        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16,'Week 6 Total'!AG16,'Week 7 Total'!AG16,'Week 8 Total'!AG16)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!AH:AH)</f>
         <v>1</v>
       </c>
       <c r="AH16" s="2">
@@ -20282,12 +23043,12 @@
         <v>0.5</v>
       </c>
       <c r="AI16" s="4">
-        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16,'Week 6 Total'!AI16,'Week 7 Total'!AI16,'Week 8 Total'!AI16)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!AK:AK)</f>
         <v>1</v>
       </c>
       <c r="AJ16" s="4">
-        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16,'Week 6 Total'!AJ16,'Week 7 Total'!AJ16,'Week 8 Total'!AJ16)</f>
-        <v>2</v>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B16,'Week 9 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
@@ -20295,75 +23056,66 @@
         <v>60</v>
       </c>
       <c r="C17" s="4">
-        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17,'Week 6 Total'!C17,'Week 7 Total'!C17,'Week 8 Total'!C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17,'Week 6 Total'!D17,'Week 7 Total'!D17,'Week 8 Total'!D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17,'Week 6 Total'!E17,'Week 7 Total'!E17,'Week 8 Total'!E17)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4">
-        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17,'Week 6 Total'!F17,'Week 7 Total'!F17,'Week 8 Total'!F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17,'Week 6 Total'!G17,'Week 7 Total'!G17,'Week 8 Total'!G17)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17,'Week 6 Total'!H17,'Week 7 Total'!H17,'Week 8 Total'!H17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17,'Week 6 Total'!I17,'Week 7 Total'!I17,'Week 8 Total'!I17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>SUM('Week 1 Total'!J17,'Week 2 Total'!J17,'Week 3 Total'!J17,'Week 4 Total'!J17,'Week 5 Total'!J17,'Week 6 Total'!J17,'Week 7 Total'!J17,'Week 8 Total'!J17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17,'Week 6 Total'!K17,'Week 7 Total'!K17,'Week 8 Total'!K17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17,'Week 6 Total'!L17,'Week 7 Total'!L17,'Week 8 Total'!L17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17,'Week 6 Total'!M17,'Week 7 Total'!M17,'Week 8 Total'!M17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17,'Week 6 Total'!N17,'Week 7 Total'!N17,'Week 8 Total'!N17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17,'Week 6 Total'!O17,'Week 7 Total'!O17,'Week 8 Total'!O17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17,'Week 6 Total'!P17,'Week 7 Total'!P17,'Week 8 Total'!P17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!Q:Q)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17,'Week 6 Total'!Q17,'Week 7 Total'!Q17,'Week 8 Total'!Q17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17,'Week 6 Total'!R17,'Week 7 Total'!R17,'Week 8 Total'!R17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
-        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17,'Week 6 Total'!S17,'Week 7 Total'!S17,'Week 8 Total'!S17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
-        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17,'Week 6 Total'!T17,'Week 7 Total'!T17,'Week 8 Total'!T17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U17" s="2">
@@ -20372,15 +23124,15 @@
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4">
-        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17,'Week 6 Total'!W17,'Week 7 Total'!W17,'Week 8 Total'!W17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
-        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17,'Week 6 Total'!X17,'Week 7 Total'!X17,'Week 8 Total'!X17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
-        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17,'Week 6 Total'!Y17,'Week 7 Total'!Y17,'Week 8 Total'!Y17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="2">
@@ -20388,15 +23140,15 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4">
-        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17,'Week 6 Total'!AA17,'Week 7 Total'!AA17,'Week 8 Total'!AA17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17,'Week 6 Total'!AB17,'Week 7 Total'!AB17,'Week 8 Total'!AB17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="4">
-        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17,'Week 6 Total'!AC17,'Week 7 Total'!AC17,'Week 8 Total'!AC17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="2">
@@ -20404,15 +23156,15 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4">
-        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17,'Week 6 Total'!AE17,'Week 7 Total'!AE17,'Week 8 Total'!AE17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="4">
-        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17,'Week 6 Total'!AF17,'Week 7 Total'!AF17,'Week 8 Total'!AF17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="4">
-        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17,'Week 6 Total'!AG17,'Week 7 Total'!AG17,'Week 8 Total'!AG17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="2">
@@ -20420,11 +23172,2345 @@
         <v>0</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17,'Week 6 Total'!AI17,'Week 7 Total'!AI17,'Week 8 Total'!AI17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="4">
-        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17,'Week 6 Total'!AJ17,'Week 7 Total'!AJ17,'Week 8 Total'!AJ17)</f>
+        <f>SUMIF('Week 9 Games'!$B:$B,'Week 9 Total'!$B17,'Week 9 Games'!AL:AL)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2,'Week 7 Total'!C2,'Week 8 Total'!C2,'Week 9 Total'!C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2,'Week 7 Total'!D2,'Week 8 Total'!D2,'Week 9 Total'!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2,'Week 7 Total'!E2,'Week 8 Total'!E2,'Week 9 Total'!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2,'Week 7 Total'!F2,'Week 8 Total'!F2,'Week 9 Total'!F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2,'Week 7 Total'!G2,'Week 8 Total'!G2,'Week 9 Total'!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2,'Week 7 Total'!H2,'Week 8 Total'!H2,'Week 9 Total'!H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2,'Week 7 Total'!I2,'Week 8 Total'!I2,'Week 9 Total'!I2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM('Week 1 Total'!J2,'Week 2 Total'!J2,'Week 3 Total'!J2,'Week 4 Total'!J2,'Week 5 Total'!J2,'Week 6 Total'!J2,'Week 7 Total'!J2,'Week 8 Total'!J2,'Week 9 Total'!J2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2,'Week 7 Total'!K2,'Week 8 Total'!K2,'Week 9 Total'!K2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2,'Week 7 Total'!L2,'Week 8 Total'!L2,'Week 9 Total'!L2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2,'Week 7 Total'!M2,'Week 8 Total'!M2,'Week 9 Total'!M2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2,'Week 7 Total'!N2,'Week 8 Total'!N2,'Week 9 Total'!N2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2,'Week 7 Total'!O2,'Week 8 Total'!O2,'Week 9 Total'!O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2,'Week 7 Total'!P2,'Week 8 Total'!P2,'Week 9 Total'!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2,'Week 7 Total'!Q2,'Week 8 Total'!Q2,'Week 9 Total'!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2,'Week 7 Total'!R2,'Week 8 Total'!R2,'Week 9 Total'!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2,'Week 7 Total'!S2,'Week 8 Total'!S2,'Week 9 Total'!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2,'Week 7 Total'!T2,'Week 8 Total'!T2,'Week 9 Total'!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <f>IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2,'Week 7 Total'!W2,'Week 8 Total'!W2,'Week 9 Total'!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2,'Week 7 Total'!X2,'Week 8 Total'!X2,'Week 9 Total'!X2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2,'Week 7 Total'!Y2,'Week 8 Total'!Y2,'Week 9 Total'!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2,'Week 7 Total'!AA2,'Week 8 Total'!AA2,'Week 9 Total'!AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2,'Week 7 Total'!AB2,'Week 8 Total'!AB2,'Week 9 Total'!AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2,'Week 7 Total'!AC2,'Week 8 Total'!AC2,'Week 9 Total'!AC2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD11" si="0">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2,'Week 7 Total'!AE2,'Week 8 Total'!AE2,'Week 9 Total'!AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2,'Week 7 Total'!AF2,'Week 8 Total'!AF2,'Week 9 Total'!AF2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2,'Week 7 Total'!AG2,'Week 8 Total'!AG2,'Week 9 Total'!AG2)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2,'Week 7 Total'!AI2,'Week 8 Total'!AI2,'Week 9 Total'!AI2)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2,'Week 7 Total'!AJ2,'Week 8 Total'!AJ2,'Week 9 Total'!AJ2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3,'Week 7 Total'!C3,'Week 8 Total'!C3,'Week 9 Total'!C3)</f>
+        <v>456</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3,'Week 7 Total'!D3,'Week 8 Total'!D3,'Week 9 Total'!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3,'Week 7 Total'!E3,'Week 8 Total'!E3,'Week 9 Total'!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3,'Week 7 Total'!F3,'Week 8 Total'!F3,'Week 9 Total'!F3)</f>
+        <v>275</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3,'Week 7 Total'!G3,'Week 8 Total'!G3,'Week 9 Total'!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3,'Week 7 Total'!H3,'Week 8 Total'!H3,'Week 9 Total'!H3)</f>
+        <v>56</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3,'Week 7 Total'!I3,'Week 8 Total'!I3,'Week 9 Total'!I3)</f>
+        <v>39</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SUM('Week 1 Total'!J3,'Week 2 Total'!J3,'Week 3 Total'!J3,'Week 4 Total'!J3,'Week 5 Total'!J3,'Week 6 Total'!J3,'Week 7 Total'!J3,'Week 8 Total'!J3,'Week 9 Total'!J3)</f>
+        <v>17.350000000000001</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3,'Week 7 Total'!K3,'Week 8 Total'!K3,'Week 9 Total'!K3)</f>
+        <v>32</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3,'Week 7 Total'!L3,'Week 8 Total'!L3,'Week 9 Total'!L3)</f>
+        <v>12</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3,'Week 7 Total'!M3,'Week 8 Total'!M3,'Week 9 Total'!M3)</f>
+        <v>7</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3,'Week 7 Total'!N3,'Week 8 Total'!N3,'Week 9 Total'!N3)</f>
+        <v>82</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3,'Week 7 Total'!O3,'Week 8 Total'!O3,'Week 9 Total'!O3)</f>
+        <v>27</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3,'Week 7 Total'!P3,'Week 8 Total'!P3,'Week 9 Total'!P3)</f>
+        <v>55</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3,'Week 7 Total'!Q3,'Week 8 Total'!Q3,'Week 9 Total'!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3,'Week 7 Total'!R3,'Week 8 Total'!R3,'Week 9 Total'!R3)</f>
+        <v>210</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3,'Week 7 Total'!S3,'Week 8 Total'!S3,'Week 9 Total'!S3)</f>
+        <v>102</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3,'Week 7 Total'!T3,'Week 8 Total'!T3,'Week 9 Total'!T3)</f>
+        <v>108</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U17" si="1">IF(ISERROR(S3/R3),0,S3/R3)</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3,'Week 7 Total'!W3,'Week 8 Total'!W3,'Week 9 Total'!W3)</f>
+        <v>156</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3,'Week 7 Total'!X3,'Week 8 Total'!X3,'Week 9 Total'!X3)</f>
+        <v>92</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3,'Week 7 Total'!Y3,'Week 8 Total'!Y3,'Week 9 Total'!Y3)</f>
+        <v>64</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z17" si="2">IF(ISERROR(X3/W3),0,X3/W3)</f>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3,'Week 7 Total'!AA3,'Week 8 Total'!AA3,'Week 9 Total'!AA3)</f>
+        <v>54</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3,'Week 7 Total'!AB3,'Week 8 Total'!AB3,'Week 9 Total'!AB3)</f>
+        <v>10</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3,'Week 7 Total'!AC3,'Week 8 Total'!AC3,'Week 9 Total'!AC3)</f>
+        <v>44</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3,'Week 7 Total'!AE3,'Week 8 Total'!AE3,'Week 9 Total'!AE3)</f>
+        <v>75</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3,'Week 7 Total'!AF3,'Week 8 Total'!AF3,'Week 9 Total'!AF3)</f>
+        <v>61</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3,'Week 7 Total'!AG3,'Week 8 Total'!AG3,'Week 9 Total'!AG3)</f>
+        <v>14</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH17" si="3">IF(ISERROR(AF3/AE3),0,AF3/AE3)</f>
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3,'Week 7 Total'!AI3,'Week 8 Total'!AI3,'Week 9 Total'!AI3)</f>
+        <v>52</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3,'Week 7 Total'!AJ3,'Week 8 Total'!AJ3,'Week 9 Total'!AJ3)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4,'Week 7 Total'!C4,'Week 8 Total'!C4,'Week 9 Total'!C4)</f>
+        <v>177</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4,'Week 7 Total'!D4,'Week 8 Total'!D4,'Week 9 Total'!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4,'Week 7 Total'!E4,'Week 8 Total'!E4,'Week 9 Total'!E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4,'Week 7 Total'!F4,'Week 8 Total'!F4,'Week 9 Total'!F4)</f>
+        <v>49</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4,'Week 7 Total'!G4,'Week 8 Total'!G4,'Week 9 Total'!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4,'Week 7 Total'!H4,'Week 8 Total'!H4,'Week 9 Total'!H4)</f>
+        <v>13</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4,'Week 7 Total'!I4,'Week 8 Total'!I4,'Week 9 Total'!I4)</f>
+        <v>13</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUM('Week 1 Total'!J4,'Week 2 Total'!J4,'Week 3 Total'!J4,'Week 4 Total'!J4,'Week 5 Total'!J4,'Week 6 Total'!J4,'Week 7 Total'!J4,'Week 8 Total'!J4,'Week 9 Total'!J4)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4,'Week 7 Total'!K4,'Week 8 Total'!K4,'Week 9 Total'!K4)</f>
+        <v>11</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4,'Week 7 Total'!L4,'Week 8 Total'!L4,'Week 9 Total'!L4)</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4,'Week 7 Total'!M4,'Week 8 Total'!M4,'Week 9 Total'!M4)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4,'Week 7 Total'!N4,'Week 8 Total'!N4,'Week 9 Total'!N4)</f>
+        <v>27</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4,'Week 7 Total'!O4,'Week 8 Total'!O4,'Week 9 Total'!O4)</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4,'Week 7 Total'!P4,'Week 8 Total'!P4,'Week 9 Total'!P4)</f>
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4,'Week 7 Total'!Q4,'Week 8 Total'!Q4,'Week 9 Total'!Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4,'Week 7 Total'!R4,'Week 8 Total'!R4,'Week 9 Total'!R4)</f>
+        <v>42</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4,'Week 7 Total'!S4,'Week 8 Total'!S4,'Week 9 Total'!S4)</f>
+        <v>17</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4,'Week 7 Total'!T4,'Week 8 Total'!T4,'Week 9 Total'!T4)</f>
+        <v>25</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4,'Week 7 Total'!W4,'Week 8 Total'!W4,'Week 9 Total'!W4)</f>
+        <v>17</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4,'Week 7 Total'!X4,'Week 8 Total'!X4,'Week 9 Total'!X4)</f>
+        <v>6</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4,'Week 7 Total'!Y4,'Week 8 Total'!Y4,'Week 9 Total'!Y4)</f>
+        <v>11</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4,'Week 7 Total'!AA4,'Week 8 Total'!AA4,'Week 9 Total'!AA4)</f>
+        <v>25</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4,'Week 7 Total'!AB4,'Week 8 Total'!AB4,'Week 9 Total'!AB4)</f>
+        <v>11</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4,'Week 7 Total'!AC4,'Week 8 Total'!AC4,'Week 9 Total'!AC4)</f>
+        <v>14</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4,'Week 7 Total'!AE4,'Week 8 Total'!AE4,'Week 9 Total'!AE4)</f>
+        <v>4</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4,'Week 7 Total'!AF4,'Week 8 Total'!AF4,'Week 9 Total'!AF4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4,'Week 7 Total'!AG4,'Week 8 Total'!AG4,'Week 9 Total'!AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4,'Week 7 Total'!AI4,'Week 8 Total'!AI4,'Week 9 Total'!AI4)</f>
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4,'Week 7 Total'!AJ4,'Week 8 Total'!AJ4,'Week 9 Total'!AJ4)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5,'Week 7 Total'!C5,'Week 8 Total'!C5,'Week 9 Total'!C5)</f>
+        <v>94</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5,'Week 7 Total'!D5,'Week 8 Total'!D5,'Week 9 Total'!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5,'Week 7 Total'!E5,'Week 8 Total'!E5,'Week 9 Total'!E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5,'Week 7 Total'!F5,'Week 8 Total'!F5,'Week 9 Total'!F5)</f>
+        <v>20</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5,'Week 7 Total'!G5,'Week 8 Total'!G5,'Week 9 Total'!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5,'Week 7 Total'!H5,'Week 8 Total'!H5,'Week 9 Total'!H5)</f>
+        <v>12</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5,'Week 7 Total'!I5,'Week 8 Total'!I5,'Week 9 Total'!I5)</f>
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUM('Week 1 Total'!J5,'Week 2 Total'!J5,'Week 3 Total'!J5,'Week 4 Total'!J5,'Week 5 Total'!J5,'Week 6 Total'!J5,'Week 7 Total'!J5,'Week 8 Total'!J5,'Week 9 Total'!J5)</f>
+        <v>9.5</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5,'Week 7 Total'!K5,'Week 8 Total'!K5,'Week 9 Total'!K5)</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5,'Week 7 Total'!L5,'Week 8 Total'!L5,'Week 9 Total'!L5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5,'Week 7 Total'!M5,'Week 8 Total'!M5,'Week 9 Total'!M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5,'Week 7 Total'!N5,'Week 8 Total'!N5,'Week 9 Total'!N5)</f>
+        <v>10</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5,'Week 7 Total'!O5,'Week 8 Total'!O5,'Week 9 Total'!O5)</f>
+        <v>3</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5,'Week 7 Total'!P5,'Week 8 Total'!P5,'Week 9 Total'!P5)</f>
+        <v>7</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5,'Week 7 Total'!Q5,'Week 8 Total'!Q5,'Week 9 Total'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5,'Week 7 Total'!R5,'Week 8 Total'!R5,'Week 9 Total'!R5)</f>
+        <v>31</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5,'Week 7 Total'!S5,'Week 8 Total'!S5,'Week 9 Total'!S5)</f>
+        <v>8</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5,'Week 7 Total'!T5,'Week 8 Total'!T5,'Week 9 Total'!T5)</f>
+        <v>23</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5,'Week 7 Total'!W5,'Week 8 Total'!W5,'Week 9 Total'!W5)</f>
+        <v>16</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5,'Week 7 Total'!X5,'Week 8 Total'!X5,'Week 9 Total'!X5)</f>
+        <v>6</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5,'Week 7 Total'!Y5,'Week 8 Total'!Y5,'Week 9 Total'!Y5)</f>
+        <v>10</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5,'Week 7 Total'!AA5,'Week 8 Total'!AA5,'Week 9 Total'!AA5)</f>
+        <v>15</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5,'Week 7 Total'!AB5,'Week 8 Total'!AB5,'Week 9 Total'!AB5)</f>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5,'Week 7 Total'!AC5,'Week 8 Total'!AC5,'Week 9 Total'!AC5)</f>
+        <v>13</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5,'Week 7 Total'!AE5,'Week 8 Total'!AE5,'Week 9 Total'!AE5)</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5,'Week 7 Total'!AF5,'Week 8 Total'!AF5,'Week 9 Total'!AF5)</f>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5,'Week 7 Total'!AG5,'Week 8 Total'!AG5,'Week 9 Total'!AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5,'Week 7 Total'!AI5,'Week 8 Total'!AI5,'Week 9 Total'!AI5)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5,'Week 7 Total'!AJ5,'Week 8 Total'!AJ5,'Week 9 Total'!AJ5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6,'Week 7 Total'!C6,'Week 8 Total'!C6,'Week 9 Total'!C6)</f>
+        <v>419</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6,'Week 7 Total'!D6,'Week 8 Total'!D6,'Week 9 Total'!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6,'Week 7 Total'!E6,'Week 8 Total'!E6,'Week 9 Total'!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6,'Week 7 Total'!F6,'Week 8 Total'!F6,'Week 9 Total'!F6)</f>
+        <v>69</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6,'Week 7 Total'!G6,'Week 8 Total'!G6,'Week 9 Total'!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6,'Week 7 Total'!H6,'Week 8 Total'!H6,'Week 9 Total'!H6)</f>
+        <v>64</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6,'Week 7 Total'!I6,'Week 8 Total'!I6,'Week 9 Total'!I6)</f>
+        <v>22</v>
+      </c>
+      <c r="J6" s="4">
+        <f>SUM('Week 1 Total'!J6,'Week 2 Total'!J6,'Week 3 Total'!J6,'Week 4 Total'!J6,'Week 5 Total'!J6,'Week 6 Total'!J6,'Week 7 Total'!J6,'Week 8 Total'!J6,'Week 9 Total'!J6)</f>
+        <v>23.67</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6,'Week 7 Total'!K6,'Week 8 Total'!K6,'Week 9 Total'!K6)</f>
+        <v>18</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6,'Week 7 Total'!L6,'Week 8 Total'!L6,'Week 9 Total'!L6)</f>
+        <v>6</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6,'Week 7 Total'!M6,'Week 8 Total'!M6,'Week 9 Total'!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6,'Week 7 Total'!N6,'Week 8 Total'!N6,'Week 9 Total'!N6)</f>
+        <v>42</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6,'Week 7 Total'!O6,'Week 8 Total'!O6,'Week 9 Total'!O6)</f>
+        <v>4</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6,'Week 7 Total'!P6,'Week 8 Total'!P6,'Week 9 Total'!P6)</f>
+        <v>38</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6,'Week 7 Total'!Q6,'Week 8 Total'!Q6,'Week 9 Total'!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6,'Week 7 Total'!R6,'Week 8 Total'!R6,'Week 9 Total'!R6)</f>
+        <v>70</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6,'Week 7 Total'!S6,'Week 8 Total'!S6,'Week 9 Total'!S6)</f>
+        <v>28</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6,'Week 7 Total'!T6,'Week 8 Total'!T6,'Week 9 Total'!T6)</f>
+        <v>42</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6,'Week 7 Total'!W6,'Week 8 Total'!W6,'Week 9 Total'!W6)</f>
+        <v>48</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6,'Week 7 Total'!X6,'Week 8 Total'!X6,'Week 9 Total'!X6)</f>
+        <v>19</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6,'Week 7 Total'!Y6,'Week 8 Total'!Y6,'Week 9 Total'!Y6)</f>
+        <v>29</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6,'Week 7 Total'!AA6,'Week 8 Total'!AA6,'Week 9 Total'!AA6)</f>
+        <v>22</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6,'Week 7 Total'!AB6,'Week 8 Total'!AB6,'Week 9 Total'!AB6)</f>
+        <v>9</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6,'Week 7 Total'!AC6,'Week 8 Total'!AC6,'Week 9 Total'!AC6)</f>
+        <v>13</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6,'Week 7 Total'!AE6,'Week 8 Total'!AE6,'Week 9 Total'!AE6)</f>
+        <v>5</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6,'Week 7 Total'!AF6,'Week 8 Total'!AF6,'Week 9 Total'!AF6)</f>
+        <v>4</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6,'Week 7 Total'!AG6,'Week 8 Total'!AG6,'Week 9 Total'!AG6)</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6,'Week 7 Total'!AI6,'Week 8 Total'!AI6,'Week 9 Total'!AI6)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6,'Week 7 Total'!AJ6,'Week 8 Total'!AJ6,'Week 9 Total'!AJ6)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7,'Week 7 Total'!C7,'Week 8 Total'!C7,'Week 9 Total'!C7)</f>
+        <v>445</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7,'Week 7 Total'!D7,'Week 8 Total'!D7,'Week 9 Total'!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7,'Week 7 Total'!E7,'Week 8 Total'!E7,'Week 9 Total'!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7,'Week 7 Total'!F7,'Week 8 Total'!F7,'Week 9 Total'!F7)</f>
+        <v>165</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7,'Week 7 Total'!G7,'Week 8 Total'!G7,'Week 9 Total'!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7,'Week 7 Total'!H7,'Week 8 Total'!H7,'Week 9 Total'!H7)</f>
+        <v>76</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7,'Week 7 Total'!I7,'Week 8 Total'!I7,'Week 9 Total'!I7)</f>
+        <v>30</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM('Week 1 Total'!J7,'Week 2 Total'!J7,'Week 3 Total'!J7,'Week 4 Total'!J7,'Week 5 Total'!J7,'Week 6 Total'!J7,'Week 7 Total'!J7,'Week 8 Total'!J7,'Week 9 Total'!J7)</f>
+        <v>33.836666666666666</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7,'Week 7 Total'!K7,'Week 8 Total'!K7,'Week 9 Total'!K7)</f>
+        <v>23</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7,'Week 7 Total'!L7,'Week 8 Total'!L7,'Week 9 Total'!L7)</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7,'Week 7 Total'!M7,'Week 8 Total'!M7,'Week 9 Total'!M7)</f>
+        <v>14</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7,'Week 7 Total'!N7,'Week 8 Total'!N7,'Week 9 Total'!N7)</f>
+        <v>43</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7,'Week 7 Total'!O7,'Week 8 Total'!O7,'Week 9 Total'!O7)</f>
+        <v>8</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7,'Week 7 Total'!P7,'Week 8 Total'!P7,'Week 9 Total'!P7)</f>
+        <v>35</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7,'Week 7 Total'!Q7,'Week 8 Total'!Q7,'Week 9 Total'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7,'Week 7 Total'!R7,'Week 8 Total'!R7,'Week 9 Total'!R7)</f>
+        <v>130</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7,'Week 7 Total'!S7,'Week 8 Total'!S7,'Week 9 Total'!S7)</f>
+        <v>57</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7,'Week 7 Total'!T7,'Week 8 Total'!T7,'Week 9 Total'!T7)</f>
+        <v>73</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43846153846153846</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7,'Week 7 Total'!W7,'Week 8 Total'!W7,'Week 9 Total'!W7)</f>
+        <v>29</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7,'Week 7 Total'!X7,'Week 8 Total'!X7,'Week 9 Total'!X7)</f>
+        <v>14</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7,'Week 7 Total'!Y7,'Week 8 Total'!Y7,'Week 9 Total'!Y7)</f>
+        <v>15</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7,'Week 7 Total'!AA7,'Week 8 Total'!AA7,'Week 9 Total'!AA7)</f>
+        <v>101</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7,'Week 7 Total'!AB7,'Week 8 Total'!AB7,'Week 9 Total'!AB7)</f>
+        <v>43</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7,'Week 7 Total'!AC7,'Week 8 Total'!AC7,'Week 9 Total'!AC7)</f>
+        <v>58</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42574257425742573</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7,'Week 7 Total'!AE7,'Week 8 Total'!AE7,'Week 9 Total'!AE7)</f>
+        <v>10</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7,'Week 7 Total'!AF7,'Week 8 Total'!AF7,'Week 9 Total'!AF7)</f>
+        <v>8</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7,'Week 7 Total'!AG7,'Week 8 Total'!AG7,'Week 9 Total'!AG7)</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7,'Week 7 Total'!AI7,'Week 8 Total'!AI7,'Week 9 Total'!AI7)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7,'Week 7 Total'!AJ7,'Week 8 Total'!AJ7,'Week 9 Total'!AJ7)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8,'Week 7 Total'!C8,'Week 8 Total'!C8,'Week 9 Total'!C8)</f>
+        <v>116</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8,'Week 7 Total'!D8,'Week 8 Total'!D8,'Week 9 Total'!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8,'Week 7 Total'!E8,'Week 8 Total'!E8,'Week 9 Total'!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8,'Week 7 Total'!F8,'Week 8 Total'!F8,'Week 9 Total'!F8)</f>
+        <v>24</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8,'Week 7 Total'!G8,'Week 8 Total'!G8,'Week 9 Total'!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8,'Week 7 Total'!H8,'Week 8 Total'!H8,'Week 9 Total'!H8)</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8,'Week 7 Total'!I8,'Week 8 Total'!I8,'Week 9 Total'!I8)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM('Week 1 Total'!J8,'Week 2 Total'!J8,'Week 3 Total'!J8,'Week 4 Total'!J8,'Week 5 Total'!J8,'Week 6 Total'!J8,'Week 7 Total'!J8,'Week 8 Total'!J8,'Week 9 Total'!J8)</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8,'Week 7 Total'!K8,'Week 8 Total'!K8,'Week 9 Total'!K8)</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8,'Week 7 Total'!L8,'Week 8 Total'!L8,'Week 9 Total'!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8,'Week 7 Total'!M8,'Week 8 Total'!M8,'Week 9 Total'!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8,'Week 7 Total'!N8,'Week 8 Total'!N8,'Week 9 Total'!N8)</f>
+        <v>13</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8,'Week 7 Total'!O8,'Week 8 Total'!O8,'Week 9 Total'!O8)</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8,'Week 7 Total'!P8,'Week 8 Total'!P8,'Week 9 Total'!P8)</f>
+        <v>11</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8,'Week 7 Total'!Q8,'Week 8 Total'!Q8,'Week 9 Total'!Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8,'Week 7 Total'!R8,'Week 8 Total'!R8,'Week 9 Total'!R8)</f>
+        <v>20</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8,'Week 7 Total'!S8,'Week 8 Total'!S8,'Week 9 Total'!S8)</f>
+        <v>8</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8,'Week 7 Total'!T8,'Week 8 Total'!T8,'Week 9 Total'!T8)</f>
+        <v>12</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8,'Week 7 Total'!W8,'Week 8 Total'!W8,'Week 9 Total'!W8)</f>
+        <v>6</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8,'Week 7 Total'!X8,'Week 8 Total'!X8,'Week 9 Total'!X8)</f>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8,'Week 7 Total'!Y8,'Week 8 Total'!Y8,'Week 9 Total'!Y8)</f>
+        <v>4</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8,'Week 7 Total'!AA8,'Week 8 Total'!AA8,'Week 9 Total'!AA8)</f>
+        <v>14</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8,'Week 7 Total'!AB8,'Week 8 Total'!AB8,'Week 9 Total'!AB8)</f>
+        <v>6</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8,'Week 7 Total'!AC8,'Week 8 Total'!AC8,'Week 9 Total'!AC8)</f>
+        <v>8</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8,'Week 7 Total'!AE8,'Week 8 Total'!AE8,'Week 9 Total'!AE8)</f>
+        <v>2</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8,'Week 7 Total'!AF8,'Week 8 Total'!AF8,'Week 9 Total'!AF8)</f>
+        <v>2</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8,'Week 7 Total'!AG8,'Week 8 Total'!AG8,'Week 9 Total'!AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8,'Week 7 Total'!AI8,'Week 8 Total'!AI8,'Week 9 Total'!AI8)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8,'Week 7 Total'!AJ8,'Week 8 Total'!AJ8,'Week 9 Total'!AJ8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9,'Week 7 Total'!C9,'Week 8 Total'!C9,'Week 9 Total'!C9)</f>
+        <v>386</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9,'Week 7 Total'!D9,'Week 8 Total'!D9,'Week 9 Total'!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9,'Week 7 Total'!E9,'Week 8 Total'!E9,'Week 9 Total'!E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9,'Week 7 Total'!F9,'Week 8 Total'!F9,'Week 9 Total'!F9)</f>
+        <v>167</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9,'Week 7 Total'!G9,'Week 8 Total'!G9,'Week 9 Total'!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9,'Week 7 Total'!H9,'Week 8 Total'!H9,'Week 9 Total'!H9)</f>
+        <v>17</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9,'Week 7 Total'!I9,'Week 8 Total'!I9,'Week 9 Total'!I9)</f>
+        <v>12</v>
+      </c>
+      <c r="J9" s="4">
+        <f>SUM('Week 1 Total'!J9,'Week 2 Total'!J9,'Week 3 Total'!J9,'Week 4 Total'!J9,'Week 5 Total'!J9,'Week 6 Total'!J9,'Week 7 Total'!J9,'Week 8 Total'!J9,'Week 9 Total'!J9)</f>
+        <v>8</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9,'Week 7 Total'!K9,'Week 8 Total'!K9,'Week 9 Total'!K9)</f>
+        <v>19</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9,'Week 7 Total'!L9,'Week 8 Total'!L9,'Week 9 Total'!L9)</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9,'Week 7 Total'!M9,'Week 8 Total'!M9,'Week 9 Total'!M9)</f>
+        <v>4</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9,'Week 7 Total'!N9,'Week 8 Total'!N9,'Week 9 Total'!N9)</f>
+        <v>173</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9,'Week 7 Total'!O9,'Week 8 Total'!O9,'Week 9 Total'!O9)</f>
+        <v>69</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9,'Week 7 Total'!P9,'Week 8 Total'!P9,'Week 9 Total'!P9)</f>
+        <v>104</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9,'Week 6 Total'!Q9,'Week 7 Total'!Q9,'Week 8 Total'!Q9,'Week 9 Total'!Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9,'Week 6 Total'!R9,'Week 7 Total'!R9,'Week 8 Total'!R9,'Week 9 Total'!R9)</f>
+        <v>133</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9,'Week 6 Total'!S9,'Week 7 Total'!S9,'Week 8 Total'!S9,'Week 9 Total'!S9)</f>
+        <v>74</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9,'Week 6 Total'!T9,'Week 7 Total'!T9,'Week 8 Total'!T9,'Week 9 Total'!T9)</f>
+        <v>59</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55639097744360899</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9,'Week 6 Total'!W9,'Week 7 Total'!W9,'Week 8 Total'!W9,'Week 9 Total'!W9)</f>
+        <v>133</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9,'Week 6 Total'!X9,'Week 7 Total'!X9,'Week 8 Total'!X9,'Week 9 Total'!X9)</f>
+        <v>74</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9,'Week 6 Total'!Y9,'Week 7 Total'!Y9,'Week 8 Total'!Y9,'Week 9 Total'!Y9)</f>
+        <v>59</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.55639097744360899</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9,'Week 6 Total'!AA9,'Week 7 Total'!AA9,'Week 8 Total'!AA9,'Week 9 Total'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9,'Week 6 Total'!AB9,'Week 7 Total'!AB9,'Week 8 Total'!AB9,'Week 9 Total'!AB9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9,'Week 6 Total'!AC9,'Week 7 Total'!AC9,'Week 8 Total'!AC9,'Week 9 Total'!AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9,'Week 6 Total'!AE9,'Week 7 Total'!AE9,'Week 8 Total'!AE9,'Week 9 Total'!AE9)</f>
+        <v>37</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9,'Week 6 Total'!AF9,'Week 7 Total'!AF9,'Week 8 Total'!AF9,'Week 9 Total'!AF9)</f>
+        <v>19</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9,'Week 6 Total'!AG9,'Week 7 Total'!AG9,'Week 8 Total'!AG9,'Week 9 Total'!AG9)</f>
+        <v>18</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51351351351351349</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9,'Week 6 Total'!AI9,'Week 7 Total'!AI9,'Week 8 Total'!AI9,'Week 9 Total'!AI9)</f>
+        <v>25</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9,'Week 6 Total'!AJ9,'Week 7 Total'!AJ9,'Week 8 Total'!AJ9,'Week 9 Total'!AJ9)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10,'Week 6 Total'!C10,'Week 7 Total'!C10,'Week 8 Total'!C10,'Week 9 Total'!C10)</f>
+        <v>439</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10,'Week 6 Total'!D10,'Week 7 Total'!D10,'Week 8 Total'!D10,'Week 9 Total'!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10,'Week 6 Total'!E10,'Week 7 Total'!E10,'Week 8 Total'!E10,'Week 9 Total'!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10,'Week 6 Total'!F10,'Week 7 Total'!F10,'Week 8 Total'!F10,'Week 9 Total'!F10)</f>
+        <v>237</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10,'Week 6 Total'!G10,'Week 7 Total'!G10,'Week 8 Total'!G10,'Week 9 Total'!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10,'Week 6 Total'!H10,'Week 7 Total'!H10,'Week 8 Total'!H10,'Week 9 Total'!H10)</f>
+        <v>38</v>
+      </c>
+      <c r="I10" s="4">
+        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10,'Week 6 Total'!I10,'Week 7 Total'!I10,'Week 8 Total'!I10,'Week 9 Total'!I10)</f>
+        <v>30</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM('Week 1 Total'!J10,'Week 2 Total'!J10,'Week 3 Total'!J10,'Week 4 Total'!J10,'Week 5 Total'!J10,'Week 6 Total'!J10,'Week 7 Total'!J10,'Week 8 Total'!J10,'Week 9 Total'!J10)</f>
+        <v>17.483333333333334</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10,'Week 6 Total'!K10,'Week 7 Total'!K10,'Week 8 Total'!K10,'Week 9 Total'!K10)</f>
+        <v>24</v>
+      </c>
+      <c r="L10" s="4">
+        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10,'Week 6 Total'!L10,'Week 7 Total'!L10,'Week 8 Total'!L10,'Week 9 Total'!L10)</f>
+        <v>7</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10,'Week 6 Total'!M10,'Week 7 Total'!M10,'Week 8 Total'!M10,'Week 9 Total'!M10)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10,'Week 6 Total'!N10,'Week 7 Total'!N10,'Week 8 Total'!N10,'Week 9 Total'!N10)</f>
+        <v>45</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10,'Week 6 Total'!O10,'Week 7 Total'!O10,'Week 8 Total'!O10,'Week 9 Total'!O10)</f>
+        <v>15</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10,'Week 6 Total'!P10,'Week 7 Total'!P10,'Week 8 Total'!P10,'Week 9 Total'!P10)</f>
+        <v>30</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10,'Week 6 Total'!Q10,'Week 7 Total'!Q10,'Week 8 Total'!Q10,'Week 9 Total'!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10,'Week 6 Total'!R10,'Week 7 Total'!R10,'Week 8 Total'!R10,'Week 9 Total'!R10)</f>
+        <v>203</v>
+      </c>
+      <c r="S10" s="4">
+        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10,'Week 6 Total'!S10,'Week 7 Total'!S10,'Week 8 Total'!S10,'Week 9 Total'!S10)</f>
+        <v>87</v>
+      </c>
+      <c r="T10" s="4">
+        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10,'Week 6 Total'!T10,'Week 7 Total'!T10,'Week 8 Total'!T10,'Week 9 Total'!T10)</f>
+        <v>116</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10,'Week 6 Total'!W10,'Week 7 Total'!W10,'Week 8 Total'!W10,'Week 9 Total'!W10)</f>
+        <v>121</v>
+      </c>
+      <c r="X10" s="4">
+        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10,'Week 6 Total'!X10,'Week 7 Total'!X10,'Week 8 Total'!X10,'Week 9 Total'!X10)</f>
+        <v>61</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10,'Week 6 Total'!Y10,'Week 7 Total'!Y10,'Week 8 Total'!Y10,'Week 9 Total'!Y10)</f>
+        <v>60</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.50413223140495866</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10,'Week 6 Total'!AA10,'Week 7 Total'!AA10,'Week 8 Total'!AA10,'Week 9 Total'!AA10)</f>
+        <v>82</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10,'Week 6 Total'!AB10,'Week 7 Total'!AB10,'Week 8 Total'!AB10,'Week 9 Total'!AB10)</f>
+        <v>26</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10,'Week 6 Total'!AC10,'Week 7 Total'!AC10,'Week 8 Total'!AC10,'Week 9 Total'!AC10)</f>
+        <v>56</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31707317073170732</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10,'Week 6 Total'!AE10,'Week 7 Total'!AE10,'Week 8 Total'!AE10,'Week 9 Total'!AE10)</f>
+        <v>45</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10,'Week 6 Total'!AF10,'Week 7 Total'!AF10,'Week 8 Total'!AF10,'Week 9 Total'!AF10)</f>
+        <v>37</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10,'Week 6 Total'!AG10,'Week 7 Total'!AG10,'Week 8 Total'!AG10,'Week 9 Total'!AG10)</f>
+        <v>8</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10,'Week 6 Total'!AI10,'Week 7 Total'!AI10,'Week 8 Total'!AI10,'Week 9 Total'!AI10)</f>
+        <v>29</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10,'Week 6 Total'!AJ10,'Week 7 Total'!AJ10,'Week 8 Total'!AJ10,'Week 9 Total'!AJ10)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11,'Week 6 Total'!C11,'Week 7 Total'!C11,'Week 8 Total'!C11,'Week 9 Total'!C11)</f>
+        <v>37</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11,'Week 6 Total'!D11,'Week 7 Total'!D11,'Week 8 Total'!D11,'Week 9 Total'!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11,'Week 6 Total'!E11,'Week 7 Total'!E11,'Week 8 Total'!E11,'Week 9 Total'!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11,'Week 6 Total'!F11,'Week 7 Total'!F11,'Week 8 Total'!F11,'Week 9 Total'!F11)</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11,'Week 6 Total'!G11,'Week 7 Total'!G11,'Week 8 Total'!G11,'Week 9 Total'!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11,'Week 6 Total'!H11,'Week 7 Total'!H11,'Week 8 Total'!H11,'Week 9 Total'!H11)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11,'Week 6 Total'!I11,'Week 7 Total'!I11,'Week 8 Total'!I11,'Week 9 Total'!I11)</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <f>SUM('Week 1 Total'!J11,'Week 2 Total'!J11,'Week 3 Total'!J11,'Week 4 Total'!J11,'Week 5 Total'!J11,'Week 6 Total'!J11,'Week 7 Total'!J11,'Week 8 Total'!J11,'Week 9 Total'!J11)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11,'Week 6 Total'!K11,'Week 7 Total'!K11,'Week 8 Total'!K11,'Week 9 Total'!K11)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11,'Week 6 Total'!L11,'Week 7 Total'!L11,'Week 8 Total'!L11,'Week 9 Total'!L11)</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11,'Week 6 Total'!M11,'Week 7 Total'!M11,'Week 8 Total'!M11,'Week 9 Total'!M11)</f>
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11,'Week 6 Total'!N11,'Week 7 Total'!N11,'Week 8 Total'!N11,'Week 9 Total'!N11)</f>
+        <v>7</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11,'Week 6 Total'!O11,'Week 7 Total'!O11,'Week 8 Total'!O11,'Week 9 Total'!O11)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11,'Week 6 Total'!P11,'Week 7 Total'!P11,'Week 8 Total'!P11,'Week 9 Total'!P11)</f>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11,'Week 6 Total'!Q11,'Week 7 Total'!Q11,'Week 8 Total'!Q11,'Week 9 Total'!Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11,'Week 6 Total'!R11,'Week 7 Total'!R11,'Week 8 Total'!R11,'Week 9 Total'!R11)</f>
+        <v>7</v>
+      </c>
+      <c r="S11" s="4">
+        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11,'Week 6 Total'!S11,'Week 7 Total'!S11,'Week 8 Total'!S11,'Week 9 Total'!S11)</f>
+        <v>3</v>
+      </c>
+      <c r="T11" s="4">
+        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11,'Week 6 Total'!T11,'Week 7 Total'!T11,'Week 8 Total'!T11,'Week 9 Total'!T11)</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11,'Week 6 Total'!W11,'Week 7 Total'!W11,'Week 8 Total'!W11,'Week 9 Total'!W11)</f>
+        <v>4</v>
+      </c>
+      <c r="X11" s="4">
+        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11,'Week 6 Total'!X11,'Week 7 Total'!X11,'Week 8 Total'!X11,'Week 9 Total'!X11)</f>
+        <v>3</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11,'Week 6 Total'!Y11,'Week 7 Total'!Y11,'Week 8 Total'!Y11,'Week 9 Total'!Y11)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11,'Week 6 Total'!AA11,'Week 7 Total'!AA11,'Week 8 Total'!AA11,'Week 9 Total'!AA11)</f>
+        <v>3</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11,'Week 6 Total'!AB11,'Week 7 Total'!AB11,'Week 8 Total'!AB11,'Week 9 Total'!AB11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11,'Week 6 Total'!AC11,'Week 7 Total'!AC11,'Week 8 Total'!AC11,'Week 9 Total'!AC11)</f>
+        <v>3</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11,'Week 6 Total'!AE11,'Week 7 Total'!AE11,'Week 8 Total'!AE11,'Week 9 Total'!AE11)</f>
+        <v>2</v>
+      </c>
+      <c r="AF11" s="4">
+        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11,'Week 6 Total'!AF11,'Week 7 Total'!AF11,'Week 8 Total'!AF11,'Week 9 Total'!AF11)</f>
+        <v>1</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11,'Week 6 Total'!AG11,'Week 7 Total'!AG11,'Week 8 Total'!AG11,'Week 9 Total'!AG11)</f>
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI11" s="4">
+        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11,'Week 6 Total'!AI11,'Week 7 Total'!AI11,'Week 8 Total'!AI11,'Week 9 Total'!AI11)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11,'Week 6 Total'!AJ11,'Week 7 Total'!AJ11,'Week 8 Total'!AJ11,'Week 9 Total'!AJ11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12,'Week 6 Total'!C12,'Week 7 Total'!C12,'Week 8 Total'!C12,'Week 9 Total'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12,'Week 6 Total'!D12,'Week 7 Total'!D12,'Week 8 Total'!D12,'Week 9 Total'!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12,'Week 6 Total'!E12,'Week 7 Total'!E12,'Week 8 Total'!E12,'Week 9 Total'!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12,'Week 6 Total'!F12,'Week 7 Total'!F12,'Week 8 Total'!F12,'Week 9 Total'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12,'Week 6 Total'!G12,'Week 7 Total'!G12,'Week 8 Total'!G12,'Week 9 Total'!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12,'Week 6 Total'!H12,'Week 7 Total'!H12,'Week 8 Total'!H12,'Week 9 Total'!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12,'Week 6 Total'!I12,'Week 7 Total'!I12,'Week 8 Total'!I12,'Week 9 Total'!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>SUM('Week 1 Total'!J12,'Week 2 Total'!J12,'Week 3 Total'!J12,'Week 4 Total'!J12,'Week 5 Total'!J12,'Week 6 Total'!J12,'Week 7 Total'!J12,'Week 8 Total'!J12,'Week 9 Total'!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12,'Week 6 Total'!K12,'Week 7 Total'!K12,'Week 8 Total'!K12,'Week 9 Total'!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12,'Week 6 Total'!L12,'Week 7 Total'!L12,'Week 8 Total'!L12,'Week 9 Total'!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12,'Week 6 Total'!M12,'Week 7 Total'!M12,'Week 8 Total'!M12,'Week 9 Total'!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12,'Week 6 Total'!N12,'Week 7 Total'!N12,'Week 8 Total'!N12,'Week 9 Total'!N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12,'Week 6 Total'!O12,'Week 7 Total'!O12,'Week 8 Total'!O12,'Week 9 Total'!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12,'Week 6 Total'!P12,'Week 7 Total'!P12,'Week 8 Total'!P12,'Week 9 Total'!P12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12,'Week 6 Total'!Q12,'Week 7 Total'!Q12,'Week 8 Total'!Q12,'Week 9 Total'!Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12,'Week 6 Total'!R12,'Week 7 Total'!R12,'Week 8 Total'!R12,'Week 9 Total'!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12,'Week 6 Total'!S12,'Week 7 Total'!S12,'Week 8 Total'!S12,'Week 9 Total'!S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12,'Week 6 Total'!T12,'Week 7 Total'!T12,'Week 8 Total'!T12,'Week 9 Total'!T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12,'Week 6 Total'!W12,'Week 7 Total'!W12,'Week 8 Total'!W12,'Week 9 Total'!W12)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12,'Week 6 Total'!X12,'Week 7 Total'!X12,'Week 8 Total'!X12,'Week 9 Total'!X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12,'Week 6 Total'!Y12,'Week 7 Total'!Y12,'Week 8 Total'!Y12,'Week 9 Total'!Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12,'Week 6 Total'!AA12,'Week 7 Total'!AA12,'Week 8 Total'!AA12,'Week 9 Total'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12,'Week 6 Total'!AB12,'Week 7 Total'!AB12,'Week 8 Total'!AB12,'Week 9 Total'!AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12,'Week 6 Total'!AC12,'Week 7 Total'!AC12,'Week 8 Total'!AC12,'Week 9 Total'!AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12,'Week 6 Total'!AE12,'Week 7 Total'!AE12,'Week 8 Total'!AE12,'Week 9 Total'!AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12,'Week 6 Total'!AF12,'Week 7 Total'!AF12,'Week 8 Total'!AF12,'Week 9 Total'!AF12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12,'Week 6 Total'!AG12,'Week 7 Total'!AG12,'Week 8 Total'!AG12,'Week 9 Total'!AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12,'Week 6 Total'!AI12,'Week 7 Total'!AI12,'Week 8 Total'!AI12,'Week 9 Total'!AI12)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12,'Week 6 Total'!AJ12,'Week 7 Total'!AJ12,'Week 8 Total'!AJ12,'Week 9 Total'!AJ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13,'Week 6 Total'!C13,'Week 7 Total'!C13,'Week 8 Total'!C13,'Week 9 Total'!C13)</f>
+        <v>211</v>
+      </c>
+      <c r="D13" s="4">
+        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13,'Week 6 Total'!D13,'Week 7 Total'!D13,'Week 8 Total'!D13,'Week 9 Total'!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13,'Week 6 Total'!E13,'Week 7 Total'!E13,'Week 8 Total'!E13,'Week 9 Total'!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13,'Week 6 Total'!F13,'Week 7 Total'!F13,'Week 8 Total'!F13,'Week 9 Total'!F13)</f>
+        <v>70</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13,'Week 6 Total'!G13,'Week 7 Total'!G13,'Week 8 Total'!G13,'Week 9 Total'!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13,'Week 6 Total'!H13,'Week 7 Total'!H13,'Week 8 Total'!H13,'Week 9 Total'!H13)</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13,'Week 6 Total'!I13,'Week 7 Total'!I13,'Week 8 Total'!I13,'Week 9 Total'!I13)</f>
+        <v>17</v>
+      </c>
+      <c r="J13" s="4">
+        <f>SUM('Week 1 Total'!J13,'Week 2 Total'!J13,'Week 3 Total'!J13,'Week 4 Total'!J13,'Week 5 Total'!J13,'Week 6 Total'!J13,'Week 7 Total'!J13,'Week 8 Total'!J13,'Week 9 Total'!J13)</f>
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13,'Week 6 Total'!K13,'Week 7 Total'!K13,'Week 8 Total'!K13,'Week 9 Total'!K13)</f>
+        <v>8</v>
+      </c>
+      <c r="L13" s="4">
+        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13,'Week 6 Total'!L13,'Week 7 Total'!L13,'Week 8 Total'!L13,'Week 9 Total'!L13)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13,'Week 6 Total'!M13,'Week 7 Total'!M13,'Week 8 Total'!M13,'Week 9 Total'!M13)</f>
+        <v>38</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13,'Week 6 Total'!N13,'Week 7 Total'!N13,'Week 8 Total'!N13,'Week 9 Total'!N13)</f>
+        <v>51</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13,'Week 6 Total'!O13,'Week 7 Total'!O13,'Week 8 Total'!O13,'Week 9 Total'!O13)</f>
+        <v>14</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13,'Week 6 Total'!P13,'Week 7 Total'!P13,'Week 8 Total'!P13,'Week 9 Total'!P13)</f>
+        <v>37</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13,'Week 6 Total'!Q13,'Week 7 Total'!Q13,'Week 8 Total'!Q13,'Week 9 Total'!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13,'Week 6 Total'!R13,'Week 7 Total'!R13,'Week 8 Total'!R13,'Week 9 Total'!R13)</f>
+        <v>45</v>
+      </c>
+      <c r="S13" s="4">
+        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13,'Week 6 Total'!S13,'Week 7 Total'!S13,'Week 8 Total'!S13,'Week 9 Total'!S13)</f>
+        <v>33</v>
+      </c>
+      <c r="T13" s="4">
+        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13,'Week 6 Total'!T13,'Week 7 Total'!T13,'Week 8 Total'!T13,'Week 9 Total'!T13)</f>
+        <v>12</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13,'Week 6 Total'!W13,'Week 7 Total'!W13,'Week 8 Total'!W13,'Week 9 Total'!W13)</f>
+        <v>44</v>
+      </c>
+      <c r="X13" s="4">
+        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13,'Week 6 Total'!X13,'Week 7 Total'!X13,'Week 8 Total'!X13,'Week 9 Total'!X13)</f>
+        <v>33</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13,'Week 6 Total'!Y13,'Week 7 Total'!Y13,'Week 8 Total'!Y13,'Week 9 Total'!Y13)</f>
+        <v>11</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13,'Week 6 Total'!AA13,'Week 7 Total'!AA13,'Week 8 Total'!AA13,'Week 9 Total'!AA13)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13,'Week 6 Total'!AB13,'Week 7 Total'!AB13,'Week 8 Total'!AB13,'Week 9 Total'!AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13,'Week 6 Total'!AC13,'Week 7 Total'!AC13,'Week 8 Total'!AC13,'Week 9 Total'!AC13)</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AD17" si="4">IF(ISERROR(AB13/AA13),0,AB13/AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13,'Week 6 Total'!AE13,'Week 7 Total'!AE13,'Week 8 Total'!AE13,'Week 9 Total'!AE13)</f>
+        <v>8</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13,'Week 6 Total'!AF13,'Week 7 Total'!AF13,'Week 8 Total'!AF13,'Week 9 Total'!AF13)</f>
+        <v>4</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13,'Week 6 Total'!AG13,'Week 7 Total'!AG13,'Week 8 Total'!AG13,'Week 9 Total'!AG13)</f>
+        <v>4</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13,'Week 6 Total'!AI13,'Week 7 Total'!AI13,'Week 8 Total'!AI13,'Week 9 Total'!AI13)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13,'Week 6 Total'!AJ13,'Week 7 Total'!AJ13,'Week 8 Total'!AJ13,'Week 9 Total'!AJ13)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14,'Week 6 Total'!C14,'Week 7 Total'!C14,'Week 8 Total'!C14,'Week 9 Total'!C14)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14,'Week 6 Total'!D14,'Week 7 Total'!D14,'Week 8 Total'!D14,'Week 9 Total'!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14,'Week 6 Total'!E14,'Week 7 Total'!E14,'Week 8 Total'!E14,'Week 9 Total'!E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14,'Week 6 Total'!F14,'Week 7 Total'!F14,'Week 8 Total'!F14,'Week 9 Total'!F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14,'Week 6 Total'!G14,'Week 7 Total'!G14,'Week 8 Total'!G14,'Week 9 Total'!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14,'Week 6 Total'!H14,'Week 7 Total'!H14,'Week 8 Total'!H14,'Week 9 Total'!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14,'Week 6 Total'!I14,'Week 7 Total'!I14,'Week 8 Total'!I14,'Week 9 Total'!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>SUM('Week 1 Total'!J14,'Week 2 Total'!J14,'Week 3 Total'!J14,'Week 4 Total'!J14,'Week 5 Total'!J14,'Week 6 Total'!J14,'Week 7 Total'!J14,'Week 8 Total'!J14,'Week 9 Total'!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14,'Week 6 Total'!K14,'Week 7 Total'!K14,'Week 8 Total'!K14,'Week 9 Total'!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14,'Week 6 Total'!L14,'Week 7 Total'!L14,'Week 8 Total'!L14,'Week 9 Total'!L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14,'Week 6 Total'!M14,'Week 7 Total'!M14,'Week 8 Total'!M14,'Week 9 Total'!M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14,'Week 6 Total'!N14,'Week 7 Total'!N14,'Week 8 Total'!N14,'Week 9 Total'!N14)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14,'Week 6 Total'!O14,'Week 7 Total'!O14,'Week 8 Total'!O14,'Week 9 Total'!O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14,'Week 6 Total'!P14,'Week 7 Total'!P14,'Week 8 Total'!P14,'Week 9 Total'!P14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14,'Week 6 Total'!Q14,'Week 7 Total'!Q14,'Week 8 Total'!Q14,'Week 9 Total'!Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14,'Week 6 Total'!R14,'Week 7 Total'!R14,'Week 8 Total'!R14,'Week 9 Total'!R14)</f>
+        <v>2</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14,'Week 6 Total'!S14,'Week 7 Total'!S14,'Week 8 Total'!S14,'Week 9 Total'!S14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14,'Week 6 Total'!T14,'Week 7 Total'!T14,'Week 8 Total'!T14,'Week 9 Total'!T14)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14,'Week 6 Total'!W14,'Week 7 Total'!W14,'Week 8 Total'!W14,'Week 9 Total'!W14)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14,'Week 6 Total'!X14,'Week 7 Total'!X14,'Week 8 Total'!X14,'Week 9 Total'!X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14,'Week 6 Total'!Y14,'Week 7 Total'!Y14,'Week 8 Total'!Y14,'Week 9 Total'!Y14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14,'Week 6 Total'!AA14,'Week 7 Total'!AA14,'Week 8 Total'!AA14,'Week 9 Total'!AA14)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14,'Week 6 Total'!AB14,'Week 7 Total'!AB14,'Week 8 Total'!AB14,'Week 9 Total'!AB14)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14,'Week 6 Total'!AC14,'Week 7 Total'!AC14,'Week 8 Total'!AC14,'Week 9 Total'!AC14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14,'Week 6 Total'!AE14,'Week 7 Total'!AE14,'Week 8 Total'!AE14,'Week 9 Total'!AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14,'Week 6 Total'!AF14,'Week 7 Total'!AF14,'Week 8 Total'!AF14,'Week 9 Total'!AF14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14,'Week 6 Total'!AG14,'Week 7 Total'!AG14,'Week 8 Total'!AG14,'Week 9 Total'!AG14)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14,'Week 6 Total'!AI14,'Week 7 Total'!AI14,'Week 8 Total'!AI14,'Week 9 Total'!AI14)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14,'Week 6 Total'!AJ14,'Week 7 Total'!AJ14,'Week 8 Total'!AJ14,'Week 9 Total'!AJ14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15,'Week 6 Total'!C15,'Week 7 Total'!C15,'Week 8 Total'!C15,'Week 9 Total'!C15)</f>
+        <v>133</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15,'Week 6 Total'!D15,'Week 7 Total'!D15,'Week 8 Total'!D15,'Week 9 Total'!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15,'Week 6 Total'!E15,'Week 7 Total'!E15,'Week 8 Total'!E15,'Week 9 Total'!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15,'Week 6 Total'!F15,'Week 7 Total'!F15,'Week 8 Total'!F15,'Week 9 Total'!F15)</f>
+        <v>61</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15,'Week 6 Total'!G15,'Week 7 Total'!G15,'Week 8 Total'!G15,'Week 9 Total'!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15,'Week 6 Total'!H15,'Week 7 Total'!H15,'Week 8 Total'!H15,'Week 9 Total'!H15)</f>
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15,'Week 6 Total'!I15,'Week 7 Total'!I15,'Week 8 Total'!I15,'Week 9 Total'!I15)</f>
+        <v>17</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUM('Week 1 Total'!J15,'Week 2 Total'!J15,'Week 3 Total'!J15,'Week 4 Total'!J15,'Week 5 Total'!J15,'Week 6 Total'!J15,'Week 7 Total'!J15,'Week 8 Total'!J15,'Week 9 Total'!J15)</f>
+        <v>4.2</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15,'Week 6 Total'!K15,'Week 7 Total'!K15,'Week 8 Total'!K15,'Week 9 Total'!K15)</f>
+        <v>3</v>
+      </c>
+      <c r="L15" s="4">
+        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15,'Week 6 Total'!L15,'Week 7 Total'!L15,'Week 8 Total'!L15,'Week 9 Total'!L15)</f>
+        <v>3</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15,'Week 6 Total'!M15,'Week 7 Total'!M15,'Week 8 Total'!M15,'Week 9 Total'!M15)</f>
+        <v>10</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15,'Week 6 Total'!N15,'Week 7 Total'!N15,'Week 8 Total'!N15,'Week 9 Total'!N15)</f>
+        <v>32</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15,'Week 6 Total'!O15,'Week 7 Total'!O15,'Week 8 Total'!O15,'Week 9 Total'!O15)</f>
+        <v>14</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15,'Week 6 Total'!P15,'Week 7 Total'!P15,'Week 8 Total'!P15,'Week 9 Total'!P15)</f>
+        <v>18</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15,'Week 6 Total'!Q15,'Week 7 Total'!Q15,'Week 8 Total'!Q15,'Week 9 Total'!Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15,'Week 6 Total'!R15,'Week 7 Total'!R15,'Week 8 Total'!R15,'Week 9 Total'!R15)</f>
+        <v>51</v>
+      </c>
+      <c r="S15" s="4">
+        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15,'Week 6 Total'!S15,'Week 7 Total'!S15,'Week 8 Total'!S15,'Week 9 Total'!S15)</f>
+        <v>25</v>
+      </c>
+      <c r="T15" s="4">
+        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15,'Week 6 Total'!T15,'Week 7 Total'!T15,'Week 8 Total'!T15,'Week 9 Total'!T15)</f>
+        <v>26</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49019607843137253</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15,'Week 6 Total'!W15,'Week 7 Total'!W15,'Week 8 Total'!W15,'Week 9 Total'!W15)</f>
+        <v>33</v>
+      </c>
+      <c r="X15" s="4">
+        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15,'Week 6 Total'!X15,'Week 7 Total'!X15,'Week 8 Total'!X15,'Week 9 Total'!X15)</f>
+        <v>19</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15,'Week 6 Total'!Y15,'Week 7 Total'!Y15,'Week 8 Total'!Y15,'Week 9 Total'!Y15)</f>
+        <v>14</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15,'Week 6 Total'!AA15,'Week 7 Total'!AA15,'Week 8 Total'!AA15,'Week 9 Total'!AA15)</f>
+        <v>18</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUM('Week 1 Total'!AB15,'Week 2 Total'!AB15,'Week 3 Total'!AB15,'Week 4 Total'!AB15,'Week 5 Total'!AB15,'Week 6 Total'!AB15,'Week 7 Total'!AB15,'Week 8 Total'!AB15,'Week 9 Total'!AB15)</f>
+        <v>6</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUM('Week 1 Total'!AC15,'Week 2 Total'!AC15,'Week 3 Total'!AC15,'Week 4 Total'!AC15,'Week 5 Total'!AC15,'Week 6 Total'!AC15,'Week 7 Total'!AC15,'Week 8 Total'!AC15,'Week 9 Total'!AC15)</f>
+        <v>12</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUM('Week 1 Total'!AE15,'Week 2 Total'!AE15,'Week 3 Total'!AE15,'Week 4 Total'!AE15,'Week 5 Total'!AE15,'Week 6 Total'!AE15,'Week 7 Total'!AE15,'Week 8 Total'!AE15,'Week 9 Total'!AE15)</f>
+        <v>7</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUM('Week 1 Total'!AF15,'Week 2 Total'!AF15,'Week 3 Total'!AF15,'Week 4 Total'!AF15,'Week 5 Total'!AF15,'Week 6 Total'!AF15,'Week 7 Total'!AF15,'Week 8 Total'!AF15,'Week 9 Total'!AF15)</f>
+        <v>5</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUM('Week 1 Total'!AG15,'Week 2 Total'!AG15,'Week 3 Total'!AG15,'Week 4 Total'!AG15,'Week 5 Total'!AG15,'Week 6 Total'!AG15,'Week 7 Total'!AG15,'Week 8 Total'!AG15,'Week 9 Total'!AG15)</f>
+        <v>2</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUM('Week 1 Total'!AI15,'Week 2 Total'!AI15,'Week 3 Total'!AI15,'Week 4 Total'!AI15,'Week 5 Total'!AI15,'Week 6 Total'!AI15,'Week 7 Total'!AI15,'Week 8 Total'!AI15,'Week 9 Total'!AI15)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUM('Week 1 Total'!AJ15,'Week 2 Total'!AJ15,'Week 3 Total'!AJ15,'Week 4 Total'!AJ15,'Week 5 Total'!AJ15,'Week 6 Total'!AJ15,'Week 7 Total'!AJ15,'Week 8 Total'!AJ15,'Week 9 Total'!AJ15)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4">
+        <f>SUM('Week 1 Total'!C16,'Week 2 Total'!C16,'Week 3 Total'!C16,'Week 4 Total'!C16,'Week 5 Total'!C16,'Week 6 Total'!C16,'Week 7 Total'!C16,'Week 8 Total'!C16,'Week 9 Total'!C16)</f>
+        <v>42</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM('Week 1 Total'!D16,'Week 2 Total'!D16,'Week 3 Total'!D16,'Week 4 Total'!D16,'Week 5 Total'!D16,'Week 6 Total'!D16,'Week 7 Total'!D16,'Week 8 Total'!D16,'Week 9 Total'!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM('Week 1 Total'!E16,'Week 2 Total'!E16,'Week 3 Total'!E16,'Week 4 Total'!E16,'Week 5 Total'!E16,'Week 6 Total'!E16,'Week 7 Total'!E16,'Week 8 Total'!E16,'Week 9 Total'!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM('Week 1 Total'!F16,'Week 2 Total'!F16,'Week 3 Total'!F16,'Week 4 Total'!F16,'Week 5 Total'!F16,'Week 6 Total'!F16,'Week 7 Total'!F16,'Week 8 Total'!F16,'Week 9 Total'!F16)</f>
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM('Week 1 Total'!G16,'Week 2 Total'!G16,'Week 3 Total'!G16,'Week 4 Total'!G16,'Week 5 Total'!G16,'Week 6 Total'!G16,'Week 7 Total'!G16,'Week 8 Total'!G16,'Week 9 Total'!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f>SUM('Week 1 Total'!H16,'Week 2 Total'!H16,'Week 3 Total'!H16,'Week 4 Total'!H16,'Week 5 Total'!H16,'Week 6 Total'!H16,'Week 7 Total'!H16,'Week 8 Total'!H16,'Week 9 Total'!H16)</f>
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM('Week 1 Total'!I16,'Week 2 Total'!I16,'Week 3 Total'!I16,'Week 4 Total'!I16,'Week 5 Total'!I16,'Week 6 Total'!I16,'Week 7 Total'!I16,'Week 8 Total'!I16,'Week 9 Total'!I16)</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <f>SUM('Week 1 Total'!J16,'Week 2 Total'!J16,'Week 3 Total'!J16,'Week 4 Total'!J16,'Week 5 Total'!J16,'Week 6 Total'!J16,'Week 7 Total'!J16,'Week 8 Total'!J16,'Week 9 Total'!J16)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM('Week 1 Total'!K16,'Week 2 Total'!K16,'Week 3 Total'!K16,'Week 4 Total'!K16,'Week 5 Total'!K16,'Week 6 Total'!K16,'Week 7 Total'!K16,'Week 8 Total'!K16,'Week 9 Total'!K16)</f>
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <f>SUM('Week 1 Total'!L16,'Week 2 Total'!L16,'Week 3 Total'!L16,'Week 4 Total'!L16,'Week 5 Total'!L16,'Week 6 Total'!L16,'Week 7 Total'!L16,'Week 8 Total'!L16,'Week 9 Total'!L16)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUM('Week 1 Total'!M16,'Week 2 Total'!M16,'Week 3 Total'!M16,'Week 4 Total'!M16,'Week 5 Total'!M16,'Week 6 Total'!M16,'Week 7 Total'!M16,'Week 8 Total'!M16,'Week 9 Total'!M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>SUM('Week 1 Total'!N16,'Week 2 Total'!N16,'Week 3 Total'!N16,'Week 4 Total'!N16,'Week 5 Total'!N16,'Week 6 Total'!N16,'Week 7 Total'!N16,'Week 8 Total'!N16,'Week 9 Total'!N16)</f>
+        <v>8</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM('Week 1 Total'!O16,'Week 2 Total'!O16,'Week 3 Total'!O16,'Week 4 Total'!O16,'Week 5 Total'!O16,'Week 6 Total'!O16,'Week 7 Total'!O16,'Week 8 Total'!O16,'Week 9 Total'!O16)</f>
+        <v>4</v>
+      </c>
+      <c r="P16" s="4">
+        <f>SUM('Week 1 Total'!P16,'Week 2 Total'!P16,'Week 3 Total'!P16,'Week 4 Total'!P16,'Week 5 Total'!P16,'Week 6 Total'!P16,'Week 7 Total'!P16,'Week 8 Total'!P16,'Week 9 Total'!P16)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>SUM('Week 1 Total'!Q16,'Week 2 Total'!Q16,'Week 3 Total'!Q16,'Week 4 Total'!Q16,'Week 5 Total'!Q16,'Week 6 Total'!Q16,'Week 7 Total'!Q16,'Week 8 Total'!Q16,'Week 9 Total'!Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f>SUM('Week 1 Total'!R16,'Week 2 Total'!R16,'Week 3 Total'!R16,'Week 4 Total'!R16,'Week 5 Total'!R16,'Week 6 Total'!R16,'Week 7 Total'!R16,'Week 8 Total'!R16,'Week 9 Total'!R16)</f>
+        <v>14</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUM('Week 1 Total'!S16,'Week 2 Total'!S16,'Week 3 Total'!S16,'Week 4 Total'!S16,'Week 5 Total'!S16,'Week 6 Total'!S16,'Week 7 Total'!S16,'Week 8 Total'!S16,'Week 9 Total'!S16)</f>
+        <v>5</v>
+      </c>
+      <c r="T16" s="4">
+        <f>SUM('Week 1 Total'!T16,'Week 2 Total'!T16,'Week 3 Total'!T16,'Week 4 Total'!T16,'Week 5 Total'!T16,'Week 6 Total'!T16,'Week 7 Total'!T16,'Week 8 Total'!T16,'Week 9 Total'!T16)</f>
+        <v>9</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f>SUM('Week 1 Total'!W16,'Week 2 Total'!W16,'Week 3 Total'!W16,'Week 4 Total'!W16,'Week 5 Total'!W16,'Week 6 Total'!W16,'Week 7 Total'!W16,'Week 8 Total'!W16,'Week 9 Total'!W16)</f>
+        <v>11</v>
+      </c>
+      <c r="X16" s="4">
+        <f>SUM('Week 1 Total'!X16,'Week 2 Total'!X16,'Week 3 Total'!X16,'Week 4 Total'!X16,'Week 5 Total'!X16,'Week 6 Total'!X16,'Week 7 Total'!X16,'Week 8 Total'!X16,'Week 9 Total'!X16)</f>
+        <v>4</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>SUM('Week 1 Total'!Y16,'Week 2 Total'!Y16,'Week 3 Total'!Y16,'Week 4 Total'!Y16,'Week 5 Total'!Y16,'Week 6 Total'!Y16,'Week 7 Total'!Y16,'Week 8 Total'!Y16,'Week 9 Total'!Y16)</f>
+        <v>7</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AA16" s="4">
+        <f>SUM('Week 1 Total'!AA16,'Week 2 Total'!AA16,'Week 3 Total'!AA16,'Week 4 Total'!AA16,'Week 5 Total'!AA16,'Week 6 Total'!AA16,'Week 7 Total'!AA16,'Week 8 Total'!AA16,'Week 9 Total'!AA16)</f>
+        <v>3</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SUM('Week 1 Total'!AB16,'Week 2 Total'!AB16,'Week 3 Total'!AB16,'Week 4 Total'!AB16,'Week 5 Total'!AB16,'Week 6 Total'!AB16,'Week 7 Total'!AB16,'Week 8 Total'!AB16,'Week 9 Total'!AB16)</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <f>SUM('Week 1 Total'!AC16,'Week 2 Total'!AC16,'Week 3 Total'!AC16,'Week 4 Total'!AC16,'Week 5 Total'!AC16,'Week 6 Total'!AC16,'Week 7 Total'!AC16,'Week 8 Total'!AC16,'Week 9 Total'!AC16)</f>
+        <v>2</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SUM('Week 1 Total'!AE16,'Week 2 Total'!AE16,'Week 3 Total'!AE16,'Week 4 Total'!AE16,'Week 5 Total'!AE16,'Week 6 Total'!AE16,'Week 7 Total'!AE16,'Week 8 Total'!AE16,'Week 9 Total'!AE16)</f>
+        <v>4</v>
+      </c>
+      <c r="AF16" s="4">
+        <f>SUM('Week 1 Total'!AF16,'Week 2 Total'!AF16,'Week 3 Total'!AF16,'Week 4 Total'!AF16,'Week 5 Total'!AF16,'Week 6 Total'!AF16,'Week 7 Total'!AF16,'Week 8 Total'!AF16,'Week 9 Total'!AF16)</f>
+        <v>2</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>SUM('Week 1 Total'!AG16,'Week 2 Total'!AG16,'Week 3 Total'!AG16,'Week 4 Total'!AG16,'Week 5 Total'!AG16,'Week 6 Total'!AG16,'Week 7 Total'!AG16,'Week 8 Total'!AG16,'Week 9 Total'!AG16)</f>
+        <v>2</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI16" s="4">
+        <f>SUM('Week 1 Total'!AI16,'Week 2 Total'!AI16,'Week 3 Total'!AI16,'Week 4 Total'!AI16,'Week 5 Total'!AI16,'Week 6 Total'!AI16,'Week 7 Total'!AI16,'Week 8 Total'!AI16,'Week 9 Total'!AI16)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f>SUM('Week 1 Total'!AJ16,'Week 2 Total'!AJ16,'Week 3 Total'!AJ16,'Week 4 Total'!AJ16,'Week 5 Total'!AJ16,'Week 6 Total'!AJ16,'Week 7 Total'!AJ16,'Week 8 Total'!AJ16,'Week 9 Total'!AJ16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM('Week 1 Total'!C17,'Week 2 Total'!C17,'Week 3 Total'!C17,'Week 4 Total'!C17,'Week 5 Total'!C17,'Week 6 Total'!C17,'Week 7 Total'!C17,'Week 8 Total'!C17,'Week 9 Total'!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SUM('Week 1 Total'!D17,'Week 2 Total'!D17,'Week 3 Total'!D17,'Week 4 Total'!D17,'Week 5 Total'!D17,'Week 6 Total'!D17,'Week 7 Total'!D17,'Week 8 Total'!D17,'Week 9 Total'!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM('Week 1 Total'!E17,'Week 2 Total'!E17,'Week 3 Total'!E17,'Week 4 Total'!E17,'Week 5 Total'!E17,'Week 6 Total'!E17,'Week 7 Total'!E17,'Week 8 Total'!E17,'Week 9 Total'!E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUM('Week 1 Total'!F17,'Week 2 Total'!F17,'Week 3 Total'!F17,'Week 4 Total'!F17,'Week 5 Total'!F17,'Week 6 Total'!F17,'Week 7 Total'!F17,'Week 8 Total'!F17,'Week 9 Total'!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM('Week 1 Total'!G17,'Week 2 Total'!G17,'Week 3 Total'!G17,'Week 4 Total'!G17,'Week 5 Total'!G17,'Week 6 Total'!G17,'Week 7 Total'!G17,'Week 8 Total'!G17,'Week 9 Total'!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f>SUM('Week 1 Total'!H17,'Week 2 Total'!H17,'Week 3 Total'!H17,'Week 4 Total'!H17,'Week 5 Total'!H17,'Week 6 Total'!H17,'Week 7 Total'!H17,'Week 8 Total'!H17,'Week 9 Total'!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>SUM('Week 1 Total'!I17,'Week 2 Total'!I17,'Week 3 Total'!I17,'Week 4 Total'!I17,'Week 5 Total'!I17,'Week 6 Total'!I17,'Week 7 Total'!I17,'Week 8 Total'!I17,'Week 9 Total'!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f>SUM('Week 1 Total'!J17,'Week 2 Total'!J17,'Week 3 Total'!J17,'Week 4 Total'!J17,'Week 5 Total'!J17,'Week 6 Total'!J17,'Week 7 Total'!J17,'Week 8 Total'!J17,'Week 9 Total'!J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM('Week 1 Total'!K17,'Week 2 Total'!K17,'Week 3 Total'!K17,'Week 4 Total'!K17,'Week 5 Total'!K17,'Week 6 Total'!K17,'Week 7 Total'!K17,'Week 8 Total'!K17,'Week 9 Total'!K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>SUM('Week 1 Total'!L17,'Week 2 Total'!L17,'Week 3 Total'!L17,'Week 4 Total'!L17,'Week 5 Total'!L17,'Week 6 Total'!L17,'Week 7 Total'!L17,'Week 8 Total'!L17,'Week 9 Total'!L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUM('Week 1 Total'!M17,'Week 2 Total'!M17,'Week 3 Total'!M17,'Week 4 Total'!M17,'Week 5 Total'!M17,'Week 6 Total'!M17,'Week 7 Total'!M17,'Week 8 Total'!M17,'Week 9 Total'!M17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>SUM('Week 1 Total'!N17,'Week 2 Total'!N17,'Week 3 Total'!N17,'Week 4 Total'!N17,'Week 5 Total'!N17,'Week 6 Total'!N17,'Week 7 Total'!N17,'Week 8 Total'!N17,'Week 9 Total'!N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUM('Week 1 Total'!O17,'Week 2 Total'!O17,'Week 3 Total'!O17,'Week 4 Total'!O17,'Week 5 Total'!O17,'Week 6 Total'!O17,'Week 7 Total'!O17,'Week 8 Total'!O17,'Week 9 Total'!O17)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f>SUM('Week 1 Total'!P17,'Week 2 Total'!P17,'Week 3 Total'!P17,'Week 4 Total'!P17,'Week 5 Total'!P17,'Week 6 Total'!P17,'Week 7 Total'!P17,'Week 8 Total'!P17,'Week 9 Total'!P17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>SUM('Week 1 Total'!Q17,'Week 2 Total'!Q17,'Week 3 Total'!Q17,'Week 4 Total'!Q17,'Week 5 Total'!Q17,'Week 6 Total'!Q17,'Week 7 Total'!Q17,'Week 8 Total'!Q17,'Week 9 Total'!Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f>SUM('Week 1 Total'!R17,'Week 2 Total'!R17,'Week 3 Total'!R17,'Week 4 Total'!R17,'Week 5 Total'!R17,'Week 6 Total'!R17,'Week 7 Total'!R17,'Week 8 Total'!R17,'Week 9 Total'!R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f>SUM('Week 1 Total'!S17,'Week 2 Total'!S17,'Week 3 Total'!S17,'Week 4 Total'!S17,'Week 5 Total'!S17,'Week 6 Total'!S17,'Week 7 Total'!S17,'Week 8 Total'!S17,'Week 9 Total'!S17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>SUM('Week 1 Total'!T17,'Week 2 Total'!T17,'Week 3 Total'!T17,'Week 4 Total'!T17,'Week 5 Total'!T17,'Week 6 Total'!T17,'Week 7 Total'!T17,'Week 8 Total'!T17,'Week 9 Total'!T17)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <f>SUM('Week 1 Total'!W17,'Week 2 Total'!W17,'Week 3 Total'!W17,'Week 4 Total'!W17,'Week 5 Total'!W17,'Week 6 Total'!W17,'Week 7 Total'!W17,'Week 8 Total'!W17,'Week 9 Total'!W17)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f>SUM('Week 1 Total'!X17,'Week 2 Total'!X17,'Week 3 Total'!X17,'Week 4 Total'!X17,'Week 5 Total'!X17,'Week 6 Total'!X17,'Week 7 Total'!X17,'Week 8 Total'!X17,'Week 9 Total'!X17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>SUM('Week 1 Total'!Y17,'Week 2 Total'!Y17,'Week 3 Total'!Y17,'Week 4 Total'!Y17,'Week 5 Total'!Y17,'Week 6 Total'!Y17,'Week 7 Total'!Y17,'Week 8 Total'!Y17,'Week 9 Total'!Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>SUM('Week 1 Total'!AA17,'Week 2 Total'!AA17,'Week 3 Total'!AA17,'Week 4 Total'!AA17,'Week 5 Total'!AA17,'Week 6 Total'!AA17,'Week 7 Total'!AA17,'Week 8 Total'!AA17,'Week 9 Total'!AA17)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f>SUM('Week 1 Total'!AB17,'Week 2 Total'!AB17,'Week 3 Total'!AB17,'Week 4 Total'!AB17,'Week 5 Total'!AB17,'Week 6 Total'!AB17,'Week 7 Total'!AB17,'Week 8 Total'!AB17,'Week 9 Total'!AB17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f>SUM('Week 1 Total'!AC17,'Week 2 Total'!AC17,'Week 3 Total'!AC17,'Week 4 Total'!AC17,'Week 5 Total'!AC17,'Week 6 Total'!AC17,'Week 7 Total'!AC17,'Week 8 Total'!AC17,'Week 9 Total'!AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f>SUM('Week 1 Total'!AE17,'Week 2 Total'!AE17,'Week 3 Total'!AE17,'Week 4 Total'!AE17,'Week 5 Total'!AE17,'Week 6 Total'!AE17,'Week 7 Total'!AE17,'Week 8 Total'!AE17,'Week 9 Total'!AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f>SUM('Week 1 Total'!AF17,'Week 2 Total'!AF17,'Week 3 Total'!AF17,'Week 4 Total'!AF17,'Week 5 Total'!AF17,'Week 6 Total'!AF17,'Week 7 Total'!AF17,'Week 8 Total'!AF17,'Week 9 Total'!AF17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>SUM('Week 1 Total'!AG17,'Week 2 Total'!AG17,'Week 3 Total'!AG17,'Week 4 Total'!AG17,'Week 5 Total'!AG17,'Week 6 Total'!AG17,'Week 7 Total'!AG17,'Week 8 Total'!AG17,'Week 9 Total'!AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f>SUM('Week 1 Total'!AI17,'Week 2 Total'!AI17,'Week 3 Total'!AI17,'Week 4 Total'!AI17,'Week 5 Total'!AI17,'Week 6 Total'!AI17,'Week 7 Total'!AI17,'Week 8 Total'!AI17,'Week 9 Total'!AI17)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>SUM('Week 1 Total'!AJ17,'Week 2 Total'!AJ17,'Week 3 Total'!AJ17,'Week 4 Total'!AJ17,'Week 5 Total'!AJ17,'Week 6 Total'!AJ17,'Week 7 Total'!AJ17,'Week 8 Total'!AJ17,'Week 9 Total'!AJ17)</f>
         <v>0</v>
       </c>
     </row>

--- a/Game-data/WBBGame stats.xlsx
+++ b/Game-data/WBBGame stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/Documents/WBB Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loganclarke/WBB R Project/Excel Process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D781D24-F02B-CC45-8F86-F0E579EF96D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E9F62-5AB4-DB4F-BB33-790A6CD3C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="15" activeTab="24" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="17" activeTab="26" xr2:uid="{183A49D1-7E17-DF4D-9FDB-8B4A46151E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 Games" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,9 @@
     <sheet name="Week 11 Total" sheetId="25" r:id="rId22"/>
     <sheet name="Week 12 Games" sheetId="26" r:id="rId23"/>
     <sheet name="Week 12 Total" sheetId="27" r:id="rId24"/>
-    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId25"/>
+    <sheet name="Week 13 Games" sheetId="28" r:id="rId25"/>
+    <sheet name="Week 13 Total" sheetId="29" r:id="rId26"/>
+    <sheet name="Cumulative Season Results" sheetId="11" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="77">
   <si>
     <t>MP</t>
   </si>
@@ -286,6 +288,9 @@
   </si>
   <si>
     <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Pepperdine</t>
   </si>
 </sst>
 </file>
@@ -31961,8 +31966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBDC1E4-3F31-BD47-9563-32CF8B5B3182}">
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34047,7 +34052,7 @@
   <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+      <selection activeCell="AK21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35974,12 +35979,2553 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9453D8-BA74-8748-A2AD-35DF33204B1C}">
+  <dimension ref="A1:AL23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R16" sqref="R16:AL23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <f>D2*24</f>
+        <v>23</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E2">
+        <v>3.32</v>
+      </c>
+      <c r="F2">
+        <v>1.74</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>1.6</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
+        <v>6</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>2</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C14" si="0">D3*24</f>
+        <v>17</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E3">
+        <v>0.59</v>
+      </c>
+      <c r="F3">
+        <v>0.24</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0.83</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E4">
+        <v>0.76</v>
+      </c>
+      <c r="F4">
+        <v>-0.54</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E5">
+        <v>0.52</v>
+      </c>
+      <c r="F5">
+        <v>0.35</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="E6">
+        <v>1.88</v>
+      </c>
+      <c r="F6">
+        <v>0.33</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E7">
+        <v>0.86</v>
+      </c>
+      <c r="F7">
+        <v>0.86</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="E8">
+        <v>1.66</v>
+      </c>
+      <c r="F8">
+        <v>0.52</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>1.33</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>0.33</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E9">
+        <v>2.12</v>
+      </c>
+      <c r="F9">
+        <v>0.44</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>1.38</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9">
+        <v>13</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="X9">
+        <v>11</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="E10">
+        <v>1.4</v>
+      </c>
+      <c r="F10">
+        <v>0.67</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E11">
+        <v>1.45</v>
+      </c>
+      <c r="F11">
+        <v>1.07</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1.33</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.67</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0.6</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13">
+        <v>1.52</v>
+      </c>
+      <c r="F13">
+        <v>0.93</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E14">
+        <v>1.99</v>
+      </c>
+      <c r="F14">
+        <v>1.4</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="9"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="2"/>
+      <c r="AA15" s="3"/>
+      <c r="AE15" s="2"/>
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4">
+        <f>D16*24</f>
+        <v>39</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.625</v>
+      </c>
+      <c r="E16">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.69</v>
+      </c>
+      <c r="G16">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>1.35</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16">
+        <v>23</v>
+      </c>
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <v>9</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="X16">
+        <v>18</v>
+      </c>
+      <c r="Y16">
+        <v>12</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AB16">
+        <v>5</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AF16">
+        <v>5</v>
+      </c>
+      <c r="AG16">
+        <v>5</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>3</v>
+      </c>
+      <c r="AK16">
+        <v>4</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:C23" si="1">D17*24</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E18">
+        <v>0.37</v>
+      </c>
+      <c r="F18">
+        <v>0.43</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.375</v>
+      </c>
+      <c r="E19">
+        <v>0.87</v>
+      </c>
+      <c r="F19">
+        <v>0.45</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>1.22</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="E20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.11</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0.67</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E21">
+        <v>0.99</v>
+      </c>
+      <c r="F21">
+        <v>0.47</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>0.94</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>11</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>14</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF21">
+        <v>4</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>2</v>
+      </c>
+      <c r="AL21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.625</v>
+      </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="F22">
+        <v>0.23</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>0.86</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>0.67</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22">
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <v>9</v>
+      </c>
+      <c r="U22">
+        <v>9</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>13</v>
+      </c>
+      <c r="Y22">
+        <v>9</v>
+      </c>
+      <c r="Z22">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AB22">
+        <v>5</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="E23">
+        <v>0.21</v>
+      </c>
+      <c r="F23">
+        <v>-0.13</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0.43</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0.33</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF23">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>2</v>
+      </c>
+      <c r="AL23">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09A206-B39C-344E-9575-E7A43D0439CC}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36099,137 +38645,128 @@
         <v>29</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2,'Week 7 Total'!C2,'Week 8 Total'!C2,'Week 9 Total'!C2,'Week 10 Total'!C2,'Week 11 Total'!C2,'Week 12 Total'!C2)</f>
-        <v>622</v>
-      </c>
-      <c r="D2" s="4">
-        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2,'Week 7 Total'!D2,'Week 8 Total'!D2,'Week 9 Total'!D2,'Week 10 Total'!D2,'Week 11 Total'!D2,'Week 12 Total'!D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2,'Week 7 Total'!E2,'Week 8 Total'!E2,'Week 9 Total'!E2,'Week 10 Total'!E2,'Week 11 Total'!E2,'Week 12 Total'!E2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!C:C)</f>
+        <v>62</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2,'Week 7 Total'!F2,'Week 8 Total'!F2,'Week 9 Total'!F2,'Week 10 Total'!F2,'Week 11 Total'!F2,'Week 12 Total'!F2)</f>
-        <v>362</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2,'Week 7 Total'!G2,'Week 8 Total'!G2,'Week 9 Total'!G2,'Week 10 Total'!G2,'Week 11 Total'!G2,'Week 12 Total'!G2)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!G:G)</f>
+        <v>51</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
-        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2,'Week 7 Total'!H2,'Week 8 Total'!H2,'Week 9 Total'!H2,'Week 10 Total'!H2,'Week 11 Total'!H2,'Week 12 Total'!H2)</f>
-        <v>82</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!I:I)</f>
+        <v>19</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2,'Week 7 Total'!I2,'Week 8 Total'!I2,'Week 9 Total'!I2,'Week 10 Total'!I2,'Week 11 Total'!I2,'Week 12 Total'!I2)</f>
-        <v>50</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!J:J)</f>
+        <v>3</v>
       </c>
       <c r="J2" s="4">
-        <f>SUM('Week 1 Total'!J2,'Week 2 Total'!J2,'Week 3 Total'!J2,'Week 4 Total'!J2,'Week 5 Total'!J2,'Week 6 Total'!J2,'Week 7 Total'!J2,'Week 8 Total'!J2,'Week 9 Total'!J2,'Week 10 Total'!J2,'Week 11 Total'!J2,'Week 12 Total'!J2)</f>
-        <v>20.93</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!K:K)</f>
+        <v>16</v>
       </c>
       <c r="K2" s="4">
-        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2,'Week 7 Total'!K2,'Week 8 Total'!K2,'Week 9 Total'!K2,'Week 10 Total'!K2,'Week 11 Total'!K2,'Week 12 Total'!K2)</f>
-        <v>43</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!L:L)</f>
+        <v>11</v>
       </c>
       <c r="L2" s="4">
-        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2,'Week 7 Total'!L2,'Week 8 Total'!L2,'Week 9 Total'!L2,'Week 10 Total'!L2,'Week 11 Total'!L2,'Week 12 Total'!L2)</f>
-        <v>19</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!M:M)</f>
+        <v>2</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2,'Week 7 Total'!M2,'Week 8 Total'!M2,'Week 9 Total'!M2,'Week 10 Total'!M2,'Week 11 Total'!M2,'Week 12 Total'!M2)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!N:N)</f>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2,'Week 7 Total'!N2,'Week 8 Total'!N2,'Week 9 Total'!N2,'Week 10 Total'!N2,'Week 11 Total'!N2,'Week 12 Total'!N2)</f>
-        <v>110</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!O:O)</f>
+        <v>9</v>
       </c>
       <c r="O2" s="4">
-        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2,'Week 7 Total'!O2,'Week 8 Total'!O2,'Week 9 Total'!O2,'Week 10 Total'!O2,'Week 11 Total'!O2,'Week 12 Total'!O2)</f>
-        <v>33</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!P:P)</f>
+        <v>4</v>
       </c>
       <c r="P2" s="4">
-        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2,'Week 7 Total'!P2,'Week 8 Total'!P2,'Week 9 Total'!P2,'Week 10 Total'!P2,'Week 11 Total'!P2,'Week 12 Total'!P2)</f>
-        <v>77</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!Q:Q)</f>
+        <v>5</v>
       </c>
       <c r="Q2" s="4">
-        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2,'Week 7 Total'!Q2,'Week 8 Total'!Q2,'Week 9 Total'!Q2,'Week 10 Total'!Q2,'Week 11 Total'!Q2,'Week 12 Total'!Q2)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R2" s="4">
-        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2,'Week 7 Total'!R2,'Week 8 Total'!R2,'Week 9 Total'!R2,'Week 10 Total'!R2,'Week 11 Total'!R2,'Week 12 Total'!R2)</f>
-        <v>278</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!S:S)</f>
+        <v>30</v>
       </c>
       <c r="S2" s="4">
-        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2,'Week 7 Total'!S2,'Week 8 Total'!S2,'Week 9 Total'!S2,'Week 10 Total'!S2,'Week 11 Total'!S2,'Week 12 Total'!S2)</f>
-        <v>138</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!T:T)</f>
+        <v>20</v>
       </c>
       <c r="T2" s="4">
-        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2,'Week 7 Total'!T2,'Week 8 Total'!T2,'Week 9 Total'!T2,'Week 10 Total'!T2,'Week 11 Total'!T2,'Week 12 Total'!T2)</f>
-        <v>140</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!U:U)</f>
+        <v>10</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" ref="U2:U15" si="0">IF(ISERROR(S2/R2),0,S2/R2)</f>
-        <v>0.49640287769784175</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4">
-        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2,'Week 7 Total'!W2,'Week 8 Total'!W2,'Week 9 Total'!W2,'Week 10 Total'!W2,'Week 11 Total'!W2,'Week 12 Total'!W2)</f>
-        <v>207</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!X:X)</f>
+        <v>25</v>
       </c>
       <c r="X2" s="4">
-        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2,'Week 7 Total'!X2,'Week 8 Total'!X2,'Week 9 Total'!X2,'Week 10 Total'!X2,'Week 11 Total'!X2,'Week 12 Total'!X2)</f>
-        <v>122</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!Y:Y)</f>
+        <v>18</v>
       </c>
       <c r="Y2" s="4">
-        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2,'Week 7 Total'!Y2,'Week 8 Total'!Y2,'Week 9 Total'!Y2,'Week 10 Total'!Y2,'Week 11 Total'!Y2,'Week 12 Total'!Y2)</f>
-        <v>85</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!Z:Z)</f>
+        <v>7</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" ref="Z2:Z15" si="1">IF(ISERROR(X2/W2),0,X2/W2)</f>
-        <v>0.58937198067632846</v>
+        <v>0.72</v>
       </c>
       <c r="AA2" s="4">
-        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2,'Week 7 Total'!AA2,'Week 8 Total'!AA2,'Week 9 Total'!AA2,'Week 10 Total'!AA2,'Week 11 Total'!AA2,'Week 12 Total'!AA2)</f>
-        <v>71</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!AB:AB)</f>
+        <v>5</v>
       </c>
       <c r="AB2" s="4">
-        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2,'Week 7 Total'!AB2,'Week 8 Total'!AB2,'Week 9 Total'!AB2,'Week 10 Total'!AB2,'Week 11 Total'!AB2,'Week 12 Total'!AB2)</f>
-        <v>16</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!AC:AC)</f>
+        <v>2</v>
       </c>
       <c r="AC2" s="4">
-        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2,'Week 7 Total'!AC2,'Week 8 Total'!AC2,'Week 9 Total'!AC2,'Week 10 Total'!AC2,'Week 11 Total'!AC2,'Week 12 Total'!AC2)</f>
-        <v>55</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!AD:AD)</f>
+        <v>3</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" ref="AD2:AD10" si="2">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
-        <v>0.22535211267605634</v>
+        <v>0.4</v>
       </c>
       <c r="AE2" s="4">
-        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2,'Week 7 Total'!AE2,'Week 8 Total'!AE2,'Week 9 Total'!AE2,'Week 10 Total'!AE2,'Week 11 Total'!AE2,'Week 12 Total'!AE2)</f>
-        <v>86</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!AF:AF)</f>
+        <v>9</v>
       </c>
       <c r="AF2" s="4">
-        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2,'Week 7 Total'!AF2,'Week 8 Total'!AF2,'Week 9 Total'!AF2,'Week 10 Total'!AF2,'Week 11 Total'!AF2,'Week 12 Total'!AF2)</f>
-        <v>70</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!AG:AG)</f>
+        <v>9</v>
       </c>
       <c r="AG2" s="4">
-        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2,'Week 7 Total'!AG2,'Week 8 Total'!AG2,'Week 9 Total'!AG2,'Week 10 Total'!AG2,'Week 11 Total'!AG2,'Week 12 Total'!AG2)</f>
-        <v>16</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" ref="AH2:AH15" si="3">IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
-        <v>0.81395348837209303</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2,'Week 7 Total'!AI2,'Week 8 Total'!AI2,'Week 9 Total'!AI2,'Week 10 Total'!AI2,'Week 11 Total'!AI2,'Week 12 Total'!AI2)</f>
-        <v>61</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!AK:AK)</f>
+        <v>6</v>
       </c>
       <c r="AJ2" s="4">
-        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2,'Week 7 Total'!AJ2,'Week 8 Total'!AJ2,'Week 9 Total'!AJ2,'Week 10 Total'!AJ2,'Week 11 Total'!AJ2,'Week 12 Total'!AJ2)</f>
-        <v>39</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B2,'Week 13 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -36237,137 +38774,128 @@
         <v>30</v>
       </c>
       <c r="C3" s="4">
-        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3,'Week 7 Total'!C3,'Week 8 Total'!C3,'Week 9 Total'!C3,'Week 10 Total'!C3,'Week 11 Total'!C3,'Week 12 Total'!C3)</f>
-        <v>227</v>
-      </c>
-      <c r="D3" s="4">
-        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3,'Week 7 Total'!D3,'Week 8 Total'!D3,'Week 9 Total'!D3,'Week 10 Total'!D3,'Week 11 Total'!D3,'Week 12 Total'!D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3,'Week 7 Total'!E3,'Week 8 Total'!E3,'Week 9 Total'!E3,'Week 10 Total'!E3,'Week 11 Total'!E3,'Week 12 Total'!E3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!C:C)</f>
+        <v>21</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3,'Week 7 Total'!F3,'Week 8 Total'!F3,'Week 9 Total'!F3,'Week 10 Total'!F3,'Week 11 Total'!F3,'Week 12 Total'!F3)</f>
-        <v>66</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3,'Week 7 Total'!G3,'Week 8 Total'!G3,'Week 9 Total'!G3,'Week 10 Total'!G3,'Week 11 Total'!G3,'Week 12 Total'!G3)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3,'Week 7 Total'!H3,'Week 8 Total'!H3,'Week 9 Total'!H3,'Week 10 Total'!H3,'Week 11 Total'!H3,'Week 12 Total'!H3)</f>
-        <v>18</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!I:I)</f>
+        <v>2</v>
       </c>
       <c r="I3" s="4">
-        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3,'Week 7 Total'!I3,'Week 8 Total'!I3,'Week 9 Total'!I3,'Week 10 Total'!I3,'Week 11 Total'!I3,'Week 12 Total'!I3)</f>
-        <v>15</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!J:J)</f>
+        <v>2</v>
       </c>
       <c r="J3" s="4">
-        <f>SUM('Week 1 Total'!J3,'Week 2 Total'!J3,'Week 3 Total'!J3,'Week 4 Total'!J3,'Week 5 Total'!J3,'Week 6 Total'!J3,'Week 7 Total'!J3,'Week 8 Total'!J3,'Week 9 Total'!J3,'Week 10 Total'!J3,'Week 11 Total'!J3,'Week 12 Total'!J3)</f>
-        <v>5.1666666666666661</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!K:K)</f>
+        <v>0.5</v>
       </c>
       <c r="K3" s="4">
-        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3,'Week 7 Total'!K3,'Week 8 Total'!K3,'Week 9 Total'!K3,'Week 10 Total'!K3,'Week 11 Total'!K3,'Week 12 Total'!K3)</f>
-        <v>16</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!L:L)</f>
+        <v>2</v>
       </c>
       <c r="L3" s="4">
-        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3,'Week 7 Total'!L3,'Week 8 Total'!L3,'Week 9 Total'!L3,'Week 10 Total'!L3,'Week 11 Total'!L3,'Week 12 Total'!L3)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!O:O)</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!Q:Q)</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!S:S)</f>
         <v>4</v>
       </c>
-      <c r="M3" s="4">
-        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3,'Week 7 Total'!M3,'Week 8 Total'!M3,'Week 9 Total'!M3,'Week 10 Total'!M3,'Week 11 Total'!M3,'Week 12 Total'!M3)</f>
-        <v>2</v>
-      </c>
-      <c r="N3" s="4">
-        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3,'Week 7 Total'!N3,'Week 8 Total'!N3,'Week 9 Total'!N3,'Week 10 Total'!N3,'Week 11 Total'!N3,'Week 12 Total'!N3)</f>
-        <v>33</v>
-      </c>
-      <c r="O3" s="4">
-        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3,'Week 7 Total'!O3,'Week 8 Total'!O3,'Week 9 Total'!O3,'Week 10 Total'!O3,'Week 11 Total'!O3,'Week 12 Total'!O3)</f>
-        <v>3</v>
-      </c>
-      <c r="P3" s="4">
-        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3,'Week 7 Total'!P3,'Week 8 Total'!P3,'Week 9 Total'!P3,'Week 10 Total'!P3,'Week 11 Total'!P3,'Week 12 Total'!P3)</f>
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3,'Week 7 Total'!Q3,'Week 8 Total'!Q3,'Week 9 Total'!Q3,'Week 10 Total'!Q3,'Week 11 Total'!Q3,'Week 12 Total'!Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3,'Week 7 Total'!R3,'Week 8 Total'!R3,'Week 9 Total'!R3,'Week 10 Total'!R3,'Week 11 Total'!R3,'Week 12 Total'!R3)</f>
-        <v>54</v>
-      </c>
       <c r="S3" s="4">
-        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3,'Week 7 Total'!S3,'Week 8 Total'!S3,'Week 9 Total'!S3,'Week 10 Total'!S3,'Week 11 Total'!S3,'Week 12 Total'!S3)</f>
-        <v>23</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!T:T)</f>
+        <v>2</v>
       </c>
       <c r="T3" s="4">
-        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3,'Week 7 Total'!T3,'Week 8 Total'!T3,'Week 9 Total'!T3,'Week 10 Total'!T3,'Week 11 Total'!T3,'Week 12 Total'!T3)</f>
-        <v>31</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!U:U)</f>
+        <v>2</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>0.42592592592592593</v>
+        <v>0.5</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4">
-        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3,'Week 7 Total'!W3,'Week 8 Total'!W3,'Week 9 Total'!W3,'Week 10 Total'!W3,'Week 11 Total'!W3,'Week 12 Total'!W3)</f>
-        <v>20</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!X:X)</f>
+        <v>2</v>
       </c>
       <c r="X3" s="4">
-        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3,'Week 7 Total'!X3,'Week 8 Total'!X3,'Week 9 Total'!X3,'Week 10 Total'!X3,'Week 11 Total'!X3,'Week 12 Total'!X3)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y3" s="4">
-        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3,'Week 7 Total'!Y3,'Week 8 Total'!Y3,'Week 9 Total'!Y3,'Week 10 Total'!Y3,'Week 11 Total'!Y3,'Week 12 Total'!Y3)</f>
-        <v>13</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" s="4">
-        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3,'Week 7 Total'!AA3,'Week 8 Total'!AA3,'Week 9 Total'!AA3,'Week 10 Total'!AA3,'Week 11 Total'!AA3,'Week 12 Total'!AA3)</f>
-        <v>34</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!AB:AB)</f>
+        <v>2</v>
       </c>
       <c r="AB3" s="4">
-        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3,'Week 7 Total'!AB3,'Week 8 Total'!AB3,'Week 9 Total'!AB3,'Week 10 Total'!AB3,'Week 11 Total'!AB3,'Week 12 Total'!AB3)</f>
-        <v>16</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!AC:AC)</f>
+        <v>1</v>
       </c>
       <c r="AC3" s="4">
-        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3,'Week 7 Total'!AC3,'Week 8 Total'!AC3,'Week 9 Total'!AC3,'Week 10 Total'!AC3,'Week 11 Total'!AC3,'Week 12 Total'!AC3)</f>
-        <v>18</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!AD:AD)</f>
+        <v>1</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="2"/>
-        <v>0.47058823529411764</v>
+        <v>0.5</v>
       </c>
       <c r="AE3" s="4">
-        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3,'Week 7 Total'!AE3,'Week 8 Total'!AE3,'Week 9 Total'!AE3,'Week 10 Total'!AE3,'Week 11 Total'!AE3,'Week 12 Total'!AE3)</f>
-        <v>6</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF3" s="4">
-        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3,'Week 7 Total'!AF3,'Week 8 Total'!AF3,'Week 9 Total'!AF3,'Week 10 Total'!AF3,'Week 11 Total'!AF3,'Week 12 Total'!AF3)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG3" s="4">
-        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3,'Week 7 Total'!AG3,'Week 8 Total'!AG3,'Week 9 Total'!AG3,'Week 10 Total'!AG3,'Week 11 Total'!AG3,'Week 12 Total'!AG3)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="4">
-        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3,'Week 7 Total'!AI3,'Week 8 Total'!AI3,'Week 9 Total'!AI3,'Week 10 Total'!AI3,'Week 11 Total'!AI3,'Week 12 Total'!AI3)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ3" s="4">
-        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3,'Week 7 Total'!AJ3,'Week 8 Total'!AJ3,'Week 9 Total'!AJ3,'Week 10 Total'!AJ3,'Week 11 Total'!AJ3,'Week 12 Total'!AJ3)</f>
-        <v>22</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B3,'Week 13 Games'!AL:AL)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -36375,124 +38903,115 @@
         <v>31</v>
       </c>
       <c r="C4" s="4">
-        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4,'Week 7 Total'!C4,'Week 8 Total'!C4,'Week 9 Total'!C4,'Week 10 Total'!C4,'Week 11 Total'!C4,'Week 12 Total'!C4)</f>
-        <v>108</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4,'Week 7 Total'!D4,'Week 8 Total'!D4,'Week 9 Total'!D4,'Week 10 Total'!D4,'Week 11 Total'!D4,'Week 12 Total'!D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4,'Week 7 Total'!E4,'Week 8 Total'!E4,'Week 9 Total'!E4,'Week 10 Total'!E4,'Week 11 Total'!E4,'Week 12 Total'!E4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!C:C)</f>
+        <v>13</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4,'Week 7 Total'!F4,'Week 8 Total'!F4,'Week 9 Total'!F4,'Week 10 Total'!F4,'Week 11 Total'!F4,'Week 12 Total'!F4)</f>
-        <v>26</v>
-      </c>
-      <c r="G4" s="4">
-        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4,'Week 7 Total'!G4,'Week 8 Total'!G4,'Week 9 Total'!G4,'Week 10 Total'!G4,'Week 11 Total'!G4,'Week 12 Total'!G4)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!G:G)</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4">
-        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4,'Week 7 Total'!H4,'Week 8 Total'!H4,'Week 9 Total'!H4,'Week 10 Total'!H4,'Week 11 Total'!H4,'Week 12 Total'!H4)</f>
-        <v>13</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4,'Week 7 Total'!I4,'Week 8 Total'!I4,'Week 9 Total'!I4,'Week 10 Total'!I4,'Week 11 Total'!I4,'Week 12 Total'!I4)</f>
-        <v>10</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!J:J)</f>
+        <v>4</v>
       </c>
       <c r="J4" s="4">
-        <f>SUM('Week 1 Total'!J4,'Week 2 Total'!J4,'Week 3 Total'!J4,'Week 4 Total'!J4,'Week 5 Total'!J4,'Week 6 Total'!J4,'Week 7 Total'!J4,'Week 8 Total'!J4,'Week 9 Total'!J4,'Week 10 Total'!J4,'Week 11 Total'!J4,'Week 12 Total'!J4)</f>
-        <v>10.5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4,'Week 7 Total'!K4,'Week 8 Total'!K4,'Week 9 Total'!K4,'Week 10 Total'!K4,'Week 11 Total'!K4,'Week 12 Total'!K4)</f>
-        <v>3</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4,'Week 7 Total'!L4,'Week 8 Total'!L4,'Week 9 Total'!L4,'Week 10 Total'!L4,'Week 11 Total'!L4,'Week 12 Total'!L4)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!M:M)</f>
+        <v>2</v>
       </c>
       <c r="M4" s="4">
-        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4,'Week 7 Total'!M4,'Week 8 Total'!M4,'Week 9 Total'!M4,'Week 10 Total'!M4,'Week 11 Total'!M4,'Week 12 Total'!M4)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4,'Week 7 Total'!N4,'Week 8 Total'!N4,'Week 9 Total'!N4,'Week 10 Total'!N4,'Week 11 Total'!N4,'Week 12 Total'!N4)</f>
-        <v>15</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!O:O)</f>
+        <v>1</v>
       </c>
       <c r="O4" s="4">
-        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4,'Week 7 Total'!O4,'Week 8 Total'!O4,'Week 9 Total'!O4,'Week 10 Total'!O4,'Week 11 Total'!O4,'Week 12 Total'!O4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P4" s="4">
-        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4,'Week 7 Total'!P4,'Week 8 Total'!P4,'Week 9 Total'!P4,'Week 10 Total'!P4,'Week 11 Total'!P4,'Week 12 Total'!P4)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!Q:Q)</f>
+        <v>1</v>
       </c>
       <c r="Q4" s="4">
-        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4,'Week 7 Total'!Q4,'Week 8 Total'!Q4,'Week 9 Total'!Q4,'Week 10 Total'!Q4,'Week 11 Total'!Q4,'Week 12 Total'!Q4)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R4" s="4">
-        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4,'Week 7 Total'!R4,'Week 8 Total'!R4,'Week 9 Total'!R4,'Week 10 Total'!R4,'Week 11 Total'!R4,'Week 12 Total'!R4)</f>
-        <v>35</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!S:S)</f>
+        <v>4</v>
       </c>
       <c r="S4" s="4">
-        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4,'Week 7 Total'!S4,'Week 8 Total'!S4,'Week 9 Total'!S4,'Week 10 Total'!S4,'Week 11 Total'!S4,'Week 12 Total'!S4)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!T:T)</f>
+        <v>2</v>
       </c>
       <c r="T4" s="4">
-        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4,'Week 7 Total'!T4,'Week 8 Total'!T4,'Week 9 Total'!T4,'Week 10 Total'!T4,'Week 11 Total'!T4,'Week 12 Total'!T4)</f>
-        <v>26</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!U:U)</f>
+        <v>2</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>0.25714285714285712</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4">
-        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4,'Week 7 Total'!W4,'Week 8 Total'!W4,'Week 9 Total'!W4,'Week 10 Total'!W4,'Week 11 Total'!W4,'Week 12 Total'!W4)</f>
-        <v>19</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!X:X)</f>
+        <v>1</v>
       </c>
       <c r="X4" s="4">
-        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4,'Week 7 Total'!X4,'Week 8 Total'!X4,'Week 9 Total'!X4,'Week 10 Total'!X4,'Week 11 Total'!X4,'Week 12 Total'!X4)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y4" s="4">
-        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4,'Week 7 Total'!Y4,'Week 8 Total'!Y4,'Week 9 Total'!Y4,'Week 10 Total'!Y4,'Week 11 Total'!Y4,'Week 12 Total'!Y4)</f>
-        <v>12</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="1"/>
-        <v>0.36842105263157893</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4">
-        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4,'Week 7 Total'!AA4,'Week 8 Total'!AA4,'Week 9 Total'!AA4,'Week 10 Total'!AA4,'Week 11 Total'!AA4,'Week 12 Total'!AA4)</f>
-        <v>16</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!AB:AB)</f>
+        <v>3</v>
       </c>
       <c r="AB4" s="4">
-        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4,'Week 7 Total'!AB4,'Week 8 Total'!AB4,'Week 9 Total'!AB4,'Week 10 Total'!AB4,'Week 11 Total'!AB4,'Week 12 Total'!AB4)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!AC:AC)</f>
         <v>2</v>
       </c>
       <c r="AC4" s="4">
-        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4,'Week 7 Total'!AC4,'Week 8 Total'!AC4,'Week 9 Total'!AC4,'Week 10 Total'!AC4,'Week 11 Total'!AC4,'Week 12 Total'!AC4)</f>
-        <v>14</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!AD:AD)</f>
+        <v>1</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE4" s="4">
-        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4,'Week 7 Total'!AE4,'Week 8 Total'!AE4,'Week 9 Total'!AE4,'Week 10 Total'!AE4,'Week 11 Total'!AE4,'Week 12 Total'!AE4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF4" s="4">
-        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4,'Week 7 Total'!AF4,'Week 8 Total'!AF4,'Week 9 Total'!AF4,'Week 10 Total'!AF4,'Week 11 Total'!AF4,'Week 12 Total'!AF4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!AG:AG)</f>
+        <v>2</v>
       </c>
       <c r="AG4" s="4">
-        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4,'Week 7 Total'!AG4,'Week 8 Total'!AG4,'Week 9 Total'!AG4,'Week 10 Total'!AG4,'Week 11 Total'!AG4,'Week 12 Total'!AG4)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
@@ -36500,12 +39019,12 @@
         <v>1</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4,'Week 7 Total'!AI4,'Week 8 Total'!AI4,'Week 9 Total'!AI4,'Week 10 Total'!AI4,'Week 11 Total'!AI4,'Week 12 Total'!AI4)</f>
-        <v>6</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ4" s="4">
-        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4,'Week 7 Total'!AJ4,'Week 8 Total'!AJ4,'Week 9 Total'!AJ4,'Week 10 Total'!AJ4,'Week 11 Total'!AJ4,'Week 12 Total'!AJ4)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B4,'Week 13 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
@@ -36513,137 +39032,128 @@
         <v>32</v>
       </c>
       <c r="C5" s="4">
-        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5,'Week 7 Total'!C5,'Week 8 Total'!C5,'Week 9 Total'!C5,'Week 10 Total'!C5,'Week 11 Total'!C5,'Week 12 Total'!C5)</f>
-        <v>557</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5,'Week 7 Total'!D5,'Week 8 Total'!D5,'Week 9 Total'!D5,'Week 10 Total'!D5,'Week 11 Total'!D5,'Week 12 Total'!D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5,'Week 7 Total'!E5,'Week 8 Total'!E5,'Week 9 Total'!E5,'Week 10 Total'!E5,'Week 11 Total'!E5,'Week 12 Total'!E5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!C:C)</f>
+        <v>45</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5,'Week 7 Total'!F5,'Week 8 Total'!F5,'Week 9 Total'!F5,'Week 10 Total'!F5,'Week 11 Total'!F5,'Week 12 Total'!F5)</f>
-        <v>95</v>
-      </c>
-      <c r="G5" s="4">
-        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5,'Week 7 Total'!G5,'Week 8 Total'!G5,'Week 9 Total'!G5,'Week 10 Total'!G5,'Week 11 Total'!G5,'Week 12 Total'!G5)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!G:G)</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5,'Week 7 Total'!H5,'Week 8 Total'!H5,'Week 9 Total'!H5,'Week 10 Total'!H5,'Week 11 Total'!H5,'Week 12 Total'!H5)</f>
-        <v>78</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!I:I)</f>
+        <v>6</v>
       </c>
       <c r="I5" s="4">
-        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5,'Week 7 Total'!I5,'Week 8 Total'!I5,'Week 9 Total'!I5,'Week 10 Total'!I5,'Week 11 Total'!I5,'Week 12 Total'!I5)</f>
-        <v>27</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!J:J)</f>
+        <v>2</v>
       </c>
       <c r="J5" s="4">
-        <f>SUM('Week 1 Total'!J5,'Week 2 Total'!J5,'Week 3 Total'!J5,'Week 4 Total'!J5,'Week 5 Total'!J5,'Week 6 Total'!J5,'Week 7 Total'!J5,'Week 8 Total'!J5,'Week 9 Total'!J5,'Week 10 Total'!J5,'Week 11 Total'!J5,'Week 12 Total'!J5)</f>
-        <v>27</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!K:K)</f>
+        <v>6</v>
       </c>
       <c r="K5" s="4">
-        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5,'Week 7 Total'!K5,'Week 8 Total'!K5,'Week 9 Total'!K5,'Week 10 Total'!K5,'Week 11 Total'!K5,'Week 12 Total'!K5)</f>
-        <v>28</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!L:L)</f>
+        <v>3</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5,'Week 7 Total'!L5,'Week 8 Total'!L5,'Week 9 Total'!L5,'Week 10 Total'!L5,'Week 11 Total'!L5,'Week 12 Total'!L5)</f>
-        <v>11</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5,'Week 7 Total'!M5,'Week 8 Total'!M5,'Week 9 Total'!M5,'Week 10 Total'!M5,'Week 11 Total'!M5,'Week 12 Total'!M5)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!N:N)</f>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
-        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5,'Week 7 Total'!N5,'Week 8 Total'!N5,'Week 9 Total'!N5,'Week 10 Total'!N5,'Week 11 Total'!N5,'Week 12 Total'!N5)</f>
-        <v>49</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!O:O)</f>
+        <v>3</v>
       </c>
       <c r="O5" s="4">
-        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5,'Week 7 Total'!O5,'Week 8 Total'!O5,'Week 9 Total'!O5,'Week 10 Total'!O5,'Week 11 Total'!O5,'Week 12 Total'!O5)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!P:P)</f>
+        <v>1</v>
       </c>
       <c r="P5" s="4">
-        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5,'Week 7 Total'!P5,'Week 8 Total'!P5,'Week 9 Total'!P5,'Week 10 Total'!P5,'Week 11 Total'!P5,'Week 12 Total'!P5)</f>
-        <v>44</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!Q:Q)</f>
+        <v>2</v>
       </c>
       <c r="Q5" s="4">
-        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5,'Week 7 Total'!Q5,'Week 8 Total'!Q5,'Week 9 Total'!Q5,'Week 10 Total'!Q5,'Week 11 Total'!Q5,'Week 12 Total'!Q5)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5,'Week 7 Total'!R5,'Week 8 Total'!R5,'Week 9 Total'!R5,'Week 10 Total'!R5,'Week 11 Total'!R5,'Week 12 Total'!R5)</f>
-        <v>99</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!S:S)</f>
+        <v>8</v>
       </c>
       <c r="S5" s="4">
-        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5,'Week 7 Total'!S5,'Week 8 Total'!S5,'Week 9 Total'!S5,'Week 10 Total'!S5,'Week 11 Total'!S5,'Week 12 Total'!S5)</f>
-        <v>39</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!T:T)</f>
+        <v>2</v>
       </c>
       <c r="T5" s="4">
-        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5,'Week 7 Total'!T5,'Week 8 Total'!T5,'Week 9 Total'!T5,'Week 10 Total'!T5,'Week 11 Total'!T5,'Week 12 Total'!T5)</f>
-        <v>60</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!U:U)</f>
+        <v>6</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>0.39393939393939392</v>
+        <v>0.25</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4">
-        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5,'Week 7 Total'!W5,'Week 8 Total'!W5,'Week 9 Total'!W5,'Week 10 Total'!W5,'Week 11 Total'!W5,'Week 12 Total'!W5)</f>
-        <v>61</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!X:X)</f>
+        <v>3</v>
       </c>
       <c r="X5" s="4">
-        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5,'Week 7 Total'!X5,'Week 8 Total'!X5,'Week 9 Total'!X5,'Week 10 Total'!X5,'Week 11 Total'!X5,'Week 12 Total'!X5)</f>
-        <v>27</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!Y:Y)</f>
+        <v>2</v>
       </c>
       <c r="Y5" s="4">
-        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5,'Week 7 Total'!Y5,'Week 8 Total'!Y5,'Week 9 Total'!Y5,'Week 10 Total'!Y5,'Week 11 Total'!Y5,'Week 12 Total'!Y5)</f>
-        <v>34</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="1"/>
-        <v>0.44262295081967212</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AA5" s="4">
-        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5,'Week 7 Total'!AA5,'Week 8 Total'!AA5,'Week 9 Total'!AA5,'Week 10 Total'!AA5,'Week 11 Total'!AA5,'Week 12 Total'!AA5)</f>
-        <v>38</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!AB:AB)</f>
+        <v>5</v>
       </c>
       <c r="AB5" s="4">
-        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5,'Week 7 Total'!AB5,'Week 8 Total'!AB5,'Week 9 Total'!AB5,'Week 10 Total'!AB5,'Week 11 Total'!AB5,'Week 12 Total'!AB5)</f>
-        <v>12</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5,'Week 7 Total'!AC5,'Week 8 Total'!AC5,'Week 9 Total'!AC5,'Week 10 Total'!AC5,'Week 11 Total'!AC5,'Week 12 Total'!AC5)</f>
-        <v>26</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!AD:AD)</f>
+        <v>5</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" si="2"/>
-        <v>0.31578947368421051</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="4">
-        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5,'Week 7 Total'!AE5,'Week 8 Total'!AE5,'Week 9 Total'!AE5,'Week 10 Total'!AE5,'Week 11 Total'!AE5,'Week 12 Total'!AE5)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF5" s="4">
-        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5,'Week 7 Total'!AF5,'Week 8 Total'!AF5,'Week 9 Total'!AF5,'Week 10 Total'!AF5,'Week 11 Total'!AF5,'Week 12 Total'!AF5)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5,'Week 7 Total'!AG5,'Week 8 Total'!AG5,'Week 9 Total'!AG5,'Week 10 Total'!AG5,'Week 11 Total'!AG5,'Week 12 Total'!AG5)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5,'Week 7 Total'!AI5,'Week 8 Total'!AI5,'Week 9 Total'!AI5,'Week 10 Total'!AI5,'Week 11 Total'!AI5,'Week 12 Total'!AI5)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ5" s="4">
-        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5,'Week 7 Total'!AJ5,'Week 8 Total'!AJ5,'Week 9 Total'!AJ5,'Week 10 Total'!AJ5,'Week 11 Total'!AJ5,'Week 12 Total'!AJ5)</f>
-        <v>33</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B5,'Week 13 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
@@ -36651,137 +39161,128 @@
         <v>33</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6,'Week 7 Total'!C6,'Week 8 Total'!C6,'Week 9 Total'!C6,'Week 10 Total'!C6,'Week 11 Total'!C6,'Week 12 Total'!C6)</f>
-        <v>583</v>
-      </c>
-      <c r="D6" s="4">
-        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6,'Week 7 Total'!D6,'Week 8 Total'!D6,'Week 9 Total'!D6,'Week 10 Total'!D6,'Week 11 Total'!D6,'Week 12 Total'!D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6,'Week 7 Total'!E6,'Week 8 Total'!E6,'Week 9 Total'!E6,'Week 10 Total'!E6,'Week 11 Total'!E6,'Week 12 Total'!E6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!C:C)</f>
+        <v>54</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6,'Week 7 Total'!F6,'Week 8 Total'!F6,'Week 9 Total'!F6,'Week 10 Total'!F6,'Week 11 Total'!F6,'Week 12 Total'!F6)</f>
-        <v>209</v>
-      </c>
-      <c r="G6" s="4">
-        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6,'Week 7 Total'!G6,'Week 8 Total'!G6,'Week 9 Total'!G6,'Week 10 Total'!G6,'Week 11 Total'!G6,'Week 12 Total'!G6)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!G:G)</f>
+        <v>29</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6,'Week 7 Total'!H6,'Week 8 Total'!H6,'Week 9 Total'!H6,'Week 10 Total'!H6,'Week 11 Total'!H6,'Week 12 Total'!H6)</f>
-        <v>96</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!I:I)</f>
+        <v>9</v>
       </c>
       <c r="I6" s="4">
-        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6,'Week 7 Total'!I6,'Week 8 Total'!I6,'Week 9 Total'!I6,'Week 10 Total'!I6,'Week 11 Total'!I6,'Week 12 Total'!I6)</f>
-        <v>41</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!J:J)</f>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
-        <f>SUM('Week 1 Total'!J6,'Week 2 Total'!J6,'Week 3 Total'!J6,'Week 4 Total'!J6,'Week 5 Total'!J6,'Week 6 Total'!J6,'Week 7 Total'!J6,'Week 8 Total'!J6,'Week 9 Total'!J6,'Week 10 Total'!J6,'Week 11 Total'!J6,'Week 12 Total'!J6)</f>
-        <v>47.666666666666664</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!K:K)</f>
+        <v>6</v>
       </c>
       <c r="K6" s="4">
-        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6,'Week 7 Total'!K6,'Week 8 Total'!K6,'Week 9 Total'!K6,'Week 10 Total'!K6,'Week 11 Total'!K6,'Week 12 Total'!K6)</f>
-        <v>29</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!L:L)</f>
+        <v>2</v>
       </c>
       <c r="L6" s="4">
-        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6,'Week 7 Total'!L6,'Week 8 Total'!L6,'Week 9 Total'!L6,'Week 10 Total'!L6,'Week 11 Total'!L6,'Week 12 Total'!L6)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!O:O)</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!Q:Q)</f>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!S:S)</f>
+        <v>16</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!T:T)</f>
         <v>10</v>
       </c>
-      <c r="M6" s="4">
-        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6,'Week 7 Total'!M6,'Week 8 Total'!M6,'Week 9 Total'!M6,'Week 10 Total'!M6,'Week 11 Total'!M6,'Week 12 Total'!M6)</f>
-        <v>15</v>
-      </c>
-      <c r="N6" s="4">
-        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6,'Week 7 Total'!N6,'Week 8 Total'!N6,'Week 9 Total'!N6,'Week 10 Total'!N6,'Week 11 Total'!N6,'Week 12 Total'!N6)</f>
-        <v>60</v>
-      </c>
-      <c r="O6" s="4">
-        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6,'Week 7 Total'!O6,'Week 8 Total'!O6,'Week 9 Total'!O6,'Week 10 Total'!O6,'Week 11 Total'!O6,'Week 12 Total'!O6)</f>
-        <v>13</v>
-      </c>
-      <c r="P6" s="4">
-        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6,'Week 7 Total'!P6,'Week 8 Total'!P6,'Week 9 Total'!P6,'Week 10 Total'!P6,'Week 11 Total'!P6,'Week 12 Total'!P6)</f>
-        <v>47</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6,'Week 7 Total'!Q6,'Week 8 Total'!Q6,'Week 9 Total'!Q6,'Week 10 Total'!Q6,'Week 11 Total'!Q6,'Week 12 Total'!Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6,'Week 7 Total'!R6,'Week 8 Total'!R6,'Week 9 Total'!R6,'Week 10 Total'!R6,'Week 11 Total'!R6,'Week 12 Total'!R6)</f>
-        <v>168</v>
-      </c>
-      <c r="S6" s="4">
-        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6,'Week 7 Total'!S6,'Week 8 Total'!S6,'Week 9 Total'!S6,'Week 10 Total'!S6,'Week 11 Total'!S6,'Week 12 Total'!S6)</f>
-        <v>73</v>
-      </c>
       <c r="T6" s="4">
-        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6,'Week 7 Total'!T6,'Week 8 Total'!T6,'Week 9 Total'!T6,'Week 10 Total'!T6,'Week 11 Total'!T6,'Week 12 Total'!T6)</f>
-        <v>95</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!U:U)</f>
+        <v>6</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>0.43452380952380953</v>
+        <v>0.625</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4">
-        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6,'Week 7 Total'!W6,'Week 8 Total'!W6,'Week 9 Total'!W6,'Week 10 Total'!W6,'Week 11 Total'!W6,'Week 12 Total'!W6)</f>
-        <v>45</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!X:X)</f>
+        <v>4</v>
       </c>
       <c r="X6" s="4">
-        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6,'Week 7 Total'!X6,'Week 8 Total'!X6,'Week 9 Total'!X6,'Week 10 Total'!X6,'Week 11 Total'!X6,'Week 12 Total'!X6)</f>
-        <v>24</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!Y:Y)</f>
+        <v>3</v>
       </c>
       <c r="Y6" s="4">
-        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6,'Week 7 Total'!Y6,'Week 8 Total'!Y6,'Week 9 Total'!Y6,'Week 10 Total'!Y6,'Week 11 Total'!Y6,'Week 12 Total'!Y6)</f>
-        <v>21</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="AA6" s="4">
-        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6,'Week 7 Total'!AA6,'Week 8 Total'!AA6,'Week 9 Total'!AA6,'Week 10 Total'!AA6,'Week 11 Total'!AA6,'Week 12 Total'!AA6)</f>
-        <v>123</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!AB:AB)</f>
+        <v>12</v>
       </c>
       <c r="AB6" s="4">
-        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6,'Week 7 Total'!AB6,'Week 8 Total'!AB6,'Week 9 Total'!AB6,'Week 10 Total'!AB6,'Week 11 Total'!AB6,'Week 12 Total'!AB6)</f>
-        <v>49</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!AC:AC)</f>
+        <v>7</v>
       </c>
       <c r="AC6" s="4">
-        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6,'Week 7 Total'!AC6,'Week 8 Total'!AC6,'Week 9 Total'!AC6,'Week 10 Total'!AC6,'Week 11 Total'!AC6,'Week 12 Total'!AC6)</f>
-        <v>74</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!AD:AD)</f>
+        <v>5</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="2"/>
-        <v>0.3983739837398374</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="AE6" s="4">
-        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6,'Week 7 Total'!AE6,'Week 8 Total'!AE6,'Week 9 Total'!AE6,'Week 10 Total'!AE6,'Week 11 Total'!AE6,'Week 12 Total'!AE6)</f>
-        <v>18</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF6" s="4">
-        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6,'Week 7 Total'!AF6,'Week 8 Total'!AF6,'Week 9 Total'!AF6,'Week 10 Total'!AF6,'Week 11 Total'!AF6,'Week 12 Total'!AF6)</f>
-        <v>14</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!AG:AG)</f>
+        <v>2</v>
       </c>
       <c r="AG6" s="4">
-        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6,'Week 7 Total'!AG6,'Week 8 Total'!AG6,'Week 9 Total'!AG6,'Week 10 Total'!AG6,'Week 11 Total'!AG6,'Week 12 Total'!AG6)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="3"/>
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="4">
-        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6,'Week 7 Total'!AI6,'Week 8 Total'!AI6,'Week 9 Total'!AI6,'Week 10 Total'!AI6,'Week 11 Total'!AI6,'Week 12 Total'!AI6)</f>
-        <v>13</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ6" s="4">
-        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6,'Week 7 Total'!AJ6,'Week 8 Total'!AJ6,'Week 9 Total'!AJ6,'Week 10 Total'!AJ6,'Week 11 Total'!AJ6,'Week 12 Total'!AJ6)</f>
-        <v>37</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B6,'Week 13 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -36789,137 +39290,128 @@
         <v>34</v>
       </c>
       <c r="C7" s="4">
-        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7,'Week 7 Total'!C7,'Week 8 Total'!C7,'Week 9 Total'!C7,'Week 10 Total'!C7,'Week 11 Total'!C7,'Week 12 Total'!C7)</f>
-        <v>164</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7,'Week 7 Total'!D7,'Week 8 Total'!D7,'Week 9 Total'!D7,'Week 10 Total'!D7,'Week 11 Total'!D7,'Week 12 Total'!D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7,'Week 7 Total'!E7,'Week 8 Total'!E7,'Week 9 Total'!E7,'Week 10 Total'!E7,'Week 11 Total'!E7,'Week 12 Total'!E7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!C:C)</f>
+        <v>23</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7,'Week 7 Total'!F7,'Week 8 Total'!F7,'Week 9 Total'!F7,'Week 10 Total'!F7,'Week 11 Total'!F7,'Week 12 Total'!F7)</f>
-        <v>31</v>
-      </c>
-      <c r="G7" s="4">
-        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7,'Week 7 Total'!G7,'Week 8 Total'!G7,'Week 9 Total'!G7,'Week 10 Total'!G7,'Week 11 Total'!G7,'Week 12 Total'!G7)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!G:G)</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7,'Week 7 Total'!H7,'Week 8 Total'!H7,'Week 9 Total'!H7,'Week 10 Total'!H7,'Week 11 Total'!H7,'Week 12 Total'!H7)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!I:I)</f>
+        <v>3</v>
       </c>
       <c r="I7" s="4">
-        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7,'Week 7 Total'!I7,'Week 8 Total'!I7,'Week 9 Total'!I7,'Week 10 Total'!I7,'Week 11 Total'!I7,'Week 12 Total'!I7)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>SUM('Week 1 Total'!J7,'Week 2 Total'!J7,'Week 3 Total'!J7,'Week 4 Total'!J7,'Week 5 Total'!J7,'Week 6 Total'!J7,'Week 7 Total'!J7,'Week 8 Total'!J7,'Week 9 Total'!J7,'Week 10 Total'!J7,'Week 11 Total'!J7,'Week 12 Total'!J7)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7,'Week 7 Total'!K7,'Week 8 Total'!K7,'Week 9 Total'!K7,'Week 10 Total'!K7,'Week 11 Total'!K7,'Week 12 Total'!K7)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!L:L)</f>
+        <v>1</v>
       </c>
       <c r="L7" s="4">
-        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7,'Week 7 Total'!L7,'Week 8 Total'!L7,'Week 9 Total'!L7,'Week 10 Total'!L7,'Week 11 Total'!L7,'Week 12 Total'!L7)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7,'Week 7 Total'!M7,'Week 8 Total'!M7,'Week 9 Total'!M7,'Week 10 Total'!M7,'Week 11 Total'!M7,'Week 12 Total'!M7)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!N:N)</f>
         <v>1</v>
       </c>
       <c r="N7" s="4">
-        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7,'Week 7 Total'!N7,'Week 8 Total'!N7,'Week 9 Total'!N7,'Week 10 Total'!N7,'Week 11 Total'!N7,'Week 12 Total'!N7)</f>
-        <v>17</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!O:O)</f>
+        <v>3</v>
       </c>
       <c r="O7" s="4">
-        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7,'Week 7 Total'!O7,'Week 8 Total'!O7,'Week 9 Total'!O7,'Week 10 Total'!O7,'Week 11 Total'!O7,'Week 12 Total'!O7)</f>
-        <v>3</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
-        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7,'Week 7 Total'!P7,'Week 8 Total'!P7,'Week 9 Total'!P7,'Week 10 Total'!P7,'Week 11 Total'!P7,'Week 12 Total'!P7)</f>
-        <v>14</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!Q:Q)</f>
+        <v>3</v>
       </c>
       <c r="Q7" s="4">
-        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7,'Week 7 Total'!Q7,'Week 8 Total'!Q7,'Week 9 Total'!Q7,'Week 10 Total'!Q7,'Week 11 Total'!Q7,'Week 12 Total'!Q7)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R7" s="4">
-        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7,'Week 7 Total'!R7,'Week 8 Total'!R7,'Week 9 Total'!R7,'Week 10 Total'!R7,'Week 11 Total'!R7,'Week 12 Total'!R7)</f>
-        <v>29</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!S:S)</f>
+        <v>3</v>
       </c>
       <c r="S7" s="4">
-        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7,'Week 7 Total'!S7,'Week 8 Total'!S7,'Week 9 Total'!S7,'Week 10 Total'!S7,'Week 11 Total'!S7,'Week 12 Total'!S7)</f>
-        <v>11</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!T:T)</f>
+        <v>1</v>
       </c>
       <c r="T7" s="4">
-        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7,'Week 7 Total'!T7,'Week 8 Total'!T7,'Week 9 Total'!T7,'Week 10 Total'!T7,'Week 11 Total'!T7,'Week 12 Total'!T7)</f>
-        <v>18</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!U:U)</f>
+        <v>2</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>0.37931034482758619</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4">
-        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7,'Week 7 Total'!W7,'Week 8 Total'!W7,'Week 9 Total'!W7,'Week 10 Total'!W7,'Week 11 Total'!W7,'Week 12 Total'!W7)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!X:X)</f>
+        <v>1</v>
       </c>
       <c r="X7" s="4">
-        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7,'Week 7 Total'!X7,'Week 8 Total'!X7,'Week 9 Total'!X7,'Week 10 Total'!X7,'Week 11 Total'!X7,'Week 12 Total'!X7)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y7" s="4">
-        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7,'Week 7 Total'!Y7,'Week 8 Total'!Y7,'Week 9 Total'!Y7,'Week 10 Total'!Y7,'Week 11 Total'!Y7,'Week 12 Total'!Y7)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="4">
-        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7,'Week 7 Total'!AA7,'Week 8 Total'!AA7,'Week 9 Total'!AA7,'Week 10 Total'!AA7,'Week 11 Total'!AA7,'Week 12 Total'!AA7)</f>
-        <v>20</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!AB:AB)</f>
+        <v>2</v>
       </c>
       <c r="AB7" s="4">
-        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7,'Week 7 Total'!AB7,'Week 8 Total'!AB7,'Week 9 Total'!AB7,'Week 10 Total'!AB7,'Week 11 Total'!AB7,'Week 12 Total'!AB7)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7,'Week 7 Total'!AC7,'Week 8 Total'!AC7,'Week 9 Total'!AC7,'Week 10 Total'!AC7,'Week 11 Total'!AC7,'Week 12 Total'!AC7)</f>
-        <v>13</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!AD:AD)</f>
+        <v>2</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="4">
-        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7,'Week 7 Total'!AE7,'Week 8 Total'!AE7,'Week 9 Total'!AE7,'Week 10 Total'!AE7,'Week 11 Total'!AE7,'Week 12 Total'!AE7)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
-        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7,'Week 7 Total'!AF7,'Week 8 Total'!AF7,'Week 9 Total'!AF7,'Week 10 Total'!AF7,'Week 11 Total'!AF7,'Week 12 Total'!AF7)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7,'Week 7 Total'!AG7,'Week 8 Total'!AG7,'Week 9 Total'!AG7,'Week 10 Total'!AG7,'Week 11 Total'!AG7,'Week 12 Total'!AG7)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7,'Week 7 Total'!AI7,'Week 8 Total'!AI7,'Week 9 Total'!AI7,'Week 10 Total'!AI7,'Week 11 Total'!AI7,'Week 12 Total'!AI7)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ7" s="4">
-        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7,'Week 7 Total'!AJ7,'Week 8 Total'!AJ7,'Week 9 Total'!AJ7,'Week 10 Total'!AJ7,'Week 11 Total'!AJ7,'Week 12 Total'!AJ7)</f>
-        <v>14</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B7,'Week 13 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
@@ -36927,108 +39419,99 @@
         <v>35</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8,'Week 7 Total'!C8,'Week 8 Total'!C8,'Week 9 Total'!C8,'Week 10 Total'!C8,'Week 11 Total'!C8,'Week 12 Total'!C8)</f>
-        <v>539</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8,'Week 7 Total'!D8,'Week 8 Total'!D8,'Week 9 Total'!D8,'Week 10 Total'!D8,'Week 11 Total'!D8,'Week 12 Total'!D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8,'Week 7 Total'!E8,'Week 8 Total'!E8,'Week 9 Total'!E8,'Week 10 Total'!E8,'Week 11 Total'!E8,'Week 12 Total'!E8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!C:C)</f>
+        <v>55</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8,'Week 7 Total'!F8,'Week 8 Total'!F8,'Week 9 Total'!F8,'Week 10 Total'!F8,'Week 11 Total'!F8,'Week 12 Total'!F8)</f>
-        <v>214</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8,'Week 7 Total'!G8,'Week 8 Total'!G8,'Week 9 Total'!G8,'Week 10 Total'!G8,'Week 11 Total'!G8,'Week 12 Total'!G8)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!G:G)</f>
+        <v>31</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8,'Week 7 Total'!H8,'Week 8 Total'!H8,'Week 9 Total'!H8,'Week 10 Total'!H8,'Week 11 Total'!H8,'Week 12 Total'!H8)</f>
-        <v>22</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
-        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8,'Week 7 Total'!I8,'Week 8 Total'!I8,'Week 9 Total'!I8,'Week 10 Total'!I8,'Week 11 Total'!I8,'Week 12 Total'!I8)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!J:J)</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!K:K)</f>
+        <v>0.33</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!L:L)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!O:O)</f>
+        <v>21</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!P:P)</f>
+        <v>8</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!Q:Q)</f>
+        <v>13</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!S:S)</f>
         <v>23</v>
       </c>
-      <c r="J8" s="4">
-        <f>SUM('Week 1 Total'!J8,'Week 2 Total'!J8,'Week 3 Total'!J8,'Week 4 Total'!J8,'Week 5 Total'!J8,'Week 6 Total'!J8,'Week 7 Total'!J8,'Week 8 Total'!J8,'Week 9 Total'!J8,'Week 10 Total'!J8,'Week 11 Total'!J8,'Week 12 Total'!J8)</f>
-        <v>10.99</v>
-      </c>
-      <c r="K8" s="4">
-        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8,'Week 7 Total'!K8,'Week 8 Total'!K8,'Week 9 Total'!K8,'Week 10 Total'!K8,'Week 11 Total'!K8,'Week 12 Total'!K8)</f>
-        <v>26</v>
-      </c>
-      <c r="L8" s="4">
-        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8,'Week 7 Total'!L8,'Week 8 Total'!L8,'Week 9 Total'!L8,'Week 10 Total'!L8,'Week 11 Total'!L8,'Week 12 Total'!L8)</f>
-        <v>9</v>
-      </c>
-      <c r="M8" s="4">
-        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8,'Week 7 Total'!M8,'Week 8 Total'!M8,'Week 9 Total'!M8,'Week 10 Total'!M8,'Week 11 Total'!M8,'Week 12 Total'!M8)</f>
-        <v>5</v>
-      </c>
-      <c r="N8" s="4">
-        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8,'Week 7 Total'!N8,'Week 8 Total'!N8,'Week 9 Total'!N8,'Week 10 Total'!N8,'Week 11 Total'!N8,'Week 12 Total'!N8)</f>
-        <v>226</v>
-      </c>
-      <c r="O8" s="4">
-        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8,'Week 7 Total'!O8,'Week 8 Total'!O8,'Week 9 Total'!O8,'Week 10 Total'!O8,'Week 11 Total'!O8,'Week 12 Total'!O8)</f>
-        <v>89</v>
-      </c>
-      <c r="P8" s="4">
-        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8,'Week 7 Total'!P8,'Week 8 Total'!P8,'Week 9 Total'!P8,'Week 10 Total'!P8,'Week 11 Total'!P8,'Week 12 Total'!P8)</f>
-        <v>137</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8,'Week 7 Total'!Q8,'Week 8 Total'!Q8,'Week 9 Total'!Q8,'Week 10 Total'!Q8,'Week 11 Total'!Q8,'Week 12 Total'!Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8,'Week 7 Total'!R8,'Week 8 Total'!R8,'Week 9 Total'!R8,'Week 10 Total'!R8,'Week 11 Total'!R8,'Week 12 Total'!R8)</f>
-        <v>180</v>
-      </c>
       <c r="S8" s="4">
-        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8,'Week 7 Total'!S8,'Week 8 Total'!S8,'Week 9 Total'!S8,'Week 10 Total'!S8,'Week 11 Total'!S8,'Week 12 Total'!S8)</f>
-        <v>96</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!T:T)</f>
+        <v>15</v>
       </c>
       <c r="T8" s="4">
-        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8,'Week 7 Total'!T8,'Week 8 Total'!T8,'Week 9 Total'!T8,'Week 10 Total'!T8,'Week 11 Total'!T8,'Week 12 Total'!T8)</f>
-        <v>84</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!U:U)</f>
+        <v>8</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4">
-        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8,'Week 7 Total'!W8,'Week 8 Total'!W8,'Week 9 Total'!W8,'Week 10 Total'!W8,'Week 11 Total'!W8,'Week 12 Total'!W8)</f>
-        <v>180</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!X:X)</f>
+        <v>23</v>
       </c>
       <c r="X8" s="4">
-        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8,'Week 7 Total'!X8,'Week 8 Total'!X8,'Week 9 Total'!X8,'Week 10 Total'!X8,'Week 11 Total'!X8,'Week 12 Total'!X8)</f>
-        <v>96</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!Y:Y)</f>
+        <v>15</v>
       </c>
       <c r="Y8" s="4">
-        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8,'Week 7 Total'!Y8,'Week 8 Total'!Y8,'Week 9 Total'!Y8,'Week 10 Total'!Y8,'Week 11 Total'!Y8,'Week 12 Total'!Y8)</f>
-        <v>84</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!Z:Z)</f>
+        <v>8</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="AA8" s="4">
-        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8,'Week 7 Total'!AA8,'Week 8 Total'!AA8,'Week 9 Total'!AA8,'Week 10 Total'!AA8,'Week 11 Total'!AA8,'Week 12 Total'!AA8)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8,'Week 7 Total'!AB8,'Week 8 Total'!AB8,'Week 9 Total'!AB8,'Week 10 Total'!AB8,'Week 11 Total'!AB8,'Week 12 Total'!AB8)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="4">
-        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8,'Week 7 Total'!AC8,'Week 8 Total'!AC8,'Week 9 Total'!AC8,'Week 10 Total'!AC8,'Week 11 Total'!AC8,'Week 12 Total'!AC8)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="2">
@@ -37036,28 +39519,28 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4">
-        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8,'Week 7 Total'!AE8,'Week 8 Total'!AE8,'Week 9 Total'!AE8,'Week 10 Total'!AE8,'Week 11 Total'!AE8,'Week 12 Total'!AE8)</f>
-        <v>41</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!AF:AF)</f>
+        <v>4</v>
       </c>
       <c r="AF8" s="4">
-        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8,'Week 7 Total'!AF8,'Week 8 Total'!AF8,'Week 9 Total'!AF8,'Week 10 Total'!AF8,'Week 11 Total'!AF8,'Week 12 Total'!AF8)</f>
-        <v>22</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!AG:AG)</f>
+        <v>1</v>
       </c>
       <c r="AG8" s="4">
-        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8,'Week 7 Total'!AG8,'Week 8 Total'!AG8,'Week 9 Total'!AG8,'Week 10 Total'!AG8,'Week 11 Total'!AG8,'Week 12 Total'!AG8)</f>
-        <v>19</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!AH:AH)</f>
+        <v>3</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="3"/>
-        <v>0.53658536585365857</v>
+        <v>0.25</v>
       </c>
       <c r="AI8" s="4">
-        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8,'Week 7 Total'!AI8,'Week 8 Total'!AI8,'Week 9 Total'!AI8,'Week 10 Total'!AI8,'Week 11 Total'!AI8,'Week 12 Total'!AI8)</f>
-        <v>29</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ8" s="4">
-        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8,'Week 7 Total'!AJ8,'Week 8 Total'!AJ8,'Week 9 Total'!AJ8,'Week 10 Total'!AJ8,'Week 11 Total'!AJ8,'Week 12 Total'!AJ8)</f>
-        <v>41</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B8,'Week 13 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -37065,137 +39548,128 @@
         <v>65</v>
       </c>
       <c r="C9" s="4">
-        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9,'Week 7 Total'!C9,'Week 8 Total'!C9,'Week 9 Total'!C9,'Week 10 Total'!C9,'Week 11 Total'!C9,'Week 12 Total'!C9)</f>
-        <v>594</v>
-      </c>
-      <c r="D9" s="4">
-        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9,'Week 7 Total'!D9,'Week 8 Total'!D9,'Week 9 Total'!D9,'Week 10 Total'!D9,'Week 11 Total'!D9,'Week 12 Total'!D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9,'Week 7 Total'!E9,'Week 8 Total'!E9,'Week 9 Total'!E9,'Week 10 Total'!E9,'Week 11 Total'!E9,'Week 12 Total'!E9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!C:C)</f>
+        <v>64</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9,'Week 7 Total'!F9,'Week 8 Total'!F9,'Week 9 Total'!F9,'Week 10 Total'!F9,'Week 11 Total'!F9,'Week 12 Total'!F9)</f>
-        <v>332</v>
-      </c>
-      <c r="G9" s="4">
-        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9,'Week 7 Total'!G9,'Week 8 Total'!G9,'Week 9 Total'!G9,'Week 10 Total'!G9,'Week 11 Total'!G9,'Week 12 Total'!G9)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!G:G)</f>
+        <v>40</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
-        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9,'Week 7 Total'!H9,'Week 8 Total'!H9,'Week 9 Total'!H9,'Week 10 Total'!H9,'Week 11 Total'!H9,'Week 12 Total'!H9)</f>
-        <v>47</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!I:I)</f>
+        <v>4</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9,'Week 7 Total'!I9,'Week 8 Total'!I9,'Week 9 Total'!I9,'Week 10 Total'!I9,'Week 11 Total'!I9,'Week 12 Total'!I9)</f>
-        <v>42</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!J:J)</f>
+        <v>3</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM('Week 1 Total'!J9,'Week 2 Total'!J9,'Week 3 Total'!J9,'Week 4 Total'!J9,'Week 5 Total'!J9,'Week 6 Total'!J9,'Week 7 Total'!J9,'Week 8 Total'!J9,'Week 9 Total'!J9,'Week 10 Total'!J9,'Week 11 Total'!J9,'Week 12 Total'!J9)</f>
-        <v>20.483333333333334</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!K:K)</f>
+        <v>0.67</v>
       </c>
       <c r="K9" s="4">
-        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9,'Week 7 Total'!K9,'Week 8 Total'!K9,'Week 9 Total'!K9,'Week 10 Total'!K9,'Week 11 Total'!K9,'Week 12 Total'!K9)</f>
-        <v>28</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!L:L)</f>
+        <v>5</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9,'Week 7 Total'!L9,'Week 8 Total'!L9,'Week 9 Total'!L9,'Week 10 Total'!L9,'Week 11 Total'!L9,'Week 12 Total'!L9)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!M:M)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!N:N)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!O:O)</f>
+        <v>8</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!P:P)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!Q:Q)</f>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!R:R)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!S:S)</f>
+        <v>31</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!T:T)</f>
+        <v>17</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!U:U)</f>
         <v>14</v>
-      </c>
-      <c r="M9" s="4">
-        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9,'Week 7 Total'!M9,'Week 8 Total'!M9,'Week 9 Total'!M9,'Week 10 Total'!M9,'Week 11 Total'!M9,'Week 12 Total'!M9)</f>
-        <v>3</v>
-      </c>
-      <c r="N9" s="4">
-        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9,'Week 7 Total'!N9,'Week 8 Total'!N9,'Week 9 Total'!N9,'Week 10 Total'!N9,'Week 11 Total'!N9,'Week 12 Total'!N9)</f>
-        <v>59</v>
-      </c>
-      <c r="O9" s="4">
-        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9,'Week 7 Total'!O9,'Week 8 Total'!O9,'Week 9 Total'!O9,'Week 10 Total'!O9,'Week 11 Total'!O9,'Week 12 Total'!O9)</f>
-        <v>19</v>
-      </c>
-      <c r="P9" s="4">
-        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9,'Week 7 Total'!P9,'Week 8 Total'!P9,'Week 9 Total'!P9,'Week 10 Total'!P9,'Week 11 Total'!P9,'Week 12 Total'!P9)</f>
-        <v>40</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>SUM('Week 1 Total'!Q9,'Week 2 Total'!Q9,'Week 3 Total'!Q9,'Week 4 Total'!Q9,'Week 5 Total'!Q9,'Week 6 Total'!Q9,'Week 7 Total'!Q9,'Week 8 Total'!Q9,'Week 9 Total'!Q9,'Week 10 Total'!Q9,'Week 11 Total'!Q9,'Week 12 Total'!Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <f>SUM('Week 1 Total'!R9,'Week 2 Total'!R9,'Week 3 Total'!R9,'Week 4 Total'!R9,'Week 5 Total'!R9,'Week 6 Total'!R9,'Week 7 Total'!R9,'Week 8 Total'!R9,'Week 9 Total'!R9,'Week 10 Total'!R9,'Week 11 Total'!R9,'Week 12 Total'!R9)</f>
-        <v>260</v>
-      </c>
-      <c r="S9" s="4">
-        <f>SUM('Week 1 Total'!S9,'Week 2 Total'!S9,'Week 3 Total'!S9,'Week 4 Total'!S9,'Week 5 Total'!S9,'Week 6 Total'!S9,'Week 7 Total'!S9,'Week 8 Total'!S9,'Week 9 Total'!S9,'Week 10 Total'!S9,'Week 11 Total'!S9,'Week 12 Total'!S9)</f>
-        <v>118</v>
-      </c>
-      <c r="T9" s="4">
-        <f>SUM('Week 1 Total'!T9,'Week 2 Total'!T9,'Week 3 Total'!T9,'Week 4 Total'!T9,'Week 5 Total'!T9,'Week 6 Total'!T9,'Week 7 Total'!T9,'Week 8 Total'!T9,'Week 9 Total'!T9,'Week 10 Total'!T9,'Week 11 Total'!T9,'Week 12 Total'!T9)</f>
-        <v>142</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="0"/>
-        <v>0.45384615384615384</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4">
-        <f>SUM('Week 1 Total'!W9,'Week 2 Total'!W9,'Week 3 Total'!W9,'Week 4 Total'!W9,'Week 5 Total'!W9,'Week 6 Total'!W9,'Week 7 Total'!W9,'Week 8 Total'!W9,'Week 9 Total'!W9,'Week 10 Total'!W9,'Week 11 Total'!W9,'Week 12 Total'!W9)</f>
-        <v>157</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!X:X)</f>
+        <v>24</v>
       </c>
       <c r="X9" s="4">
-        <f>SUM('Week 1 Total'!X9,'Week 2 Total'!X9,'Week 3 Total'!X9,'Week 4 Total'!X9,'Week 5 Total'!X9,'Week 6 Total'!X9,'Week 7 Total'!X9,'Week 8 Total'!X9,'Week 9 Total'!X9,'Week 10 Total'!X9,'Week 11 Total'!X9,'Week 12 Total'!X9)</f>
-        <v>82</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!Y:Y)</f>
+        <v>15</v>
       </c>
       <c r="Y9" s="4">
-        <f>SUM('Week 1 Total'!Y9,'Week 2 Total'!Y9,'Week 3 Total'!Y9,'Week 4 Total'!Y9,'Week 5 Total'!Y9,'Week 6 Total'!Y9,'Week 7 Total'!Y9,'Week 8 Total'!Y9,'Week 9 Total'!Y9,'Week 10 Total'!Y9,'Week 11 Total'!Y9,'Week 12 Total'!Y9)</f>
-        <v>75</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!Z:Z)</f>
+        <v>9</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="1"/>
-        <v>0.52229299363057324</v>
+        <v>0.625</v>
       </c>
       <c r="AA9" s="4">
-        <f>SUM('Week 1 Total'!AA9,'Week 2 Total'!AA9,'Week 3 Total'!AA9,'Week 4 Total'!AA9,'Week 5 Total'!AA9,'Week 6 Total'!AA9,'Week 7 Total'!AA9,'Week 8 Total'!AA9,'Week 9 Total'!AA9,'Week 10 Total'!AA9,'Week 11 Total'!AA9,'Week 12 Total'!AA9)</f>
-        <v>103</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!AB:AB)</f>
+        <v>7</v>
       </c>
       <c r="AB9" s="4">
-        <f>SUM('Week 1 Total'!AB9,'Week 2 Total'!AB9,'Week 3 Total'!AB9,'Week 4 Total'!AB9,'Week 5 Total'!AB9,'Week 6 Total'!AB9,'Week 7 Total'!AB9,'Week 8 Total'!AB9,'Week 9 Total'!AB9,'Week 10 Total'!AB9,'Week 11 Total'!AB9,'Week 12 Total'!AB9)</f>
-        <v>36</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!AC:AC)</f>
+        <v>2</v>
       </c>
       <c r="AC9" s="4">
-        <f>SUM('Week 1 Total'!AC9,'Week 2 Total'!AC9,'Week 3 Total'!AC9,'Week 4 Total'!AC9,'Week 5 Total'!AC9,'Week 6 Total'!AC9,'Week 7 Total'!AC9,'Week 8 Total'!AC9,'Week 9 Total'!AC9,'Week 10 Total'!AC9,'Week 11 Total'!AC9,'Week 12 Total'!AC9)</f>
-        <v>67</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!AD:AD)</f>
+        <v>5</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="2"/>
-        <v>0.34951456310679613</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AE9" s="4">
-        <f>SUM('Week 1 Total'!AE9,'Week 2 Total'!AE9,'Week 3 Total'!AE9,'Week 4 Total'!AE9,'Week 5 Total'!AE9,'Week 6 Total'!AE9,'Week 7 Total'!AE9,'Week 8 Total'!AE9,'Week 9 Total'!AE9,'Week 10 Total'!AE9,'Week 11 Total'!AE9,'Week 12 Total'!AE9)</f>
-        <v>74</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!AF:AF)</f>
+        <v>4</v>
       </c>
       <c r="AF9" s="4">
-        <f>SUM('Week 1 Total'!AF9,'Week 2 Total'!AF9,'Week 3 Total'!AF9,'Week 4 Total'!AF9,'Week 5 Total'!AF9,'Week 6 Total'!AF9,'Week 7 Total'!AF9,'Week 8 Total'!AF9,'Week 9 Total'!AF9,'Week 10 Total'!AF9,'Week 11 Total'!AF9,'Week 12 Total'!AF9)</f>
-        <v>60</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!AG:AG)</f>
+        <v>4</v>
       </c>
       <c r="AG9" s="4">
-        <f>SUM('Week 1 Total'!AG9,'Week 2 Total'!AG9,'Week 3 Total'!AG9,'Week 4 Total'!AG9,'Week 5 Total'!AG9,'Week 6 Total'!AG9,'Week 7 Total'!AG9,'Week 8 Total'!AG9,'Week 9 Total'!AG9,'Week 10 Total'!AG9,'Week 11 Total'!AG9,'Week 12 Total'!AG9)</f>
-        <v>14</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH9" s="2">
         <f t="shared" si="3"/>
-        <v>0.81081081081081086</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUM('Week 1 Total'!AI9,'Week 2 Total'!AI9,'Week 3 Total'!AI9,'Week 4 Total'!AI9,'Week 5 Total'!AI9,'Week 6 Total'!AI9,'Week 7 Total'!AI9,'Week 8 Total'!AI9,'Week 9 Total'!AI9,'Week 10 Total'!AI9,'Week 11 Total'!AI9,'Week 12 Total'!AI9)</f>
-        <v>46</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ9" s="4">
-        <f>SUM('Week 1 Total'!AJ9,'Week 2 Total'!AJ9,'Week 3 Total'!AJ9,'Week 4 Total'!AJ9,'Week 5 Total'!AJ9,'Week 6 Total'!AJ9,'Week 7 Total'!AJ9,'Week 8 Total'!AJ9,'Week 9 Total'!AJ9,'Week 10 Total'!AJ9,'Week 11 Total'!AJ9,'Week 12 Total'!AJ9)</f>
-        <v>48</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B9,'Week 13 Games'!AL:AL)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
@@ -37203,137 +39677,128 @@
         <v>37</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM('Week 1 Total'!C10,'Week 2 Total'!C10,'Week 3 Total'!C10,'Week 4 Total'!C10,'Week 5 Total'!C10,'Week 6 Total'!C10,'Week 7 Total'!C10,'Week 8 Total'!C10,'Week 9 Total'!C10,'Week 10 Total'!C10,'Week 11 Total'!C10,'Week 12 Total'!C10)</f>
-        <v>44</v>
-      </c>
-      <c r="D10" s="4">
-        <f>SUM('Week 1 Total'!D10,'Week 2 Total'!D10,'Week 3 Total'!D10,'Week 4 Total'!D10,'Week 5 Total'!D10,'Week 6 Total'!D10,'Week 7 Total'!D10,'Week 8 Total'!D10,'Week 9 Total'!D10,'Week 10 Total'!D10,'Week 11 Total'!D10,'Week 12 Total'!D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f>SUM('Week 1 Total'!E10,'Week 2 Total'!E10,'Week 3 Total'!E10,'Week 4 Total'!E10,'Week 5 Total'!E10,'Week 6 Total'!E10,'Week 7 Total'!E10,'Week 8 Total'!E10,'Week 9 Total'!E10,'Week 10 Total'!E10,'Week 11 Total'!E10,'Week 12 Total'!E10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!C:C)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <f>SUM('Week 1 Total'!F10,'Week 2 Total'!F10,'Week 3 Total'!F10,'Week 4 Total'!F10,'Week 5 Total'!F10,'Week 6 Total'!F10,'Week 7 Total'!F10,'Week 8 Total'!F10,'Week 9 Total'!F10,'Week 10 Total'!F10,'Week 11 Total'!F10,'Week 12 Total'!F10)</f>
-        <v>10</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM('Week 1 Total'!G10,'Week 2 Total'!G10,'Week 3 Total'!G10,'Week 4 Total'!G10,'Week 5 Total'!G10,'Week 6 Total'!G10,'Week 7 Total'!G10,'Week 8 Total'!G10,'Week 9 Total'!G10,'Week 10 Total'!G10,'Week 11 Total'!G10,'Week 12 Total'!G10)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!G:G)</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f>SUM('Week 1 Total'!H10,'Week 2 Total'!H10,'Week 3 Total'!H10,'Week 4 Total'!H10,'Week 5 Total'!H10,'Week 6 Total'!H10,'Week 7 Total'!H10,'Week 8 Total'!H10,'Week 9 Total'!H10,'Week 10 Total'!H10,'Week 11 Total'!H10,'Week 12 Total'!H10)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!I:I)</f>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM('Week 1 Total'!I10,'Week 2 Total'!I10,'Week 3 Total'!I10,'Week 4 Total'!I10,'Week 5 Total'!I10,'Week 6 Total'!I10,'Week 7 Total'!I10,'Week 8 Total'!I10,'Week 9 Total'!I10,'Week 10 Total'!I10,'Week 11 Total'!I10,'Week 12 Total'!I10)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f>SUM('Week 1 Total'!J10,'Week 2 Total'!J10,'Week 3 Total'!J10,'Week 4 Total'!J10,'Week 5 Total'!J10,'Week 6 Total'!J10,'Week 7 Total'!J10,'Week 8 Total'!J10,'Week 9 Total'!J10,'Week 10 Total'!J10,'Week 11 Total'!J10,'Week 12 Total'!J10)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f>SUM('Week 1 Total'!K10,'Week 2 Total'!K10,'Week 3 Total'!K10,'Week 4 Total'!K10,'Week 5 Total'!K10,'Week 6 Total'!K10,'Week 7 Total'!K10,'Week 8 Total'!K10,'Week 9 Total'!K10,'Week 10 Total'!K10,'Week 11 Total'!K10,'Week 12 Total'!K10)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
-        <f>SUM('Week 1 Total'!L10,'Week 2 Total'!L10,'Week 3 Total'!L10,'Week 4 Total'!L10,'Week 5 Total'!L10,'Week 6 Total'!L10,'Week 7 Total'!L10,'Week 8 Total'!L10,'Week 9 Total'!L10,'Week 10 Total'!L10,'Week 11 Total'!L10,'Week 12 Total'!L10)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
-        <f>SUM('Week 1 Total'!M10,'Week 2 Total'!M10,'Week 3 Total'!M10,'Week 4 Total'!M10,'Week 5 Total'!M10,'Week 6 Total'!M10,'Week 7 Total'!M10,'Week 8 Total'!M10,'Week 9 Total'!M10,'Week 10 Total'!M10,'Week 11 Total'!M10,'Week 12 Total'!M10)</f>
-        <v>3</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!N:N)</f>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
-        <f>SUM('Week 1 Total'!N10,'Week 2 Total'!N10,'Week 3 Total'!N10,'Week 4 Total'!N10,'Week 5 Total'!N10,'Week 6 Total'!N10,'Week 7 Total'!N10,'Week 8 Total'!N10,'Week 9 Total'!N10,'Week 10 Total'!N10,'Week 11 Total'!N10,'Week 12 Total'!N10)</f>
-        <v>8</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!O:O)</f>
+        <v>1</v>
       </c>
       <c r="O10" s="4">
-        <f>SUM('Week 1 Total'!O10,'Week 2 Total'!O10,'Week 3 Total'!O10,'Week 4 Total'!O10,'Week 5 Total'!O10,'Week 6 Total'!O10,'Week 7 Total'!O10,'Week 8 Total'!O10,'Week 9 Total'!O10,'Week 10 Total'!O10,'Week 11 Total'!O10,'Week 12 Total'!O10)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!P:P)</f>
         <v>1</v>
       </c>
       <c r="P10" s="4">
-        <f>SUM('Week 1 Total'!P10,'Week 2 Total'!P10,'Week 3 Total'!P10,'Week 4 Total'!P10,'Week 5 Total'!P10,'Week 6 Total'!P10,'Week 7 Total'!P10,'Week 8 Total'!P10,'Week 9 Total'!P10,'Week 10 Total'!P10,'Week 11 Total'!P10,'Week 12 Total'!P10)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!Q:Q)</f>
+        <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <f>SUM('Week 1 Total'!Q10,'Week 2 Total'!Q10,'Week 3 Total'!Q10,'Week 4 Total'!Q10,'Week 5 Total'!Q10,'Week 6 Total'!Q10,'Week 7 Total'!Q10,'Week 8 Total'!Q10,'Week 9 Total'!Q10,'Week 10 Total'!Q10,'Week 11 Total'!Q10,'Week 12 Total'!Q10)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R10" s="4">
-        <f>SUM('Week 1 Total'!R10,'Week 2 Total'!R10,'Week 3 Total'!R10,'Week 4 Total'!R10,'Week 5 Total'!R10,'Week 6 Total'!R10,'Week 7 Total'!R10,'Week 8 Total'!R10,'Week 9 Total'!R10,'Week 10 Total'!R10,'Week 11 Total'!R10,'Week 12 Total'!R10)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!S:S)</f>
+        <v>2</v>
       </c>
       <c r="S10" s="4">
-        <f>SUM('Week 1 Total'!S10,'Week 2 Total'!S10,'Week 3 Total'!S10,'Week 4 Total'!S10,'Week 5 Total'!S10,'Week 6 Total'!S10,'Week 7 Total'!S10,'Week 8 Total'!S10,'Week 9 Total'!S10,'Week 10 Total'!S10,'Week 11 Total'!S10,'Week 12 Total'!S10)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!T:T)</f>
+        <v>1</v>
       </c>
       <c r="T10" s="4">
-        <f>SUM('Week 1 Total'!T10,'Week 2 Total'!T10,'Week 3 Total'!T10,'Week 4 Total'!T10,'Week 5 Total'!T10,'Week 6 Total'!T10,'Week 7 Total'!T10,'Week 8 Total'!T10,'Week 9 Total'!T10,'Week 10 Total'!T10,'Week 11 Total'!T10,'Week 12 Total'!T10)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!U:U)</f>
+        <v>1</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4">
-        <f>SUM('Week 1 Total'!W10,'Week 2 Total'!W10,'Week 3 Total'!W10,'Week 4 Total'!W10,'Week 5 Total'!W10,'Week 6 Total'!W10,'Week 7 Total'!W10,'Week 8 Total'!W10,'Week 9 Total'!W10,'Week 10 Total'!W10,'Week 11 Total'!W10,'Week 12 Total'!W10)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!X:X)</f>
+        <v>2</v>
       </c>
       <c r="X10" s="4">
-        <f>SUM('Week 1 Total'!X10,'Week 2 Total'!X10,'Week 3 Total'!X10,'Week 4 Total'!X10,'Week 5 Total'!X10,'Week 6 Total'!X10,'Week 7 Total'!X10,'Week 8 Total'!X10,'Week 9 Total'!X10,'Week 10 Total'!X10,'Week 11 Total'!X10,'Week 12 Total'!X10)</f>
-        <v>3</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!Y:Y)</f>
+        <v>1</v>
       </c>
       <c r="Y10" s="4">
-        <f>SUM('Week 1 Total'!Y10,'Week 2 Total'!Y10,'Week 3 Total'!Y10,'Week 4 Total'!Y10,'Week 5 Total'!Y10,'Week 6 Total'!Y10,'Week 7 Total'!Y10,'Week 8 Total'!Y10,'Week 9 Total'!Y10,'Week 10 Total'!Y10,'Week 11 Total'!Y10,'Week 12 Total'!Y10)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AA10" s="4">
-        <f>SUM('Week 1 Total'!AA10,'Week 2 Total'!AA10,'Week 3 Total'!AA10,'Week 4 Total'!AA10,'Week 5 Total'!AA10,'Week 6 Total'!AA10,'Week 7 Total'!AA10,'Week 8 Total'!AA10,'Week 9 Total'!AA10,'Week 10 Total'!AA10,'Week 11 Total'!AA10,'Week 12 Total'!AA10)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <f>SUM('Week 1 Total'!AB10,'Week 2 Total'!AB10,'Week 3 Total'!AB10,'Week 4 Total'!AB10,'Week 5 Total'!AB10,'Week 6 Total'!AB10,'Week 7 Total'!AB10,'Week 8 Total'!AB10,'Week 9 Total'!AB10,'Week 10 Total'!AB10,'Week 11 Total'!AB10,'Week 12 Total'!AB10)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC10" s="4">
-        <f>SUM('Week 1 Total'!AC10,'Week 2 Total'!AC10,'Week 3 Total'!AC10,'Week 4 Total'!AC10,'Week 5 Total'!AC10,'Week 6 Total'!AC10,'Week 7 Total'!AC10,'Week 8 Total'!AC10,'Week 9 Total'!AC10,'Week 10 Total'!AC10,'Week 11 Total'!AC10,'Week 12 Total'!AC10)</f>
-        <v>3</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="4">
-        <f>SUM('Week 1 Total'!AE10,'Week 2 Total'!AE10,'Week 3 Total'!AE10,'Week 4 Total'!AE10,'Week 5 Total'!AE10,'Week 6 Total'!AE10,'Week 7 Total'!AE10,'Week 8 Total'!AE10,'Week 9 Total'!AE10,'Week 10 Total'!AE10,'Week 11 Total'!AE10,'Week 12 Total'!AE10)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!AF:AF)</f>
+        <v>0</v>
       </c>
       <c r="AF10" s="4">
-        <f>SUM('Week 1 Total'!AF10,'Week 2 Total'!AF10,'Week 3 Total'!AF10,'Week 4 Total'!AF10,'Week 5 Total'!AF10,'Week 6 Total'!AF10,'Week 7 Total'!AF10,'Week 8 Total'!AF10,'Week 9 Total'!AF10,'Week 10 Total'!AF10,'Week 11 Total'!AF10,'Week 12 Total'!AF10)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!AG:AG)</f>
+        <v>0</v>
       </c>
       <c r="AG10" s="4">
-        <f>SUM('Week 1 Total'!AG10,'Week 2 Total'!AG10,'Week 3 Total'!AG10,'Week 4 Total'!AG10,'Week 5 Total'!AG10,'Week 6 Total'!AG10,'Week 7 Total'!AG10,'Week 8 Total'!AG10,'Week 9 Total'!AG10,'Week 10 Total'!AG10,'Week 11 Total'!AG10,'Week 12 Total'!AG10)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!AH:AH)</f>
+        <v>0</v>
       </c>
       <c r="AH10" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="4">
-        <f>SUM('Week 1 Total'!AI10,'Week 2 Total'!AI10,'Week 3 Total'!AI10,'Week 4 Total'!AI10,'Week 5 Total'!AI10,'Week 6 Total'!AI10,'Week 7 Total'!AI10,'Week 8 Total'!AI10,'Week 9 Total'!AI10,'Week 10 Total'!AI10,'Week 11 Total'!AI10,'Week 12 Total'!AI10)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!AK:AK)</f>
+        <v>0</v>
       </c>
       <c r="AJ10" s="4">
-        <f>SUM('Week 1 Total'!AJ10,'Week 2 Total'!AJ10,'Week 3 Total'!AJ10,'Week 4 Total'!AJ10,'Week 5 Total'!AJ10,'Week 6 Total'!AJ10,'Week 7 Total'!AJ10,'Week 8 Total'!AJ10,'Week 9 Total'!AJ10,'Week 10 Total'!AJ10,'Week 11 Total'!AJ10,'Week 12 Total'!AJ10)</f>
-        <v>3</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B10,'Week 13 Games'!AL:AL)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
@@ -37341,75 +39806,66 @@
         <v>58</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM('Week 1 Total'!C11,'Week 2 Total'!C11,'Week 3 Total'!C11,'Week 4 Total'!C11,'Week 5 Total'!C11,'Week 6 Total'!C11,'Week 7 Total'!C11,'Week 8 Total'!C11,'Week 9 Total'!C11,'Week 10 Total'!C11,'Week 11 Total'!C11,'Week 12 Total'!C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM('Week 1 Total'!D11,'Week 2 Total'!D11,'Week 3 Total'!D11,'Week 4 Total'!D11,'Week 5 Total'!D11,'Week 6 Total'!D11,'Week 7 Total'!D11,'Week 8 Total'!D11,'Week 9 Total'!D11,'Week 10 Total'!D11,'Week 11 Total'!D11,'Week 12 Total'!D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM('Week 1 Total'!E11,'Week 2 Total'!E11,'Week 3 Total'!E11,'Week 4 Total'!E11,'Week 5 Total'!E11,'Week 6 Total'!E11,'Week 7 Total'!E11,'Week 8 Total'!E11,'Week 9 Total'!E11,'Week 10 Total'!E11,'Week 11 Total'!E11,'Week 12 Total'!E11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f>SUM('Week 1 Total'!F11,'Week 2 Total'!F11,'Week 3 Total'!F11,'Week 4 Total'!F11,'Week 5 Total'!F11,'Week 6 Total'!F11,'Week 7 Total'!F11,'Week 8 Total'!F11,'Week 9 Total'!F11,'Week 10 Total'!F11,'Week 11 Total'!F11,'Week 12 Total'!F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <f>SUM('Week 1 Total'!G11,'Week 2 Total'!G11,'Week 3 Total'!G11,'Week 4 Total'!G11,'Week 5 Total'!G11,'Week 6 Total'!G11,'Week 7 Total'!G11,'Week 8 Total'!G11,'Week 9 Total'!G11,'Week 10 Total'!G11,'Week 11 Total'!G11,'Week 12 Total'!G11)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <f>SUM('Week 1 Total'!H11,'Week 2 Total'!H11,'Week 3 Total'!H11,'Week 4 Total'!H11,'Week 5 Total'!H11,'Week 6 Total'!H11,'Week 7 Total'!H11,'Week 8 Total'!H11,'Week 9 Total'!H11,'Week 10 Total'!H11,'Week 11 Total'!H11,'Week 12 Total'!H11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM('Week 1 Total'!I11,'Week 2 Total'!I11,'Week 3 Total'!I11,'Week 4 Total'!I11,'Week 5 Total'!I11,'Week 6 Total'!I11,'Week 7 Total'!I11,'Week 8 Total'!I11,'Week 9 Total'!I11,'Week 10 Total'!I11,'Week 11 Total'!I11,'Week 12 Total'!I11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f>SUM('Week 1 Total'!J11,'Week 2 Total'!J11,'Week 3 Total'!J11,'Week 4 Total'!J11,'Week 5 Total'!J11,'Week 6 Total'!J11,'Week 7 Total'!J11,'Week 8 Total'!J11,'Week 9 Total'!J11,'Week 10 Total'!J11,'Week 11 Total'!J11,'Week 12 Total'!J11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f>SUM('Week 1 Total'!K11,'Week 2 Total'!K11,'Week 3 Total'!K11,'Week 4 Total'!K11,'Week 5 Total'!K11,'Week 6 Total'!K11,'Week 7 Total'!K11,'Week 8 Total'!K11,'Week 9 Total'!K11,'Week 10 Total'!K11,'Week 11 Total'!K11,'Week 12 Total'!K11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <f>SUM('Week 1 Total'!L11,'Week 2 Total'!L11,'Week 3 Total'!L11,'Week 4 Total'!L11,'Week 5 Total'!L11,'Week 6 Total'!L11,'Week 7 Total'!L11,'Week 8 Total'!L11,'Week 9 Total'!L11,'Week 10 Total'!L11,'Week 11 Total'!L11,'Week 12 Total'!L11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f>SUM('Week 1 Total'!M11,'Week 2 Total'!M11,'Week 3 Total'!M11,'Week 4 Total'!M11,'Week 5 Total'!M11,'Week 6 Total'!M11,'Week 7 Total'!M11,'Week 8 Total'!M11,'Week 9 Total'!M11,'Week 10 Total'!M11,'Week 11 Total'!M11,'Week 12 Total'!M11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <f>SUM('Week 1 Total'!N11,'Week 2 Total'!N11,'Week 3 Total'!N11,'Week 4 Total'!N11,'Week 5 Total'!N11,'Week 6 Total'!N11,'Week 7 Total'!N11,'Week 8 Total'!N11,'Week 9 Total'!N11,'Week 10 Total'!N11,'Week 11 Total'!N11,'Week 12 Total'!N11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!O:O)</f>
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <f>SUM('Week 1 Total'!O11,'Week 2 Total'!O11,'Week 3 Total'!O11,'Week 4 Total'!O11,'Week 5 Total'!O11,'Week 6 Total'!O11,'Week 7 Total'!O11,'Week 8 Total'!O11,'Week 9 Total'!O11,'Week 10 Total'!O11,'Week 11 Total'!O11,'Week 12 Total'!O11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <f>SUM('Week 1 Total'!P11,'Week 2 Total'!P11,'Week 3 Total'!P11,'Week 4 Total'!P11,'Week 5 Total'!P11,'Week 6 Total'!P11,'Week 7 Total'!P11,'Week 8 Total'!P11,'Week 9 Total'!P11,'Week 10 Total'!P11,'Week 11 Total'!P11,'Week 12 Total'!P11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!Q:Q)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="4">
-        <f>SUM('Week 1 Total'!Q11,'Week 2 Total'!Q11,'Week 3 Total'!Q11,'Week 4 Total'!Q11,'Week 5 Total'!Q11,'Week 6 Total'!Q11,'Week 7 Total'!Q11,'Week 8 Total'!Q11,'Week 9 Total'!Q11,'Week 10 Total'!Q11,'Week 11 Total'!Q11,'Week 12 Total'!Q11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <f>SUM('Week 1 Total'!R11,'Week 2 Total'!R11,'Week 3 Total'!R11,'Week 4 Total'!R11,'Week 5 Total'!R11,'Week 6 Total'!R11,'Week 7 Total'!R11,'Week 8 Total'!R11,'Week 9 Total'!R11,'Week 10 Total'!R11,'Week 11 Total'!R11,'Week 12 Total'!R11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!S:S)</f>
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <f>SUM('Week 1 Total'!S11,'Week 2 Total'!S11,'Week 3 Total'!S11,'Week 4 Total'!S11,'Week 5 Total'!S11,'Week 6 Total'!S11,'Week 7 Total'!S11,'Week 8 Total'!S11,'Week 9 Total'!S11,'Week 10 Total'!S11,'Week 11 Total'!S11,'Week 12 Total'!S11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T11" s="4">
-        <f>SUM('Week 1 Total'!T11,'Week 2 Total'!T11,'Week 3 Total'!T11,'Week 4 Total'!T11,'Week 5 Total'!T11,'Week 6 Total'!T11,'Week 7 Total'!T11,'Week 8 Total'!T11,'Week 9 Total'!T11,'Week 10 Total'!T11,'Week 11 Total'!T11,'Week 12 Total'!T11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!U:U)</f>
         <v>0</v>
       </c>
       <c r="U11" s="2">
@@ -37418,15 +39874,15 @@
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4">
-        <f>SUM('Week 1 Total'!W11,'Week 2 Total'!W11,'Week 3 Total'!W11,'Week 4 Total'!W11,'Week 5 Total'!W11,'Week 6 Total'!W11,'Week 7 Total'!W11,'Week 8 Total'!W11,'Week 9 Total'!W11,'Week 10 Total'!W11,'Week 11 Total'!W11,'Week 12 Total'!W11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!X:X)</f>
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <f>SUM('Week 1 Total'!X11,'Week 2 Total'!X11,'Week 3 Total'!X11,'Week 4 Total'!X11,'Week 5 Total'!X11,'Week 6 Total'!X11,'Week 7 Total'!X11,'Week 8 Total'!X11,'Week 9 Total'!X11,'Week 10 Total'!X11,'Week 11 Total'!X11,'Week 12 Total'!X11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <f>SUM('Week 1 Total'!Y11,'Week 2 Total'!Y11,'Week 3 Total'!Y11,'Week 4 Total'!Y11,'Week 5 Total'!Y11,'Week 6 Total'!Y11,'Week 7 Total'!Y11,'Week 8 Total'!Y11,'Week 9 Total'!Y11,'Week 10 Total'!Y11,'Week 11 Total'!Y11,'Week 12 Total'!Y11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!Z:Z)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="2">
@@ -37434,15 +39890,15 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4">
-        <f>SUM('Week 1 Total'!AA11,'Week 2 Total'!AA11,'Week 3 Total'!AA11,'Week 4 Total'!AA11,'Week 5 Total'!AA11,'Week 6 Total'!AA11,'Week 7 Total'!AA11,'Week 8 Total'!AA11,'Week 9 Total'!AA11,'Week 10 Total'!AA11,'Week 11 Total'!AA11,'Week 12 Total'!AA11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!AB:AB)</f>
         <v>0</v>
       </c>
       <c r="AB11" s="4">
-        <f>SUM('Week 1 Total'!AB11,'Week 2 Total'!AB11,'Week 3 Total'!AB11,'Week 4 Total'!AB11,'Week 5 Total'!AB11,'Week 6 Total'!AB11,'Week 7 Total'!AB11,'Week 8 Total'!AB11,'Week 9 Total'!AB11,'Week 10 Total'!AB11,'Week 11 Total'!AB11,'Week 12 Total'!AB11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <f>SUM('Week 1 Total'!AC11,'Week 2 Total'!AC11,'Week 3 Total'!AC11,'Week 4 Total'!AC11,'Week 5 Total'!AC11,'Week 6 Total'!AC11,'Week 7 Total'!AC11,'Week 8 Total'!AC11,'Week 9 Total'!AC11,'Week 10 Total'!AC11,'Week 11 Total'!AC11,'Week 12 Total'!AC11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!AD:AD)</f>
         <v>0</v>
       </c>
       <c r="AD11" s="2">
@@ -37450,15 +39906,15 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4">
-        <f>SUM('Week 1 Total'!AE11,'Week 2 Total'!AE11,'Week 3 Total'!AE11,'Week 4 Total'!AE11,'Week 5 Total'!AE11,'Week 6 Total'!AE11,'Week 7 Total'!AE11,'Week 8 Total'!AE11,'Week 9 Total'!AE11,'Week 10 Total'!AE11,'Week 11 Total'!AE11,'Week 12 Total'!AE11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="4">
-        <f>SUM('Week 1 Total'!AF11,'Week 2 Total'!AF11,'Week 3 Total'!AF11,'Week 4 Total'!AF11,'Week 5 Total'!AF11,'Week 6 Total'!AF11,'Week 7 Total'!AF11,'Week 8 Total'!AF11,'Week 9 Total'!AF11,'Week 10 Total'!AF11,'Week 11 Total'!AF11,'Week 12 Total'!AF11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="4">
-        <f>SUM('Week 1 Total'!AG11,'Week 2 Total'!AG11,'Week 3 Total'!AG11,'Week 4 Total'!AG11,'Week 5 Total'!AG11,'Week 6 Total'!AG11,'Week 7 Total'!AG11,'Week 8 Total'!AG11,'Week 9 Total'!AG11,'Week 10 Total'!AG11,'Week 11 Total'!AG11,'Week 12 Total'!AG11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH11" s="2">
@@ -37466,11 +39922,11 @@
         <v>0</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUM('Week 1 Total'!AI11,'Week 2 Total'!AI11,'Week 3 Total'!AI11,'Week 4 Total'!AI11,'Week 5 Total'!AI11,'Week 6 Total'!AI11,'Week 7 Total'!AI11,'Week 8 Total'!AI11,'Week 9 Total'!AI11,'Week 10 Total'!AI11,'Week 11 Total'!AI11,'Week 12 Total'!AI11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="4">
-        <f>SUM('Week 1 Total'!AJ11,'Week 2 Total'!AJ11,'Week 3 Total'!AJ11,'Week 4 Total'!AJ11,'Week 5 Total'!AJ11,'Week 6 Total'!AJ11,'Week 7 Total'!AJ11,'Week 8 Total'!AJ11,'Week 9 Total'!AJ11,'Week 10 Total'!AJ11,'Week 11 Total'!AJ11,'Week 12 Total'!AJ11)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B11,'Week 13 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -37479,137 +39935,128 @@
         <v>39</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM('Week 1 Total'!C12,'Week 2 Total'!C12,'Week 3 Total'!C12,'Week 4 Total'!C12,'Week 5 Total'!C12,'Week 6 Total'!C12,'Week 7 Total'!C12,'Week 8 Total'!C12,'Week 9 Total'!C12,'Week 10 Total'!C12,'Week 11 Total'!C12,'Week 12 Total'!C12)</f>
-        <v>290</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUM('Week 1 Total'!D12,'Week 2 Total'!D12,'Week 3 Total'!D12,'Week 4 Total'!D12,'Week 5 Total'!D12,'Week 6 Total'!D12,'Week 7 Total'!D12,'Week 8 Total'!D12,'Week 9 Total'!D12,'Week 10 Total'!D12,'Week 11 Total'!D12,'Week 12 Total'!D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f>SUM('Week 1 Total'!E12,'Week 2 Total'!E12,'Week 3 Total'!E12,'Week 4 Total'!E12,'Week 5 Total'!E12,'Week 6 Total'!E12,'Week 7 Total'!E12,'Week 8 Total'!E12,'Week 9 Total'!E12,'Week 10 Total'!E12,'Week 11 Total'!E12,'Week 12 Total'!E12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!C:C)</f>
+        <v>29</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f>SUM('Week 1 Total'!F12,'Week 2 Total'!F12,'Week 3 Total'!F12,'Week 4 Total'!F12,'Week 5 Total'!F12,'Week 6 Total'!F12,'Week 7 Total'!F12,'Week 8 Total'!F12,'Week 9 Total'!F12,'Week 10 Total'!F12,'Week 11 Total'!F12,'Week 12 Total'!F12)</f>
-        <v>92</v>
-      </c>
-      <c r="G12" s="4">
-        <f>SUM('Week 1 Total'!G12,'Week 2 Total'!G12,'Week 3 Total'!G12,'Week 4 Total'!G12,'Week 5 Total'!G12,'Week 6 Total'!G12,'Week 7 Total'!G12,'Week 8 Total'!G12,'Week 9 Total'!G12,'Week 10 Total'!G12,'Week 11 Total'!G12,'Week 12 Total'!G12)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4">
-        <f>SUM('Week 1 Total'!H12,'Week 2 Total'!H12,'Week 3 Total'!H12,'Week 4 Total'!H12,'Week 5 Total'!H12,'Week 6 Total'!H12,'Week 7 Total'!H12,'Week 8 Total'!H12,'Week 9 Total'!H12,'Week 10 Total'!H12,'Week 11 Total'!H12,'Week 12 Total'!H12)</f>
-        <v>8</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!I:I)</f>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f>SUM('Week 1 Total'!I12,'Week 2 Total'!I12,'Week 3 Total'!I12,'Week 4 Total'!I12,'Week 5 Total'!I12,'Week 6 Total'!I12,'Week 7 Total'!I12,'Week 8 Total'!I12,'Week 9 Total'!I12,'Week 10 Total'!I12,'Week 11 Total'!I12,'Week 12 Total'!I12)</f>
-        <v>19</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!J:J)</f>
+        <v>3</v>
       </c>
       <c r="J12" s="4">
-        <f>SUM('Week 1 Total'!J12,'Week 2 Total'!J12,'Week 3 Total'!J12,'Week 4 Total'!J12,'Week 5 Total'!J12,'Week 6 Total'!J12,'Week 7 Total'!J12,'Week 8 Total'!J12,'Week 9 Total'!J12,'Week 10 Total'!J12,'Week 11 Total'!J12,'Week 12 Total'!J12)</f>
-        <v>2.25</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!K:K)</f>
+        <v>0.33</v>
       </c>
       <c r="K12" s="4">
-        <f>SUM('Week 1 Total'!K12,'Week 2 Total'!K12,'Week 3 Total'!K12,'Week 4 Total'!K12,'Week 5 Total'!K12,'Week 6 Total'!K12,'Week 7 Total'!K12,'Week 8 Total'!K12,'Week 9 Total'!K12,'Week 10 Total'!K12,'Week 11 Total'!K12,'Week 12 Total'!K12)</f>
-        <v>10</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f>SUM('Week 1 Total'!L12,'Week 2 Total'!L12,'Week 3 Total'!L12,'Week 4 Total'!L12,'Week 5 Total'!L12,'Week 6 Total'!L12,'Week 7 Total'!L12,'Week 8 Total'!L12,'Week 9 Total'!L12,'Week 10 Total'!L12,'Week 11 Total'!L12,'Week 12 Total'!L12)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!M:M)</f>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
-        <f>SUM('Week 1 Total'!M12,'Week 2 Total'!M12,'Week 3 Total'!M12,'Week 4 Total'!M12,'Week 5 Total'!M12,'Week 6 Total'!M12,'Week 7 Total'!M12,'Week 8 Total'!M12,'Week 9 Total'!M12,'Week 10 Total'!M12,'Week 11 Total'!M12,'Week 12 Total'!M12)</f>
-        <v>50</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!N:N)</f>
+        <v>7</v>
       </c>
       <c r="N12" s="4">
-        <f>SUM('Week 1 Total'!N12,'Week 2 Total'!N12,'Week 3 Total'!N12,'Week 4 Total'!N12,'Week 5 Total'!N12,'Week 6 Total'!N12,'Week 7 Total'!N12,'Week 8 Total'!N12,'Week 9 Total'!N12,'Week 10 Total'!N12,'Week 11 Total'!N12,'Week 12 Total'!N12)</f>
-        <v>70</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!O:O)</f>
+        <v>3</v>
       </c>
       <c r="O12" s="4">
-        <f>SUM('Week 1 Total'!O12,'Week 2 Total'!O12,'Week 3 Total'!O12,'Week 4 Total'!O12,'Week 5 Total'!O12,'Week 6 Total'!O12,'Week 7 Total'!O12,'Week 8 Total'!O12,'Week 9 Total'!O12,'Week 10 Total'!O12,'Week 11 Total'!O12,'Week 12 Total'!O12)</f>
-        <v>19</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f>SUM('Week 1 Total'!P12,'Week 2 Total'!P12,'Week 3 Total'!P12,'Week 4 Total'!P12,'Week 5 Total'!P12,'Week 6 Total'!P12,'Week 7 Total'!P12,'Week 8 Total'!P12,'Week 9 Total'!P12,'Week 10 Total'!P12,'Week 11 Total'!P12,'Week 12 Total'!P12)</f>
-        <v>51</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!Q:Q)</f>
+        <v>3</v>
       </c>
       <c r="Q12" s="4">
-        <f>SUM('Week 1 Total'!Q12,'Week 2 Total'!Q12,'Week 3 Total'!Q12,'Week 4 Total'!Q12,'Week 5 Total'!Q12,'Week 6 Total'!Q12,'Week 7 Total'!Q12,'Week 8 Total'!Q12,'Week 9 Total'!Q12,'Week 10 Total'!Q12,'Week 11 Total'!Q12,'Week 12 Total'!Q12)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <f>SUM('Week 1 Total'!R12,'Week 2 Total'!R12,'Week 3 Total'!R12,'Week 4 Total'!R12,'Week 5 Total'!R12,'Week 6 Total'!R12,'Week 7 Total'!R12,'Week 8 Total'!R12,'Week 9 Total'!R12,'Week 10 Total'!R12,'Week 11 Total'!R12,'Week 12 Total'!R12)</f>
-        <v>59</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!S:S)</f>
+        <v>6</v>
       </c>
       <c r="S12" s="4">
-        <f>SUM('Week 1 Total'!S12,'Week 2 Total'!S12,'Week 3 Total'!S12,'Week 4 Total'!S12,'Week 5 Total'!S12,'Week 6 Total'!S12,'Week 7 Total'!S12,'Week 8 Total'!S12,'Week 9 Total'!S12,'Week 10 Total'!S12,'Week 11 Total'!S12,'Week 12 Total'!S12)</f>
-        <v>43</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!T:T)</f>
+        <v>3</v>
       </c>
       <c r="T12" s="4">
-        <f>SUM('Week 1 Total'!T12,'Week 2 Total'!T12,'Week 3 Total'!T12,'Week 4 Total'!T12,'Week 5 Total'!T12,'Week 6 Total'!T12,'Week 7 Total'!T12,'Week 8 Total'!T12,'Week 9 Total'!T12,'Week 10 Total'!T12,'Week 11 Total'!T12,'Week 12 Total'!T12)</f>
-        <v>16</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!U:U)</f>
+        <v>3</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.5</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4">
-        <f>SUM('Week 1 Total'!W12,'Week 2 Total'!W12,'Week 3 Total'!W12,'Week 4 Total'!W12,'Week 5 Total'!W12,'Week 6 Total'!W12,'Week 7 Total'!W12,'Week 8 Total'!W12,'Week 9 Total'!W12,'Week 10 Total'!W12,'Week 11 Total'!W12,'Week 12 Total'!W12)</f>
-        <v>57</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!X:X)</f>
+        <v>6</v>
       </c>
       <c r="X12" s="4">
-        <f>SUM('Week 1 Total'!X12,'Week 2 Total'!X12,'Week 3 Total'!X12,'Week 4 Total'!X12,'Week 5 Total'!X12,'Week 6 Total'!X12,'Week 7 Total'!X12,'Week 8 Total'!X12,'Week 9 Total'!X12,'Week 10 Total'!X12,'Week 11 Total'!X12,'Week 12 Total'!X12)</f>
-        <v>43</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!Y:Y)</f>
+        <v>3</v>
       </c>
       <c r="Y12" s="4">
-        <f>SUM('Week 1 Total'!Y12,'Week 2 Total'!Y12,'Week 3 Total'!Y12,'Week 4 Total'!Y12,'Week 5 Total'!Y12,'Week 6 Total'!Y12,'Week 7 Total'!Y12,'Week 8 Total'!Y12,'Week 9 Total'!Y12,'Week 10 Total'!Y12,'Week 11 Total'!Y12,'Week 12 Total'!Y12)</f>
-        <v>14</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!Z:Z)</f>
+        <v>3</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="1"/>
-        <v>0.75438596491228072</v>
+        <v>0.5</v>
       </c>
       <c r="AA12" s="4">
-        <f>SUM('Week 1 Total'!AA12,'Week 2 Total'!AA12,'Week 3 Total'!AA12,'Week 4 Total'!AA12,'Week 5 Total'!AA12,'Week 6 Total'!AA12,'Week 7 Total'!AA12,'Week 8 Total'!AA12,'Week 9 Total'!AA12,'Week 10 Total'!AA12,'Week 11 Total'!AA12,'Week 12 Total'!AA12)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <f>SUM('Week 1 Total'!AB12,'Week 2 Total'!AB12,'Week 3 Total'!AB12,'Week 4 Total'!AB12,'Week 5 Total'!AB12,'Week 6 Total'!AB12,'Week 7 Total'!AB12,'Week 8 Total'!AB12,'Week 9 Total'!AB12,'Week 10 Total'!AB12,'Week 11 Total'!AB12,'Week 12 Total'!AB12)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC12" s="4">
-        <f>SUM('Week 1 Total'!AC12,'Week 2 Total'!AC12,'Week 3 Total'!AC12,'Week 4 Total'!AC12,'Week 5 Total'!AC12,'Week 6 Total'!AC12,'Week 7 Total'!AC12,'Week 8 Total'!AC12,'Week 9 Total'!AC12,'Week 10 Total'!AC12,'Week 11 Total'!AC12,'Week 12 Total'!AC12)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" ref="AD12:AD15" si="4">IF(ISERROR(AB12/AA12),0,AB12/AA12)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="4">
-        <f>SUM('Week 1 Total'!AE12,'Week 2 Total'!AE12,'Week 3 Total'!AE12,'Week 4 Total'!AE12,'Week 5 Total'!AE12,'Week 6 Total'!AE12,'Week 7 Total'!AE12,'Week 8 Total'!AE12,'Week 9 Total'!AE12,'Week 10 Total'!AE12,'Week 11 Total'!AE12,'Week 12 Total'!AE12)</f>
-        <v>11</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF12" s="4">
-        <f>SUM('Week 1 Total'!AF12,'Week 2 Total'!AF12,'Week 3 Total'!AF12,'Week 4 Total'!AF12,'Week 5 Total'!AF12,'Week 6 Total'!AF12,'Week 7 Total'!AF12,'Week 8 Total'!AF12,'Week 9 Total'!AF12,'Week 10 Total'!AF12,'Week 11 Total'!AF12,'Week 12 Total'!AF12)</f>
-        <v>6</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!AG:AG)</f>
+        <v>1</v>
       </c>
       <c r="AG12" s="4">
-        <f>SUM('Week 1 Total'!AG12,'Week 2 Total'!AG12,'Week 3 Total'!AG12,'Week 4 Total'!AG12,'Week 5 Total'!AG12,'Week 6 Total'!AG12,'Week 7 Total'!AG12,'Week 8 Total'!AG12,'Week 9 Total'!AG12,'Week 10 Total'!AG12,'Week 11 Total'!AG12,'Week 12 Total'!AG12)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!AH:AH)</f>
+        <v>1</v>
       </c>
       <c r="AH12" s="2">
         <f t="shared" si="3"/>
-        <v>0.54545454545454541</v>
+        <v>0.5</v>
       </c>
       <c r="AI12" s="4">
-        <f>SUM('Week 1 Total'!AI12,'Week 2 Total'!AI12,'Week 3 Total'!AI12,'Week 4 Total'!AI12,'Week 5 Total'!AI12,'Week 6 Total'!AI12,'Week 7 Total'!AI12,'Week 8 Total'!AI12,'Week 9 Total'!AI12,'Week 10 Total'!AI12,'Week 11 Total'!AI12,'Week 12 Total'!AI12)</f>
-        <v>16</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!AK:AK)</f>
+        <v>2</v>
       </c>
       <c r="AJ12" s="4">
-        <f>SUM('Week 1 Total'!AJ12,'Week 2 Total'!AJ12,'Week 3 Total'!AJ12,'Week 4 Total'!AJ12,'Week 5 Total'!AJ12,'Week 6 Total'!AJ12,'Week 7 Total'!AJ12,'Week 8 Total'!AJ12,'Week 9 Total'!AJ12,'Week 10 Total'!AJ12,'Week 11 Total'!AJ12,'Week 12 Total'!AJ12)</f>
-        <v>46</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B12,'Week 13 Games'!AL:AL)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
@@ -37617,76 +40064,67 @@
         <v>40</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM('Week 1 Total'!C13,'Week 2 Total'!C13,'Week 3 Total'!C13,'Week 4 Total'!C13,'Week 5 Total'!C13,'Week 6 Total'!C13,'Week 7 Total'!C13,'Week 8 Total'!C13,'Week 9 Total'!C13,'Week 10 Total'!C13,'Week 11 Total'!C13,'Week 12 Total'!C13)</f>
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM('Week 1 Total'!D13,'Week 2 Total'!D13,'Week 3 Total'!D13,'Week 4 Total'!D13,'Week 5 Total'!D13,'Week 6 Total'!D13,'Week 7 Total'!D13,'Week 8 Total'!D13,'Week 9 Total'!D13,'Week 10 Total'!D13,'Week 11 Total'!D13,'Week 12 Total'!D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM('Week 1 Total'!E13,'Week 2 Total'!E13,'Week 3 Total'!E13,'Week 4 Total'!E13,'Week 5 Total'!E13,'Week 6 Total'!E13,'Week 7 Total'!E13,'Week 8 Total'!E13,'Week 9 Total'!E13,'Week 10 Total'!E13,'Week 11 Total'!E13,'Week 12 Total'!E13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <f>SUM('Week 1 Total'!F13,'Week 2 Total'!F13,'Week 3 Total'!F13,'Week 4 Total'!F13,'Week 5 Total'!F13,'Week 6 Total'!F13,'Week 7 Total'!F13,'Week 8 Total'!F13,'Week 9 Total'!F13,'Week 10 Total'!F13,'Week 11 Total'!F13,'Week 12 Total'!F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <f>SUM('Week 1 Total'!G13,'Week 2 Total'!G13,'Week 3 Total'!G13,'Week 4 Total'!G13,'Week 5 Total'!G13,'Week 6 Total'!G13,'Week 7 Total'!G13,'Week 8 Total'!G13,'Week 9 Total'!G13,'Week 10 Total'!G13,'Week 11 Total'!G13,'Week 12 Total'!G13)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>SUM('Week 1 Total'!H13,'Week 2 Total'!H13,'Week 3 Total'!H13,'Week 4 Total'!H13,'Week 5 Total'!H13,'Week 6 Total'!H13,'Week 7 Total'!H13,'Week 8 Total'!H13,'Week 9 Total'!H13,'Week 10 Total'!H13,'Week 11 Total'!H13,'Week 12 Total'!H13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!I:I)</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f>SUM('Week 1 Total'!I13,'Week 2 Total'!I13,'Week 3 Total'!I13,'Week 4 Total'!I13,'Week 5 Total'!I13,'Week 6 Total'!I13,'Week 7 Total'!I13,'Week 8 Total'!I13,'Week 9 Total'!I13,'Week 10 Total'!I13,'Week 11 Total'!I13,'Week 12 Total'!I13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!J:J)</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>SUM('Week 1 Total'!J13,'Week 2 Total'!J13,'Week 3 Total'!J13,'Week 4 Total'!J13,'Week 5 Total'!J13,'Week 6 Total'!J13,'Week 7 Total'!J13,'Week 8 Total'!J13,'Week 9 Total'!J13,'Week 10 Total'!J13,'Week 11 Total'!J13,'Week 12 Total'!J13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!K:K)</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>SUM('Week 1 Total'!K13,'Week 2 Total'!K13,'Week 3 Total'!K13,'Week 4 Total'!K13,'Week 5 Total'!K13,'Week 6 Total'!K13,'Week 7 Total'!K13,'Week 8 Total'!K13,'Week 9 Total'!K13,'Week 10 Total'!K13,'Week 11 Total'!K13,'Week 12 Total'!K13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!L:L)</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f>SUM('Week 1 Total'!L13,'Week 2 Total'!L13,'Week 3 Total'!L13,'Week 4 Total'!L13,'Week 5 Total'!L13,'Week 6 Total'!L13,'Week 7 Total'!L13,'Week 8 Total'!L13,'Week 9 Total'!L13,'Week 10 Total'!L13,'Week 11 Total'!L13,'Week 12 Total'!L13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!M:M)</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <f>SUM('Week 1 Total'!M13,'Week 2 Total'!M13,'Week 3 Total'!M13,'Week 4 Total'!M13,'Week 5 Total'!M13,'Week 6 Total'!M13,'Week 7 Total'!M13,'Week 8 Total'!M13,'Week 9 Total'!M13,'Week 10 Total'!M13,'Week 11 Total'!M13,'Week 12 Total'!M13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <f>SUM('Week 1 Total'!N13,'Week 2 Total'!N13,'Week 3 Total'!N13,'Week 4 Total'!N13,'Week 5 Total'!N13,'Week 6 Total'!N13,'Week 7 Total'!N13,'Week 8 Total'!N13,'Week 9 Total'!N13,'Week 10 Total'!N13,'Week 11 Total'!N13,'Week 12 Total'!N13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!O:O)</f>
+        <v>0</v>
       </c>
       <c r="O13" s="4">
-        <f>SUM('Week 1 Total'!O13,'Week 2 Total'!O13,'Week 3 Total'!O13,'Week 4 Total'!O13,'Week 5 Total'!O13,'Week 6 Total'!O13,'Week 7 Total'!O13,'Week 8 Total'!O13,'Week 9 Total'!O13,'Week 10 Total'!O13,'Week 11 Total'!O13,'Week 12 Total'!O13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!P:P)</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
-        <f>SUM('Week 1 Total'!P13,'Week 2 Total'!P13,'Week 3 Total'!P13,'Week 4 Total'!P13,'Week 5 Total'!P13,'Week 6 Total'!P13,'Week 7 Total'!P13,'Week 8 Total'!P13,'Week 9 Total'!P13,'Week 10 Total'!P13,'Week 11 Total'!P13,'Week 12 Total'!P13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!Q:Q)</f>
+        <v>0</v>
       </c>
       <c r="Q13" s="4">
-        <f>SUM('Week 1 Total'!Q13,'Week 2 Total'!Q13,'Week 3 Total'!Q13,'Week 4 Total'!Q13,'Week 5 Total'!Q13,'Week 6 Total'!Q13,'Week 7 Total'!Q13,'Week 8 Total'!Q13,'Week 9 Total'!Q13,'Week 10 Total'!Q13,'Week 11 Total'!Q13,'Week 12 Total'!Q13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <f>SUM('Week 1 Total'!R13,'Week 2 Total'!R13,'Week 3 Total'!R13,'Week 4 Total'!R13,'Week 5 Total'!R13,'Week 6 Total'!R13,'Week 7 Total'!R13,'Week 8 Total'!R13,'Week 9 Total'!R13,'Week 10 Total'!R13,'Week 11 Total'!R13,'Week 12 Total'!R13)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!S:S)</f>
+        <v>0</v>
       </c>
       <c r="S13" s="4">
-        <f>SUM('Week 1 Total'!S13,'Week 2 Total'!S13,'Week 3 Total'!S13,'Week 4 Total'!S13,'Week 5 Total'!S13,'Week 6 Total'!S13,'Week 7 Total'!S13,'Week 8 Total'!S13,'Week 9 Total'!S13,'Week 10 Total'!S13,'Week 11 Total'!S13,'Week 12 Total'!S13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!T:T)</f>
         <v>0</v>
       </c>
       <c r="T13" s="4">
-        <f>SUM('Week 1 Total'!T13,'Week 2 Total'!T13,'Week 3 Total'!T13,'Week 4 Total'!T13,'Week 5 Total'!T13,'Week 6 Total'!T13,'Week 7 Total'!T13,'Week 8 Total'!T13,'Week 9 Total'!T13,'Week 10 Total'!T13,'Week 11 Total'!T13,'Week 12 Total'!T13)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!U:U)</f>
+        <v>0</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" si="0"/>
@@ -37694,47 +40132,47 @@
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4">
-        <f>SUM('Week 1 Total'!W13,'Week 2 Total'!W13,'Week 3 Total'!W13,'Week 4 Total'!W13,'Week 5 Total'!W13,'Week 6 Total'!W13,'Week 7 Total'!W13,'Week 8 Total'!W13,'Week 9 Total'!W13,'Week 10 Total'!W13,'Week 11 Total'!W13,'Week 12 Total'!W13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!X:X)</f>
+        <v>0</v>
       </c>
       <c r="X13" s="4">
-        <f>SUM('Week 1 Total'!X13,'Week 2 Total'!X13,'Week 3 Total'!X13,'Week 4 Total'!X13,'Week 5 Total'!X13,'Week 6 Total'!X13,'Week 7 Total'!X13,'Week 8 Total'!X13,'Week 9 Total'!X13,'Week 10 Total'!X13,'Week 11 Total'!X13,'Week 12 Total'!X13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!Y:Y)</f>
         <v>0</v>
       </c>
       <c r="Y13" s="4">
-        <f>SUM('Week 1 Total'!Y13,'Week 2 Total'!Y13,'Week 3 Total'!Y13,'Week 4 Total'!Y13,'Week 5 Total'!Y13,'Week 6 Total'!Y13,'Week 7 Total'!Y13,'Week 8 Total'!Y13,'Week 9 Total'!Y13,'Week 10 Total'!Y13,'Week 11 Total'!Y13,'Week 12 Total'!Y13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!Z:Z)</f>
+        <v>0</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA13" s="4">
-        <f>SUM('Week 1 Total'!AA13,'Week 2 Total'!AA13,'Week 3 Total'!AA13,'Week 4 Total'!AA13,'Week 5 Total'!AA13,'Week 6 Total'!AA13,'Week 7 Total'!AA13,'Week 8 Total'!AA13,'Week 9 Total'!AA13,'Week 10 Total'!AA13,'Week 11 Total'!AA13,'Week 12 Total'!AA13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB13" s="4">
-        <f>SUM('Week 1 Total'!AB13,'Week 2 Total'!AB13,'Week 3 Total'!AB13,'Week 4 Total'!AB13,'Week 5 Total'!AB13,'Week 6 Total'!AB13,'Week 7 Total'!AB13,'Week 8 Total'!AB13,'Week 9 Total'!AB13,'Week 10 Total'!AB13,'Week 11 Total'!AB13,'Week 12 Total'!AB13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!AC:AC)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <f>SUM('Week 1 Total'!AC13,'Week 2 Total'!AC13,'Week 3 Total'!AC13,'Week 4 Total'!AC13,'Week 5 Total'!AC13,'Week 6 Total'!AC13,'Week 7 Total'!AC13,'Week 8 Total'!AC13,'Week 9 Total'!AC13,'Week 10 Total'!AC13,'Week 11 Total'!AC13,'Week 12 Total'!AC13)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE13" s="4">
-        <f>SUM('Week 1 Total'!AE13,'Week 2 Total'!AE13,'Week 3 Total'!AE13,'Week 4 Total'!AE13,'Week 5 Total'!AE13,'Week 6 Total'!AE13,'Week 7 Total'!AE13,'Week 8 Total'!AE13,'Week 9 Total'!AE13,'Week 10 Total'!AE13,'Week 11 Total'!AE13,'Week 12 Total'!AE13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!AF:AF)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="4">
-        <f>SUM('Week 1 Total'!AF13,'Week 2 Total'!AF13,'Week 3 Total'!AF13,'Week 4 Total'!AF13,'Week 5 Total'!AF13,'Week 6 Total'!AF13,'Week 7 Total'!AF13,'Week 8 Total'!AF13,'Week 9 Total'!AF13,'Week 10 Total'!AF13,'Week 11 Total'!AF13,'Week 12 Total'!AF13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!AG:AG)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="4">
-        <f>SUM('Week 1 Total'!AG13,'Week 2 Total'!AG13,'Week 3 Total'!AG13,'Week 4 Total'!AG13,'Week 5 Total'!AG13,'Week 6 Total'!AG13,'Week 7 Total'!AG13,'Week 8 Total'!AG13,'Week 9 Total'!AG13,'Week 10 Total'!AG13,'Week 11 Total'!AG13,'Week 12 Total'!AG13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!AH:AH)</f>
         <v>0</v>
       </c>
       <c r="AH13" s="2">
@@ -37742,11 +40180,11 @@
         <v>0</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUM('Week 1 Total'!AI13,'Week 2 Total'!AI13,'Week 3 Total'!AI13,'Week 4 Total'!AI13,'Week 5 Total'!AI13,'Week 6 Total'!AI13,'Week 7 Total'!AI13,'Week 8 Total'!AI13,'Week 9 Total'!AI13,'Week 10 Total'!AI13,'Week 11 Total'!AI13,'Week 12 Total'!AI13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!AK:AK)</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="4">
-        <f>SUM('Week 1 Total'!AJ13,'Week 2 Total'!AJ13,'Week 3 Total'!AJ13,'Week 4 Total'!AJ13,'Week 5 Total'!AJ13,'Week 6 Total'!AJ13,'Week 7 Total'!AJ13,'Week 8 Total'!AJ13,'Week 9 Total'!AJ13,'Week 10 Total'!AJ13,'Week 11 Total'!AJ13,'Week 12 Total'!AJ13)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B13,'Week 13 Games'!AL:AL)</f>
         <v>0</v>
       </c>
     </row>
@@ -37755,137 +40193,128 @@
         <v>41</v>
       </c>
       <c r="C14" s="4">
-        <f>SUM('Week 1 Total'!C14,'Week 2 Total'!C14,'Week 3 Total'!C14,'Week 4 Total'!C14,'Week 5 Total'!C14,'Week 6 Total'!C14,'Week 7 Total'!C14,'Week 8 Total'!C14,'Week 9 Total'!C14,'Week 10 Total'!C14,'Week 11 Total'!C14,'Week 12 Total'!C14)</f>
-        <v>162</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM('Week 1 Total'!D14,'Week 2 Total'!D14,'Week 3 Total'!D14,'Week 4 Total'!D14,'Week 5 Total'!D14,'Week 6 Total'!D14,'Week 7 Total'!D14,'Week 8 Total'!D14,'Week 9 Total'!D14,'Week 10 Total'!D14,'Week 11 Total'!D14,'Week 12 Total'!D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM('Week 1 Total'!E14,'Week 2 Total'!E14,'Week 3 Total'!E14,'Week 4 Total'!E14,'Week 5 Total'!E14,'Week 6 Total'!E14,'Week 7 Total'!E14,'Week 8 Total'!E14,'Week 9 Total'!E14,'Week 10 Total'!E14,'Week 11 Total'!E14,'Week 12 Total'!E14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!C:C)</f>
+        <v>14</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <f>SUM('Week 1 Total'!F14,'Week 2 Total'!F14,'Week 3 Total'!F14,'Week 4 Total'!F14,'Week 5 Total'!F14,'Week 6 Total'!F14,'Week 7 Total'!F14,'Week 8 Total'!F14,'Week 9 Total'!F14,'Week 10 Total'!F14,'Week 11 Total'!F14,'Week 12 Total'!F14)</f>
-        <v>71</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM('Week 1 Total'!G14,'Week 2 Total'!G14,'Week 3 Total'!G14,'Week 4 Total'!G14,'Week 5 Total'!G14,'Week 6 Total'!G14,'Week 7 Total'!G14,'Week 8 Total'!G14,'Week 9 Total'!G14,'Week 10 Total'!G14,'Week 11 Total'!G14,'Week 12 Total'!G14)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!G:G)</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>SUM('Week 1 Total'!H14,'Week 2 Total'!H14,'Week 3 Total'!H14,'Week 4 Total'!H14,'Week 5 Total'!H14,'Week 6 Total'!H14,'Week 7 Total'!H14,'Week 8 Total'!H14,'Week 9 Total'!H14,'Week 10 Total'!H14,'Week 11 Total'!H14,'Week 12 Total'!H14)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!I:I)</f>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
-        <f>SUM('Week 1 Total'!I14,'Week 2 Total'!I14,'Week 3 Total'!I14,'Week 4 Total'!I14,'Week 5 Total'!I14,'Week 6 Total'!I14,'Week 7 Total'!I14,'Week 8 Total'!I14,'Week 9 Total'!I14,'Week 10 Total'!I14,'Week 11 Total'!I14,'Week 12 Total'!I14)</f>
-        <v>20</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f>SUM('Week 1 Total'!J14,'Week 2 Total'!J14,'Week 3 Total'!J14,'Week 4 Total'!J14,'Week 5 Total'!J14,'Week 6 Total'!J14,'Week 7 Total'!J14,'Week 8 Total'!J14,'Week 9 Total'!J14,'Week 10 Total'!J14,'Week 11 Total'!J14,'Week 12 Total'!J14)</f>
-        <v>6.2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
-        <f>SUM('Week 1 Total'!K14,'Week 2 Total'!K14,'Week 3 Total'!K14,'Week 4 Total'!K14,'Week 5 Total'!K14,'Week 6 Total'!K14,'Week 7 Total'!K14,'Week 8 Total'!K14,'Week 9 Total'!K14,'Week 10 Total'!K14,'Week 11 Total'!K14,'Week 12 Total'!K14)</f>
-        <v>3</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>SUM('Week 1 Total'!L14,'Week 2 Total'!L14,'Week 3 Total'!L14,'Week 4 Total'!L14,'Week 5 Total'!L14,'Week 6 Total'!L14,'Week 7 Total'!L14,'Week 8 Total'!L14,'Week 9 Total'!L14,'Week 10 Total'!L14,'Week 11 Total'!L14,'Week 12 Total'!L14)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!N:N)</f>
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!O:O)</f>
         <v>4</v>
       </c>
-      <c r="M14" s="4">
-        <f>SUM('Week 1 Total'!M14,'Week 2 Total'!M14,'Week 3 Total'!M14,'Week 4 Total'!M14,'Week 5 Total'!M14,'Week 6 Total'!M14,'Week 7 Total'!M14,'Week 8 Total'!M14,'Week 9 Total'!M14,'Week 10 Total'!M14,'Week 11 Total'!M14,'Week 12 Total'!M14)</f>
-        <v>13</v>
-      </c>
-      <c r="N14" s="4">
-        <f>SUM('Week 1 Total'!N14,'Week 2 Total'!N14,'Week 3 Total'!N14,'Week 4 Total'!N14,'Week 5 Total'!N14,'Week 6 Total'!N14,'Week 7 Total'!N14,'Week 8 Total'!N14,'Week 9 Total'!N14,'Week 10 Total'!N14,'Week 11 Total'!N14,'Week 12 Total'!N14)</f>
-        <v>40</v>
-      </c>
       <c r="O14" s="4">
-        <f>SUM('Week 1 Total'!O14,'Week 2 Total'!O14,'Week 3 Total'!O14,'Week 4 Total'!O14,'Week 5 Total'!O14,'Week 6 Total'!O14,'Week 7 Total'!O14,'Week 8 Total'!O14,'Week 9 Total'!O14,'Week 10 Total'!O14,'Week 11 Total'!O14,'Week 12 Total'!O14)</f>
-        <v>16</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!P:P)</f>
+        <v>1</v>
       </c>
       <c r="P14" s="4">
-        <f>SUM('Week 1 Total'!P14,'Week 2 Total'!P14,'Week 3 Total'!P14,'Week 4 Total'!P14,'Week 5 Total'!P14,'Week 6 Total'!P14,'Week 7 Total'!P14,'Week 8 Total'!P14,'Week 9 Total'!P14,'Week 10 Total'!P14,'Week 11 Total'!P14,'Week 12 Total'!P14)</f>
-        <v>24</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!Q:Q)</f>
+        <v>3</v>
       </c>
       <c r="Q14" s="4">
-        <f>SUM('Week 1 Total'!Q14,'Week 2 Total'!Q14,'Week 3 Total'!Q14,'Week 4 Total'!Q14,'Week 5 Total'!Q14,'Week 6 Total'!Q14,'Week 7 Total'!Q14,'Week 8 Total'!Q14,'Week 9 Total'!Q14,'Week 10 Total'!Q14,'Week 11 Total'!Q14,'Week 12 Total'!Q14)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
-        <f>SUM('Week 1 Total'!R14,'Week 2 Total'!R14,'Week 3 Total'!R14,'Week 4 Total'!R14,'Week 5 Total'!R14,'Week 6 Total'!R14,'Week 7 Total'!R14,'Week 8 Total'!R14,'Week 9 Total'!R14,'Week 10 Total'!R14,'Week 11 Total'!R14,'Week 12 Total'!R14)</f>
-        <v>61</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!S:S)</f>
+        <v>4</v>
       </c>
       <c r="S14" s="4">
-        <f>SUM('Week 1 Total'!S14,'Week 2 Total'!S14,'Week 3 Total'!S14,'Week 4 Total'!S14,'Week 5 Total'!S14,'Week 6 Total'!S14,'Week 7 Total'!S14,'Week 8 Total'!S14,'Week 9 Total'!S14,'Week 10 Total'!S14,'Week 11 Total'!S14,'Week 12 Total'!S14)</f>
-        <v>29</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!T:T)</f>
+        <v>2</v>
       </c>
       <c r="T14" s="4">
-        <f>SUM('Week 1 Total'!T14,'Week 2 Total'!T14,'Week 3 Total'!T14,'Week 4 Total'!T14,'Week 5 Total'!T14,'Week 6 Total'!T14,'Week 7 Total'!T14,'Week 8 Total'!T14,'Week 9 Total'!T14,'Week 10 Total'!T14,'Week 11 Total'!T14,'Week 12 Total'!T14)</f>
-        <v>32</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!U:U)</f>
+        <v>2</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="0"/>
-        <v>0.47540983606557374</v>
+        <v>0.5</v>
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4">
-        <f>SUM('Week 1 Total'!W14,'Week 2 Total'!W14,'Week 3 Total'!W14,'Week 4 Total'!W14,'Week 5 Total'!W14,'Week 6 Total'!W14,'Week 7 Total'!W14,'Week 8 Total'!W14,'Week 9 Total'!W14,'Week 10 Total'!W14,'Week 11 Total'!W14,'Week 12 Total'!W14)</f>
-        <v>37</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!X:X)</f>
+        <v>4</v>
       </c>
       <c r="X14" s="4">
-        <f>SUM('Week 1 Total'!X14,'Week 2 Total'!X14,'Week 3 Total'!X14,'Week 4 Total'!X14,'Week 5 Total'!X14,'Week 6 Total'!X14,'Week 7 Total'!X14,'Week 8 Total'!X14,'Week 9 Total'!X14,'Week 10 Total'!X14,'Week 11 Total'!X14,'Week 12 Total'!X14)</f>
-        <v>23</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!Y:Y)</f>
+        <v>2</v>
       </c>
       <c r="Y14" s="4">
-        <f>SUM('Week 1 Total'!Y14,'Week 2 Total'!Y14,'Week 3 Total'!Y14,'Week 4 Total'!Y14,'Week 5 Total'!Y14,'Week 6 Total'!Y14,'Week 7 Total'!Y14,'Week 8 Total'!Y14,'Week 9 Total'!Y14,'Week 10 Total'!Y14,'Week 11 Total'!Y14,'Week 12 Total'!Y14)</f>
-        <v>14</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!Z:Z)</f>
+        <v>2</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="1"/>
-        <v>0.6216216216216216</v>
+        <v>0.5</v>
       </c>
       <c r="AA14" s="4">
-        <f>SUM('Week 1 Total'!AA14,'Week 2 Total'!AA14,'Week 3 Total'!AA14,'Week 4 Total'!AA14,'Week 5 Total'!AA14,'Week 6 Total'!AA14,'Week 7 Total'!AA14,'Week 8 Total'!AA14,'Week 9 Total'!AA14,'Week 10 Total'!AA14,'Week 11 Total'!AA14,'Week 12 Total'!AA14)</f>
-        <v>24</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!AB:AB)</f>
+        <v>0</v>
       </c>
       <c r="AB14" s="4">
-        <f>SUM('Week 1 Total'!AB14,'Week 2 Total'!AB14,'Week 3 Total'!AB14,'Week 4 Total'!AB14,'Week 5 Total'!AB14,'Week 6 Total'!AB14,'Week 7 Total'!AB14,'Week 8 Total'!AB14,'Week 9 Total'!AB14,'Week 10 Total'!AB14,'Week 11 Total'!AB14,'Week 12 Total'!AB14)</f>
-        <v>6</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!AC:AC)</f>
+        <v>0</v>
       </c>
       <c r="AC14" s="4">
-        <f>SUM('Week 1 Total'!AC14,'Week 2 Total'!AC14,'Week 3 Total'!AC14,'Week 4 Total'!AC14,'Week 5 Total'!AC14,'Week 6 Total'!AC14,'Week 7 Total'!AC14,'Week 8 Total'!AC14,'Week 9 Total'!AC14,'Week 10 Total'!AC14,'Week 11 Total'!AC14,'Week 12 Total'!AC14)</f>
-        <v>18</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!AD:AD)</f>
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="4">
-        <f>SUM('Week 1 Total'!AE14,'Week 2 Total'!AE14,'Week 3 Total'!AE14,'Week 4 Total'!AE14,'Week 5 Total'!AE14,'Week 6 Total'!AE14,'Week 7 Total'!AE14,'Week 8 Total'!AE14,'Week 9 Total'!AE14,'Week 10 Total'!AE14,'Week 11 Total'!AE14,'Week 12 Total'!AE14)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!AF:AF)</f>
+        <v>2</v>
       </c>
       <c r="AF14" s="4">
-        <f>SUM('Week 1 Total'!AF14,'Week 2 Total'!AF14,'Week 3 Total'!AF14,'Week 4 Total'!AF14,'Week 5 Total'!AF14,'Week 6 Total'!AF14,'Week 7 Total'!AF14,'Week 8 Total'!AF14,'Week 9 Total'!AF14,'Week 10 Total'!AF14,'Week 11 Total'!AF14,'Week 12 Total'!AF14)</f>
-        <v>7</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!AG:AG)</f>
+        <v>1</v>
       </c>
       <c r="AG14" s="4">
-        <f>SUM('Week 1 Total'!AG14,'Week 2 Total'!AG14,'Week 3 Total'!AG14,'Week 4 Total'!AG14,'Week 5 Total'!AG14,'Week 6 Total'!AG14,'Week 7 Total'!AG14,'Week 8 Total'!AG14,'Week 9 Total'!AG14,'Week 10 Total'!AG14,'Week 11 Total'!AG14,'Week 12 Total'!AG14)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!AH:AH)</f>
+        <v>1</v>
       </c>
       <c r="AH14" s="2">
         <f t="shared" si="3"/>
-        <v>0.77777777777777779</v>
+        <v>0.5</v>
       </c>
       <c r="AI14" s="4">
-        <f>SUM('Week 1 Total'!AI14,'Week 2 Total'!AI14,'Week 3 Total'!AI14,'Week 4 Total'!AI14,'Week 5 Total'!AI14,'Week 6 Total'!AI14,'Week 7 Total'!AI14,'Week 8 Total'!AI14,'Week 9 Total'!AI14,'Week 10 Total'!AI14,'Week 11 Total'!AI14,'Week 12 Total'!AI14)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!AK:AK)</f>
+        <v>1</v>
       </c>
       <c r="AJ14" s="4">
-        <f>SUM('Week 1 Total'!AJ14,'Week 2 Total'!AJ14,'Week 3 Total'!AJ14,'Week 4 Total'!AJ14,'Week 5 Total'!AJ14,'Week 6 Total'!AJ14,'Week 7 Total'!AJ14,'Week 8 Total'!AJ14,'Week 9 Total'!AJ14,'Week 10 Total'!AJ14,'Week 11 Total'!AJ14,'Week 12 Total'!AJ14)</f>
-        <v>27</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B14,'Week 13 Games'!AL:AL)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
@@ -37893,108 +40322,2157 @@
         <v>42</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM('Week 1 Total'!C15,'Week 2 Total'!C15,'Week 3 Total'!C15,'Week 4 Total'!C15,'Week 5 Total'!C15,'Week 6 Total'!C15,'Week 7 Total'!C15,'Week 8 Total'!C15,'Week 9 Total'!C15,'Week 10 Total'!C15,'Week 11 Total'!C15,'Week 12 Total'!C15)</f>
-        <v>50</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SUM('Week 1 Total'!D15,'Week 2 Total'!D15,'Week 3 Total'!D15,'Week 4 Total'!D15,'Week 5 Total'!D15,'Week 6 Total'!D15,'Week 7 Total'!D15,'Week 8 Total'!D15,'Week 9 Total'!D15,'Week 10 Total'!D15,'Week 11 Total'!D15,'Week 12 Total'!D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f>SUM('Week 1 Total'!E15,'Week 2 Total'!E15,'Week 3 Total'!E15,'Week 4 Total'!E15,'Week 5 Total'!E15,'Week 6 Total'!E15,'Week 7 Total'!E15,'Week 8 Total'!E15,'Week 9 Total'!E15,'Week 10 Total'!E15,'Week 11 Total'!E15,'Week 12 Total'!E15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!C:C)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <f>SUM('Week 1 Total'!F15,'Week 2 Total'!F15,'Week 3 Total'!F15,'Week 4 Total'!F15,'Week 5 Total'!F15,'Week 6 Total'!F15,'Week 7 Total'!F15,'Week 8 Total'!F15,'Week 9 Total'!F15,'Week 10 Total'!F15,'Week 11 Total'!F15,'Week 12 Total'!F15)</f>
-        <v>15</v>
-      </c>
-      <c r="G15" s="4">
-        <f>SUM('Week 1 Total'!G15,'Week 2 Total'!G15,'Week 3 Total'!G15,'Week 4 Total'!G15,'Week 5 Total'!G15,'Week 6 Total'!G15,'Week 7 Total'!G15,'Week 8 Total'!G15,'Week 9 Total'!G15,'Week 10 Total'!G15,'Week 11 Total'!G15,'Week 12 Total'!G15)</f>
-        <v>0</v>
-      </c>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!G:G)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>SUM('Week 1 Total'!H15,'Week 2 Total'!H15,'Week 3 Total'!H15,'Week 4 Total'!H15,'Week 5 Total'!H15,'Week 6 Total'!H15,'Week 7 Total'!H15,'Week 8 Total'!H15,'Week 9 Total'!H15,'Week 10 Total'!H15,'Week 11 Total'!H15,'Week 12 Total'!H15)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!I:I)</f>
+        <v>3</v>
       </c>
       <c r="I15" s="4">
-        <f>SUM('Week 1 Total'!I15,'Week 2 Total'!I15,'Week 3 Total'!I15,'Week 4 Total'!I15,'Week 5 Total'!I15,'Week 6 Total'!I15,'Week 7 Total'!I15,'Week 8 Total'!I15,'Week 9 Total'!I15,'Week 10 Total'!I15,'Week 11 Total'!I15,'Week 12 Total'!I15)</f>
-        <v>2</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!J:J)</f>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f>SUM('Week 1 Total'!J15,'Week 2 Total'!J15,'Week 3 Total'!J15,'Week 4 Total'!J15,'Week 5 Total'!J15,'Week 6 Total'!J15,'Week 7 Total'!J15,'Week 8 Total'!J15,'Week 9 Total'!J15,'Week 10 Total'!J15,'Week 11 Total'!J15,'Week 12 Total'!J15)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!K:K)</f>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
-        <f>SUM('Week 1 Total'!K15,'Week 2 Total'!K15,'Week 3 Total'!K15,'Week 4 Total'!K15,'Week 5 Total'!K15,'Week 6 Total'!K15,'Week 7 Total'!K15,'Week 8 Total'!K15,'Week 9 Total'!K15,'Week 10 Total'!K15,'Week 11 Total'!K15,'Week 12 Total'!K15)</f>
-        <v>3</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!L:L)</f>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f>SUM('Week 1 Total'!L15,'Week 2 Total'!L15,'Week 3 Total'!L15,'Week 4 Total'!L15,'Week 5 Total'!L15,'Week 6 Total'!L15,'Week 7 Total'!L15,'Week 8 Total'!L15,'Week 9 Total'!L15,'Week 10 Total'!L15,'Week 11 Total'!L15,'Week 12 Total'!L15)</f>
-        <v>1</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!M:M)</f>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
-        <f>SUM('Week 1 Total'!M15,'Week 2 Total'!M15,'Week 3 Total'!M15,'Week 4 Total'!M15,'Week 5 Total'!M15,'Week 6 Total'!M15,'Week 7 Total'!M15,'Week 8 Total'!M15,'Week 9 Total'!M15,'Week 10 Total'!M15,'Week 11 Total'!M15,'Week 12 Total'!M15)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!N:N)</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f>SUM('Week 1 Total'!N15,'Week 2 Total'!N15,'Week 3 Total'!N15,'Week 4 Total'!N15,'Week 5 Total'!N15,'Week 6 Total'!N15,'Week 7 Total'!N15,'Week 8 Total'!N15,'Week 9 Total'!N15,'Week 10 Total'!N15,'Week 11 Total'!N15,'Week 12 Total'!N15)</f>
-        <v>9</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!O:O)</f>
+        <v>1</v>
       </c>
       <c r="O15" s="4">
-        <f>SUM('Week 1 Total'!O15,'Week 2 Total'!O15,'Week 3 Total'!O15,'Week 4 Total'!O15,'Week 5 Total'!O15,'Week 6 Total'!O15,'Week 7 Total'!O15,'Week 8 Total'!O15,'Week 9 Total'!O15,'Week 10 Total'!O15,'Week 11 Total'!O15,'Week 12 Total'!O15)</f>
-        <v>4</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!P:P)</f>
+        <v>0</v>
       </c>
       <c r="P15" s="4">
-        <f>SUM('Week 1 Total'!P15,'Week 2 Total'!P15,'Week 3 Total'!P15,'Week 4 Total'!P15,'Week 5 Total'!P15,'Week 6 Total'!P15,'Week 7 Total'!P15,'Week 8 Total'!P15,'Week 9 Total'!P15,'Week 10 Total'!P15,'Week 11 Total'!P15,'Week 12 Total'!P15)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!Q:Q)</f>
+        <v>1</v>
       </c>
       <c r="Q15" s="4">
-        <f>SUM('Week 1 Total'!Q15,'Week 2 Total'!Q15,'Week 3 Total'!Q15,'Week 4 Total'!Q15,'Week 5 Total'!Q15,'Week 6 Total'!Q15,'Week 7 Total'!Q15,'Week 8 Total'!Q15,'Week 9 Total'!Q15,'Week 10 Total'!Q15,'Week 11 Total'!Q15,'Week 12 Total'!Q15)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!R:R)</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <f>SUM('Week 1 Total'!R15,'Week 2 Total'!R15,'Week 3 Total'!R15,'Week 4 Total'!R15,'Week 5 Total'!R15,'Week 6 Total'!R15,'Week 7 Total'!R15,'Week 8 Total'!R15,'Week 9 Total'!R15,'Week 10 Total'!R15,'Week 11 Total'!R15,'Week 12 Total'!R15)</f>
-        <v>18</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!S:S)</f>
+        <v>1</v>
       </c>
       <c r="S15" s="4">
-        <f>SUM('Week 1 Total'!S15,'Week 2 Total'!S15,'Week 3 Total'!S15,'Week 4 Total'!S15,'Week 5 Total'!S15,'Week 6 Total'!S15,'Week 7 Total'!S15,'Week 8 Total'!S15,'Week 9 Total'!S15,'Week 10 Total'!S15,'Week 11 Total'!S15,'Week 12 Total'!S15)</f>
-        <v>6</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!T:T)</f>
+        <v>0</v>
       </c>
       <c r="T15" s="4">
-        <f>SUM('Week 1 Total'!T15,'Week 2 Total'!T15,'Week 3 Total'!T15,'Week 4 Total'!T15,'Week 5 Total'!T15,'Week 6 Total'!T15,'Week 7 Total'!T15,'Week 8 Total'!T15,'Week 9 Total'!T15,'Week 10 Total'!T15,'Week 11 Total'!T15,'Week 12 Total'!T15)</f>
-        <v>12</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!U:U)</f>
+        <v>1</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4">
-        <f>SUM('Week 1 Total'!W15,'Week 2 Total'!W15,'Week 3 Total'!W15,'Week 4 Total'!W15,'Week 5 Total'!W15,'Week 6 Total'!W15,'Week 7 Total'!W15,'Week 8 Total'!W15,'Week 9 Total'!W15,'Week 10 Total'!W15,'Week 11 Total'!W15,'Week 12 Total'!W15)</f>
-        <v>13</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!X:X)</f>
+        <v>1</v>
       </c>
       <c r="X15" s="4">
-        <f>SUM('Week 1 Total'!X15,'Week 2 Total'!X15,'Week 3 Total'!X15,'Week 4 Total'!X15,'Week 5 Total'!X15,'Week 6 Total'!X15,'Week 7 Total'!X15,'Week 8 Total'!X15,'Week 9 Total'!X15,'Week 10 Total'!X15,'Week 11 Total'!X15,'Week 12 Total'!X15)</f>
-        <v>5</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!Y:Y)</f>
+        <v>0</v>
       </c>
       <c r="Y15" s="4">
-        <f>SUM('Week 1 Total'!Y15,'Week 2 Total'!Y15,'Week 3 Total'!Y15,'Week 4 Total'!Y15,'Week 5 Total'!Y15,'Week 6 Total'!Y15,'Week 7 Total'!Y15,'Week 8 Total'!Y15,'Week 9 Total'!Y15,'Week 10 Total'!Y15,'Week 11 Total'!Y15,'Week 12 Total'!Y15)</f>
-        <v>8</v>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!Z:Z)</f>
+        <v>1</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="1"/>
-        <v>0.38461538461538464</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="4">
-        <f>SUM('Week 1 Total'!AA15,'Week 2 Total'!AA15,'Week 3 Total'!AA15,'Week 4 Total'!AA15,'Week 5 Total'!AA15,'Week 6 Total'!AA15,'Week 7 Total'!AA15,'Week 8 Total'!AA15,'Week 9 Total'!AA15,'Week 10 Total'!AA15,'Week 11 Total'!AA15,'Week 12 Total'!AA15)</f>
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!AB:AB)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!AC:AC)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!AD:AD)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!AF:AF)</f>
+        <v>2</v>
+      </c>
+      <c r="AF15" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!AG:AG)</f>
+        <v>1</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!AH:AH)</f>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI15" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!AK:AK)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f>SUMIF('Week 13 Games'!$B:$B,'Week 13 Total'!$B15,'Week 13 Games'!AL:AL)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10DA945-26CA-3B44-A417-635691B7D62C}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AJ15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AJ15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM('Week 1 Total'!C2,'Week 2 Total'!C2,'Week 3 Total'!C2,'Week 4 Total'!C2,'Week 5 Total'!C2,'Week 6 Total'!C2,'Week 7 Total'!C2,'Week 8 Total'!C2,'Week 9 Total'!C2,'Week 10 Total'!C2,'Week 11 Total'!C2,'Week 12 Total'!C2,'Week 13 Total'!C2)</f>
+        <v>684</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM('Week 1 Total'!D2,'Week 2 Total'!D2,'Week 3 Total'!D2,'Week 4 Total'!D2,'Week 5 Total'!D2,'Week 6 Total'!D2,'Week 7 Total'!D2,'Week 8 Total'!D2,'Week 9 Total'!D2,'Week 10 Total'!D2,'Week 11 Total'!D2,'Week 12 Total'!D2,'Week 13 Total'!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM('Week 1 Total'!E2,'Week 2 Total'!E2,'Week 3 Total'!E2,'Week 4 Total'!E2,'Week 5 Total'!E2,'Week 6 Total'!E2,'Week 7 Total'!E2,'Week 8 Total'!E2,'Week 9 Total'!E2,'Week 10 Total'!E2,'Week 11 Total'!E2,'Week 12 Total'!E2,'Week 13 Total'!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM('Week 1 Total'!F2,'Week 2 Total'!F2,'Week 3 Total'!F2,'Week 4 Total'!F2,'Week 5 Total'!F2,'Week 6 Total'!F2,'Week 7 Total'!F2,'Week 8 Total'!F2,'Week 9 Total'!F2,'Week 10 Total'!F2,'Week 11 Total'!F2,'Week 12 Total'!F2,'Week 13 Total'!F2)</f>
+        <v>413</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM('Week 1 Total'!G2,'Week 2 Total'!G2,'Week 3 Total'!G2,'Week 4 Total'!G2,'Week 5 Total'!G2,'Week 6 Total'!G2,'Week 7 Total'!G2,'Week 8 Total'!G2,'Week 9 Total'!G2,'Week 10 Total'!G2,'Week 11 Total'!G2,'Week 12 Total'!G2,'Week 13 Total'!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM('Week 1 Total'!H2,'Week 2 Total'!H2,'Week 3 Total'!H2,'Week 4 Total'!H2,'Week 5 Total'!H2,'Week 6 Total'!H2,'Week 7 Total'!H2,'Week 8 Total'!H2,'Week 9 Total'!H2,'Week 10 Total'!H2,'Week 11 Total'!H2,'Week 12 Total'!H2,'Week 13 Total'!H2)</f>
+        <v>101</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM('Week 1 Total'!I2,'Week 2 Total'!I2,'Week 3 Total'!I2,'Week 4 Total'!I2,'Week 5 Total'!I2,'Week 6 Total'!I2,'Week 7 Total'!I2,'Week 8 Total'!I2,'Week 9 Total'!I2,'Week 10 Total'!I2,'Week 11 Total'!I2,'Week 12 Total'!I2,'Week 13 Total'!I2)</f>
+        <v>53</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM('Week 1 Total'!J2,'Week 2 Total'!J2,'Week 3 Total'!J2,'Week 4 Total'!J2,'Week 5 Total'!J2,'Week 6 Total'!J2,'Week 7 Total'!J2,'Week 8 Total'!J2,'Week 9 Total'!J2,'Week 10 Total'!J2,'Week 11 Total'!J2,'Week 12 Total'!J2,'Week 13 Total'!J2)</f>
+        <v>36.93</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM('Week 1 Total'!K2,'Week 2 Total'!K2,'Week 3 Total'!K2,'Week 4 Total'!K2,'Week 5 Total'!K2,'Week 6 Total'!K2,'Week 7 Total'!K2,'Week 8 Total'!K2,'Week 9 Total'!K2,'Week 10 Total'!K2,'Week 11 Total'!K2,'Week 12 Total'!K2,'Week 13 Total'!K2)</f>
+        <v>54</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SUM('Week 1 Total'!L2,'Week 2 Total'!L2,'Week 3 Total'!L2,'Week 4 Total'!L2,'Week 5 Total'!L2,'Week 6 Total'!L2,'Week 7 Total'!L2,'Week 8 Total'!L2,'Week 9 Total'!L2,'Week 10 Total'!L2,'Week 11 Total'!L2,'Week 12 Total'!L2,'Week 13 Total'!L2)</f>
+        <v>21</v>
+      </c>
+      <c r="M2" s="4">
+        <f>SUM('Week 1 Total'!M2,'Week 2 Total'!M2,'Week 3 Total'!M2,'Week 4 Total'!M2,'Week 5 Total'!M2,'Week 6 Total'!M2,'Week 7 Total'!M2,'Week 8 Total'!M2,'Week 9 Total'!M2,'Week 10 Total'!M2,'Week 11 Total'!M2,'Week 12 Total'!M2,'Week 13 Total'!M2)</f>
+        <v>7</v>
+      </c>
+      <c r="N2" s="4">
+        <f>SUM('Week 1 Total'!N2,'Week 2 Total'!N2,'Week 3 Total'!N2,'Week 4 Total'!N2,'Week 5 Total'!N2,'Week 6 Total'!N2,'Week 7 Total'!N2,'Week 8 Total'!N2,'Week 9 Total'!N2,'Week 10 Total'!N2,'Week 11 Total'!N2,'Week 12 Total'!N2,'Week 13 Total'!N2)</f>
+        <v>119</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUM('Week 1 Total'!O2,'Week 2 Total'!O2,'Week 3 Total'!O2,'Week 4 Total'!O2,'Week 5 Total'!O2,'Week 6 Total'!O2,'Week 7 Total'!O2,'Week 8 Total'!O2,'Week 9 Total'!O2,'Week 10 Total'!O2,'Week 11 Total'!O2,'Week 12 Total'!O2,'Week 13 Total'!O2)</f>
+        <v>37</v>
+      </c>
+      <c r="P2" s="4">
+        <f>SUM('Week 1 Total'!P2,'Week 2 Total'!P2,'Week 3 Total'!P2,'Week 4 Total'!P2,'Week 5 Total'!P2,'Week 6 Total'!P2,'Week 7 Total'!P2,'Week 8 Total'!P2,'Week 9 Total'!P2,'Week 10 Total'!P2,'Week 11 Total'!P2,'Week 12 Total'!P2,'Week 13 Total'!P2)</f>
+        <v>82</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>SUM('Week 1 Total'!Q2,'Week 2 Total'!Q2,'Week 3 Total'!Q2,'Week 4 Total'!Q2,'Week 5 Total'!Q2,'Week 6 Total'!Q2,'Week 7 Total'!Q2,'Week 8 Total'!Q2,'Week 9 Total'!Q2,'Week 10 Total'!Q2,'Week 11 Total'!Q2,'Week 12 Total'!Q2,'Week 13 Total'!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>SUM('Week 1 Total'!R2,'Week 2 Total'!R2,'Week 3 Total'!R2,'Week 4 Total'!R2,'Week 5 Total'!R2,'Week 6 Total'!R2,'Week 7 Total'!R2,'Week 8 Total'!R2,'Week 9 Total'!R2,'Week 10 Total'!R2,'Week 11 Total'!R2,'Week 12 Total'!R2,'Week 13 Total'!R2)</f>
+        <v>308</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUM('Week 1 Total'!S2,'Week 2 Total'!S2,'Week 3 Total'!S2,'Week 4 Total'!S2,'Week 5 Total'!S2,'Week 6 Total'!S2,'Week 7 Total'!S2,'Week 8 Total'!S2,'Week 9 Total'!S2,'Week 10 Total'!S2,'Week 11 Total'!S2,'Week 12 Total'!S2,'Week 13 Total'!S2)</f>
+        <v>158</v>
+      </c>
+      <c r="T2" s="4">
+        <f>SUM('Week 1 Total'!T2,'Week 2 Total'!T2,'Week 3 Total'!T2,'Week 4 Total'!T2,'Week 5 Total'!T2,'Week 6 Total'!T2,'Week 7 Total'!T2,'Week 8 Total'!T2,'Week 9 Total'!T2,'Week 10 Total'!T2,'Week 11 Total'!T2,'Week 12 Total'!T2,'Week 13 Total'!T2)</f>
+        <v>150</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" ref="U2:U15" si="0">IF(ISERROR(S2/R2),0,S2/R2)</f>
+        <v>0.51298701298701299</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <f>SUM('Week 1 Total'!W2,'Week 2 Total'!W2,'Week 3 Total'!W2,'Week 4 Total'!W2,'Week 5 Total'!W2,'Week 6 Total'!W2,'Week 7 Total'!W2,'Week 8 Total'!W2,'Week 9 Total'!W2,'Week 10 Total'!W2,'Week 11 Total'!W2,'Week 12 Total'!W2,'Week 13 Total'!W2)</f>
+        <v>232</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM('Week 1 Total'!X2,'Week 2 Total'!X2,'Week 3 Total'!X2,'Week 4 Total'!X2,'Week 5 Total'!X2,'Week 6 Total'!X2,'Week 7 Total'!X2,'Week 8 Total'!X2,'Week 9 Total'!X2,'Week 10 Total'!X2,'Week 11 Total'!X2,'Week 12 Total'!X2,'Week 13 Total'!X2)</f>
+        <v>140</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>SUM('Week 1 Total'!Y2,'Week 2 Total'!Y2,'Week 3 Total'!Y2,'Week 4 Total'!Y2,'Week 5 Total'!Y2,'Week 6 Total'!Y2,'Week 7 Total'!Y2,'Week 8 Total'!Y2,'Week 9 Total'!Y2,'Week 10 Total'!Y2,'Week 11 Total'!Y2,'Week 12 Total'!Y2,'Week 13 Total'!Y2)</f>
+        <v>92</v>
+      </c>
+      <c r="Z2" s="2">
+        <f t="shared" ref="Z2:Z15" si="1">IF(ISERROR(X2/W2),0,X2/W2)</f>
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUM('Week 1 Total'!AA2,'Week 2 Total'!AA2,'Week 3 Total'!AA2,'Week 4 Total'!AA2,'Week 5 Total'!AA2,'Week 6 Total'!AA2,'Week 7 Total'!AA2,'Week 8 Total'!AA2,'Week 9 Total'!AA2,'Week 10 Total'!AA2,'Week 11 Total'!AA2,'Week 12 Total'!AA2,'Week 13 Total'!AA2)</f>
+        <v>76</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>SUM('Week 1 Total'!AB2,'Week 2 Total'!AB2,'Week 3 Total'!AB2,'Week 4 Total'!AB2,'Week 5 Total'!AB2,'Week 6 Total'!AB2,'Week 7 Total'!AB2,'Week 8 Total'!AB2,'Week 9 Total'!AB2,'Week 10 Total'!AB2,'Week 11 Total'!AB2,'Week 12 Total'!AB2,'Week 13 Total'!AB2)</f>
+        <v>18</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>SUM('Week 1 Total'!AC2,'Week 2 Total'!AC2,'Week 3 Total'!AC2,'Week 4 Total'!AC2,'Week 5 Total'!AC2,'Week 6 Total'!AC2,'Week 7 Total'!AC2,'Week 8 Total'!AC2,'Week 9 Total'!AC2,'Week 10 Total'!AC2,'Week 11 Total'!AC2,'Week 12 Total'!AC2,'Week 13 Total'!AC2)</f>
+        <v>58</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" ref="AD2:AD10" si="2">IF(ISERROR(AB2/AA2),0,AB2/AA2)</f>
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>SUM('Week 1 Total'!AE2,'Week 2 Total'!AE2,'Week 3 Total'!AE2,'Week 4 Total'!AE2,'Week 5 Total'!AE2,'Week 6 Total'!AE2,'Week 7 Total'!AE2,'Week 8 Total'!AE2,'Week 9 Total'!AE2,'Week 10 Total'!AE2,'Week 11 Total'!AE2,'Week 12 Total'!AE2,'Week 13 Total'!AE2)</f>
+        <v>95</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>SUM('Week 1 Total'!AF2,'Week 2 Total'!AF2,'Week 3 Total'!AF2,'Week 4 Total'!AF2,'Week 5 Total'!AF2,'Week 6 Total'!AF2,'Week 7 Total'!AF2,'Week 8 Total'!AF2,'Week 9 Total'!AF2,'Week 10 Total'!AF2,'Week 11 Total'!AF2,'Week 12 Total'!AF2,'Week 13 Total'!AF2)</f>
+        <v>79</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>SUM('Week 1 Total'!AG2,'Week 2 Total'!AG2,'Week 3 Total'!AG2,'Week 4 Total'!AG2,'Week 5 Total'!AG2,'Week 6 Total'!AG2,'Week 7 Total'!AG2,'Week 8 Total'!AG2,'Week 9 Total'!AG2,'Week 10 Total'!AG2,'Week 11 Total'!AG2,'Week 12 Total'!AG2,'Week 13 Total'!AG2)</f>
+        <v>16</v>
+      </c>
+      <c r="AH2" s="2">
+        <f t="shared" ref="AH2:AH15" si="3">IF(ISERROR(AF2/AE2),0,AF2/AE2)</f>
+        <v>0.83157894736842108</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>SUM('Week 1 Total'!AI2,'Week 2 Total'!AI2,'Week 3 Total'!AI2,'Week 4 Total'!AI2,'Week 5 Total'!AI2,'Week 6 Total'!AI2,'Week 7 Total'!AI2,'Week 8 Total'!AI2,'Week 9 Total'!AI2,'Week 10 Total'!AI2,'Week 11 Total'!AI2,'Week 12 Total'!AI2,'Week 13 Total'!AI2)</f>
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>SUM('Week 1 Total'!AJ2,'Week 2 Total'!AJ2,'Week 3 Total'!AJ2,'Week 4 Total'!AJ2,'Week 5 Total'!AJ2,'Week 6 Total'!AJ2,'Week 7 Total'!AJ2,'Week 8 Total'!AJ2,'Week 9 Total'!AJ2,'Week 10 Total'!AJ2,'Week 11 Total'!AJ2,'Week 12 Total'!AJ2,'Week 13 Total'!AJ2)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM('Week 1 Total'!C3,'Week 2 Total'!C3,'Week 3 Total'!C3,'Week 4 Total'!C3,'Week 5 Total'!C3,'Week 6 Total'!C3,'Week 7 Total'!C3,'Week 8 Total'!C3,'Week 9 Total'!C3,'Week 10 Total'!C3,'Week 11 Total'!C3,'Week 12 Total'!C3,'Week 13 Total'!C3)</f>
+        <v>248</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM('Week 1 Total'!D3,'Week 2 Total'!D3,'Week 3 Total'!D3,'Week 4 Total'!D3,'Week 5 Total'!D3,'Week 6 Total'!D3,'Week 7 Total'!D3,'Week 8 Total'!D3,'Week 9 Total'!D3,'Week 10 Total'!D3,'Week 11 Total'!D3,'Week 12 Total'!D3,'Week 13 Total'!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM('Week 1 Total'!E3,'Week 2 Total'!E3,'Week 3 Total'!E3,'Week 4 Total'!E3,'Week 5 Total'!E3,'Week 6 Total'!E3,'Week 7 Total'!E3,'Week 8 Total'!E3,'Week 9 Total'!E3,'Week 10 Total'!E3,'Week 11 Total'!E3,'Week 12 Total'!E3,'Week 13 Total'!E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM('Week 1 Total'!F3,'Week 2 Total'!F3,'Week 3 Total'!F3,'Week 4 Total'!F3,'Week 5 Total'!F3,'Week 6 Total'!F3,'Week 7 Total'!F3,'Week 8 Total'!F3,'Week 9 Total'!F3,'Week 10 Total'!F3,'Week 11 Total'!F3,'Week 12 Total'!F3,'Week 13 Total'!F3)</f>
+        <v>71</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM('Week 1 Total'!G3,'Week 2 Total'!G3,'Week 3 Total'!G3,'Week 4 Total'!G3,'Week 5 Total'!G3,'Week 6 Total'!G3,'Week 7 Total'!G3,'Week 8 Total'!G3,'Week 9 Total'!G3,'Week 10 Total'!G3,'Week 11 Total'!G3,'Week 12 Total'!G3,'Week 13 Total'!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM('Week 1 Total'!H3,'Week 2 Total'!H3,'Week 3 Total'!H3,'Week 4 Total'!H3,'Week 5 Total'!H3,'Week 6 Total'!H3,'Week 7 Total'!H3,'Week 8 Total'!H3,'Week 9 Total'!H3,'Week 10 Total'!H3,'Week 11 Total'!H3,'Week 12 Total'!H3,'Week 13 Total'!H3)</f>
+        <v>20</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUM('Week 1 Total'!I3,'Week 2 Total'!I3,'Week 3 Total'!I3,'Week 4 Total'!I3,'Week 5 Total'!I3,'Week 6 Total'!I3,'Week 7 Total'!I3,'Week 8 Total'!I3,'Week 9 Total'!I3,'Week 10 Total'!I3,'Week 11 Total'!I3,'Week 12 Total'!I3,'Week 13 Total'!I3)</f>
+        <v>17</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SUM('Week 1 Total'!J3,'Week 2 Total'!J3,'Week 3 Total'!J3,'Week 4 Total'!J3,'Week 5 Total'!J3,'Week 6 Total'!J3,'Week 7 Total'!J3,'Week 8 Total'!J3,'Week 9 Total'!J3,'Week 10 Total'!J3,'Week 11 Total'!J3,'Week 12 Total'!J3,'Week 13 Total'!J3)</f>
+        <v>5.6666666666666661</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM('Week 1 Total'!K3,'Week 2 Total'!K3,'Week 3 Total'!K3,'Week 4 Total'!K3,'Week 5 Total'!K3,'Week 6 Total'!K3,'Week 7 Total'!K3,'Week 8 Total'!K3,'Week 9 Total'!K3,'Week 10 Total'!K3,'Week 11 Total'!K3,'Week 12 Total'!K3,'Week 13 Total'!K3)</f>
+        <v>18</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM('Week 1 Total'!L3,'Week 2 Total'!L3,'Week 3 Total'!L3,'Week 4 Total'!L3,'Week 5 Total'!L3,'Week 6 Total'!L3,'Week 7 Total'!L3,'Week 8 Total'!L3,'Week 9 Total'!L3,'Week 10 Total'!L3,'Week 11 Total'!L3,'Week 12 Total'!L3,'Week 13 Total'!L3)</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM('Week 1 Total'!M3,'Week 2 Total'!M3,'Week 3 Total'!M3,'Week 4 Total'!M3,'Week 5 Total'!M3,'Week 6 Total'!M3,'Week 7 Total'!M3,'Week 8 Total'!M3,'Week 9 Total'!M3,'Week 10 Total'!M3,'Week 11 Total'!M3,'Week 12 Total'!M3,'Week 13 Total'!M3)</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM('Week 1 Total'!N3,'Week 2 Total'!N3,'Week 3 Total'!N3,'Week 4 Total'!N3,'Week 5 Total'!N3,'Week 6 Total'!N3,'Week 7 Total'!N3,'Week 8 Total'!N3,'Week 9 Total'!N3,'Week 10 Total'!N3,'Week 11 Total'!N3,'Week 12 Total'!N3,'Week 13 Total'!N3)</f>
+        <v>35</v>
+      </c>
+      <c r="O3" s="4">
+        <f>SUM('Week 1 Total'!O3,'Week 2 Total'!O3,'Week 3 Total'!O3,'Week 4 Total'!O3,'Week 5 Total'!O3,'Week 6 Total'!O3,'Week 7 Total'!O3,'Week 8 Total'!O3,'Week 9 Total'!O3,'Week 10 Total'!O3,'Week 11 Total'!O3,'Week 12 Total'!O3,'Week 13 Total'!O3)</f>
+        <v>3</v>
+      </c>
+      <c r="P3" s="4">
+        <f>SUM('Week 1 Total'!P3,'Week 2 Total'!P3,'Week 3 Total'!P3,'Week 4 Total'!P3,'Week 5 Total'!P3,'Week 6 Total'!P3,'Week 7 Total'!P3,'Week 8 Total'!P3,'Week 9 Total'!P3,'Week 10 Total'!P3,'Week 11 Total'!P3,'Week 12 Total'!P3,'Week 13 Total'!P3)</f>
+        <v>32</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>SUM('Week 1 Total'!Q3,'Week 2 Total'!Q3,'Week 3 Total'!Q3,'Week 4 Total'!Q3,'Week 5 Total'!Q3,'Week 6 Total'!Q3,'Week 7 Total'!Q3,'Week 8 Total'!Q3,'Week 9 Total'!Q3,'Week 10 Total'!Q3,'Week 11 Total'!Q3,'Week 12 Total'!Q3,'Week 13 Total'!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUM('Week 1 Total'!R3,'Week 2 Total'!R3,'Week 3 Total'!R3,'Week 4 Total'!R3,'Week 5 Total'!R3,'Week 6 Total'!R3,'Week 7 Total'!R3,'Week 8 Total'!R3,'Week 9 Total'!R3,'Week 10 Total'!R3,'Week 11 Total'!R3,'Week 12 Total'!R3,'Week 13 Total'!R3)</f>
+        <v>58</v>
+      </c>
+      <c r="S3" s="4">
+        <f>SUM('Week 1 Total'!S3,'Week 2 Total'!S3,'Week 3 Total'!S3,'Week 4 Total'!S3,'Week 5 Total'!S3,'Week 6 Total'!S3,'Week 7 Total'!S3,'Week 8 Total'!S3,'Week 9 Total'!S3,'Week 10 Total'!S3,'Week 11 Total'!S3,'Week 12 Total'!S3,'Week 13 Total'!S3)</f>
+        <v>25</v>
+      </c>
+      <c r="T3" s="4">
+        <f>SUM('Week 1 Total'!T3,'Week 2 Total'!T3,'Week 3 Total'!T3,'Week 4 Total'!T3,'Week 5 Total'!T3,'Week 6 Total'!T3,'Week 7 Total'!T3,'Week 8 Total'!T3,'Week 9 Total'!T3,'Week 10 Total'!T3,'Week 11 Total'!T3,'Week 12 Total'!T3,'Week 13 Total'!T3)</f>
+        <v>33</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43103448275862066</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>SUM('Week 1 Total'!W3,'Week 2 Total'!W3,'Week 3 Total'!W3,'Week 4 Total'!W3,'Week 5 Total'!W3,'Week 6 Total'!W3,'Week 7 Total'!W3,'Week 8 Total'!W3,'Week 9 Total'!W3,'Week 10 Total'!W3,'Week 11 Total'!W3,'Week 12 Total'!W3,'Week 13 Total'!W3)</f>
+        <v>22</v>
+      </c>
+      <c r="X3" s="4">
+        <f>SUM('Week 1 Total'!X3,'Week 2 Total'!X3,'Week 3 Total'!X3,'Week 4 Total'!X3,'Week 5 Total'!X3,'Week 6 Total'!X3,'Week 7 Total'!X3,'Week 8 Total'!X3,'Week 9 Total'!X3,'Week 10 Total'!X3,'Week 11 Total'!X3,'Week 12 Total'!X3,'Week 13 Total'!X3)</f>
+        <v>8</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>SUM('Week 1 Total'!Y3,'Week 2 Total'!Y3,'Week 3 Total'!Y3,'Week 4 Total'!Y3,'Week 5 Total'!Y3,'Week 6 Total'!Y3,'Week 7 Total'!Y3,'Week 8 Total'!Y3,'Week 9 Total'!Y3,'Week 10 Total'!Y3,'Week 11 Total'!Y3,'Week 12 Total'!Y3,'Week 13 Total'!Y3)</f>
+        <v>14</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUM('Week 1 Total'!AA3,'Week 2 Total'!AA3,'Week 3 Total'!AA3,'Week 4 Total'!AA3,'Week 5 Total'!AA3,'Week 6 Total'!AA3,'Week 7 Total'!AA3,'Week 8 Total'!AA3,'Week 9 Total'!AA3,'Week 10 Total'!AA3,'Week 11 Total'!AA3,'Week 12 Total'!AA3,'Week 13 Total'!AA3)</f>
+        <v>36</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>SUM('Week 1 Total'!AB3,'Week 2 Total'!AB3,'Week 3 Total'!AB3,'Week 4 Total'!AB3,'Week 5 Total'!AB3,'Week 6 Total'!AB3,'Week 7 Total'!AB3,'Week 8 Total'!AB3,'Week 9 Total'!AB3,'Week 10 Total'!AB3,'Week 11 Total'!AB3,'Week 12 Total'!AB3,'Week 13 Total'!AB3)</f>
+        <v>17</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM('Week 1 Total'!AC3,'Week 2 Total'!AC3,'Week 3 Total'!AC3,'Week 4 Total'!AC3,'Week 5 Total'!AC3,'Week 6 Total'!AC3,'Week 7 Total'!AC3,'Week 8 Total'!AC3,'Week 9 Total'!AC3,'Week 10 Total'!AC3,'Week 11 Total'!AC3,'Week 12 Total'!AC3,'Week 13 Total'!AC3)</f>
+        <v>19</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="2"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>SUM('Week 1 Total'!AE3,'Week 2 Total'!AE3,'Week 3 Total'!AE3,'Week 4 Total'!AE3,'Week 5 Total'!AE3,'Week 6 Total'!AE3,'Week 7 Total'!AE3,'Week 8 Total'!AE3,'Week 9 Total'!AE3,'Week 10 Total'!AE3,'Week 11 Total'!AE3,'Week 12 Total'!AE3,'Week 13 Total'!AE3)</f>
+        <v>6</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>SUM('Week 1 Total'!AF3,'Week 2 Total'!AF3,'Week 3 Total'!AF3,'Week 4 Total'!AF3,'Week 5 Total'!AF3,'Week 6 Total'!AF3,'Week 7 Total'!AF3,'Week 8 Total'!AF3,'Week 9 Total'!AF3,'Week 10 Total'!AF3,'Week 11 Total'!AF3,'Week 12 Total'!AF3,'Week 13 Total'!AF3)</f>
+        <v>4</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>SUM('Week 1 Total'!AG3,'Week 2 Total'!AG3,'Week 3 Total'!AG3,'Week 4 Total'!AG3,'Week 5 Total'!AG3,'Week 6 Total'!AG3,'Week 7 Total'!AG3,'Week 8 Total'!AG3,'Week 9 Total'!AG3,'Week 10 Total'!AG3,'Week 11 Total'!AG3,'Week 12 Total'!AG3,'Week 13 Total'!AG3)</f>
+        <v>2</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>SUM('Week 1 Total'!AI3,'Week 2 Total'!AI3,'Week 3 Total'!AI3,'Week 4 Total'!AI3,'Week 5 Total'!AI3,'Week 6 Total'!AI3,'Week 7 Total'!AI3,'Week 8 Total'!AI3,'Week 9 Total'!AI3,'Week 10 Total'!AI3,'Week 11 Total'!AI3,'Week 12 Total'!AI3,'Week 13 Total'!AI3)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>SUM('Week 1 Total'!AJ3,'Week 2 Total'!AJ3,'Week 3 Total'!AJ3,'Week 4 Total'!AJ3,'Week 5 Total'!AJ3,'Week 6 Total'!AJ3,'Week 7 Total'!AJ3,'Week 8 Total'!AJ3,'Week 9 Total'!AJ3,'Week 10 Total'!AJ3,'Week 11 Total'!AJ3,'Week 12 Total'!AJ3,'Week 13 Total'!AJ3)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM('Week 1 Total'!C4,'Week 2 Total'!C4,'Week 3 Total'!C4,'Week 4 Total'!C4,'Week 5 Total'!C4,'Week 6 Total'!C4,'Week 7 Total'!C4,'Week 8 Total'!C4,'Week 9 Total'!C4,'Week 10 Total'!C4,'Week 11 Total'!C4,'Week 12 Total'!C4,'Week 13 Total'!C4)</f>
+        <v>121</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM('Week 1 Total'!D4,'Week 2 Total'!D4,'Week 3 Total'!D4,'Week 4 Total'!D4,'Week 5 Total'!D4,'Week 6 Total'!D4,'Week 7 Total'!D4,'Week 8 Total'!D4,'Week 9 Total'!D4,'Week 10 Total'!D4,'Week 11 Total'!D4,'Week 12 Total'!D4,'Week 13 Total'!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM('Week 1 Total'!E4,'Week 2 Total'!E4,'Week 3 Total'!E4,'Week 4 Total'!E4,'Week 5 Total'!E4,'Week 6 Total'!E4,'Week 7 Total'!E4,'Week 8 Total'!E4,'Week 9 Total'!E4,'Week 10 Total'!E4,'Week 11 Total'!E4,'Week 12 Total'!E4,'Week 13 Total'!E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>SUM('Week 1 Total'!F4,'Week 2 Total'!F4,'Week 3 Total'!F4,'Week 4 Total'!F4,'Week 5 Total'!F4,'Week 6 Total'!F4,'Week 7 Total'!F4,'Week 8 Total'!F4,'Week 9 Total'!F4,'Week 10 Total'!F4,'Week 11 Total'!F4,'Week 12 Total'!F4,'Week 13 Total'!F4)</f>
+        <v>34</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM('Week 1 Total'!G4,'Week 2 Total'!G4,'Week 3 Total'!G4,'Week 4 Total'!G4,'Week 5 Total'!G4,'Week 6 Total'!G4,'Week 7 Total'!G4,'Week 8 Total'!G4,'Week 9 Total'!G4,'Week 10 Total'!G4,'Week 11 Total'!G4,'Week 12 Total'!G4,'Week 13 Total'!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM('Week 1 Total'!H4,'Week 2 Total'!H4,'Week 3 Total'!H4,'Week 4 Total'!H4,'Week 5 Total'!H4,'Week 6 Total'!H4,'Week 7 Total'!H4,'Week 8 Total'!H4,'Week 9 Total'!H4,'Week 10 Total'!H4,'Week 11 Total'!H4,'Week 12 Total'!H4,'Week 13 Total'!H4)</f>
+        <v>13</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM('Week 1 Total'!I4,'Week 2 Total'!I4,'Week 3 Total'!I4,'Week 4 Total'!I4,'Week 5 Total'!I4,'Week 6 Total'!I4,'Week 7 Total'!I4,'Week 8 Total'!I4,'Week 9 Total'!I4,'Week 10 Total'!I4,'Week 11 Total'!I4,'Week 12 Total'!I4,'Week 13 Total'!I4)</f>
+        <v>14</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUM('Week 1 Total'!J4,'Week 2 Total'!J4,'Week 3 Total'!J4,'Week 4 Total'!J4,'Week 5 Total'!J4,'Week 6 Total'!J4,'Week 7 Total'!J4,'Week 8 Total'!J4,'Week 9 Total'!J4,'Week 10 Total'!J4,'Week 11 Total'!J4,'Week 12 Total'!J4,'Week 13 Total'!J4)</f>
+        <v>10.5</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUM('Week 1 Total'!K4,'Week 2 Total'!K4,'Week 3 Total'!K4,'Week 4 Total'!K4,'Week 5 Total'!K4,'Week 6 Total'!K4,'Week 7 Total'!K4,'Week 8 Total'!K4,'Week 9 Total'!K4,'Week 10 Total'!K4,'Week 11 Total'!K4,'Week 12 Total'!K4,'Week 13 Total'!K4)</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUM('Week 1 Total'!L4,'Week 2 Total'!L4,'Week 3 Total'!L4,'Week 4 Total'!L4,'Week 5 Total'!L4,'Week 6 Total'!L4,'Week 7 Total'!L4,'Week 8 Total'!L4,'Week 9 Total'!L4,'Week 10 Total'!L4,'Week 11 Total'!L4,'Week 12 Total'!L4,'Week 13 Total'!L4)</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM('Week 1 Total'!M4,'Week 2 Total'!M4,'Week 3 Total'!M4,'Week 4 Total'!M4,'Week 5 Total'!M4,'Week 6 Total'!M4,'Week 7 Total'!M4,'Week 8 Total'!M4,'Week 9 Total'!M4,'Week 10 Total'!M4,'Week 11 Total'!M4,'Week 12 Total'!M4,'Week 13 Total'!M4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM('Week 1 Total'!N4,'Week 2 Total'!N4,'Week 3 Total'!N4,'Week 4 Total'!N4,'Week 5 Total'!N4,'Week 6 Total'!N4,'Week 7 Total'!N4,'Week 8 Total'!N4,'Week 9 Total'!N4,'Week 10 Total'!N4,'Week 11 Total'!N4,'Week 12 Total'!N4,'Week 13 Total'!N4)</f>
+        <v>16</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM('Week 1 Total'!O4,'Week 2 Total'!O4,'Week 3 Total'!O4,'Week 4 Total'!O4,'Week 5 Total'!O4,'Week 6 Total'!O4,'Week 7 Total'!O4,'Week 8 Total'!O4,'Week 9 Total'!O4,'Week 10 Total'!O4,'Week 11 Total'!O4,'Week 12 Total'!O4,'Week 13 Total'!O4)</f>
+        <v>6</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUM('Week 1 Total'!P4,'Week 2 Total'!P4,'Week 3 Total'!P4,'Week 4 Total'!P4,'Week 5 Total'!P4,'Week 6 Total'!P4,'Week 7 Total'!P4,'Week 8 Total'!P4,'Week 9 Total'!P4,'Week 10 Total'!P4,'Week 11 Total'!P4,'Week 12 Total'!P4,'Week 13 Total'!P4)</f>
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUM('Week 1 Total'!Q4,'Week 2 Total'!Q4,'Week 3 Total'!Q4,'Week 4 Total'!Q4,'Week 5 Total'!Q4,'Week 6 Total'!Q4,'Week 7 Total'!Q4,'Week 8 Total'!Q4,'Week 9 Total'!Q4,'Week 10 Total'!Q4,'Week 11 Total'!Q4,'Week 12 Total'!Q4,'Week 13 Total'!Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUM('Week 1 Total'!R4,'Week 2 Total'!R4,'Week 3 Total'!R4,'Week 4 Total'!R4,'Week 5 Total'!R4,'Week 6 Total'!R4,'Week 7 Total'!R4,'Week 8 Total'!R4,'Week 9 Total'!R4,'Week 10 Total'!R4,'Week 11 Total'!R4,'Week 12 Total'!R4,'Week 13 Total'!R4)</f>
+        <v>39</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM('Week 1 Total'!S4,'Week 2 Total'!S4,'Week 3 Total'!S4,'Week 4 Total'!S4,'Week 5 Total'!S4,'Week 6 Total'!S4,'Week 7 Total'!S4,'Week 8 Total'!S4,'Week 9 Total'!S4,'Week 10 Total'!S4,'Week 11 Total'!S4,'Week 12 Total'!S4,'Week 13 Total'!S4)</f>
+        <v>11</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUM('Week 1 Total'!T4,'Week 2 Total'!T4,'Week 3 Total'!T4,'Week 4 Total'!T4,'Week 5 Total'!T4,'Week 6 Total'!T4,'Week 7 Total'!T4,'Week 8 Total'!T4,'Week 9 Total'!T4,'Week 10 Total'!T4,'Week 11 Total'!T4,'Week 12 Total'!T4,'Week 13 Total'!T4)</f>
+        <v>28</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28205128205128205</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>SUM('Week 1 Total'!W4,'Week 2 Total'!W4,'Week 3 Total'!W4,'Week 4 Total'!W4,'Week 5 Total'!W4,'Week 6 Total'!W4,'Week 7 Total'!W4,'Week 8 Total'!W4,'Week 9 Total'!W4,'Week 10 Total'!W4,'Week 11 Total'!W4,'Week 12 Total'!W4,'Week 13 Total'!W4)</f>
+        <v>20</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUM('Week 1 Total'!X4,'Week 2 Total'!X4,'Week 3 Total'!X4,'Week 4 Total'!X4,'Week 5 Total'!X4,'Week 6 Total'!X4,'Week 7 Total'!X4,'Week 8 Total'!X4,'Week 9 Total'!X4,'Week 10 Total'!X4,'Week 11 Total'!X4,'Week 12 Total'!X4,'Week 13 Total'!X4)</f>
+        <v>7</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM('Week 1 Total'!Y4,'Week 2 Total'!Y4,'Week 3 Total'!Y4,'Week 4 Total'!Y4,'Week 5 Total'!Y4,'Week 6 Total'!Y4,'Week 7 Total'!Y4,'Week 8 Total'!Y4,'Week 9 Total'!Y4,'Week 10 Total'!Y4,'Week 11 Total'!Y4,'Week 12 Total'!Y4,'Week 13 Total'!Y4)</f>
+        <v>13</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUM('Week 1 Total'!AA4,'Week 2 Total'!AA4,'Week 3 Total'!AA4,'Week 4 Total'!AA4,'Week 5 Total'!AA4,'Week 6 Total'!AA4,'Week 7 Total'!AA4,'Week 8 Total'!AA4,'Week 9 Total'!AA4,'Week 10 Total'!AA4,'Week 11 Total'!AA4,'Week 12 Total'!AA4,'Week 13 Total'!AA4)</f>
+        <v>19</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUM('Week 1 Total'!AB4,'Week 2 Total'!AB4,'Week 3 Total'!AB4,'Week 4 Total'!AB4,'Week 5 Total'!AB4,'Week 6 Total'!AB4,'Week 7 Total'!AB4,'Week 8 Total'!AB4,'Week 9 Total'!AB4,'Week 10 Total'!AB4,'Week 11 Total'!AB4,'Week 12 Total'!AB4,'Week 13 Total'!AB4)</f>
+        <v>4</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM('Week 1 Total'!AC4,'Week 2 Total'!AC4,'Week 3 Total'!AC4,'Week 4 Total'!AC4,'Week 5 Total'!AC4,'Week 6 Total'!AC4,'Week 7 Total'!AC4,'Week 8 Total'!AC4,'Week 9 Total'!AC4,'Week 10 Total'!AC4,'Week 11 Total'!AC4,'Week 12 Total'!AC4,'Week 13 Total'!AC4)</f>
+        <v>15</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM('Week 1 Total'!AE4,'Week 2 Total'!AE4,'Week 3 Total'!AE4,'Week 4 Total'!AE4,'Week 5 Total'!AE4,'Week 6 Total'!AE4,'Week 7 Total'!AE4,'Week 8 Total'!AE4,'Week 9 Total'!AE4,'Week 10 Total'!AE4,'Week 11 Total'!AE4,'Week 12 Total'!AE4,'Week 13 Total'!AE4)</f>
+        <v>8</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUM('Week 1 Total'!AF4,'Week 2 Total'!AF4,'Week 3 Total'!AF4,'Week 4 Total'!AF4,'Week 5 Total'!AF4,'Week 6 Total'!AF4,'Week 7 Total'!AF4,'Week 8 Total'!AF4,'Week 9 Total'!AF4,'Week 10 Total'!AF4,'Week 11 Total'!AF4,'Week 12 Total'!AF4,'Week 13 Total'!AF4)</f>
+        <v>8</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUM('Week 1 Total'!AG4,'Week 2 Total'!AG4,'Week 3 Total'!AG4,'Week 4 Total'!AG4,'Week 5 Total'!AG4,'Week 6 Total'!AG4,'Week 7 Total'!AG4,'Week 8 Total'!AG4,'Week 9 Total'!AG4,'Week 10 Total'!AG4,'Week 11 Total'!AG4,'Week 12 Total'!AG4,'Week 13 Total'!AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUM('Week 1 Total'!AI4,'Week 2 Total'!AI4,'Week 3 Total'!AI4,'Week 4 Total'!AI4,'Week 5 Total'!AI4,'Week 6 Total'!AI4,'Week 7 Total'!AI4,'Week 8 Total'!AI4,'Week 9 Total'!AI4,'Week 10 Total'!AI4,'Week 11 Total'!AI4,'Week 12 Total'!AI4,'Week 13 Total'!AI4)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>SUM('Week 1 Total'!AJ4,'Week 2 Total'!AJ4,'Week 3 Total'!AJ4,'Week 4 Total'!AJ4,'Week 5 Total'!AJ4,'Week 6 Total'!AJ4,'Week 7 Total'!AJ4,'Week 8 Total'!AJ4,'Week 9 Total'!AJ4,'Week 10 Total'!AJ4,'Week 11 Total'!AJ4,'Week 12 Total'!AJ4,'Week 13 Total'!AJ4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM('Week 1 Total'!C5,'Week 2 Total'!C5,'Week 3 Total'!C5,'Week 4 Total'!C5,'Week 5 Total'!C5,'Week 6 Total'!C5,'Week 7 Total'!C5,'Week 8 Total'!C5,'Week 9 Total'!C5,'Week 10 Total'!C5,'Week 11 Total'!C5,'Week 12 Total'!C5,'Week 13 Total'!C5)</f>
+        <v>602</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM('Week 1 Total'!D5,'Week 2 Total'!D5,'Week 3 Total'!D5,'Week 4 Total'!D5,'Week 5 Total'!D5,'Week 6 Total'!D5,'Week 7 Total'!D5,'Week 8 Total'!D5,'Week 9 Total'!D5,'Week 10 Total'!D5,'Week 11 Total'!D5,'Week 12 Total'!D5,'Week 13 Total'!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM('Week 1 Total'!E5,'Week 2 Total'!E5,'Week 3 Total'!E5,'Week 4 Total'!E5,'Week 5 Total'!E5,'Week 6 Total'!E5,'Week 7 Total'!E5,'Week 8 Total'!E5,'Week 9 Total'!E5,'Week 10 Total'!E5,'Week 11 Total'!E5,'Week 12 Total'!E5,'Week 13 Total'!E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>SUM('Week 1 Total'!F5,'Week 2 Total'!F5,'Week 3 Total'!F5,'Week 4 Total'!F5,'Week 5 Total'!F5,'Week 6 Total'!F5,'Week 7 Total'!F5,'Week 8 Total'!F5,'Week 9 Total'!F5,'Week 10 Total'!F5,'Week 11 Total'!F5,'Week 12 Total'!F5,'Week 13 Total'!F5)</f>
+        <v>99</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM('Week 1 Total'!G5,'Week 2 Total'!G5,'Week 3 Total'!G5,'Week 4 Total'!G5,'Week 5 Total'!G5,'Week 6 Total'!G5,'Week 7 Total'!G5,'Week 8 Total'!G5,'Week 9 Total'!G5,'Week 10 Total'!G5,'Week 11 Total'!G5,'Week 12 Total'!G5,'Week 13 Total'!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM('Week 1 Total'!H5,'Week 2 Total'!H5,'Week 3 Total'!H5,'Week 4 Total'!H5,'Week 5 Total'!H5,'Week 6 Total'!H5,'Week 7 Total'!H5,'Week 8 Total'!H5,'Week 9 Total'!H5,'Week 10 Total'!H5,'Week 11 Total'!H5,'Week 12 Total'!H5,'Week 13 Total'!H5)</f>
+        <v>84</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUM('Week 1 Total'!I5,'Week 2 Total'!I5,'Week 3 Total'!I5,'Week 4 Total'!I5,'Week 5 Total'!I5,'Week 6 Total'!I5,'Week 7 Total'!I5,'Week 8 Total'!I5,'Week 9 Total'!I5,'Week 10 Total'!I5,'Week 11 Total'!I5,'Week 12 Total'!I5,'Week 13 Total'!I5)</f>
+        <v>29</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUM('Week 1 Total'!J5,'Week 2 Total'!J5,'Week 3 Total'!J5,'Week 4 Total'!J5,'Week 5 Total'!J5,'Week 6 Total'!J5,'Week 7 Total'!J5,'Week 8 Total'!J5,'Week 9 Total'!J5,'Week 10 Total'!J5,'Week 11 Total'!J5,'Week 12 Total'!J5,'Week 13 Total'!J5)</f>
+        <v>33</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUM('Week 1 Total'!K5,'Week 2 Total'!K5,'Week 3 Total'!K5,'Week 4 Total'!K5,'Week 5 Total'!K5,'Week 6 Total'!K5,'Week 7 Total'!K5,'Week 8 Total'!K5,'Week 9 Total'!K5,'Week 10 Total'!K5,'Week 11 Total'!K5,'Week 12 Total'!K5,'Week 13 Total'!K5)</f>
+        <v>31</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM('Week 1 Total'!L5,'Week 2 Total'!L5,'Week 3 Total'!L5,'Week 4 Total'!L5,'Week 5 Total'!L5,'Week 6 Total'!L5,'Week 7 Total'!L5,'Week 8 Total'!L5,'Week 9 Total'!L5,'Week 10 Total'!L5,'Week 11 Total'!L5,'Week 12 Total'!L5,'Week 13 Total'!L5)</f>
+        <v>11</v>
+      </c>
+      <c r="M5" s="4">
+        <f>SUM('Week 1 Total'!M5,'Week 2 Total'!M5,'Week 3 Total'!M5,'Week 4 Total'!M5,'Week 5 Total'!M5,'Week 6 Total'!M5,'Week 7 Total'!M5,'Week 8 Total'!M5,'Week 9 Total'!M5,'Week 10 Total'!M5,'Week 11 Total'!M5,'Week 12 Total'!M5,'Week 13 Total'!M5)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <f>SUM('Week 1 Total'!N5,'Week 2 Total'!N5,'Week 3 Total'!N5,'Week 4 Total'!N5,'Week 5 Total'!N5,'Week 6 Total'!N5,'Week 7 Total'!N5,'Week 8 Total'!N5,'Week 9 Total'!N5,'Week 10 Total'!N5,'Week 11 Total'!N5,'Week 12 Total'!N5,'Week 13 Total'!N5)</f>
+        <v>52</v>
+      </c>
+      <c r="O5" s="4">
+        <f>SUM('Week 1 Total'!O5,'Week 2 Total'!O5,'Week 3 Total'!O5,'Week 4 Total'!O5,'Week 5 Total'!O5,'Week 6 Total'!O5,'Week 7 Total'!O5,'Week 8 Total'!O5,'Week 9 Total'!O5,'Week 10 Total'!O5,'Week 11 Total'!O5,'Week 12 Total'!O5,'Week 13 Total'!O5)</f>
+        <v>6</v>
+      </c>
+      <c r="P5" s="4">
+        <f>SUM('Week 1 Total'!P5,'Week 2 Total'!P5,'Week 3 Total'!P5,'Week 4 Total'!P5,'Week 5 Total'!P5,'Week 6 Total'!P5,'Week 7 Total'!P5,'Week 8 Total'!P5,'Week 9 Total'!P5,'Week 10 Total'!P5,'Week 11 Total'!P5,'Week 12 Total'!P5,'Week 13 Total'!P5)</f>
+        <v>46</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>SUM('Week 1 Total'!Q5,'Week 2 Total'!Q5,'Week 3 Total'!Q5,'Week 4 Total'!Q5,'Week 5 Total'!Q5,'Week 6 Total'!Q5,'Week 7 Total'!Q5,'Week 8 Total'!Q5,'Week 9 Total'!Q5,'Week 10 Total'!Q5,'Week 11 Total'!Q5,'Week 12 Total'!Q5,'Week 13 Total'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <f>SUM('Week 1 Total'!R5,'Week 2 Total'!R5,'Week 3 Total'!R5,'Week 4 Total'!R5,'Week 5 Total'!R5,'Week 6 Total'!R5,'Week 7 Total'!R5,'Week 8 Total'!R5,'Week 9 Total'!R5,'Week 10 Total'!R5,'Week 11 Total'!R5,'Week 12 Total'!R5,'Week 13 Total'!R5)</f>
+        <v>107</v>
+      </c>
+      <c r="S5" s="4">
+        <f>SUM('Week 1 Total'!S5,'Week 2 Total'!S5,'Week 3 Total'!S5,'Week 4 Total'!S5,'Week 5 Total'!S5,'Week 6 Total'!S5,'Week 7 Total'!S5,'Week 8 Total'!S5,'Week 9 Total'!S5,'Week 10 Total'!S5,'Week 11 Total'!S5,'Week 12 Total'!S5,'Week 13 Total'!S5)</f>
+        <v>41</v>
+      </c>
+      <c r="T5" s="4">
+        <f>SUM('Week 1 Total'!T5,'Week 2 Total'!T5,'Week 3 Total'!T5,'Week 4 Total'!T5,'Week 5 Total'!T5,'Week 6 Total'!T5,'Week 7 Total'!T5,'Week 8 Total'!T5,'Week 9 Total'!T5,'Week 10 Total'!T5,'Week 11 Total'!T5,'Week 12 Total'!T5,'Week 13 Total'!T5)</f>
+        <v>66</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.38317757009345793</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <f>SUM('Week 1 Total'!W5,'Week 2 Total'!W5,'Week 3 Total'!W5,'Week 4 Total'!W5,'Week 5 Total'!W5,'Week 6 Total'!W5,'Week 7 Total'!W5,'Week 8 Total'!W5,'Week 9 Total'!W5,'Week 10 Total'!W5,'Week 11 Total'!W5,'Week 12 Total'!W5,'Week 13 Total'!W5)</f>
+        <v>64</v>
+      </c>
+      <c r="X5" s="4">
+        <f>SUM('Week 1 Total'!X5,'Week 2 Total'!X5,'Week 3 Total'!X5,'Week 4 Total'!X5,'Week 5 Total'!X5,'Week 6 Total'!X5,'Week 7 Total'!X5,'Week 8 Total'!X5,'Week 9 Total'!X5,'Week 10 Total'!X5,'Week 11 Total'!X5,'Week 12 Total'!X5,'Week 13 Total'!X5)</f>
+        <v>29</v>
+      </c>
+      <c r="Y5" s="4">
+        <f>SUM('Week 1 Total'!Y5,'Week 2 Total'!Y5,'Week 3 Total'!Y5,'Week 4 Total'!Y5,'Week 5 Total'!Y5,'Week 6 Total'!Y5,'Week 7 Total'!Y5,'Week 8 Total'!Y5,'Week 9 Total'!Y5,'Week 10 Total'!Y5,'Week 11 Total'!Y5,'Week 12 Total'!Y5,'Week 13 Total'!Y5)</f>
+        <v>35</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.453125</v>
+      </c>
+      <c r="AA5" s="4">
+        <f>SUM('Week 1 Total'!AA5,'Week 2 Total'!AA5,'Week 3 Total'!AA5,'Week 4 Total'!AA5,'Week 5 Total'!AA5,'Week 6 Total'!AA5,'Week 7 Total'!AA5,'Week 8 Total'!AA5,'Week 9 Total'!AA5,'Week 10 Total'!AA5,'Week 11 Total'!AA5,'Week 12 Total'!AA5,'Week 13 Total'!AA5)</f>
+        <v>43</v>
+      </c>
+      <c r="AB5" s="4">
+        <f>SUM('Week 1 Total'!AB5,'Week 2 Total'!AB5,'Week 3 Total'!AB5,'Week 4 Total'!AB5,'Week 5 Total'!AB5,'Week 6 Total'!AB5,'Week 7 Total'!AB5,'Week 8 Total'!AB5,'Week 9 Total'!AB5,'Week 10 Total'!AB5,'Week 11 Total'!AB5,'Week 12 Total'!AB5,'Week 13 Total'!AB5)</f>
+        <v>12</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>SUM('Week 1 Total'!AC5,'Week 2 Total'!AC5,'Week 3 Total'!AC5,'Week 4 Total'!AC5,'Week 5 Total'!AC5,'Week 6 Total'!AC5,'Week 7 Total'!AC5,'Week 8 Total'!AC5,'Week 9 Total'!AC5,'Week 10 Total'!AC5,'Week 11 Total'!AC5,'Week 12 Total'!AC5,'Week 13 Total'!AC5)</f>
+        <v>31</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27906976744186046</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>SUM('Week 1 Total'!AE5,'Week 2 Total'!AE5,'Week 3 Total'!AE5,'Week 4 Total'!AE5,'Week 5 Total'!AE5,'Week 6 Total'!AE5,'Week 7 Total'!AE5,'Week 8 Total'!AE5,'Week 9 Total'!AE5,'Week 10 Total'!AE5,'Week 11 Total'!AE5,'Week 12 Total'!AE5,'Week 13 Total'!AE5)</f>
+        <v>7</v>
+      </c>
+      <c r="AF5" s="4">
+        <f>SUM('Week 1 Total'!AF5,'Week 2 Total'!AF5,'Week 3 Total'!AF5,'Week 4 Total'!AF5,'Week 5 Total'!AF5,'Week 6 Total'!AF5,'Week 7 Total'!AF5,'Week 8 Total'!AF5,'Week 9 Total'!AF5,'Week 10 Total'!AF5,'Week 11 Total'!AF5,'Week 12 Total'!AF5,'Week 13 Total'!AF5)</f>
+        <v>5</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>SUM('Week 1 Total'!AG5,'Week 2 Total'!AG5,'Week 3 Total'!AG5,'Week 4 Total'!AG5,'Week 5 Total'!AG5,'Week 6 Total'!AG5,'Week 7 Total'!AG5,'Week 8 Total'!AG5,'Week 9 Total'!AG5,'Week 10 Total'!AG5,'Week 11 Total'!AG5,'Week 12 Total'!AG5,'Week 13 Total'!AG5)</f>
+        <v>2</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>SUM('Week 1 Total'!AI5,'Week 2 Total'!AI5,'Week 3 Total'!AI5,'Week 4 Total'!AI5,'Week 5 Total'!AI5,'Week 6 Total'!AI5,'Week 7 Total'!AI5,'Week 8 Total'!AI5,'Week 9 Total'!AI5,'Week 10 Total'!AI5,'Week 11 Total'!AI5,'Week 12 Total'!AI5,'Week 13 Total'!AI5)</f>
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>SUM('Week 1 Total'!AJ5,'Week 2 Total'!AJ5,'Week 3 Total'!AJ5,'Week 4 Total'!AJ5,'Week 5 Total'!AJ5,'Week 6 Total'!AJ5,'Week 7 Total'!AJ5,'Week 8 Total'!AJ5,'Week 9 Total'!AJ5,'Week 10 Total'!AJ5,'Week 11 Total'!AJ5,'Week 12 Total'!AJ5,'Week 13 Total'!AJ5)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM('Week 1 Total'!C6,'Week 2 Total'!C6,'Week 3 Total'!C6,'Week 4 Total'!C6,'Week 5 Total'!C6,'Week 6 Total'!C6,'Week 7 Total'!C6,'Week 8 Total'!C6,'Week 9 Total'!C6,'Week 10 Total'!C6,'Week 11 Total'!C6,'Week 12 Total'!C6,'Week 13 Total'!C6)</f>
+        <v>637</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('Week 1 Total'!D6,'Week 2 Total'!D6,'Week 3 Total'!D6,'Week 4 Total'!D6,'Week 5 Total'!D6,'Week 6 Total'!D6,'Week 7 Total'!D6,'Week 8 Total'!D6,'Week 9 Total'!D6,'Week 10 Total'!D6,'Week 11 Total'!D6,'Week 12 Total'!D6,'Week 13 Total'!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM('Week 1 Total'!E6,'Week 2 Total'!E6,'Week 3 Total'!E6,'Week 4 Total'!E6,'Week 5 Total'!E6,'Week 6 Total'!E6,'Week 7 Total'!E6,'Week 8 Total'!E6,'Week 9 Total'!E6,'Week 10 Total'!E6,'Week 11 Total'!E6,'Week 12 Total'!E6,'Week 13 Total'!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM('Week 1 Total'!F6,'Week 2 Total'!F6,'Week 3 Total'!F6,'Week 4 Total'!F6,'Week 5 Total'!F6,'Week 6 Total'!F6,'Week 7 Total'!F6,'Week 8 Total'!F6,'Week 9 Total'!F6,'Week 10 Total'!F6,'Week 11 Total'!F6,'Week 12 Total'!F6,'Week 13 Total'!F6)</f>
+        <v>238</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM('Week 1 Total'!G6,'Week 2 Total'!G6,'Week 3 Total'!G6,'Week 4 Total'!G6,'Week 5 Total'!G6,'Week 6 Total'!G6,'Week 7 Total'!G6,'Week 8 Total'!G6,'Week 9 Total'!G6,'Week 10 Total'!G6,'Week 11 Total'!G6,'Week 12 Total'!G6,'Week 13 Total'!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM('Week 1 Total'!H6,'Week 2 Total'!H6,'Week 3 Total'!H6,'Week 4 Total'!H6,'Week 5 Total'!H6,'Week 6 Total'!H6,'Week 7 Total'!H6,'Week 8 Total'!H6,'Week 9 Total'!H6,'Week 10 Total'!H6,'Week 11 Total'!H6,'Week 12 Total'!H6,'Week 13 Total'!H6)</f>
+        <v>105</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUM('Week 1 Total'!I6,'Week 2 Total'!I6,'Week 3 Total'!I6,'Week 4 Total'!I6,'Week 5 Total'!I6,'Week 6 Total'!I6,'Week 7 Total'!I6,'Week 8 Total'!I6,'Week 9 Total'!I6,'Week 10 Total'!I6,'Week 11 Total'!I6,'Week 12 Total'!I6,'Week 13 Total'!I6)</f>
+        <v>42</v>
+      </c>
+      <c r="J6" s="4">
+        <f>SUM('Week 1 Total'!J6,'Week 2 Total'!J6,'Week 3 Total'!J6,'Week 4 Total'!J6,'Week 5 Total'!J6,'Week 6 Total'!J6,'Week 7 Total'!J6,'Week 8 Total'!J6,'Week 9 Total'!J6,'Week 10 Total'!J6,'Week 11 Total'!J6,'Week 12 Total'!J6,'Week 13 Total'!J6)</f>
+        <v>53.666666666666664</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM('Week 1 Total'!K6,'Week 2 Total'!K6,'Week 3 Total'!K6,'Week 4 Total'!K6,'Week 5 Total'!K6,'Week 6 Total'!K6,'Week 7 Total'!K6,'Week 8 Total'!K6,'Week 9 Total'!K6,'Week 10 Total'!K6,'Week 11 Total'!K6,'Week 12 Total'!K6,'Week 13 Total'!K6)</f>
+        <v>31</v>
+      </c>
+      <c r="L6" s="4">
+        <f>SUM('Week 1 Total'!L6,'Week 2 Total'!L6,'Week 3 Total'!L6,'Week 4 Total'!L6,'Week 5 Total'!L6,'Week 6 Total'!L6,'Week 7 Total'!L6,'Week 8 Total'!L6,'Week 9 Total'!L6,'Week 10 Total'!L6,'Week 11 Total'!L6,'Week 12 Total'!L6,'Week 13 Total'!L6)</f>
+        <v>10</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM('Week 1 Total'!M6,'Week 2 Total'!M6,'Week 3 Total'!M6,'Week 4 Total'!M6,'Week 5 Total'!M6,'Week 6 Total'!M6,'Week 7 Total'!M6,'Week 8 Total'!M6,'Week 9 Total'!M6,'Week 10 Total'!M6,'Week 11 Total'!M6,'Week 12 Total'!M6,'Week 13 Total'!M6)</f>
+        <v>15</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUM('Week 1 Total'!N6,'Week 2 Total'!N6,'Week 3 Total'!N6,'Week 4 Total'!N6,'Week 5 Total'!N6,'Week 6 Total'!N6,'Week 7 Total'!N6,'Week 8 Total'!N6,'Week 9 Total'!N6,'Week 10 Total'!N6,'Week 11 Total'!N6,'Week 12 Total'!N6,'Week 13 Total'!N6)</f>
+        <v>62</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUM('Week 1 Total'!O6,'Week 2 Total'!O6,'Week 3 Total'!O6,'Week 4 Total'!O6,'Week 5 Total'!O6,'Week 6 Total'!O6,'Week 7 Total'!O6,'Week 8 Total'!O6,'Week 9 Total'!O6,'Week 10 Total'!O6,'Week 11 Total'!O6,'Week 12 Total'!O6,'Week 13 Total'!O6)</f>
+        <v>13</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUM('Week 1 Total'!P6,'Week 2 Total'!P6,'Week 3 Total'!P6,'Week 4 Total'!P6,'Week 5 Total'!P6,'Week 6 Total'!P6,'Week 7 Total'!P6,'Week 8 Total'!P6,'Week 9 Total'!P6,'Week 10 Total'!P6,'Week 11 Total'!P6,'Week 12 Total'!P6,'Week 13 Total'!P6)</f>
+        <v>49</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUM('Week 1 Total'!Q6,'Week 2 Total'!Q6,'Week 3 Total'!Q6,'Week 4 Total'!Q6,'Week 5 Total'!Q6,'Week 6 Total'!Q6,'Week 7 Total'!Q6,'Week 8 Total'!Q6,'Week 9 Total'!Q6,'Week 10 Total'!Q6,'Week 11 Total'!Q6,'Week 12 Total'!Q6,'Week 13 Total'!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM('Week 1 Total'!R6,'Week 2 Total'!R6,'Week 3 Total'!R6,'Week 4 Total'!R6,'Week 5 Total'!R6,'Week 6 Total'!R6,'Week 7 Total'!R6,'Week 8 Total'!R6,'Week 9 Total'!R6,'Week 10 Total'!R6,'Week 11 Total'!R6,'Week 12 Total'!R6,'Week 13 Total'!R6)</f>
+        <v>184</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM('Week 1 Total'!S6,'Week 2 Total'!S6,'Week 3 Total'!S6,'Week 4 Total'!S6,'Week 5 Total'!S6,'Week 6 Total'!S6,'Week 7 Total'!S6,'Week 8 Total'!S6,'Week 9 Total'!S6,'Week 10 Total'!S6,'Week 11 Total'!S6,'Week 12 Total'!S6,'Week 13 Total'!S6)</f>
+        <v>83</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM('Week 1 Total'!T6,'Week 2 Total'!T6,'Week 3 Total'!T6,'Week 4 Total'!T6,'Week 5 Total'!T6,'Week 6 Total'!T6,'Week 7 Total'!T6,'Week 8 Total'!T6,'Week 9 Total'!T6,'Week 10 Total'!T6,'Week 11 Total'!T6,'Week 12 Total'!T6,'Week 13 Total'!T6)</f>
+        <v>101</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45108695652173914</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <f>SUM('Week 1 Total'!W6,'Week 2 Total'!W6,'Week 3 Total'!W6,'Week 4 Total'!W6,'Week 5 Total'!W6,'Week 6 Total'!W6,'Week 7 Total'!W6,'Week 8 Total'!W6,'Week 9 Total'!W6,'Week 10 Total'!W6,'Week 11 Total'!W6,'Week 12 Total'!W6,'Week 13 Total'!W6)</f>
+        <v>49</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM('Week 1 Total'!X6,'Week 2 Total'!X6,'Week 3 Total'!X6,'Week 4 Total'!X6,'Week 5 Total'!X6,'Week 6 Total'!X6,'Week 7 Total'!X6,'Week 8 Total'!X6,'Week 9 Total'!X6,'Week 10 Total'!X6,'Week 11 Total'!X6,'Week 12 Total'!X6,'Week 13 Total'!X6)</f>
+        <v>27</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM('Week 1 Total'!Y6,'Week 2 Total'!Y6,'Week 3 Total'!Y6,'Week 4 Total'!Y6,'Week 5 Total'!Y6,'Week 6 Total'!Y6,'Week 7 Total'!Y6,'Week 8 Total'!Y6,'Week 9 Total'!Y6,'Week 10 Total'!Y6,'Week 11 Total'!Y6,'Week 12 Total'!Y6,'Week 13 Total'!Y6)</f>
+        <v>22</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55102040816326525</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM('Week 1 Total'!AA6,'Week 2 Total'!AA6,'Week 3 Total'!AA6,'Week 4 Total'!AA6,'Week 5 Total'!AA6,'Week 6 Total'!AA6,'Week 7 Total'!AA6,'Week 8 Total'!AA6,'Week 9 Total'!AA6,'Week 10 Total'!AA6,'Week 11 Total'!AA6,'Week 12 Total'!AA6,'Week 13 Total'!AA6)</f>
+        <v>135</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM('Week 1 Total'!AB6,'Week 2 Total'!AB6,'Week 3 Total'!AB6,'Week 4 Total'!AB6,'Week 5 Total'!AB6,'Week 6 Total'!AB6,'Week 7 Total'!AB6,'Week 8 Total'!AB6,'Week 9 Total'!AB6,'Week 10 Total'!AB6,'Week 11 Total'!AB6,'Week 12 Total'!AB6,'Week 13 Total'!AB6)</f>
+        <v>56</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM('Week 1 Total'!AC6,'Week 2 Total'!AC6,'Week 3 Total'!AC6,'Week 4 Total'!AC6,'Week 5 Total'!AC6,'Week 6 Total'!AC6,'Week 7 Total'!AC6,'Week 8 Total'!AC6,'Week 9 Total'!AC6,'Week 10 Total'!AC6,'Week 11 Total'!AC6,'Week 12 Total'!AC6,'Week 13 Total'!AC6)</f>
+        <v>79</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4148148148148148</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM('Week 1 Total'!AE6,'Week 2 Total'!AE6,'Week 3 Total'!AE6,'Week 4 Total'!AE6,'Week 5 Total'!AE6,'Week 6 Total'!AE6,'Week 7 Total'!AE6,'Week 8 Total'!AE6,'Week 9 Total'!AE6,'Week 10 Total'!AE6,'Week 11 Total'!AE6,'Week 12 Total'!AE6,'Week 13 Total'!AE6)</f>
+        <v>20</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM('Week 1 Total'!AF6,'Week 2 Total'!AF6,'Week 3 Total'!AF6,'Week 4 Total'!AF6,'Week 5 Total'!AF6,'Week 6 Total'!AF6,'Week 7 Total'!AF6,'Week 8 Total'!AF6,'Week 9 Total'!AF6,'Week 10 Total'!AF6,'Week 11 Total'!AF6,'Week 12 Total'!AF6,'Week 13 Total'!AF6)</f>
+        <v>16</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM('Week 1 Total'!AG6,'Week 2 Total'!AG6,'Week 3 Total'!AG6,'Week 4 Total'!AG6,'Week 5 Total'!AG6,'Week 6 Total'!AG6,'Week 7 Total'!AG6,'Week 8 Total'!AG6,'Week 9 Total'!AG6,'Week 10 Total'!AG6,'Week 11 Total'!AG6,'Week 12 Total'!AG6,'Week 13 Total'!AG6)</f>
+        <v>4</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM('Week 1 Total'!AI6,'Week 2 Total'!AI6,'Week 3 Total'!AI6,'Week 4 Total'!AI6,'Week 5 Total'!AI6,'Week 6 Total'!AI6,'Week 7 Total'!AI6,'Week 8 Total'!AI6,'Week 9 Total'!AI6,'Week 10 Total'!AI6,'Week 11 Total'!AI6,'Week 12 Total'!AI6,'Week 13 Total'!AI6)</f>
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM('Week 1 Total'!AJ6,'Week 2 Total'!AJ6,'Week 3 Total'!AJ6,'Week 4 Total'!AJ6,'Week 5 Total'!AJ6,'Week 6 Total'!AJ6,'Week 7 Total'!AJ6,'Week 8 Total'!AJ6,'Week 9 Total'!AJ6,'Week 10 Total'!AJ6,'Week 11 Total'!AJ6,'Week 12 Total'!AJ6,'Week 13 Total'!AJ6)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM('Week 1 Total'!C7,'Week 2 Total'!C7,'Week 3 Total'!C7,'Week 4 Total'!C7,'Week 5 Total'!C7,'Week 6 Total'!C7,'Week 7 Total'!C7,'Week 8 Total'!C7,'Week 9 Total'!C7,'Week 10 Total'!C7,'Week 11 Total'!C7,'Week 12 Total'!C7,'Week 13 Total'!C7)</f>
+        <v>187</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM('Week 1 Total'!D7,'Week 2 Total'!D7,'Week 3 Total'!D7,'Week 4 Total'!D7,'Week 5 Total'!D7,'Week 6 Total'!D7,'Week 7 Total'!D7,'Week 8 Total'!D7,'Week 9 Total'!D7,'Week 10 Total'!D7,'Week 11 Total'!D7,'Week 12 Total'!D7,'Week 13 Total'!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM('Week 1 Total'!E7,'Week 2 Total'!E7,'Week 3 Total'!E7,'Week 4 Total'!E7,'Week 5 Total'!E7,'Week 6 Total'!E7,'Week 7 Total'!E7,'Week 8 Total'!E7,'Week 9 Total'!E7,'Week 10 Total'!E7,'Week 11 Total'!E7,'Week 12 Total'!E7,'Week 13 Total'!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM('Week 1 Total'!F7,'Week 2 Total'!F7,'Week 3 Total'!F7,'Week 4 Total'!F7,'Week 5 Total'!F7,'Week 6 Total'!F7,'Week 7 Total'!F7,'Week 8 Total'!F7,'Week 9 Total'!F7,'Week 10 Total'!F7,'Week 11 Total'!F7,'Week 12 Total'!F7,'Week 13 Total'!F7)</f>
+        <v>33</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM('Week 1 Total'!G7,'Week 2 Total'!G7,'Week 3 Total'!G7,'Week 4 Total'!G7,'Week 5 Total'!G7,'Week 6 Total'!G7,'Week 7 Total'!G7,'Week 8 Total'!G7,'Week 9 Total'!G7,'Week 10 Total'!G7,'Week 11 Total'!G7,'Week 12 Total'!G7,'Week 13 Total'!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM('Week 1 Total'!H7,'Week 2 Total'!H7,'Week 3 Total'!H7,'Week 4 Total'!H7,'Week 5 Total'!H7,'Week 6 Total'!H7,'Week 7 Total'!H7,'Week 8 Total'!H7,'Week 9 Total'!H7,'Week 10 Total'!H7,'Week 11 Total'!H7,'Week 12 Total'!H7,'Week 13 Total'!H7)</f>
+        <v>12</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM('Week 1 Total'!I7,'Week 2 Total'!I7,'Week 3 Total'!I7,'Week 4 Total'!I7,'Week 5 Total'!I7,'Week 6 Total'!I7,'Week 7 Total'!I7,'Week 8 Total'!I7,'Week 9 Total'!I7,'Week 10 Total'!I7,'Week 11 Total'!I7,'Week 12 Total'!I7,'Week 13 Total'!I7)</f>
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM('Week 1 Total'!J7,'Week 2 Total'!J7,'Week 3 Total'!J7,'Week 4 Total'!J7,'Week 5 Total'!J7,'Week 6 Total'!J7,'Week 7 Total'!J7,'Week 8 Total'!J7,'Week 9 Total'!J7,'Week 10 Total'!J7,'Week 11 Total'!J7,'Week 12 Total'!J7,'Week 13 Total'!J7)</f>
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM('Week 1 Total'!K7,'Week 2 Total'!K7,'Week 3 Total'!K7,'Week 4 Total'!K7,'Week 5 Total'!K7,'Week 6 Total'!K7,'Week 7 Total'!K7,'Week 8 Total'!K7,'Week 9 Total'!K7,'Week 10 Total'!K7,'Week 11 Total'!K7,'Week 12 Total'!K7,'Week 13 Total'!K7)</f>
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM('Week 1 Total'!L7,'Week 2 Total'!L7,'Week 3 Total'!L7,'Week 4 Total'!L7,'Week 5 Total'!L7,'Week 6 Total'!L7,'Week 7 Total'!L7,'Week 8 Total'!L7,'Week 9 Total'!L7,'Week 10 Total'!L7,'Week 11 Total'!L7,'Week 12 Total'!L7,'Week 13 Total'!L7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM('Week 1 Total'!M7,'Week 2 Total'!M7,'Week 3 Total'!M7,'Week 4 Total'!M7,'Week 5 Total'!M7,'Week 6 Total'!M7,'Week 7 Total'!M7,'Week 8 Total'!M7,'Week 9 Total'!M7,'Week 10 Total'!M7,'Week 11 Total'!M7,'Week 12 Total'!M7,'Week 13 Total'!M7)</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM('Week 1 Total'!N7,'Week 2 Total'!N7,'Week 3 Total'!N7,'Week 4 Total'!N7,'Week 5 Total'!N7,'Week 6 Total'!N7,'Week 7 Total'!N7,'Week 8 Total'!N7,'Week 9 Total'!N7,'Week 10 Total'!N7,'Week 11 Total'!N7,'Week 12 Total'!N7,'Week 13 Total'!N7)</f>
+        <v>20</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM('Week 1 Total'!O7,'Week 2 Total'!O7,'Week 3 Total'!O7,'Week 4 Total'!O7,'Week 5 Total'!O7,'Week 6 Total'!O7,'Week 7 Total'!O7,'Week 8 Total'!O7,'Week 9 Total'!O7,'Week 10 Total'!O7,'Week 11 Total'!O7,'Week 12 Total'!O7,'Week 13 Total'!O7)</f>
+        <v>3</v>
+      </c>
+      <c r="P7" s="4">
+        <f>SUM('Week 1 Total'!P7,'Week 2 Total'!P7,'Week 3 Total'!P7,'Week 4 Total'!P7,'Week 5 Total'!P7,'Week 6 Total'!P7,'Week 7 Total'!P7,'Week 8 Total'!P7,'Week 9 Total'!P7,'Week 10 Total'!P7,'Week 11 Total'!P7,'Week 12 Total'!P7,'Week 13 Total'!P7)</f>
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>SUM('Week 1 Total'!Q7,'Week 2 Total'!Q7,'Week 3 Total'!Q7,'Week 4 Total'!Q7,'Week 5 Total'!Q7,'Week 6 Total'!Q7,'Week 7 Total'!Q7,'Week 8 Total'!Q7,'Week 9 Total'!Q7,'Week 10 Total'!Q7,'Week 11 Total'!Q7,'Week 12 Total'!Q7,'Week 13 Total'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <f>SUM('Week 1 Total'!R7,'Week 2 Total'!R7,'Week 3 Total'!R7,'Week 4 Total'!R7,'Week 5 Total'!R7,'Week 6 Total'!R7,'Week 7 Total'!R7,'Week 8 Total'!R7,'Week 9 Total'!R7,'Week 10 Total'!R7,'Week 11 Total'!R7,'Week 12 Total'!R7,'Week 13 Total'!R7)</f>
+        <v>32</v>
+      </c>
+      <c r="S7" s="4">
+        <f>SUM('Week 1 Total'!S7,'Week 2 Total'!S7,'Week 3 Total'!S7,'Week 4 Total'!S7,'Week 5 Total'!S7,'Week 6 Total'!S7,'Week 7 Total'!S7,'Week 8 Total'!S7,'Week 9 Total'!S7,'Week 10 Total'!S7,'Week 11 Total'!S7,'Week 12 Total'!S7,'Week 13 Total'!S7)</f>
+        <v>12</v>
+      </c>
+      <c r="T7" s="4">
+        <f>SUM('Week 1 Total'!T7,'Week 2 Total'!T7,'Week 3 Total'!T7,'Week 4 Total'!T7,'Week 5 Total'!T7,'Week 6 Total'!T7,'Week 7 Total'!T7,'Week 8 Total'!T7,'Week 9 Total'!T7,'Week 10 Total'!T7,'Week 11 Total'!T7,'Week 12 Total'!T7,'Week 13 Total'!T7)</f>
+        <v>20</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <f>SUM('Week 1 Total'!W7,'Week 2 Total'!W7,'Week 3 Total'!W7,'Week 4 Total'!W7,'Week 5 Total'!W7,'Week 6 Total'!W7,'Week 7 Total'!W7,'Week 8 Total'!W7,'Week 9 Total'!W7,'Week 10 Total'!W7,'Week 11 Total'!W7,'Week 12 Total'!W7,'Week 13 Total'!W7)</f>
+        <v>10</v>
+      </c>
+      <c r="X7" s="4">
+        <f>SUM('Week 1 Total'!X7,'Week 2 Total'!X7,'Week 3 Total'!X7,'Week 4 Total'!X7,'Week 5 Total'!X7,'Week 6 Total'!X7,'Week 7 Total'!X7,'Week 8 Total'!X7,'Week 9 Total'!X7,'Week 10 Total'!X7,'Week 11 Total'!X7,'Week 12 Total'!X7,'Week 13 Total'!X7)</f>
+        <v>5</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>SUM('Week 1 Total'!Y7,'Week 2 Total'!Y7,'Week 3 Total'!Y7,'Week 4 Total'!Y7,'Week 5 Total'!Y7,'Week 6 Total'!Y7,'Week 7 Total'!Y7,'Week 8 Total'!Y7,'Week 9 Total'!Y7,'Week 10 Total'!Y7,'Week 11 Total'!Y7,'Week 12 Total'!Y7,'Week 13 Total'!Y7)</f>
+        <v>5</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>SUM('Week 1 Total'!AA7,'Week 2 Total'!AA7,'Week 3 Total'!AA7,'Week 4 Total'!AA7,'Week 5 Total'!AA7,'Week 6 Total'!AA7,'Week 7 Total'!AA7,'Week 8 Total'!AA7,'Week 9 Total'!AA7,'Week 10 Total'!AA7,'Week 11 Total'!AA7,'Week 12 Total'!AA7,'Week 13 Total'!AA7)</f>
+        <v>22</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>SUM('Week 1 Total'!AB7,'Week 2 Total'!AB7,'Week 3 Total'!AB7,'Week 4 Total'!AB7,'Week 5 Total'!AB7,'Week 6 Total'!AB7,'Week 7 Total'!AB7,'Week 8 Total'!AB7,'Week 9 Total'!AB7,'Week 10 Total'!AB7,'Week 11 Total'!AB7,'Week 12 Total'!AB7,'Week 13 Total'!AB7)</f>
+        <v>7</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>SUM('Week 1 Total'!AC7,'Week 2 Total'!AC7,'Week 3 Total'!AC7,'Week 4 Total'!AC7,'Week 5 Total'!AC7,'Week 6 Total'!AC7,'Week 7 Total'!AC7,'Week 8 Total'!AC7,'Week 9 Total'!AC7,'Week 10 Total'!AC7,'Week 11 Total'!AC7,'Week 12 Total'!AC7,'Week 13 Total'!AC7)</f>
+        <v>15</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>SUM('Week 1 Total'!AE7,'Week 2 Total'!AE7,'Week 3 Total'!AE7,'Week 4 Total'!AE7,'Week 5 Total'!AE7,'Week 6 Total'!AE7,'Week 7 Total'!AE7,'Week 8 Total'!AE7,'Week 9 Total'!AE7,'Week 10 Total'!AE7,'Week 11 Total'!AE7,'Week 12 Total'!AE7,'Week 13 Total'!AE7)</f>
+        <v>4</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>SUM('Week 1 Total'!AF7,'Week 2 Total'!AF7,'Week 3 Total'!AF7,'Week 4 Total'!AF7,'Week 5 Total'!AF7,'Week 6 Total'!AF7,'Week 7 Total'!AF7,'Week 8 Total'!AF7,'Week 9 Total'!AF7,'Week 10 Total'!AF7,'Week 11 Total'!AF7,'Week 12 Total'!AF7,'Week 13 Total'!AF7)</f>
+        <v>2</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>SUM('Week 1 Total'!AG7,'Week 2 Total'!AG7,'Week 3 Total'!AG7,'Week 4 Total'!AG7,'Week 5 Total'!AG7,'Week 6 Total'!AG7,'Week 7 Total'!AG7,'Week 8 Total'!AG7,'Week 9 Total'!AG7,'Week 10 Total'!AG7,'Week 11 Total'!AG7,'Week 12 Total'!AG7,'Week 13 Total'!AG7)</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>SUM('Week 1 Total'!AI7,'Week 2 Total'!AI7,'Week 3 Total'!AI7,'Week 4 Total'!AI7,'Week 5 Total'!AI7,'Week 6 Total'!AI7,'Week 7 Total'!AI7,'Week 8 Total'!AI7,'Week 9 Total'!AI7,'Week 10 Total'!AI7,'Week 11 Total'!AI7,'Week 12 Total'!AI7,'Week 13 Total'!AI7)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>SUM('Week 1 Total'!AJ7,'Week 2 Total'!AJ7,'Week 3 Total'!AJ7,'Week 4 Total'!AJ7,'Week 5 Total'!AJ7,'Week 6 Total'!AJ7,'Week 7 Total'!AJ7,'Week 8 Total'!AJ7,'Week 9 Total'!AJ7,'Week 10 Total'!AJ7,'Week 11 Total'!AJ7,'Week 12 Total'!AJ7,'Week 13 Total'!AJ7)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM('Week 1 Total'!C8,'Week 2 Total'!C8,'Week 3 Total'!C8,'Week 4 Total'!C8,'Week 5 Total'!C8,'Week 6 Total'!C8,'Week 7 Total'!C8,'Week 8 Total'!C8,'Week 9 Total'!C8,'Week 10 Total'!C8,'Week 11 Total'!C8,'Week 12 Total'!C8,'Week 13 Total'!C8)</f>
+        <v>594</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM('Week 1 Total'!D8,'Week 2 Total'!D8,'Week 3 Total'!D8,'Week 4 Total'!D8,'Week 5 Total'!D8,'Week 6 Total'!D8,'Week 7 Total'!D8,'Week 8 Total'!D8,'Week 9 Total'!D8,'Week 10 Total'!D8,'Week 11 Total'!D8,'Week 12 Total'!D8,'Week 13 Total'!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM('Week 1 Total'!E8,'Week 2 Total'!E8,'Week 3 Total'!E8,'Week 4 Total'!E8,'Week 5 Total'!E8,'Week 6 Total'!E8,'Week 7 Total'!E8,'Week 8 Total'!E8,'Week 9 Total'!E8,'Week 10 Total'!E8,'Week 11 Total'!E8,'Week 12 Total'!E8,'Week 13 Total'!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM('Week 1 Total'!F8,'Week 2 Total'!F8,'Week 3 Total'!F8,'Week 4 Total'!F8,'Week 5 Total'!F8,'Week 6 Total'!F8,'Week 7 Total'!F8,'Week 8 Total'!F8,'Week 9 Total'!F8,'Week 10 Total'!F8,'Week 11 Total'!F8,'Week 12 Total'!F8,'Week 13 Total'!F8)</f>
+        <v>245</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM('Week 1 Total'!G8,'Week 2 Total'!G8,'Week 3 Total'!G8,'Week 4 Total'!G8,'Week 5 Total'!G8,'Week 6 Total'!G8,'Week 7 Total'!G8,'Week 8 Total'!G8,'Week 9 Total'!G8,'Week 10 Total'!G8,'Week 11 Total'!G8,'Week 12 Total'!G8,'Week 13 Total'!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM('Week 1 Total'!H8,'Week 2 Total'!H8,'Week 3 Total'!H8,'Week 4 Total'!H8,'Week 5 Total'!H8,'Week 6 Total'!H8,'Week 7 Total'!H8,'Week 8 Total'!H8,'Week 9 Total'!H8,'Week 10 Total'!H8,'Week 11 Total'!H8,'Week 12 Total'!H8,'Week 13 Total'!H8)</f>
+        <v>23</v>
+      </c>
+      <c r="I8" s="4">
+        <f>SUM('Week 1 Total'!I8,'Week 2 Total'!I8,'Week 3 Total'!I8,'Week 4 Total'!I8,'Week 5 Total'!I8,'Week 6 Total'!I8,'Week 7 Total'!I8,'Week 8 Total'!I8,'Week 9 Total'!I8,'Week 10 Total'!I8,'Week 11 Total'!I8,'Week 12 Total'!I8,'Week 13 Total'!I8)</f>
+        <v>26</v>
+      </c>
+      <c r="J8" s="4">
+        <f>SUM('Week 1 Total'!J8,'Week 2 Total'!J8,'Week 3 Total'!J8,'Week 4 Total'!J8,'Week 5 Total'!J8,'Week 6 Total'!J8,'Week 7 Total'!J8,'Week 8 Total'!J8,'Week 9 Total'!J8,'Week 10 Total'!J8,'Week 11 Total'!J8,'Week 12 Total'!J8,'Week 13 Total'!J8)</f>
+        <v>11.32</v>
+      </c>
+      <c r="K8" s="4">
+        <f>SUM('Week 1 Total'!K8,'Week 2 Total'!K8,'Week 3 Total'!K8,'Week 4 Total'!K8,'Week 5 Total'!K8,'Week 6 Total'!K8,'Week 7 Total'!K8,'Week 8 Total'!K8,'Week 9 Total'!K8,'Week 10 Total'!K8,'Week 11 Total'!K8,'Week 12 Total'!K8,'Week 13 Total'!K8)</f>
+        <v>27</v>
+      </c>
+      <c r="L8" s="4">
+        <f>SUM('Week 1 Total'!L8,'Week 2 Total'!L8,'Week 3 Total'!L8,'Week 4 Total'!L8,'Week 5 Total'!L8,'Week 6 Total'!L8,'Week 7 Total'!L8,'Week 8 Total'!L8,'Week 9 Total'!L8,'Week 10 Total'!L8,'Week 11 Total'!L8,'Week 12 Total'!L8,'Week 13 Total'!L8)</f>
+        <v>9</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM('Week 1 Total'!M8,'Week 2 Total'!M8,'Week 3 Total'!M8,'Week 4 Total'!M8,'Week 5 Total'!M8,'Week 6 Total'!M8,'Week 7 Total'!M8,'Week 8 Total'!M8,'Week 9 Total'!M8,'Week 10 Total'!M8,'Week 11 Total'!M8,'Week 12 Total'!M8,'Week 13 Total'!M8)</f>
+        <v>5</v>
+      </c>
+      <c r="N8" s="4">
+        <f>SUM('Week 1 Total'!N8,'Week 2 Total'!N8,'Week 3 Total'!N8,'Week 4 Total'!N8,'Week 5 Total'!N8,'Week 6 Total'!N8,'Week 7 Total'!N8,'Week 8 Total'!N8,'Week 9 Total'!N8,'Week 10 Total'!N8,'Week 11 Total'!N8,'Week 12 Total'!N8,'Week 13 Total'!N8)</f>
+        <v>247</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUM('Week 1 Total'!O8,'Week 2 Total'!O8,'Week 3 Total'!O8,'Week 4 Total'!O8,'Week 5 Total'!O8,'Week 6 Total'!O8,'Week 7 Total'!O8,'Week 8 Total'!O8,'Week 9 Total'!O8,'Week 10 Total'!O8,'Week 11 Total'!O8,'Week 12 Total'!O8,'Week 13 Total'!O8)</f>
+        <v>97</v>
+      </c>
+      <c r="P8" s="4">
+        <f>SUM('Week 1 Total'!P8,'Week 2 Total'!P8,'Week 3 Total'!P8,'Week 4 Total'!P8,'Week 5 Total'!P8,'Week 6 Total'!P8,'Week 7 Total'!P8,'Week 8 Total'!P8,'Week 9 Total'!P8,'Week 10 Total'!P8,'Week 11 Total'!P8,'Week 12 Total'!P8,'Week 13 Total'!P8)</f>
+        <v>150</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM('Week 1 Total'!Q8,'Week 2 Total'!Q8,'Week 3 Total'!Q8,'Week 4 Total'!Q8,'Week 5 Total'!Q8,'Week 6 Total'!Q8,'Week 7 Total'!Q8,'Week 8 Total'!Q8,'Week 9 Total'!Q8,'Week 10 Total'!Q8,'Week 11 Total'!Q8,'Week 12 Total'!Q8,'Week 13 Total'!Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <f>SUM('Week 1 Total'!R8,'Week 2 Total'!R8,'Week 3 Total'!R8,'Week 4 Total'!R8,'Week 5 Total'!R8,'Week 6 Total'!R8,'Week 7 Total'!R8,'Week 8 Total'!R8,'Week 9 Total'!R8,'Week 10 Total'!R8,'Week 11 Total'!R8,'Week 12 Total'!R8,'Week 13 Total'!R8)</f>
+        <v>203</v>
+      </c>
+      <c r="S8" s="4">
+        <f>SUM('Week 1 Total'!S8,'Week 2 Total'!S8,'Week 3 Total'!S8,'Week 4 Total'!S8,'Week 5 Total'!S8,'Week 6 Total'!S8,'Week 7 Total'!S8,'Week 8 Total'!S8,'Week 9 Total'!S8,'Week 10 Total'!S8,'Week 11 Total'!S8,'Week 12 Total'!S8,'Week 13 Total'!S8)</f>
+        <v>111</v>
+      </c>
+      <c r="T8" s="4">
+        <f>SUM('Week 1 Total'!T8,'Week 2 Total'!T8,'Week 3 Total'!T8,'Week 4 Total'!T8,'Week 5 Total'!T8,'Week 6 Total'!T8,'Week 7 Total'!T8,'Week 8 Total'!T8,'Week 9 Total'!T8,'Week 10 Total'!T8,'Week 11 Total'!T8,'Week 12 Total'!T8,'Week 13 Total'!T8)</f>
+        <v>92</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54679802955665024</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <f>SUM('Week 1 Total'!W8,'Week 2 Total'!W8,'Week 3 Total'!W8,'Week 4 Total'!W8,'Week 5 Total'!W8,'Week 6 Total'!W8,'Week 7 Total'!W8,'Week 8 Total'!W8,'Week 9 Total'!W8,'Week 10 Total'!W8,'Week 11 Total'!W8,'Week 12 Total'!W8,'Week 13 Total'!W8)</f>
+        <v>203</v>
+      </c>
+      <c r="X8" s="4">
+        <f>SUM('Week 1 Total'!X8,'Week 2 Total'!X8,'Week 3 Total'!X8,'Week 4 Total'!X8,'Week 5 Total'!X8,'Week 6 Total'!X8,'Week 7 Total'!X8,'Week 8 Total'!X8,'Week 9 Total'!X8,'Week 10 Total'!X8,'Week 11 Total'!X8,'Week 12 Total'!X8,'Week 13 Total'!X8)</f>
+        <v>111</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>SUM('Week 1 Total'!Y8,'Week 2 Total'!Y8,'Week 3 Total'!Y8,'Week 4 Total'!Y8,'Week 5 Total'!Y8,'Week 6 Total'!Y8,'Week 7 Total'!Y8,'Week 8 Total'!Y8,'Week 9 Total'!Y8,'Week 10 Total'!Y8,'Week 11 Total'!Y8,'Week 12 Total'!Y8,'Week 13 Total'!Y8)</f>
+        <v>92</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54679802955665024</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>SUM('Week 1 Total'!AA8,'Week 2 Total'!AA8,'Week 3 Total'!AA8,'Week 4 Total'!AA8,'Week 5 Total'!AA8,'Week 6 Total'!AA8,'Week 7 Total'!AA8,'Week 8 Total'!AA8,'Week 9 Total'!AA8,'Week 10 Total'!AA8,'Week 11 Total'!AA8,'Week 12 Total'!AA8,'Week 13 Total'!AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>SUM('Week 1 Total'!AB8,'Week 2 Total'!AB8,'Week 3 Total'!AB8,'Week 4 Total'!AB8,'Week 5 Total'!AB8,'Week 6 Total'!AB8,'Week 7 Total'!AB8,'Week 8 Total'!AB8,'Week 9 Total'!AB8,'Week 10 Total'!AB8,'Week 11 Total'!AB8,'Week 12 Total'!AB8,'Week 13 Total'!AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>SUM('Week 1 Total'!AC8,'Week 2 Total'!AC8,'Week 3 Total'!AC8,'Week 4 Total'!AC8,'Week 5 Total'!AC8,'Week 6 Total'!AC8,'Week 7 Total'!AC8,'Week 8 Total'!AC8,'Week 9 Total'!AC8,'Week 10 Total'!AC8,'Week 11 Total'!AC8,'Week 12 Total'!AC8,'Week 13 Total'!AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>SUM('Week 1 Total'!AE8,'Week 2 Total'!AE8,'Week 3 Total'!AE8,'Week 4 Total'!AE8,'Week 5 Total'!AE8,'Week 6 Total'!AE8,'Week 7 Total'!AE8,'Week 8 Total'!AE8,'Week 9 Total'!AE8,'Week 10 Total'!AE8,'Week 11 Total'!AE8,'Week 12 Total'!AE8,'Week 13 Total'!AE8)</f>
+        <v>45</v>
+      </c>
+      <c r="AF8" s="4">
+        <f>SUM('Week 1 Total'!AF8,'Week 2 Total'!AF8,'Week 3 Total'!AF8,'Week 4 Total'!AF8,'Week 5 Total'!AF8,'Week 6 Total'!AF8,'Week 7 Total'!AF8,'Week 8 Total'!AF8,'Week 9 Total'!AF8,'Week 10 Total'!AF8,'Week 11 Total'!AF8,'Week 12 Total'!AF8,'Week 13 Total'!AF8)</f>
+        <v>23</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>SUM('Week 1 Total'!AG8,'Week 2 Total'!AG8,'Week 3 Total'!AG8,'Week 4 Total'!AG8,'Week 5 Total'!AG8,'Week 6 Total'!AG8,'Week 7 Total'!AG8,'Week 8 Total'!AG8,'Week 9 Total'!AG8,'Week 10 Total'!AG8,'Week 11 Total'!AG8,'Week 12 Total'!AG8,'Week 13 Total'!AG8)</f>
+        <v>22</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>SUM('Week 1 Total'!AI8,'Week 2 Total'!AI8,'Week 3 Total'!AI8,'Week 4 Total'!AI8,'Week 5 Total'!AI8,'Week 6 Total'!AI8,'Week 7 Total'!AI8,'Week 8 Total'!AI8,'Week 9 Total'!AI8,'Week 10 Total'!AI8,'Week 11 Total'!AI8,'Week 12 Total'!AI8,'Week 13 Total'!AI8)</f>
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>SUM('Week 1 Total'!AJ8,'Week 2 Total'!AJ8,'Week 3 Total'!AJ8,'Week 4 Total'!AJ8,'Week 5 Total'!AJ8,'Week 6 Total'!AJ8,'Week 7 Total'!AJ8,'Week 8 Total'!AJ8,'Week 9 Total'!AJ8,'Week 10 Total'!AJ8,'Week 11 Total'!AJ8,'Week 12 Total'!AJ8,'Week 13 Total'!AJ8)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM('Week 1 Total'!C9,'Week 2 Total'!C9,'Week 3 Total'!C9,'Week 4 Total'!C9,'Week 5 Total'!C9,'Week 6 Total'!C9,'Week 7 Total'!C9,'Week 8 Total'!C9,'Week 9 Total'!C9,'Week 10 Total'!C9,'Week 11 Total'!C9,'Week 12 Total'!C9,'Week 13 Total'!C9)</f>
+        <v>658</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM('Week 1 Total'!D9,'Week 2 Total'!D9,'Week 3 Total'!D9,'Week 4 Total'!D9,'Week 5 Total'!D9,'Week 6 Total'!D9,'Week 7 Total'!D9,'Week 8 Total'!D9,'Week 9 Total'!D9,'Week 10 Total'!D9,'Week 11 Total'!D9,'Week 12 Total'!D9,'Week 13 Total'!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM('Week 1 Total'!E9,'Week 2 Total'!E9,'Week 3 Total'!E9,'Week 4 Total'!E9,'Week 5 Total'!E9,'Week 6 Total'!E9,'Week 7 Total'!E9,'Week 8 Total'!E9,'Week 9 Total'!E9,'Week 10 Total'!E9,'Week 11 Total'!E9,'Week 12 Total'!E9,'Week 13 Total'!E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM('Week 1 Total'!F9,'Week 2 Total'!F9,'Week 3 Total'!F9,'Week 4 Total'!F9,'Week 5 Total'!F9,'Week 6 Total'!F9,'Week 7 Total'!F9,'Week 8 Total'!F9,'Week 9 Total'!F9,'Week 10 Total'!F9,'Week 11 Total'!F9,'Week 12 Total'!F9,'Week 13 Total'!F9)</f>
+        <v>372</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM('Week 1 Total'!G9,'Week 2 Total'!G9,'Week 3 Total'!G9,'Week 4 Total'!G9,'Week 5 Total'!G9,'Week 6 Total'!G9,'Week 7 Total'!G9,'Week 8 Total'!G9,'Week 9 Total'!G9,'Week 10 Total'!G9,'Week 11 Total'!G9,'Week 12 Total'!G9,'Week 13 Total'!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM('Week 1 Total'!H9,'Week 2 Total'!H9,'Week 3 Total'!H9,'Week 4 Total'!H9,'Week 5 Total'!H9,'Week 6 Total'!H9,'Week 7 Total'!H9,'Week 8 Total'!H9,'Week 9 Total'!H9,'Week 10 Total'!H9,'Week 11 Total'!H9,'Week 12 Total'!H9,'Week 13 Total'!H9)</f>
+        <v>51</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUM('Week 1 Total'!I9,'Week 2 Total'!I9,'Week 3 Total'!I9,'Week 4 Total'!I9,'Week 5 Total'!I9,'Week 6 Total'!I9,'Week 7 Total'!I9,'Week 8 Total'!I9,'Week 9 Total'!I9,'Week 10 Total'!I9,'Week 11 Total'!I9,'Week 12 Total'!I9,'Week 13 Total'!I9)</f>
+        <v>45</v>
+      </c>
+      <c r="J9" s="4">
+        <f>SUM('Week 1 Total'!J9,'Week 2 Total'!J9,'Week 3 Total'!J9,'Week 4 Total'!J9,'Week 5 Total'!J9,'Week 6 Total'!J9,'Week 7 Total'!J9,'Week 8 Total'!J9,'Week 9 Total'!J9,'Week 10 Total'!J9,'Week 11 Total'!J9,'Week 12 Total'!J9,'Week 13 Total'!J9)</f>
+        <v>21.153333333333336</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM('Week 1 Total'!K9,'Week 2 Total'!K9,'Week 3 Total'!K9,'Week 4 Total'!K9,'Week 5 Total'!K9,'Week 6 Total'!K9,'Week 7 Total'!K9,'Week 8 Total'!K9,'Week 9 Total'!K9,'Week 10 Total'!K9,'Week 11 Total'!K9,'Week 12 Total'!K9,'Week 13 Total'!K9)</f>
+        <v>33</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM('Week 1 Total'!L9,'Week 2 Total'!L9,'Week 3 Total'!L9,'Week 4 Total'!L9,'Week 5 Total'!L9,'Week 6 Total'!L9,'Week 7 Total'!L9,'Week 8 Total'!L9,'Week 9 Total'!L9,'Week 10 Total'!L9,'Week 11 Total'!L9,'Week 12 Total'!L9,'Week 13 Total'!L9)</f>
+        <v>15</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM('Week 1 Total'!M9,'Week 2 Total'!M9,'Week 3 Total'!M9,'Week 4 Total'!M9,'Week 5 Total'!M9,'Week 6 Total'!M9,'Week 7 Total'!M9,'Week 8 Total'!M9,'Week 9 Total'!M9,'Week 10 Total'!M9,'Week 11 Total'!M9,'Week 12 Total'!M9,'Week 13 Total'!M9)</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM('Week 1 Total'!N9,'Week 2 Total'!N9,'Week 3 Total'!N9,'Week 4 Total'!N9,'Week 5 Total'!N9,'Week 6 Total'!N9,'Week 7 Total'!N9,'Week 8 Total'!N9,'Week 9 Total'!N9,'Week 10 Total'!N9,'Week 11 Total'!N9,'Week 12 Total'!N9,'Week 13 Total'!N9)</f>
+        <v>67</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM('Week 1 Total'!O9,'Week 2 Total'!O9,'Week 3 Total'!O9,'Week 4 Total'!O9,'Week 5 Total'!O9,'Week 6 Total'!O9,'Week 7 Total'!O9,'Week 8 Total'!O9,'Week 9 Total'!O9,'Week 10 Total'!O9,'Week 11 Total'!O9,'Week 12 Total'!O9,'Week 13 Total'!O9)</f>
+        <v>19</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM('Week 1 Total'!P9,'Week 2 Total'!P9,'Week 3 Total'!P9,'Week 4 Total'!P9,'Week 5 Total'!P9,'Week 6 Total'!P9,'Week 7 Total'!P9,'Week 8 Total'!P9,'Week 9 Total'!P9,'Week 10 Total'!P9,'Week 11 Total'!P9,'Week 12 Total'!P9,'Week 13 Total'!P9)</f>
+        <v>48</v>
+      </c>
+      